--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81F8043-D593-4676-882D-695B1E1AFB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A729B0-B1A6-4F4B-9D79-E7F22E938DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +48,6 @@
     <t>Replied to planning survey, if so when</t>
   </si>
   <si>
-    <t>Survey was sent to the following participants on Monday October 31 2022</t>
-  </si>
-  <si>
     <t>https://forms.gle/5MXqYDZbVZLRG2GN6</t>
   </si>
   <si>
@@ -325,13 +331,46 @@
   </si>
   <si>
     <t>Perreault, Andrea</t>
+  </si>
+  <si>
+    <t>Yes, 2022-11-04</t>
+  </si>
+  <si>
+    <t>yeongha.jung@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Jung, Yeongha</t>
+  </si>
+  <si>
+    <t>Campbell, Barbara</t>
+  </si>
+  <si>
+    <t>barbara.campbell@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>stephen.wischniowski@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Wischniowski, Stephen</t>
+  </si>
+  <si>
+    <t>Potential participants</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Responded</t>
+  </si>
+  <si>
+    <t>Survey was sent to potential participants on Monday October 31 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +410,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +449,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,34 +732,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G66"/>
+  <dimension ref="A2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3">
+        <f>SUM(H8:H62)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4">
+        <f>SUM(I8:I62)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -729,8 +792,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -739,67 +808,103 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>IF(ISBLANK(C8), "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>IF(LEFT(F8,3)="Yes",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" ref="H9:H62" si="0">IF(ISBLANK(C9), "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I62" si="1">IF(LEFT(F9,3)="Yes",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -807,85 +912,133 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -893,8 +1046,16 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
@@ -902,102 +1063,158 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
@@ -1005,25 +1222,41 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
@@ -1031,8 +1264,16 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
@@ -1040,25 +1281,41 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
@@ -1066,8 +1323,16 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
@@ -1075,51 +1340,85 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
@@ -1127,38 +1426,62 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
@@ -1166,8 +1489,16 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
@@ -1175,334 +1506,569 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="7" t="s">
-        <v>22</v>
+      <c r="E41" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="8"/>
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="8"/>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="8"/>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="8"/>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="8"/>
       <c r="C49" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="8"/>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="8"/>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
       <c r="B54" s="8"/>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="E54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E55" s="9"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B57" s="8"/>
       <c r="C57" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
       <c r="B62" s="8"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A729B0-B1A6-4F4B-9D79-E7F22E938DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E304BB7-6B5B-4DEE-A990-9CB27A529031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -364,13 +364,61 @@
   </si>
   <si>
     <t>Survey was sent to potential participants on Monday October 31 2022</t>
+  </si>
+  <si>
+    <t>Yes, 2022-11-07</t>
+  </si>
+  <si>
+    <t>Horsman, Matthew</t>
+  </si>
+  <si>
+    <t>matthew.horsman@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Yes, 2022-11-08</t>
+  </si>
+  <si>
+    <t>kirby.morrill@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Morrill, Kirdy</t>
+  </si>
+  <si>
+    <t>Yes, 2022-11-09</t>
+  </si>
+  <si>
+    <t>LeCorre, Nicolas</t>
+  </si>
+  <si>
+    <t>Nicolas.LeCorre@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Smith, Andrew</t>
+  </si>
+  <si>
+    <t>Belley, Rénald</t>
+  </si>
+  <si>
+    <t>Desgagnés, Mathieu</t>
+  </si>
+  <si>
+    <t>Mathieu.Desgagnes@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Renald.Belley@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Ricard, Daniel</t>
+  </si>
+  <si>
+    <t>Daniel.Ricard@dfo-mpo.gc.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,11 +458,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,20 +480,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -732,100 +774,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I69"/>
+  <dimension ref="A2:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="38.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="38.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G3">
-        <f>SUM(H8:H62)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="F4" t="s">
+        <f>SUM(H8:H67)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="F4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G4">
-        <f>SUM(I8:I62)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+        <f>SUM(I8:I67)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="1"/>
       <c r="H8">
         <f>IF(ISBLANK(C8), "",1)</f>
         <v>1</v>
@@ -835,43 +872,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9">
-        <f t="shared" ref="H9:H62" si="0">IF(ISBLANK(C9), "",1)</f>
+        <f t="shared" ref="H9:H67" si="0">IF(ISBLANK(C9), "",1)</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I62" si="1">IF(LEFT(F9,3)="Yes",1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2" t="s">
+        <f t="shared" ref="I9:I67" si="1">IF(LEFT(F9,3)="Yes",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
       <c r="H10">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -881,20 +916,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="1"/>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -904,14 +938,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="G12" s="1"/>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -921,22 +951,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -946,20 +975,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -969,20 +997,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -992,20 +1019,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1015,20 +1041,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1038,249 +1063,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="G29" s="1"/>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1290,785 +1302,768 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G31" s="1"/>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2" t="s">
+      <c r="G38" s="1"/>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="G41" s="1"/>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="2" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="2" t="s">
+      <c r="G42" s="1"/>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="G43" s="1"/>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="G44" s="1"/>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="G45" s="1"/>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="2" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="10" t="s">
+      <c r="E46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="2" t="s">
+      <c r="G46" s="1"/>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="2" t="s">
+      <c r="G47" s="1"/>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="3" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="2" t="s">
+      <c r="G49" s="1"/>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="2" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="2" t="s">
+      <c r="G51" s="1"/>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="2" t="s">
+      <c r="G52" s="1"/>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="2" t="s">
+      <c r="G53" s="1"/>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="2" t="s">
+      <c r="G54" s="1"/>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="2" t="s">
+      <c r="F55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="2" t="s">
+      <c r="G56" s="1"/>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="2" t="s">
+      <c r="G57" s="1"/>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="2" t="s">
+      <c r="G58" s="1"/>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+      <c r="G59" s="1"/>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="E60" s="2"/>
+      <c r="G60" s="1"/>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="2" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="2" t="s">
+      <c r="G62" s="1"/>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="2" t="s">
+      <c r="G63" s="1"/>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="2" t="s">
+      <c r="G64" s="1"/>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="2" t="s">
+      <c r="G65" s="1"/>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
+      <c r="G66" s="1"/>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="6"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="6"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="2" t="s">
+      <c r="B70" s="6"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="2" t="s">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="2" t="s">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E304BB7-6B5B-4DEE-A990-9CB27A529031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A65FD-13A7-40C2-A7B7-E743653EBA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -412,6 +412,27 @@
   </si>
   <si>
     <t>Daniel.Ricard@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Robichaud, Sylvie</t>
+  </si>
+  <si>
+    <t>Sylvie.Robichaud@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Dionne, Hélène</t>
+  </si>
+  <si>
+    <t>helene.dionne@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>andrew.smith4@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>In person of virtual?</t>
+  </si>
+  <si>
+    <t>In person</t>
   </si>
 </sst>
 </file>
@@ -774,11 +795,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I74"/>
+  <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -790,12 +809,12 @@
     <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
@@ -803,24 +822,24 @@
         <v>106</v>
       </c>
       <c r="G3">
-        <f>SUM(H8:H67)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f>SUM(H8:H69)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="F4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G4">
-        <f>SUM(I8:I67)</f>
+        <f>SUM(I8:I69)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -842,11 +861,14 @@
       <c r="I6" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -871,8 +893,11 @@
         <f>IF(LEFT(F8,3)="Yes",1,"")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
@@ -886,15 +911,18 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9">
-        <f t="shared" ref="H9:H67" si="0">IF(ISBLANK(C9), "",1)</f>
+        <f t="shared" ref="H9:H69" si="0">IF(ISBLANK(C9), "",1)</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I67" si="1">IF(LEFT(F9,3)="Yes",1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I9:I69" si="1">IF(LEFT(F9,3)="Yes",1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
@@ -915,8 +943,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -937,8 +968,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="G12" s="1"/>
@@ -951,7 +985,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>10</v>
@@ -974,8 +1008,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
@@ -996,8 +1033,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
@@ -1018,40 +1058,39 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17">
@@ -1062,18 +1101,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18">
@@ -1084,97 +1126,93 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
+      <c r="C20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
       <c r="G21" s="1"/>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G22" s="1"/>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23">
@@ -1186,17 +1224,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24">
@@ -1208,14 +1246,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
@@ -1230,17 +1268,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>52</v>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26">
@@ -1252,32 +1290,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="1"/>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28">
@@ -1289,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="G29" s="1"/>
@@ -1302,56 +1347,50 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G31" s="1"/>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G32" s="1"/>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -1359,14 +1398,26 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1374,25 +1425,29 @@
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35">
@@ -1403,58 +1458,55 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6"/>
+      <c r="C36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G36" s="1"/>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A38" s="4"/>
       <c r="B38" s="6"/>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G39" s="1"/>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -1462,16 +1514,18 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B40" s="6"/>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40">
@@ -1486,10 +1540,16 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6"/>
+      <c r="C41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G41" s="1"/>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -1497,18 +1557,16 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42">
@@ -1523,16 +1581,10 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G43" s="1"/>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -1540,25 +1592,42 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B44" s="6"/>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G44" s="1"/>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6"/>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G45" s="1"/>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -1566,59 +1635,41 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G46" s="1"/>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G47" s="1"/>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>18</v>
@@ -1636,11 +1687,11 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="2" t="s">
-        <v>47</v>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>18</v>
@@ -1659,13 +1710,13 @@
       <c r="A50" s="4"/>
       <c r="B50" s="6"/>
       <c r="C50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50">
@@ -1680,49 +1731,55 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>55</v>
+      <c r="C51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53">
@@ -1738,10 +1795,10 @@
       <c r="A54" s="4"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54">
@@ -1757,57 +1814,51 @@
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57">
@@ -1823,13 +1874,13 @@
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58">
@@ -1845,13 +1896,13 @@
       <c r="A59" s="4"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59">
@@ -1866,45 +1917,55 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
-      <c r="E60" s="2"/>
+      <c r="C60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G60" s="1"/>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="6"/>
+      <c r="C61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G61" s="1"/>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="G62" s="1"/>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -1914,16 +1975,10 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G63" s="1"/>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -1931,60 +1986,56 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66">
@@ -1996,74 +2047,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="6"/>
+      <c r="C67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G67" s="1"/>
-      <c r="H67" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="6"/>
+      <c r="C68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="6"/>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
       <c r="B70" s="6"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
+      <c r="G75" s="1"/>
+      <c r="K75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE664CDA-A550-49FA-B0B9-37F52A5D8D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D81361-EAAF-4E24-B09A-93719421AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="emails" sheetId="2" r:id="rId2"/>
+    <sheet name="outlook-responses" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -67,15 +68,9 @@
     <t>TESA chair, NCR contact, workshop co-chair</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rolland, Nicolas</t>
-  </si>
-  <si>
     <t>Nicolas.Rolland@dfo-mpo.gc.ca</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sylvain, François-Étienne</t>
-  </si>
-  <si>
     <t>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</t>
   </si>
   <si>
@@ -127,9 +122,6 @@
     <t>Andrew.Darcy@dfo-mpo.gc.ca</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sutton, Jolene</t>
-  </si>
-  <si>
     <t>Jolene.Sutton@dfo-mpo.gc.ca</t>
   </si>
   <si>
@@ -247,9 +239,6 @@
     <t>Savoie, Joeleen</t>
   </si>
   <si>
-    <t>Robertson, Karen  (Gulf)</t>
-  </si>
-  <si>
     <t>McCurdy, Quinn</t>
   </si>
   <si>
@@ -467,6 +456,99 @@
   </si>
   <si>
     <t>Laura.Wheeland@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Rolland, Nicolas</t>
+  </si>
+  <si>
+    <t>Sylvain, François-Étienne</t>
+  </si>
+  <si>
+    <t>Sutton, Jolene</t>
+  </si>
+  <si>
+    <t>Drover, Dwigth</t>
+  </si>
+  <si>
+    <t>dwight.drover@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Ty, Audrey</t>
+  </si>
+  <si>
+    <t>audrey.ty@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>tentative</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Robertson, Karen</t>
+  </si>
+  <si>
+    <t>hannah.polaczek@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Polaczek, Hannah</t>
+  </si>
+  <si>
+    <t>marc.legresley@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Legresley, Marc</t>
+  </si>
+  <si>
+    <t>Central and Arctic</t>
+  </si>
+  <si>
+    <t>Legge, Michael</t>
+  </si>
+  <si>
+    <t>In person or virtual</t>
+  </si>
+  <si>
+    <t>michael.legge@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Vandenbyllaardt, Lenore</t>
+  </si>
+  <si>
+    <t>lenore.vandenbyllaardt@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Harper, Danni</t>
+  </si>
+  <si>
+    <t>danni.harper@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Hedges, Kevin</t>
+  </si>
+  <si>
+    <t>kevin.hedges@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>rick.wastle@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Wastle, Rick</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>aaron.adamack@dfo-mpo.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -831,64 +913,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:C59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F3">
         <f>SUM(E9:E76)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <f>SUM(F9:F76)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F5">
         <f>SUM(G9:G76)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -902,31 +986,31 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -936,22 +1020,22 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10">
-        <f>IF(ISBLANK(B10), "",1)</f>
+        <f t="shared" ref="E10:E24" si="0">IF(ISBLANK(B10), "",1)</f>
         <v>1</v>
       </c>
       <c r="F10">
@@ -962,186 +1046,186 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <f>IF(ISBLANK(B11), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F76" si="0">IF(LEFT(D11,3)="Yes",1,"")</f>
+        <f t="shared" ref="F11:F76" si="1">IF(LEFT(D11,3)="Yes",1,"")</f>
         <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <f>IF(ISBLANK(B12), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E13">
-        <f>IF(ISBLANK(B13), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="E14" t="str">
-        <f>IF(ISBLANK(B14), "",1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <f>IF(ISBLANK(B15), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <f>IF(ISBLANK(B16), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <f>IF(ISBLANK(B17), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E18">
-        <f>IF(ISBLANK(B18), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18"/>
@@ -1149,100 +1233,100 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <f>IF(ISBLANK(B19), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20">
-        <f>IF(ISBLANK(B20), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E21">
-        <f>IF(ISBLANK(B21), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E22">
-        <f>IF(ISBLANK(B22), "",1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22"/>
@@ -1250,37 +1334,37 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="E23" t="str">
-        <f>IF(ISBLANK(B23), "",1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(ISBLANK(B24), "",1)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1290,22 +1374,22 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <f>IF(ISBLANK(B26), "",1)</f>
+        <f t="shared" ref="E26:E35" si="2">IF(ISBLANK(B26), "",1)</f>
         <v>1</v>
       </c>
       <c r="F26">
@@ -1316,267 +1400,267 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <f>IF(ISBLANK(B27), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <f>IF(ISBLANK(B28), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <f>IF(ISBLANK(B29), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <f>IF(ISBLANK(B30), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E31">
-        <f>IF(ISBLANK(B31), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E32">
-        <f>IF(ISBLANK(B32), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <f>IF(ISBLANK(B33), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E34">
-        <f>IF(ISBLANK(B34), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E35">
-        <f>IF(ISBLANK(B35), "",1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(ISBLANK(B37), "",1)</f>
+        <f t="shared" ref="E37:E43" si="3">IF(ISBLANK(B37), "",1)</f>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <f>IF(ISBLANK(B38), "",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E39">
-        <f>IF(ISBLANK(B39), "",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E40">
-        <f>IF(ISBLANK(B40), "",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F40"/>
@@ -1584,16 +1668,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E41">
-        <f>IF(ISBLANK(B41), "",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F41"/>
@@ -1601,16 +1685,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E42">
-        <f>IF(ISBLANK(B42), "",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F42"/>
@@ -1618,16 +1702,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E43">
-        <f>IF(ISBLANK(B43), "",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F43"/>
@@ -1635,686 +1719,686 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45" t="str">
         <f>IF(ISBLANK(B45), "",1)</f>
         <v/>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <f>IF(ISBLANK(B46), "",1)</f>
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E47">
         <f>IF(ISBLANK(B47), "",1)</f>
         <v>1</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <f>IF(ISBLANK(B48), "",1)</f>
         <v>1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(ISBLANK(B50), "",1)</f>
+        <f t="shared" ref="E50:E76" si="4">IF(ISBLANK(B50), "",1)</f>
         <v/>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <f>IF(ISBLANK(B51), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E52">
-        <f>IF(ISBLANK(B52), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="E53" t="str">
-        <f>IF(ISBLANK(B53), "",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(ISBLANK(B54), "",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
-        <f>IF(ISBLANK(B55), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <f>IF(ISBLANK(B56), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <f>IF(ISBLANK(B57), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E58">
-        <f>IF(ISBLANK(B58), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E59">
-        <f>IF(ISBLANK(B59), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E60">
-        <f>IF(ISBLANK(B60), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E61">
-        <f>IF(ISBLANK(B61), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E62">
-        <f>IF(ISBLANK(B62), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E63">
-        <f>IF(ISBLANK(B63), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E64">
-        <f>IF(ISBLANK(B64), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E65">
-        <f>IF(ISBLANK(B65), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E66">
-        <f>IF(ISBLANK(B66), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E67">
-        <f>IF(ISBLANK(B67), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E68">
-        <f>IF(ISBLANK(B68), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="C69" s="2"/>
       <c r="E69" t="str">
-        <f>IF(ISBLANK(B69), "",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(ISBLANK(B70), "",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E71">
-        <f>IF(ISBLANK(B71), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E72">
-        <f>IF(ISBLANK(B72), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E73">
-        <f>IF(ISBLANK(B73), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E74">
-        <f>IF(ISBLANK(B74), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E75">
-        <f>IF(ISBLANK(B75), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E76">
-        <f>IF(ISBLANK(B76), "",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="H82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="H83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F86"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F87"/>
     </row>
   </sheetData>
@@ -2332,20 +2416,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>IF(Sheet1!E10=1,Sheet1!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
@@ -2355,7 +2439,7 @@
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>IF(Sheet1!E11=1,Sheet1!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
@@ -2365,7 +2449,7 @@
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>IF(Sheet1!E12=1,Sheet1!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
@@ -2375,7 +2459,7 @@
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>IF(Sheet1!E13=1,Sheet1!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
@@ -2385,7 +2469,7 @@
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>IF(Sheet1!E14=1,Sheet1!C14,"")</f>
         <v/>
@@ -2395,7 +2479,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>IF(Sheet1!E15=1,Sheet1!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
@@ -2405,7 +2489,7 @@
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>IF(Sheet1!E16=1,Sheet1!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
@@ -2415,7 +2499,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>IF(Sheet1!E17=1,Sheet1!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
@@ -2425,7 +2509,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>IF(Sheet1!E18=1,Sheet1!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
@@ -2435,7 +2519,7 @@
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>IF(Sheet1!E19=1,Sheet1!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
@@ -2445,7 +2529,7 @@
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>IF(Sheet1!E20=1,Sheet1!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
@@ -2455,7 +2539,7 @@
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>IF(Sheet1!E21=1,Sheet1!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
@@ -2465,7 +2549,7 @@
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>IF(Sheet1!E22=1,Sheet1!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
@@ -2475,7 +2559,7 @@
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>IF(Sheet1!E23=1,Sheet1!C23,"")</f>
         <v/>
@@ -2485,7 +2569,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>IF(Sheet1!E24=1,Sheet1!C24,"")</f>
         <v/>
@@ -2495,7 +2579,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>IF(Sheet1!E25=1,Sheet1!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
@@ -2505,7 +2589,7 @@
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>IF(Sheet1!E26=1,Sheet1!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
@@ -2515,7 +2599,7 @@
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>IF(Sheet1!E27=1,Sheet1!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
@@ -2525,7 +2609,7 @@
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>IF(Sheet1!E28=1,Sheet1!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
@@ -2535,7 +2619,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>IF(Sheet1!E29=1,Sheet1!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
@@ -2545,7 +2629,7 @@
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>IF(Sheet1!E30=1,Sheet1!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
@@ -2555,7 +2639,7 @@
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>IF(Sheet1!E31=1,Sheet1!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
@@ -2565,7 +2649,7 @@
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>IF(Sheet1!E32=1,Sheet1!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
@@ -2575,7 +2659,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>IF(Sheet1!E33=1,Sheet1!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
@@ -2585,7 +2669,7 @@
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>IF(Sheet1!E34=1,Sheet1!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
@@ -2595,7 +2679,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>IF(Sheet1!E35=1,Sheet1!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
@@ -2605,7 +2689,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>IF(Sheet1!E36=1,Sheet1!C36,"")</f>
         <v/>
@@ -2615,7 +2699,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>IF(Sheet1!E37=1,Sheet1!C37,"")</f>
         <v/>
@@ -2625,7 +2709,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>IF(Sheet1!E38=1,Sheet1!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
@@ -2635,7 +2719,7 @@
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>IF(Sheet1!E39=1,Sheet1!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
@@ -2645,7 +2729,7 @@
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>IF(Sheet1!E40=1,Sheet1!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
@@ -2655,7 +2739,7 @@
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>IF(Sheet1!E41=1,Sheet1!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
@@ -2665,7 +2749,7 @@
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>IF(Sheet1!E42=1,Sheet1!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
@@ -2675,7 +2759,7 @@
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>IF(Sheet1!E43=1,Sheet1!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
@@ -2685,7 +2769,7 @@
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>IF(Sheet1!E44=1,Sheet1!C44,"")</f>
         <v/>
@@ -2695,7 +2779,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>IF(Sheet1!E45=1,Sheet1!C45,"")</f>
         <v/>
@@ -2705,7 +2789,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>IF(Sheet1!E46=1,Sheet1!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
@@ -2715,7 +2799,7 @@
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>IF(Sheet1!E47=1,Sheet1!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
@@ -2725,7 +2809,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>IF(Sheet1!E48=1,Sheet1!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
@@ -2735,7 +2819,7 @@
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>IF(Sheet1!E49=1,Sheet1!C49,"")</f>
         <v/>
@@ -2745,7 +2829,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>IF(Sheet1!E50=1,Sheet1!C50,"")</f>
         <v/>
@@ -2755,7 +2839,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>IF(Sheet1!E51=1,Sheet1!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
@@ -2765,7 +2849,7 @@
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>IF(Sheet1!E52=1,Sheet1!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
@@ -2775,7 +2859,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>IF(Sheet1!E53=1,Sheet1!C53,"")</f>
         <v/>
@@ -2785,7 +2869,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>IF(Sheet1!E54=1,Sheet1!C54,"")</f>
         <v/>
@@ -2795,7 +2879,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>IF(Sheet1!E55=1,Sheet1!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
@@ -2805,7 +2889,7 @@
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>IF(Sheet1!E56=1,Sheet1!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
@@ -2815,7 +2899,7 @@
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>IF(Sheet1!E57=1,Sheet1!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
@@ -2825,7 +2909,7 @@
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>IF(Sheet1!E58=1,Sheet1!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
@@ -2835,7 +2919,7 @@
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>IF(Sheet1!E59=1,Sheet1!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
@@ -2845,7 +2929,7 @@
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>IF(Sheet1!E60=1,Sheet1!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
@@ -2855,7 +2939,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>IF(Sheet1!E61=1,Sheet1!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
@@ -2865,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>IF(Sheet1!E62=1,Sheet1!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
@@ -2875,7 +2959,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>IF(Sheet1!E63=1,Sheet1!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
@@ -2885,7 +2969,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>IF(Sheet1!E64=1,Sheet1!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
@@ -2895,7 +2979,7 @@
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>IF(Sheet1!E65=1,Sheet1!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
@@ -2905,7 +2989,7 @@
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>IF(Sheet1!E66=1,Sheet1!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
@@ -2915,7 +2999,7 @@
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>IF(Sheet1!E67=1,Sheet1!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
@@ -2925,7 +3009,7 @@
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>IF(Sheet1!E68=1,Sheet1!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
@@ -2935,7 +3019,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>IF(Sheet1!E69=1,Sheet1!C69,"")</f>
         <v/>
@@ -2945,7 +3029,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>IF(Sheet1!E70=1,Sheet1!C70,"")</f>
         <v/>
@@ -2955,7 +3039,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>IF(Sheet1!E71=1,Sheet1!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
@@ -2965,7 +3049,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>IF(Sheet1!E72=1,Sheet1!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
@@ -2975,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>IF(Sheet1!E73=1,Sheet1!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
@@ -2985,7 +3069,7 @@
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>IF(Sheet1!E74=1,Sheet1!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
@@ -2995,7 +3079,7 @@
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>IF(Sheet1!E75=1,Sheet1!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
@@ -3005,7 +3089,7 @@
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>IF(Sheet1!E76=1,Sheet1!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
@@ -3015,7 +3099,7 @@
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>IF(Sheet1!E77=1,Sheet1!C77,"")</f>
         <v/>
@@ -3025,7 +3109,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>IF(Sheet1!E78=1,Sheet1!C78,"")</f>
         <v/>
@@ -3035,7 +3119,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>IF(Sheet1!E79=1,Sheet1!C79,"")</f>
         <v/>
@@ -3045,7 +3129,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>IF(Sheet1!E80=1,Sheet1!C80,"")</f>
         <v/>
@@ -3055,7 +3139,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>IF(Sheet1!E81=1,Sheet1!C81,"")</f>
         <v/>
@@ -3065,7 +3149,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>IF(Sheet1!E82=1,Sheet1!C82,"")</f>
         <v/>
@@ -3075,7 +3159,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>IF(Sheet1!E83=1,Sheet1!C83,"")</f>
         <v/>
@@ -3085,10 +3169,590 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
         <f>IF(Sheet1!G88=1,Sheet1!C88,"")</f>
         <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
+  <dimension ref="B3:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D24" s="1"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D32" s="1"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D81361-EAAF-4E24-B09A-93719421AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D00A274-D07B-45DD-A714-D1E088CA77BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="emails" sheetId="2" r:id="rId2"/>
-    <sheet name="outlook-responses" sheetId="3" r:id="rId3"/>
+    <sheet name="outlook-responses" sheetId="3" r:id="rId1"/>
+    <sheet name="list-pre-google-forms" sheetId="1" r:id="rId2"/>
+    <sheet name="emails" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -482,12 +482,6 @@
     <t>audrey.ty@dfo-mpo.gc.ca</t>
   </si>
   <si>
-    <t>tentative</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
     <t>Robertson, Karen</t>
   </si>
   <si>
@@ -539,9 +533,6 @@
     <t>Wastle, Rick</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -549,6 +540,96 @@
   </si>
   <si>
     <t>aaron.adamack@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Robertson, Karen  (Gulf)</t>
+  </si>
+  <si>
+    <t>Morrill, Kirby</t>
+  </si>
+  <si>
+    <t>Le Corre, Nicolas</t>
+  </si>
+  <si>
+    <t>Smith, Andrew (IML)</t>
+  </si>
+  <si>
+    <t>Drover, Dwight</t>
+  </si>
+  <si>
+    <t>Ty, Audrey (Audrey.Ty@dfo-mpo.gc.ca)</t>
+  </si>
+  <si>
+    <t>Wastle, Rick J</t>
+  </si>
+  <si>
+    <t>Vandenbyllaardt, Lenore J</t>
+  </si>
+  <si>
+    <t>Burke, Lauren (Lauren.Burke@dfo-mpo.gc.ca)</t>
+  </si>
+  <si>
+    <t>Hedges, Kevin J</t>
+  </si>
+  <si>
+    <t>Zhu, Xinhua</t>
+  </si>
+  <si>
+    <t>Lynn.Collier@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Xinhua.Zhu@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Lauren.Burke@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desgagnés, Mathieu </t>
+  </si>
+  <si>
+    <t>Antaya, Kelly</t>
+  </si>
+  <si>
+    <t>Kelly.Antaya@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest, Isabelle </t>
+  </si>
+  <si>
+    <t>Isabelle.Forest@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horsman, Matthew </t>
+  </si>
+  <si>
+    <t>Matthew.Horsman@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robichaud, Sylvie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvain, François-Étienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutton, Jolene </t>
+  </si>
+  <si>
+    <t>Barbara.Campbell@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forrest, Robyn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yungwirth, Emily </t>
+  </si>
+  <si>
+    <t>Num.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -910,11 +991,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
+  <dimension ref="A2:O66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2">
+        <f>SUM(M6:M66)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3">
+        <f>SUM(O6:O66)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4">
+        <f>B6+B18+B32+B42+B51+B58</f>
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4">
+        <f>SUM(N6:N66)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>SUM(M6:M16)</f>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>IF(G6="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>IF(G6="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f>IF(G7="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>IF(G7="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>IF(G8="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>IF(G8="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f>IF(G9="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>IF(G9="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>IF(G10="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f>IF(G10="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>IF(G11="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f>IF(G11="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>IF(G12="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>IF(G12="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>IF(G13="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>IF(G13="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f>IF(G14="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f>IF(G14="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f>IF(G15="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f>IF(G15="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>IF(G16="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f>IF(G16="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f>SUM(M18:M30)</f>
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f>IF(G18="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>IF(G18="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>IF(G19="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O30" si="0">IF(G19="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f>IF(G20="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f>IF(G21="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f>IF(G22="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f>IF(G23="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f>IF(G24="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f>IF(G25="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f>IF(G26="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f>IF(G27="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f>IF(G28="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f>IF(G29="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f>IF(G30="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <f>SUM(M32:M40)</f>
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f>IF(G32="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:O40" si="1">IF(G32="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f>IF(G33="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f>IF(G34="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f>IF(G35="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f>IF(G36="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f>IF(G37="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f>IF(G38="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f>IF(G39="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f>IF(G40="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <f>SUM(M42:M49)</f>
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" t="s">
+        <v>172</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f>IF(G42="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O66" si="2">IF(G42="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f>IF(G43="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>152</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f>IF(G44="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f>IF(G45="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" t="s">
+        <v>136</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f>IF(G46="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f>IF(G47="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f>IF(G48="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f>IF(G49="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <f>SUM(M51:M56)</f>
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" t="s">
+        <v>171</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <f>IF(G51="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f>IF(G52="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" t="s">
+        <v>170</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f>IF(G53="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" t="s">
+        <v>118</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f>IF(G54="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" t="s">
+        <v>110</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <f>IF(G55="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" t="s">
+        <v>183</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <f>IF(G56="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58">
+        <f>SUM(M58:M66)</f>
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" t="s">
+        <v>154</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f>IF(G58="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59" t="s">
+        <v>175</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f>IF(G59="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <f>IF(G60="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f>IF(G61="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" t="s">
+        <v>174</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f>IF(G62="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" t="s">
+        <v>178</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f>IF(G63="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" t="s">
+        <v>77</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ref="N64:N66" si="3">IF(G64="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" t="s">
+        <v>176</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1141,7 +2752,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -2410,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A495CC8-2D75-4904-B60D-B994B74791C5}">
   <dimension ref="A3:B78"/>
   <sheetViews>
@@ -2431,1328 +4042,748 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f>IF(Sheet1!E10=1,Sheet1!C10,"")</f>
+        <f>IF('list-pre-google-forms'!E10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(Sheet1!G10=1,Sheet1!C10,"")</f>
+        <f>IF('list-pre-google-forms'!G10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f>IF(Sheet1!E11=1,Sheet1!C11,"")</f>
+        <f>IF('list-pre-google-forms'!E11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(Sheet1!G11=1,Sheet1!C11,"")</f>
+        <f>IF('list-pre-google-forms'!G11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f>IF(Sheet1!E12=1,Sheet1!C12,"")</f>
+        <f>IF('list-pre-google-forms'!E12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(Sheet1!G12=1,Sheet1!C12,"")</f>
+        <f>IF('list-pre-google-forms'!G12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f>IF(Sheet1!E13=1,Sheet1!C13,"")</f>
+        <f>IF('list-pre-google-forms'!E13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(Sheet1!G13=1,Sheet1!C13,"")</f>
+        <f>IF('list-pre-google-forms'!G13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f>IF(Sheet1!E14=1,Sheet1!C14,"")</f>
+        <f>IF('list-pre-google-forms'!E14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
       </c>
       <c r="B8" t="str">
-        <f>IF(Sheet1!G14=1,Sheet1!C14,"")</f>
+        <f>IF('list-pre-google-forms'!G14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
-        <f>IF(Sheet1!E15=1,Sheet1!C15,"")</f>
+        <f>IF('list-pre-google-forms'!E15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(Sheet1!G15=1,Sheet1!C15,"")</f>
+        <f>IF('list-pre-google-forms'!G15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <f>IF(Sheet1!E16=1,Sheet1!C16,"")</f>
+        <f>IF('list-pre-google-forms'!E16=1,'list-pre-google-forms'!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(Sheet1!G16=1,Sheet1!C16,"")</f>
+        <f>IF('list-pre-google-forms'!G16=1,'list-pre-google-forms'!C16,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f>IF(Sheet1!E17=1,Sheet1!C17,"")</f>
+        <f>IF('list-pre-google-forms'!E17=1,'list-pre-google-forms'!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(Sheet1!G17=1,Sheet1!C17,"")</f>
+        <f>IF('list-pre-google-forms'!G17=1,'list-pre-google-forms'!C17,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <f>IF(Sheet1!E18=1,Sheet1!C18,"")</f>
+        <f>IF('list-pre-google-forms'!E18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(Sheet1!G18=1,Sheet1!C18,"")</f>
+        <f>IF('list-pre-google-forms'!G18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f>IF(Sheet1!E19=1,Sheet1!C19,"")</f>
+        <f>IF('list-pre-google-forms'!E19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(Sheet1!G19=1,Sheet1!C19,"")</f>
+        <f>IF('list-pre-google-forms'!G19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f>IF(Sheet1!E20=1,Sheet1!C20,"")</f>
+        <f>IF('list-pre-google-forms'!E20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(Sheet1!G20=1,Sheet1!C20,"")</f>
+        <f>IF('list-pre-google-forms'!G20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <f>IF(Sheet1!E21=1,Sheet1!C21,"")</f>
+        <f>IF('list-pre-google-forms'!E21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
       <c r="B15" t="str">
-        <f>IF(Sheet1!G21=1,Sheet1!C21,"")</f>
+        <f>IF('list-pre-google-forms'!G21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
-        <f>IF(Sheet1!E22=1,Sheet1!C22,"")</f>
+        <f>IF('list-pre-google-forms'!E22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
       <c r="B16" t="str">
-        <f>IF(Sheet1!G22=1,Sheet1!C22,"")</f>
+        <f>IF('list-pre-google-forms'!G22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
-        <f>IF(Sheet1!E23=1,Sheet1!C23,"")</f>
+        <f>IF('list-pre-google-forms'!E23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
       </c>
       <c r="B17" t="str">
-        <f>IF(Sheet1!G23=1,Sheet1!C23,"")</f>
+        <f>IF('list-pre-google-forms'!G23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
-        <f>IF(Sheet1!E24=1,Sheet1!C24,"")</f>
+        <f>IF('list-pre-google-forms'!E24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
       </c>
       <c r="B18" t="str">
-        <f>IF(Sheet1!G24=1,Sheet1!C24,"")</f>
+        <f>IF('list-pre-google-forms'!G24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
-        <f>IF(Sheet1!E25=1,Sheet1!C25,"")</f>
+        <f>IF('list-pre-google-forms'!E25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
       <c r="B19" t="str">
-        <f>IF(Sheet1!G25=1,Sheet1!C25,"")</f>
+        <f>IF('list-pre-google-forms'!G25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
-        <f>IF(Sheet1!E26=1,Sheet1!C26,"")</f>
+        <f>IF('list-pre-google-forms'!E26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
       <c r="B20" t="str">
-        <f>IF(Sheet1!G26=1,Sheet1!C26,"")</f>
+        <f>IF('list-pre-google-forms'!G26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
-        <f>IF(Sheet1!E27=1,Sheet1!C27,"")</f>
+        <f>IF('list-pre-google-forms'!E27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
       <c r="B21" t="str">
-        <f>IF(Sheet1!G27=1,Sheet1!C27,"")</f>
+        <f>IF('list-pre-google-forms'!G27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
-        <f>IF(Sheet1!E28=1,Sheet1!C28,"")</f>
+        <f>IF('list-pre-google-forms'!E28=1,'list-pre-google-forms'!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
       </c>
       <c r="B22" t="str">
-        <f>IF(Sheet1!G28=1,Sheet1!C28,"")</f>
+        <f>IF('list-pre-google-forms'!G28=1,'list-pre-google-forms'!C28,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
-        <f>IF(Sheet1!E29=1,Sheet1!C29,"")</f>
+        <f>IF('list-pre-google-forms'!E29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(Sheet1!G29=1,Sheet1!C29,"")</f>
+        <f>IF('list-pre-google-forms'!G29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
-        <f>IF(Sheet1!E30=1,Sheet1!C30,"")</f>
+        <f>IF('list-pre-google-forms'!E30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
       <c r="B24" t="str">
-        <f>IF(Sheet1!G30=1,Sheet1!C30,"")</f>
+        <f>IF('list-pre-google-forms'!G30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
-        <f>IF(Sheet1!E31=1,Sheet1!C31,"")</f>
+        <f>IF('list-pre-google-forms'!E31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
       <c r="B25" t="str">
-        <f>IF(Sheet1!G31=1,Sheet1!C31,"")</f>
+        <f>IF('list-pre-google-forms'!G31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
-        <f>IF(Sheet1!E32=1,Sheet1!C32,"")</f>
+        <f>IF('list-pre-google-forms'!E32=1,'list-pre-google-forms'!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
       </c>
       <c r="B26" t="str">
-        <f>IF(Sheet1!G32=1,Sheet1!C32,"")</f>
+        <f>IF('list-pre-google-forms'!G32=1,'list-pre-google-forms'!C32,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
-        <f>IF(Sheet1!E33=1,Sheet1!C33,"")</f>
+        <f>IF('list-pre-google-forms'!E33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
       <c r="B27" t="str">
-        <f>IF(Sheet1!G33=1,Sheet1!C33,"")</f>
+        <f>IF('list-pre-google-forms'!G33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
-        <f>IF(Sheet1!E34=1,Sheet1!C34,"")</f>
+        <f>IF('list-pre-google-forms'!E34=1,'list-pre-google-forms'!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
       </c>
       <c r="B28" t="str">
-        <f>IF(Sheet1!G34=1,Sheet1!C34,"")</f>
+        <f>IF('list-pre-google-forms'!G34=1,'list-pre-google-forms'!C34,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
-        <f>IF(Sheet1!E35=1,Sheet1!C35,"")</f>
+        <f>IF('list-pre-google-forms'!E35=1,'list-pre-google-forms'!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
       </c>
       <c r="B29" t="str">
-        <f>IF(Sheet1!G35=1,Sheet1!C35,"")</f>
+        <f>IF('list-pre-google-forms'!G35=1,'list-pre-google-forms'!C35,"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
-        <f>IF(Sheet1!E36=1,Sheet1!C36,"")</f>
+        <f>IF('list-pre-google-forms'!E36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
       </c>
       <c r="B30" t="str">
-        <f>IF(Sheet1!G36=1,Sheet1!C36,"")</f>
+        <f>IF('list-pre-google-forms'!G36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
-        <f>IF(Sheet1!E37=1,Sheet1!C37,"")</f>
+        <f>IF('list-pre-google-forms'!E37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
       </c>
       <c r="B31" t="str">
-        <f>IF(Sheet1!G37=1,Sheet1!C37,"")</f>
+        <f>IF('list-pre-google-forms'!G37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
-        <f>IF(Sheet1!E38=1,Sheet1!C38,"")</f>
+        <f>IF('list-pre-google-forms'!E38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
       <c r="B32" t="str">
-        <f>IF(Sheet1!G38=1,Sheet1!C38,"")</f>
+        <f>IF('list-pre-google-forms'!G38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
-        <f>IF(Sheet1!E39=1,Sheet1!C39,"")</f>
+        <f>IF('list-pre-google-forms'!E39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
       <c r="B33" t="str">
-        <f>IF(Sheet1!G39=1,Sheet1!C39,"")</f>
+        <f>IF('list-pre-google-forms'!G39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
-        <f>IF(Sheet1!E40=1,Sheet1!C40,"")</f>
+        <f>IF('list-pre-google-forms'!E40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
       <c r="B34" t="str">
-        <f>IF(Sheet1!G40=1,Sheet1!C40,"")</f>
+        <f>IF('list-pre-google-forms'!G40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
-        <f>IF(Sheet1!E41=1,Sheet1!C41,"")</f>
+        <f>IF('list-pre-google-forms'!E41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
       <c r="B35" t="str">
-        <f>IF(Sheet1!G41=1,Sheet1!C41,"")</f>
+        <f>IF('list-pre-google-forms'!G41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
-        <f>IF(Sheet1!E42=1,Sheet1!C42,"")</f>
+        <f>IF('list-pre-google-forms'!E42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
       <c r="B36" t="str">
-        <f>IF(Sheet1!G42=1,Sheet1!C42,"")</f>
+        <f>IF('list-pre-google-forms'!G42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
-        <f>IF(Sheet1!E43=1,Sheet1!C43,"")</f>
+        <f>IF('list-pre-google-forms'!E43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
       <c r="B37" t="str">
-        <f>IF(Sheet1!G43=1,Sheet1!C43,"")</f>
+        <f>IF('list-pre-google-forms'!G43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
-        <f>IF(Sheet1!E44=1,Sheet1!C44,"")</f>
+        <f>IF('list-pre-google-forms'!E44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
       </c>
       <c r="B38" t="str">
-        <f>IF(Sheet1!G44=1,Sheet1!C44,"")</f>
+        <f>IF('list-pre-google-forms'!G44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
-        <f>IF(Sheet1!E45=1,Sheet1!C45,"")</f>
+        <f>IF('list-pre-google-forms'!E45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
       </c>
       <c r="B39" t="str">
-        <f>IF(Sheet1!G45=1,Sheet1!C45,"")</f>
+        <f>IF('list-pre-google-forms'!G45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
-        <f>IF(Sheet1!E46=1,Sheet1!C46,"")</f>
+        <f>IF('list-pre-google-forms'!E46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
       <c r="B40" t="str">
-        <f>IF(Sheet1!G46=1,Sheet1!C46,"")</f>
+        <f>IF('list-pre-google-forms'!G46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
-        <f>IF(Sheet1!E47=1,Sheet1!C47,"")</f>
+        <f>IF('list-pre-google-forms'!E47=1,'list-pre-google-forms'!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
       </c>
       <c r="B41" t="str">
-        <f>IF(Sheet1!G47=1,Sheet1!C47,"")</f>
+        <f>IF('list-pre-google-forms'!G47=1,'list-pre-google-forms'!C47,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f>IF(Sheet1!E48=1,Sheet1!C48,"")</f>
+        <f>IF('list-pre-google-forms'!E48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
       <c r="B42" t="str">
-        <f>IF(Sheet1!G48=1,Sheet1!C48,"")</f>
+        <f>IF('list-pre-google-forms'!G48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
-        <f>IF(Sheet1!E49=1,Sheet1!C49,"")</f>
+        <f>IF('list-pre-google-forms'!E49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
       </c>
       <c r="B43" t="str">
-        <f>IF(Sheet1!G49=1,Sheet1!C49,"")</f>
+        <f>IF('list-pre-google-forms'!G49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
-        <f>IF(Sheet1!E50=1,Sheet1!C50,"")</f>
+        <f>IF('list-pre-google-forms'!E50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
       </c>
       <c r="B44" t="str">
-        <f>IF(Sheet1!G50=1,Sheet1!C50,"")</f>
+        <f>IF('list-pre-google-forms'!G50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
-        <f>IF(Sheet1!E51=1,Sheet1!C51,"")</f>
+        <f>IF('list-pre-google-forms'!E51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
       <c r="B45" t="str">
-        <f>IF(Sheet1!G51=1,Sheet1!C51,"")</f>
+        <f>IF('list-pre-google-forms'!G51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
-        <f>IF(Sheet1!E52=1,Sheet1!C52,"")</f>
+        <f>IF('list-pre-google-forms'!E52=1,'list-pre-google-forms'!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
       </c>
       <c r="B46" t="str">
-        <f>IF(Sheet1!G52=1,Sheet1!C52,"")</f>
+        <f>IF('list-pre-google-forms'!G52=1,'list-pre-google-forms'!C52,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
-        <f>IF(Sheet1!E53=1,Sheet1!C53,"")</f>
+        <f>IF('list-pre-google-forms'!E53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
       </c>
       <c r="B47" t="str">
-        <f>IF(Sheet1!G53=1,Sheet1!C53,"")</f>
+        <f>IF('list-pre-google-forms'!G53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
-        <f>IF(Sheet1!E54=1,Sheet1!C54,"")</f>
+        <f>IF('list-pre-google-forms'!E54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
       </c>
       <c r="B48" t="str">
-        <f>IF(Sheet1!G54=1,Sheet1!C54,"")</f>
+        <f>IF('list-pre-google-forms'!G54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
-        <f>IF(Sheet1!E55=1,Sheet1!C55,"")</f>
+        <f>IF('list-pre-google-forms'!E55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
       <c r="B49" t="str">
-        <f>IF(Sheet1!G55=1,Sheet1!C55,"")</f>
+        <f>IF('list-pre-google-forms'!G55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
-        <f>IF(Sheet1!E56=1,Sheet1!C56,"")</f>
+        <f>IF('list-pre-google-forms'!E56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
       <c r="B50" t="str">
-        <f>IF(Sheet1!G56=1,Sheet1!C56,"")</f>
+        <f>IF('list-pre-google-forms'!G56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
-        <f>IF(Sheet1!E57=1,Sheet1!C57,"")</f>
+        <f>IF('list-pre-google-forms'!E57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
       <c r="B51" t="str">
-        <f>IF(Sheet1!G57=1,Sheet1!C57,"")</f>
+        <f>IF('list-pre-google-forms'!G57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
-        <f>IF(Sheet1!E58=1,Sheet1!C58,"")</f>
+        <f>IF('list-pre-google-forms'!E58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
       <c r="B52" t="str">
-        <f>IF(Sheet1!G58=1,Sheet1!C58,"")</f>
+        <f>IF('list-pre-google-forms'!G58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
-        <f>IF(Sheet1!E59=1,Sheet1!C59,"")</f>
+        <f>IF('list-pre-google-forms'!E59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
       <c r="B53" t="str">
-        <f>IF(Sheet1!G59=1,Sheet1!C59,"")</f>
+        <f>IF('list-pre-google-forms'!G59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
-        <f>IF(Sheet1!E60=1,Sheet1!C60,"")</f>
+        <f>IF('list-pre-google-forms'!E60=1,'list-pre-google-forms'!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
       </c>
       <c r="B54" t="str">
-        <f>IF(Sheet1!G60=1,Sheet1!C60,"")</f>
+        <f>IF('list-pre-google-forms'!G60=1,'list-pre-google-forms'!C60,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
-        <f>IF(Sheet1!E61=1,Sheet1!C61,"")</f>
+        <f>IF('list-pre-google-forms'!E61=1,'list-pre-google-forms'!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
       </c>
       <c r="B55" t="str">
-        <f>IF(Sheet1!G61=1,Sheet1!C61,"")</f>
+        <f>IF('list-pre-google-forms'!G61=1,'list-pre-google-forms'!C61,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
-        <f>IF(Sheet1!E62=1,Sheet1!C62,"")</f>
+        <f>IF('list-pre-google-forms'!E62=1,'list-pre-google-forms'!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
       </c>
       <c r="B56" t="str">
-        <f>IF(Sheet1!G62=1,Sheet1!C62,"")</f>
+        <f>IF('list-pre-google-forms'!G62=1,'list-pre-google-forms'!C62,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
-        <f>IF(Sheet1!E63=1,Sheet1!C63,"")</f>
+        <f>IF('list-pre-google-forms'!E63=1,'list-pre-google-forms'!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
       </c>
       <c r="B57" t="str">
-        <f>IF(Sheet1!G63=1,Sheet1!C63,"")</f>
+        <f>IF('list-pre-google-forms'!G63=1,'list-pre-google-forms'!C63,"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
-        <f>IF(Sheet1!E64=1,Sheet1!C64,"")</f>
+        <f>IF('list-pre-google-forms'!E64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
       <c r="B58" t="str">
-        <f>IF(Sheet1!G64=1,Sheet1!C64,"")</f>
+        <f>IF('list-pre-google-forms'!G64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
-        <f>IF(Sheet1!E65=1,Sheet1!C65,"")</f>
+        <f>IF('list-pre-google-forms'!E65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
       <c r="B59" t="str">
-        <f>IF(Sheet1!G65=1,Sheet1!C65,"")</f>
+        <f>IF('list-pre-google-forms'!G65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
-        <f>IF(Sheet1!E66=1,Sheet1!C66,"")</f>
+        <f>IF('list-pre-google-forms'!E66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
       <c r="B60" t="str">
-        <f>IF(Sheet1!G66=1,Sheet1!C66,"")</f>
+        <f>IF('list-pre-google-forms'!G66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
-        <f>IF(Sheet1!E67=1,Sheet1!C67,"")</f>
+        <f>IF('list-pre-google-forms'!E67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
       <c r="B61" t="str">
-        <f>IF(Sheet1!G67=1,Sheet1!C67,"")</f>
+        <f>IF('list-pre-google-forms'!G67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
-        <f>IF(Sheet1!E68=1,Sheet1!C68,"")</f>
+        <f>IF('list-pre-google-forms'!E68=1,'list-pre-google-forms'!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
       </c>
       <c r="B62" t="str">
-        <f>IF(Sheet1!G68=1,Sheet1!C68,"")</f>
+        <f>IF('list-pre-google-forms'!G68=1,'list-pre-google-forms'!C68,"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
-        <f>IF(Sheet1!E69=1,Sheet1!C69,"")</f>
+        <f>IF('list-pre-google-forms'!E69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
       </c>
       <c r="B63" t="str">
-        <f>IF(Sheet1!G69=1,Sheet1!C69,"")</f>
+        <f>IF('list-pre-google-forms'!G69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
-        <f>IF(Sheet1!E70=1,Sheet1!C70,"")</f>
+        <f>IF('list-pre-google-forms'!E70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
       </c>
       <c r="B64" t="str">
-        <f>IF(Sheet1!G70=1,Sheet1!C70,"")</f>
+        <f>IF('list-pre-google-forms'!G70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
-        <f>IF(Sheet1!E71=1,Sheet1!C71,"")</f>
+        <f>IF('list-pre-google-forms'!E71=1,'list-pre-google-forms'!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
       </c>
       <c r="B65" t="str">
-        <f>IF(Sheet1!G71=1,Sheet1!C71,"")</f>
+        <f>IF('list-pre-google-forms'!G71=1,'list-pre-google-forms'!C71,"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
-        <f>IF(Sheet1!E72=1,Sheet1!C72,"")</f>
+        <f>IF('list-pre-google-forms'!E72=1,'list-pre-google-forms'!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
       </c>
       <c r="B66" t="str">
-        <f>IF(Sheet1!G72=1,Sheet1!C72,"")</f>
+        <f>IF('list-pre-google-forms'!G72=1,'list-pre-google-forms'!C72,"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
-        <f>IF(Sheet1!E73=1,Sheet1!C73,"")</f>
+        <f>IF('list-pre-google-forms'!E73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
       <c r="B67" t="str">
-        <f>IF(Sheet1!G73=1,Sheet1!C73,"")</f>
+        <f>IF('list-pre-google-forms'!G73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
-        <f>IF(Sheet1!E74=1,Sheet1!C74,"")</f>
+        <f>IF('list-pre-google-forms'!E74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
       <c r="B68" t="str">
-        <f>IF(Sheet1!G74=1,Sheet1!C74,"")</f>
+        <f>IF('list-pre-google-forms'!G74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
-        <f>IF(Sheet1!E75=1,Sheet1!C75,"")</f>
+        <f>IF('list-pre-google-forms'!E75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
       <c r="B69" t="str">
-        <f>IF(Sheet1!G75=1,Sheet1!C75,"")</f>
+        <f>IF('list-pre-google-forms'!G75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
-        <f>IF(Sheet1!E76=1,Sheet1!C76,"")</f>
+        <f>IF('list-pre-google-forms'!E76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
       <c r="B70" t="str">
-        <f>IF(Sheet1!G76=1,Sheet1!C76,"")</f>
+        <f>IF('list-pre-google-forms'!G76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
-        <f>IF(Sheet1!E77=1,Sheet1!C77,"")</f>
+        <f>IF('list-pre-google-forms'!E77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
       </c>
       <c r="B71" t="str">
-        <f>IF(Sheet1!G77=1,Sheet1!C77,"")</f>
+        <f>IF('list-pre-google-forms'!G77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
-        <f>IF(Sheet1!E78=1,Sheet1!C78,"")</f>
+        <f>IF('list-pre-google-forms'!E78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
       </c>
       <c r="B72" t="str">
-        <f>IF(Sheet1!G78=1,Sheet1!C78,"")</f>
+        <f>IF('list-pre-google-forms'!G78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
-        <f>IF(Sheet1!E79=1,Sheet1!C79,"")</f>
+        <f>IF('list-pre-google-forms'!E79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
       </c>
       <c r="B73" t="str">
-        <f>IF(Sheet1!G79=1,Sheet1!C79,"")</f>
+        <f>IF('list-pre-google-forms'!G79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
-        <f>IF(Sheet1!E80=1,Sheet1!C80,"")</f>
+        <f>IF('list-pre-google-forms'!E80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
       </c>
       <c r="B74" t="str">
-        <f>IF(Sheet1!G80=1,Sheet1!C80,"")</f>
+        <f>IF('list-pre-google-forms'!G80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
-        <f>IF(Sheet1!E81=1,Sheet1!C81,"")</f>
+        <f>IF('list-pre-google-forms'!E81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
       </c>
       <c r="B75" t="str">
-        <f>IF(Sheet1!G81=1,Sheet1!C81,"")</f>
+        <f>IF('list-pre-google-forms'!G81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
-        <f>IF(Sheet1!E82=1,Sheet1!C82,"")</f>
+        <f>IF('list-pre-google-forms'!E82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
       </c>
       <c r="B76" t="str">
-        <f>IF(Sheet1!G82=1,Sheet1!C82,"")</f>
+        <f>IF('list-pre-google-forms'!G82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
-        <f>IF(Sheet1!E83=1,Sheet1!C83,"")</f>
+        <f>IF('list-pre-google-forms'!E83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
       </c>
       <c r="B77" t="str">
-        <f>IF(Sheet1!G83=1,Sheet1!C83,"")</f>
+        <f>IF('list-pre-google-forms'!G83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
-        <f>IF(Sheet1!G88=1,Sheet1!C88,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="B3:G51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="22.26953125" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D32" s="1"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" t="s">
-        <v>140</v>
+        <f>IF('list-pre-google-forms'!G88=1,'list-pre-google-forms'!C88,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D00A274-D07B-45DD-A714-D1E088CA77BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D755D-7FDC-4C0C-8F16-23966F61A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outlook-responses" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Sutton, Jolene</t>
   </si>
   <si>
-    <t>Drover, Dwigth</t>
-  </si>
-  <si>
     <t>dwight.drover@dfo-mpo.gc.ca</t>
   </si>
   <si>
@@ -630,6 +627,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McArthur, Judy </t>
+  </si>
+  <si>
+    <t>Judy.McArthur@dfo-mpo.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -992,71 +995,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A2:O66"/>
+  <dimension ref="A2:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L2" s="1" t="s">
         <v>125</v>
       </c>
       <c r="M2">
-        <f>SUM(M6:M66)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <f>SUM(M6:M67)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
         <v>165</v>
       </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
         <v>140</v>
       </c>
       <c r="M3">
-        <f>SUM(O6:O66)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <f>SUM(O6:O67)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4">
-        <f>B6+B18+B32+B42+B51+B58</f>
-        <v>56</v>
+        <f>B6+B18+B33+B43+B52+B59</f>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M4">
-        <f>SUM(N6:N66)</f>
+        <f>SUM(N6:N67)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1075,21 +1080,21 @@
         <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <f>IF(G6="In person",1,0)</f>
+        <f t="shared" ref="N6:N16" si="0">IF(G6="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>IF(G6="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O6:O16" si="1">IF(G6="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1107,17 +1112,17 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IF(G7="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>IF(G7="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
@@ -1127,21 +1132,21 @@
         <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <f>IF(G8="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O8">
-        <f>IF(G8="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1159,15 +1164,15 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IF(G9="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O9">
-        <f>IF(G9="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>114</v>
       </c>
@@ -1185,69 +1190,69 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IF(G10="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O10">
-        <f>IF(G10="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s">
         <v>122</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <f>IF(G11="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O11">
-        <f>IF(G11="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s">
         <v>122</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <f>IF(G12="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f>IF(G12="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>117</v>
@@ -1257,23 +1262,23 @@
         <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <f>IF(G13="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <f>IF(G13="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D14" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>11</v>
@@ -1283,21 +1288,21 @@
         <v>122</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f>IF(G14="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O14">
-        <f>IF(G14="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>141</v>
       </c>
@@ -1315,17 +1320,17 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IF(G15="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O15">
-        <f>IF(G15="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>28</v>
@@ -1335,32 +1340,32 @@
         <v>122</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <f>IF(G16="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16">
-        <f>IF(G16="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <f>SUM(M18:M30)</f>
-        <v>13</v>
+        <f>SUM(M18:M31)</f>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>84</v>
@@ -1378,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <f>IF(G18="In person",1,0)</f>
+        <f t="shared" ref="N18:N31" si="2">IF(G18="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O18">
@@ -1386,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
@@ -1403,15 +1408,15 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(G19="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O30" si="0">IF(G19="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O19:O31" si="3">IF(G19="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
@@ -1428,15 +1433,15 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(G20="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
@@ -1453,40 +1458,40 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(G21="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="G22" t="s">
         <v>140</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(G22="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
@@ -1503,15 +1508,15 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(G23="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
@@ -1528,15 +1533,15 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(G24="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1553,15 +1558,15 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF(G25="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>96</v>
       </c>
@@ -1578,20 +1583,20 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF(G26="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
         <v>140</v>
@@ -1603,17 +1608,17 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>IF(G27="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>59</v>
@@ -1622,23 +1627,23 @@
         <v>140</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <f>IF(G28="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D29" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>39</v>
@@ -1647,21 +1652,21 @@
         <v>140</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <f>IF(G29="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1678,840 +1683,868 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f>IF(G30="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
-        <f>SUM(M32:M40)</f>
+      <c r="B33">
+        <f>SUM(M33:M41)</f>
         <v>9</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <f>IF(G32="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ref="O32:O40" si="1">IF(G32="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="G33" t="s">
         <v>140</v>
       </c>
       <c r="I33" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N41" si="4">IF(G33="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:O41" si="5">IF(G33="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <f>IF(G33="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>122</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>72</v>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <f>IF(G34="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D35" s="1" t="s">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <f>IF(G35="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="G36" t="s">
         <v>140</v>
       </c>
       <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <f>IF(G36="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="G37" t="s">
         <v>140</v>
       </c>
       <c r="I37" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <f>IF(G37="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" t="s">
+        <v>129</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="G38" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <f>IF(G38="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="G39" t="s">
         <v>122</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>69</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <f>IF(G39="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
+      <c r="E40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>71</v>
       </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
         <v>140</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>71</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <f>IF(G40="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B42">
-        <f>SUM(M42:M49)</f>
+      <c r="B43">
+        <f>SUM(M43:M50)</f>
         <v>8</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
         <v>144</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" t="s">
-        <v>172</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <f>IF(G42="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f t="shared" ref="O42:O66" si="2">IF(G42="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D43" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" t="s">
-        <v>149</v>
       </c>
       <c r="G43" t="s">
         <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f>IF(G43="In person",1,0)</f>
+        <f t="shared" ref="N43:N50" si="6">IF(G43="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O43:O67" si="7">IF(G43="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
         <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f>IF(G44="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D45" s="1" t="s">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" t="s">
+        <v>151</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <f>IF(G45="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="G46" t="s">
         <v>122</v>
       </c>
       <c r="I46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <f>IF(G46="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E47" t="s">
-        <v>167</v>
-      </c>
-      <c r="G47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <f>IF(G47="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>56</v>
+      <c r="E48" t="s">
+        <v>166</v>
       </c>
       <c r="G48" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <f>IF(G48="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D49" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E49" s="8" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
         <v>140</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <f>IF(G49="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="G50" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B51">
-        <f>SUM(M51:M56)</f>
+      <c r="B52">
+        <f>SUM(M52:M57)</f>
         <v>6</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>140</v>
       </c>
-      <c r="I51" t="s">
-        <v>171</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <f>IF(G51="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D52" s="1" t="s">
+      <c r="I52" t="s">
+        <v>170</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N57" si="8">IF(G52="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>122</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I53" t="s">
         <v>73</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <f>IF(G52="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D53" s="1" t="s">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>140</v>
       </c>
-      <c r="I53" t="s">
-        <v>170</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <f>IF(G53="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D54" s="1" t="s">
+      <c r="I54" t="s">
+        <v>169</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>122</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>118</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <f>IF(G54="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D55" s="1" t="s">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="G55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" t="s">
-        <v>110</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <f>IF(G55="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="s">
         <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f>IF(G56="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59">
+        <f>SUM(M59:M67)</f>
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
         <v>153</v>
       </c>
-      <c r="B58">
-        <f>SUM(M58:M66)</f>
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:N64" si="9">IF(G59="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>156</v>
       </c>
-      <c r="G58" t="s">
-        <v>122</v>
-      </c>
-      <c r="I58" t="s">
-        <v>154</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <f>IF(G58="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
+      <c r="E60" t="s">
         <v>157</v>
-      </c>
-      <c r="E59" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" t="s">
-        <v>140</v>
-      </c>
-      <c r="I59" t="s">
-        <v>175</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <f>IF(G59="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" t="s">
-        <v>162</v>
       </c>
       <c r="G60" t="s">
         <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f>IF(G60="In person",1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D61" s="1" t="s">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" t="s">
+        <v>176</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>122</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>22</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <f>IF(G61="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D62" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G62" t="s">
-        <v>140</v>
-      </c>
-      <c r="I62" t="s">
-        <v>174</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <f>IF(G62="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D63" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" t="s">
-        <v>180</v>
+      <c r="E63" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="G63" t="s">
         <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f>IF(G63="In person",1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="G64" t="s">
         <v>140</v>
       </c>
       <c r="I64" t="s">
+        <v>177</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>77</v>
       </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <f t="shared" ref="N64:N66" si="3">IF(G64="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D65" t="s">
-        <v>176</v>
-      </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
         <v>140</v>
       </c>
       <c r="I65" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N65:N67" si="10">IF(G65="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="4:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="G66" t="s">
         <v>140</v>
       </c>
       <c r="I66" t="s">
+        <v>175</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>74</v>
       </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="2"/>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -2528,26 +2561,26 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +2592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -2569,7 +2602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>125</v>
@@ -2579,11 +2612,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -2609,11 +2642,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +2667,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>141</v>
@@ -2660,7 +2693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>142</v>
@@ -2686,7 +2719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>143</v>
@@ -2712,7 +2745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2738,7 +2771,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -2749,10 +2782,10 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -2775,7 +2808,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>66</v>
@@ -2801,7 +2834,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>65</v>
@@ -2827,7 +2860,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>116</v>
@@ -2847,7 +2880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
@@ -2873,7 +2906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -2899,7 +2932,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -2925,7 +2958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -2948,7 +2981,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -2956,7 +2989,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -2969,7 +3002,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>126</v>
@@ -2988,7 +3021,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -3011,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -3034,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>68</v>
@@ -3060,7 +3093,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -3083,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -3106,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -3129,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>129</v>
@@ -3146,7 +3179,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -3169,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>130</v>
@@ -3186,7 +3219,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>133</v>
@@ -3200,13 +3233,13 @@
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -3219,7 +3252,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>73</v>
@@ -3242,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>107</v>
@@ -3262,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -3279,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
@@ -3296,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>111</v>
@@ -3313,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>118</v>
@@ -3330,12 +3363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -3348,7 +3381,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>74</v>
@@ -3371,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
@@ -3388,7 +3421,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -3411,12 +3444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -3429,7 +3462,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -3452,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>77</v>
@@ -3469,7 +3502,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
@@ -3480,7 +3513,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -3493,7 +3526,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>78</v>
@@ -3516,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -3539,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>79</v>
@@ -3562,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -3585,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>80</v>
@@ -3608,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>81</v>
@@ -3625,7 +3658,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>82</v>
@@ -3642,7 +3675,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>83</v>
@@ -3659,7 +3692,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>84</v>
@@ -3676,7 +3709,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>85</v>
@@ -3699,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
         <v>58</v>
@@ -3722,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
         <v>92</v>
@@ -3745,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>93</v>
@@ -3768,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
@@ -3788,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="C69" s="2"/>
       <c r="E69" t="str">
@@ -3800,7 +3833,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -3813,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
         <v>136</v>
@@ -3830,7 +3863,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
         <v>86</v>
@@ -3847,7 +3880,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
         <v>87</v>
@@ -3870,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
         <v>88</v>
@@ -3893,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
         <v>89</v>
@@ -3916,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
         <v>138</v>
@@ -3936,23 +3969,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
@@ -3962,7 +3995,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
@@ -3972,7 +4005,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>126</v>
       </c>
@@ -3985,7 +4018,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>114</v>
       </c>
@@ -3998,18 +4031,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F86"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F87"/>
     </row>
   </sheetData>
@@ -4027,12 +4060,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4040,7 +4073,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF('list-pre-google-forms'!E10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
@@ -4050,7 +4083,7 @@
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF('list-pre-google-forms'!E11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
@@ -4060,7 +4093,7 @@
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF('list-pre-google-forms'!E12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
@@ -4070,7 +4103,7 @@
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF('list-pre-google-forms'!E13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
@@ -4080,7 +4113,7 @@
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF('list-pre-google-forms'!E14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
@@ -4090,7 +4123,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF('list-pre-google-forms'!E15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
@@ -4100,7 +4133,7 @@
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF('list-pre-google-forms'!E16=1,'list-pre-google-forms'!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
@@ -4110,7 +4143,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF('list-pre-google-forms'!E17=1,'list-pre-google-forms'!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
@@ -4120,7 +4153,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF('list-pre-google-forms'!E18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
@@ -4130,7 +4163,7 @@
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF('list-pre-google-forms'!E19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
@@ -4140,7 +4173,7 @@
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('list-pre-google-forms'!E20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
@@ -4150,7 +4183,7 @@
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF('list-pre-google-forms'!E21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
@@ -4160,7 +4193,7 @@
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF('list-pre-google-forms'!E22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
@@ -4170,7 +4203,7 @@
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF('list-pre-google-forms'!E23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
@@ -4180,7 +4213,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('list-pre-google-forms'!E24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
@@ -4190,7 +4223,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>IF('list-pre-google-forms'!E25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
@@ -4200,7 +4233,7 @@
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>IF('list-pre-google-forms'!E26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
@@ -4210,7 +4243,7 @@
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('list-pre-google-forms'!E27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
@@ -4220,7 +4253,7 @@
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>IF('list-pre-google-forms'!E28=1,'list-pre-google-forms'!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
@@ -4230,7 +4263,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>IF('list-pre-google-forms'!E29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
@@ -4240,7 +4273,7 @@
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>IF('list-pre-google-forms'!E30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
@@ -4250,7 +4283,7 @@
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>IF('list-pre-google-forms'!E31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
@@ -4260,7 +4293,7 @@
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>IF('list-pre-google-forms'!E32=1,'list-pre-google-forms'!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
@@ -4270,7 +4303,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>IF('list-pre-google-forms'!E33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
@@ -4280,7 +4313,7 @@
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF('list-pre-google-forms'!E34=1,'list-pre-google-forms'!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
@@ -4290,7 +4323,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>IF('list-pre-google-forms'!E35=1,'list-pre-google-forms'!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
@@ -4300,7 +4333,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>IF('list-pre-google-forms'!E36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
@@ -4310,7 +4343,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>IF('list-pre-google-forms'!E37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
@@ -4320,7 +4353,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>IF('list-pre-google-forms'!E38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
@@ -4330,7 +4363,7 @@
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>IF('list-pre-google-forms'!E39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
@@ -4340,7 +4373,7 @@
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>IF('list-pre-google-forms'!E40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
@@ -4350,7 +4383,7 @@
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>IF('list-pre-google-forms'!E41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
@@ -4360,7 +4393,7 @@
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>IF('list-pre-google-forms'!E42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
@@ -4370,7 +4403,7 @@
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>IF('list-pre-google-forms'!E43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
@@ -4380,7 +4413,7 @@
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF('list-pre-google-forms'!E44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
@@ -4390,7 +4423,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('list-pre-google-forms'!E45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
@@ -4400,7 +4433,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('list-pre-google-forms'!E46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
@@ -4410,7 +4443,7 @@
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>IF('list-pre-google-forms'!E47=1,'list-pre-google-forms'!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
@@ -4420,7 +4453,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>IF('list-pre-google-forms'!E48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
@@ -4430,7 +4463,7 @@
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>IF('list-pre-google-forms'!E49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
@@ -4440,7 +4473,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('list-pre-google-forms'!E50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
@@ -4450,7 +4483,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>IF('list-pre-google-forms'!E51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
@@ -4460,7 +4493,7 @@
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('list-pre-google-forms'!E52=1,'list-pre-google-forms'!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
@@ -4470,7 +4503,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF('list-pre-google-forms'!E53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
@@ -4480,7 +4513,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>IF('list-pre-google-forms'!E54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
@@ -4490,7 +4523,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>IF('list-pre-google-forms'!E55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
@@ -4500,7 +4533,7 @@
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>IF('list-pre-google-forms'!E56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
@@ -4510,7 +4543,7 @@
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>IF('list-pre-google-forms'!E57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
@@ -4520,7 +4553,7 @@
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>IF('list-pre-google-forms'!E58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
@@ -4530,7 +4563,7 @@
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>IF('list-pre-google-forms'!E59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
@@ -4540,7 +4573,7 @@
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>IF('list-pre-google-forms'!E60=1,'list-pre-google-forms'!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
@@ -4550,7 +4583,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>IF('list-pre-google-forms'!E61=1,'list-pre-google-forms'!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
@@ -4560,7 +4593,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>IF('list-pre-google-forms'!E62=1,'list-pre-google-forms'!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
@@ -4570,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>IF('list-pre-google-forms'!E63=1,'list-pre-google-forms'!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
@@ -4580,7 +4613,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>IF('list-pre-google-forms'!E64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
@@ -4590,7 +4623,7 @@
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>IF('list-pre-google-forms'!E65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
@@ -4600,7 +4633,7 @@
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>IF('list-pre-google-forms'!E66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
@@ -4610,7 +4643,7 @@
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('list-pre-google-forms'!E67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
@@ -4620,7 +4653,7 @@
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>IF('list-pre-google-forms'!E68=1,'list-pre-google-forms'!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
@@ -4630,7 +4663,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>IF('list-pre-google-forms'!E69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
@@ -4640,7 +4673,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>IF('list-pre-google-forms'!E70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
@@ -4650,7 +4683,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>IF('list-pre-google-forms'!E71=1,'list-pre-google-forms'!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
@@ -4660,7 +4693,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF('list-pre-google-forms'!E72=1,'list-pre-google-forms'!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
@@ -4670,7 +4703,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF('list-pre-google-forms'!E73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
@@ -4680,7 +4713,7 @@
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('list-pre-google-forms'!E74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
@@ -4690,7 +4723,7 @@
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('list-pre-google-forms'!E75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
@@ -4700,7 +4733,7 @@
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('list-pre-google-forms'!E76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
@@ -4710,7 +4743,7 @@
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('list-pre-google-forms'!E77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
@@ -4720,7 +4753,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF('list-pre-google-forms'!E78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
@@ -4730,7 +4763,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>IF('list-pre-google-forms'!E79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
@@ -4740,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>IF('list-pre-google-forms'!E80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
@@ -4750,7 +4783,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>IF('list-pre-google-forms'!E81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
@@ -4760,7 +4793,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>IF('list-pre-google-forms'!E82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
@@ -4770,7 +4803,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF('list-pre-google-forms'!E83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
@@ -4780,7 +4813,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
         <f>IF('list-pre-google-forms'!G88=1,'list-pre-google-forms'!C88,"")</f>
         <v/>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E73D99-CB8A-455D-BD25-459871CA0A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7CA8D0-235C-4CD0-ADDF-B1BF73D7C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="261">
   <si>
     <t>Name</t>
   </si>
@@ -807,10 +807,19 @@
     <t>Andrew Smith</t>
   </si>
   <si>
-    <t>List of participants as of 2023-01-09</t>
-  </si>
-  <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Cooke, Chelsea</t>
+  </si>
+  <si>
+    <t>Chelsea.Cooke@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Chelsea Cooke</t>
+  </si>
+  <si>
+    <t>List of participants as of 2023-01-11</t>
   </si>
 </sst>
 </file>
@@ -1175,13 +1184,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1218,25 +1229,25 @@
         <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
         <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I3" t="s">
         <v>191</v>
@@ -2509,7 +2520,7 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
@@ -2541,7 +2552,7 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -2573,7 +2584,7 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -2605,7 +2616,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -2637,7 +2648,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -2669,7 +2680,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -2701,7 +2712,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -2733,7 +2744,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -2765,7 +2776,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -2797,7 +2808,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -2829,7 +2840,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -2861,7 +2872,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -2885,21 +2896,21 @@
         <v>191</v>
       </c>
       <c r="D55" t="str">
-        <f>'outlook-responses'!A65</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A64</f>
+        <v>PAC</v>
       </c>
       <c r="E55" t="s">
         <v>191</v>
       </c>
       <c r="F55" t="str">
-        <f>'outlook-responses'!I65</f>
-        <v>Rénald Belley</v>
+        <f>'outlook-responses'!I64</f>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
       </c>
       <c r="H55" t="str">
-        <f>'outlook-responses'!H65</f>
+        <f>'outlook-responses'!H64</f>
         <v>Virtual</v>
       </c>
       <c r="I55" t="s">
@@ -2925,7 +2936,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Rénald Belley</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -2957,14 +2968,14 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
       </c>
       <c r="H57" t="str">
         <f>'outlook-responses'!H67</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I57" t="s">
         <v>191</v>
@@ -2989,7 +3000,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -3021,14 +3032,14 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
       </c>
       <c r="H59" t="str">
         <f>'outlook-responses'!H69</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I59" t="s">
         <v>191</v>
@@ -3053,7 +3064,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -3076,11 +3087,23 @@
       <c r="C61" t="s">
         <v>191</v>
       </c>
+      <c r="D61" t="str">
+        <f>'outlook-responses'!A71</f>
+        <v>QUE</v>
+      </c>
       <c r="E61" t="s">
         <v>191</v>
       </c>
+      <c r="F61" t="str">
+        <f>'outlook-responses'!I71</f>
+        <v>Andrew Smith</v>
+      </c>
       <c r="G61" t="s">
         <v>191</v>
+      </c>
+      <c r="H61" t="str">
+        <f>'outlook-responses'!H71</f>
+        <v>Virtual</v>
       </c>
       <c r="I61" t="s">
         <v>191</v>
@@ -3146,24 +3169,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>191</v>
       </c>
       <c r="B65">
         <v>62</v>
-      </c>
-      <c r="C65" t="s">
-        <v>191</v>
-      </c>
-      <c r="E65" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" t="s">
-        <v>191</v>
-      </c>
-      <c r="I65" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3173,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,8 +3201,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M70)</f>
-        <v>57</v>
+        <f>SUM(M8:M71)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3199,8 +3210,8 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O70)</f>
-        <v>37</v>
+        <f>SUM(O8:O71)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3208,7 +3219,7 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N70)</f>
+        <f>SUM(N8:N71)</f>
         <v>20</v>
       </c>
     </row>
@@ -3234,8 +3245,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C50+C31+C41+C65+C9</f>
-        <v>57</v>
+        <f>C19+C50+C31+C41+C66+C9</f>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3265,11 +3276,11 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IF(H9="In person",1,0)</f>
+        <f t="shared" ref="N9:N17" si="0">IF(H9="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>IF(H9="Virtual",1,0)</f>
+        <f t="shared" ref="O9:O17" si="1">IF(H9="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -3293,11 +3304,11 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IF(H10="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>IF(H10="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3321,11 +3332,11 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f>IF(H11="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>IF(H11="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3349,11 +3360,11 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f>IF(H12="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f>IF(H12="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3377,11 +3388,11 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <f>IF(H13="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O13">
-        <f>IF(H13="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3405,11 +3416,11 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <f>IF(H14="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>IF(H14="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3433,11 +3444,11 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IF(H15="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>IF(H15="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3461,11 +3472,11 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <f>IF(H16="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>IF(H16="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3489,11 +3500,11 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <f>IF(H17="In person",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IF(H17="Virtual",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3525,11 +3536,11 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(H19="In person",1,0)</f>
+        <f t="shared" ref="N19:N29" si="2">IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>IF(H19="Virtual",1,0)</f>
+        <f t="shared" ref="O19:O29" si="3">IF(H19="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3554,11 +3565,11 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(H20="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IF(H20="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3583,11 +3594,11 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(H21="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IF(H21="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3612,11 +3623,11 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(H22="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IF(H22="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3641,11 +3652,11 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(H23="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>IF(H23="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3670,11 +3681,11 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(H24="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>IF(H24="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3699,11 +3710,11 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF(H25="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>IF(H25="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3728,11 +3739,11 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF(H26="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>IF(H26="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3757,11 +3768,11 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>IF(H27="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>IF(H27="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3786,11 +3797,11 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f>IF(H28="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>IF(H28="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3815,11 +3826,11 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f>IF(H29="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f>IF(H29="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3850,11 +3861,11 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f>IF(H31="In person",1,0)</f>
+        <f t="shared" ref="N31:N39" si="4">IF(H31="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>IF(H31="Virtual",1,0)</f>
+        <f t="shared" ref="O31:O39" si="5">IF(H31="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -3878,11 +3889,11 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f>IF(H32="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>IF(H32="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3906,11 +3917,11 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f>IF(H33="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O33">
-        <f>IF(H33="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3934,11 +3945,11 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <f>IF(H34="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O34">
-        <f>IF(H34="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3962,11 +3973,11 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f>IF(H35="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>IF(H35="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3990,11 +4001,11 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f>IF(H36="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>IF(H36="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4018,11 +4029,11 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f>IF(H37="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f>IF(H37="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4046,11 +4057,11 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f>IF(H38="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O38">
-        <f>IF(H38="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4074,11 +4085,11 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f>IF(H39="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>IF(H39="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4109,11 +4120,11 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <f>IF(H41="In person",1,0)</f>
+        <f t="shared" ref="N41:N48" si="6">IF(H41="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f>IF(H41="Virtual",1,0)</f>
+        <f t="shared" ref="O41:O48" si="7">IF(H41="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4137,11 +4148,11 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f>IF(H42="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>IF(H42="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4165,11 +4176,11 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f>IF(H43="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>IF(H43="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4193,11 +4204,11 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f>IF(H44="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O44">
-        <f>IF(H44="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4221,11 +4232,11 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f>IF(H45="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>IF(H45="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4249,11 +4260,11 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <f>IF(H46="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>IF(H46="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4277,11 +4288,11 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <f>IF(H47="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f>IF(H47="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4305,11 +4316,11 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <f>IF(H48="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O48">
-        <f>IF(H48="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4321,8 +4332,8 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <f>SUM(M50:M63)</f>
-        <v>14</v>
+        <f>SUM(M50:M64)</f>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>93</v>
@@ -4340,11 +4351,11 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <f>IF(H50="In person",1,0)</f>
+        <f t="shared" ref="N50:N64" si="8">IF(H50="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O50">
-        <f>IF(H50="Virtual",1,0)</f>
+        <f t="shared" ref="O50:O64" si="9">IF(H50="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4368,11 +4379,11 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <f>IF(H51="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>IF(H51="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4381,26 +4392,24 @@
         <v>193</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>59</v>
+        <v>257</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="H52" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>238</v>
+      <c r="I52" t="s">
+        <v>259</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f>IF(H52="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O52">
-        <f>IF(H52="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4409,26 +4418,26 @@
         <v>193</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>17</v>
+        <v>185</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H53" t="s">
         <v>140</v>
       </c>
-      <c r="I53" t="s">
-        <v>239</v>
+      <c r="I53" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f>IF(H53="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f>IF(H53="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4437,26 +4446,26 @@
         <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
       </c>
       <c r="I54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f>IF(H54="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f>IF(H54="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4465,26 +4474,26 @@
         <v>193</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f>IF(H55="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f>IF(H55="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4493,26 +4502,26 @@
         <v>193</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f>IF(H56="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f>IF(H56="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4521,26 +4530,26 @@
         <v>193</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>243</v>
+      <c r="I57" t="s">
+        <v>242</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f>IF(H57="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f>IF(H57="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4549,26 +4558,26 @@
         <v>193</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
       </c>
-      <c r="I58" t="s">
-        <v>244</v>
+      <c r="I58" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <f>IF(H58="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f>IF(H58="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4577,26 +4586,26 @@
         <v>193</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
       </c>
       <c r="I59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <f>IF(H59="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f>IF(H59="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4605,26 +4614,26 @@
         <v>193</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>246</v>
+      <c r="I60" t="s">
+        <v>245</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f>IF(H60="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f>IF(H60="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4633,26 +4642,26 @@
         <v>193</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
-      <c r="I61" t="s">
-        <v>247</v>
+      <c r="I61" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <f>IF(H61="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f>IF(H61="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4661,26 +4670,26 @@
         <v>193</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>248</v>
+      <c r="I62" t="s">
+        <v>247</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f>IF(H62="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f>IF(H62="Virtual",1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4689,61 +4698,54 @@
         <v>193</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <f>IF(H63="In person",1,0)</f>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O63">
-        <f>IF(H63="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65">
-        <f>SUM(M65:M70)</f>
-        <v>6</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H65" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" t="s">
-        <v>250</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <f>IF(H65="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <f>IF(H65="Virtual",1,0)</f>
+      <c r="O64">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4751,27 +4753,34 @@
       <c r="A66" t="s">
         <v>196</v>
       </c>
-      <c r="E66" t="s">
-        <v>174</v>
-      </c>
-      <c r="F66" t="s">
-        <v>112</v>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <f>SUM(M66:M71)</f>
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f>IF(H66="In person",1,0)</f>
+        <f t="shared" ref="N66:N71" si="10">IF(H66="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f>IF(H66="Virtual",1,0)</f>
+        <f t="shared" ref="O66:O71" si="11">IF(H66="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4779,28 +4788,28 @@
       <c r="A67" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>119</v>
+      <c r="E67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
       </c>
       <c r="H67" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f>IF(H67="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="O67">
-        <f>IF(H67="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -4808,26 +4817,26 @@
         <v>196</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H68" t="s">
         <v>122</v>
       </c>
       <c r="I68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f>IF(H68="In person",1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f>IF(H68="Virtual",1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4836,27 +4845,27 @@
         <v>196</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f>IF(H69="In person",1,0)</f>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="11"/>
         <v>0</v>
-      </c>
-      <c r="O69">
-        <f>IF(H69="Virtual",1,0)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4864,26 +4873,54 @@
         <v>196</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H70" t="s">
         <v>140</v>
       </c>
       <c r="I70" t="s">
+        <v>254</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" t="s">
+        <v>140</v>
+      </c>
+      <c r="I71" t="s">
         <v>255</v>
       </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <f>IF(H70="In person",1,0)</f>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O70">
-        <f>IF(H70="Virtual",1,0)</f>
+      <c r="O71">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7CA8D0-235C-4CD0-ADDF-B1BF73D7C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48F55D7-5CBC-495A-A95F-C6E78B07D818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="264">
   <si>
     <t>Name</t>
   </si>
@@ -820,6 +820,15 @@
   </si>
   <si>
     <t>List of participants as of 2023-01-11</t>
+  </si>
+  <si>
+    <t>Kierstyn Rideout</t>
+  </si>
+  <si>
+    <t>Rideout, Kierstyn</t>
+  </si>
+  <si>
+    <t>Kierstyn.Rideout@dfo-mpo.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1194,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I61"/>
+      <selection sqref="A1:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2433,7 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
@@ -2448,22 +2457,22 @@
         <v>191</v>
       </c>
       <c r="D41" t="str">
-        <f>'outlook-responses'!A50</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A49</f>
+        <v>NL</v>
       </c>
       <c r="E41" t="s">
         <v>191</v>
       </c>
       <c r="F41" t="str">
-        <f>'outlook-responses'!I50</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I49</f>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
       </c>
       <c r="H41" t="str">
-        <f>'outlook-responses'!H50</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H49</f>
+        <v>In person</v>
       </c>
       <c r="I41" t="s">
         <v>191</v>
@@ -2488,7 +2497,7 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Karalea Cantera</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
@@ -2520,7 +2529,7 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Chelsea Cooke</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
@@ -2552,7 +2561,7 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -2584,7 +2593,7 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -2616,7 +2625,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -2648,7 +2657,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -2680,7 +2689,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -2712,7 +2721,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -2744,7 +2753,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -2776,7 +2785,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -2808,7 +2817,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -2840,7 +2849,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -2872,7 +2881,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -2904,7 +2913,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -2928,21 +2937,21 @@
         <v>191</v>
       </c>
       <c r="D56" t="str">
-        <f>'outlook-responses'!A66</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A65</f>
+        <v>PAC</v>
       </c>
       <c r="E56" t="s">
         <v>191</v>
       </c>
       <c r="F56" t="str">
-        <f>'outlook-responses'!I66</f>
-        <v>Rénald Belley</v>
+        <f>'outlook-responses'!I65</f>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
       </c>
       <c r="H56" t="str">
-        <f>'outlook-responses'!H66</f>
+        <f>'outlook-responses'!H65</f>
         <v>Virtual</v>
       </c>
       <c r="I56" t="s">
@@ -2968,7 +2977,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Rénald Belley</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
       </c>
       <c r="H58" t="str">
         <f>'outlook-responses'!H68</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I58" t="s">
         <v>191</v>
@@ -3032,7 +3041,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -3064,14 +3073,14 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
       </c>
       <c r="H60" t="str">
         <f>'outlook-responses'!H70</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I60" t="s">
         <v>191</v>
@@ -3096,7 +3105,7 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -3119,11 +3128,23 @@
       <c r="C62" t="s">
         <v>191</v>
       </c>
+      <c r="D62" t="str">
+        <f>'outlook-responses'!A72</f>
+        <v>QUE</v>
+      </c>
       <c r="E62" t="s">
         <v>191</v>
       </c>
+      <c r="F62" t="str">
+        <f>'outlook-responses'!I72</f>
+        <v>Andrew Smith</v>
+      </c>
       <c r="G62" t="s">
         <v>191</v>
+      </c>
+      <c r="H62" t="str">
+        <f>'outlook-responses'!H72</f>
+        <v>Virtual</v>
       </c>
       <c r="I62" t="s">
         <v>191</v>
@@ -3136,18 +3157,6 @@
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" t="s">
-        <v>191</v>
-      </c>
-      <c r="G63" t="s">
-        <v>191</v>
-      </c>
-      <c r="I63" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -3155,18 +3164,6 @@
       </c>
       <c r="B64">
         <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" t="s">
-        <v>191</v>
-      </c>
-      <c r="G64" t="s">
-        <v>191</v>
-      </c>
-      <c r="I64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
@@ -3201,8 +3198,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M71)</f>
-        <v>58</v>
+        <f>SUM(M8:M72)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3210,7 +3207,7 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O71)</f>
+        <f>SUM(O8:O72)</f>
         <v>38</v>
       </c>
     </row>
@@ -3219,8 +3216,8 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N71)</f>
-        <v>20</v>
+        <f>SUM(N8:N72)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3245,8 +3242,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C50+C31+C41+C66+C9</f>
-        <v>58</v>
+        <f>C19+C51+C31+C41+C67+C9</f>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4101,8 +4098,8 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <f>SUM(M41:M48)</f>
-        <v>8</v>
+        <f>SUM(M41:M49)</f>
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>87</v>
@@ -4120,11 +4117,11 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N48" si="6">IF(H41="In person",1,0)</f>
+        <f>IF(H41="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41:O48" si="7">IF(H41="Virtual",1,0)</f>
+        <f>IF(H41="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4148,11 +4145,11 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="6"/>
+        <f>IF(H42="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="7"/>
+        <f>IF(H42="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4176,11 +4173,11 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="6"/>
+        <f>IF(H43="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="7"/>
+        <f>IF(H43="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4204,11 +4201,11 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="6"/>
+        <f>IF(H44="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="7"/>
+        <f>IF(H44="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4232,11 +4229,11 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="6"/>
+        <f>IF(H45="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="7"/>
+        <f>IF(H45="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4260,11 +4257,11 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="6"/>
+        <f>IF(H46="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="7"/>
+        <f>IF(H46="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4288,11 +4285,11 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
+        <f>IF(H47="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="7"/>
+        <f>IF(H47="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4301,89 +4298,87 @@
         <v>195</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="H48" t="s">
         <v>122</v>
       </c>
       <c r="I48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" t="s">
         <v>235</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="7"/>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f>IF(H49="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f>IF(H49="Virtual",1,0)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50">
-        <f>SUM(M50:M64)</f>
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <f t="shared" ref="N50:N64" si="8">IF(H50="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f t="shared" ref="O50:O64" si="9">IF(H50="Virtual",1,0)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <f>SUM(M51:M65)</f>
+        <v>15</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H51" t="s">
         <v>140</v>
       </c>
-      <c r="I51" t="s">
-        <v>237</v>
+      <c r="I51" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N51:N65" si="6">IF(H51="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O51:O65" si="7">IF(H51="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4392,24 +4387,26 @@
         <v>193</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O52">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4418,26 +4415,24 @@
         <v>193</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>59</v>
+        <v>257</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="H53" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>238</v>
+      <c r="I53" t="s">
+        <v>259</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4446,26 +4441,26 @@
         <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>17</v>
+        <v>185</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
       </c>
-      <c r="I54" t="s">
-        <v>239</v>
+      <c r="I54" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4474,26 +4469,26 @@
         <v>193</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4502,26 +4497,26 @@
         <v>193</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4530,26 +4525,26 @@
         <v>193</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4558,26 +4553,26 @@
         <v>193</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>243</v>
+      <c r="I58" t="s">
+        <v>242</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4586,26 +4581,26 @@
         <v>193</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
       </c>
-      <c r="I59" t="s">
-        <v>244</v>
+      <c r="I59" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4614,26 +4609,26 @@
         <v>193</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4642,26 +4637,26 @@
         <v>193</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>246</v>
+      <c r="I61" t="s">
+        <v>245</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4670,26 +4665,26 @@
         <v>193</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" t="s">
-        <v>247</v>
+      <c r="I62" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4698,26 +4693,26 @@
         <v>193</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>248</v>
+      <c r="I63" t="s">
+        <v>247</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4726,61 +4721,54 @@
         <v>193</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="8"/>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66">
-        <f>SUM(M66:M71)</f>
-        <v>6</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" t="s">
-        <v>140</v>
-      </c>
-      <c r="I66" t="s">
-        <v>250</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <f t="shared" ref="N66:N71" si="10">IF(H66="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <f t="shared" ref="O66:O71" si="11">IF(H66="Virtual",1,0)</f>
+      <c r="O65">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4788,27 +4776,34 @@
       <c r="A67" t="s">
         <v>196</v>
       </c>
-      <c r="E67" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" t="s">
-        <v>112</v>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <f>SUM(M67:M72)</f>
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N67:N72" si="8">IF(H67="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="O67:O72" si="9">IF(H67="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4816,28 +4811,28 @@
       <c r="A68" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>119</v>
+      <c r="E68" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
       </c>
       <c r="H68" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4845,26 +4840,26 @@
         <v>196</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H69" t="s">
         <v>122</v>
       </c>
       <c r="I69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4873,27 +4868,27 @@
         <v>196</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="9"/>
         <v>0</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="11"/>
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -4901,32 +4896,60 @@
         <v>196</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H71" t="s">
         <v>140</v>
       </c>
       <c r="I71" t="s">
+        <v>254</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H72" t="s">
+        <v>140</v>
+      </c>
+      <c r="I72" t="s">
         <v>255</v>
       </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="10"/>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O71">
-        <f t="shared" si="11"/>
+      <c r="O72">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E9:O17">
-    <sortCondition ref="E9:E17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E41:O49">
+    <sortCondition ref="E41:E49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48F55D7-5CBC-495A-A95F-C6E78B07D818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3DD49A-58FA-4B67-83DE-D7072998BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="for-README" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="269">
   <si>
     <t>Name</t>
   </si>
@@ -819,9 +819,6 @@
     <t>Chelsea Cooke</t>
   </si>
   <si>
-    <t>List of participants as of 2023-01-11</t>
-  </si>
-  <si>
     <t>Kierstyn Rideout</t>
   </si>
   <si>
@@ -829,6 +826,24 @@
   </si>
   <si>
     <t>Kierstyn.Rideout@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Underhill, Kari</t>
+  </si>
+  <si>
+    <t>Kari Underhill</t>
+  </si>
+  <si>
+    <t>Kari.Underhill@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Jaime Thomson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomson, Jaime </t>
+  </si>
+  <si>
+    <t>Jaime.Thomson@dfo-mpo.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -897,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,6 +925,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1191,20 +1207,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="str">
+        <f ca="1">CONCATENATE("List of the ", N1, "participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
+        <v>List of the 61participants as of 2023-01-12 (23 in person and 38 virtual)</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1">
+        <f>SUM(J4:J64)</f>
+        <v>38</v>
+      </c>
+      <c r="N1">
+        <f>L1+L2</f>
+        <v>61</v>
+      </c>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -1232,8 +1262,15 @@
       <c r="I2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2">
+        <f>SUM(K4:K67)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -1262,7 +1299,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1293,8 +1330,16 @@
       <c r="I4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>IF(H4="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>IF(H4="In person",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -1325,8 +1370,16 @@
       <c r="I5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" ref="J5:J64" si="0">IF(H5="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K67" si="1">IF(H5="In person",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -1357,8 +1410,16 @@
       <c r="I6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -1389,8 +1450,16 @@
       <c r="I7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -1421,8 +1490,16 @@
       <c r="I8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -1453,8 +1530,16 @@
       <c r="I9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -1485,8 +1570,16 @@
       <c r="I10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -1517,8 +1610,16 @@
       <c r="I11" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -1549,8 +1650,16 @@
       <c r="I12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -1581,8 +1690,16 @@
       <c r="I13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -1613,8 +1730,16 @@
       <c r="I14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -1645,8 +1770,16 @@
       <c r="I15" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -1677,8 +1810,16 @@
       <c r="I16" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -1709,8 +1850,16 @@
       <c r="I17" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -1741,8 +1890,16 @@
       <c r="I18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -1773,8 +1930,16 @@
       <c r="I19" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -1805,8 +1970,16 @@
       <c r="I20" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -1837,8 +2010,16 @@
       <c r="I21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -1869,8 +2050,16 @@
       <c r="I22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -1901,8 +2090,16 @@
       <c r="I23" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -1913,28 +2110,36 @@
         <v>191</v>
       </c>
       <c r="D24" t="str">
-        <f>'outlook-responses'!A31</f>
-        <v>MAR</v>
+        <f>'outlook-responses'!A30</f>
+        <v>GLF</v>
       </c>
       <c r="E24" t="s">
         <v>191</v>
       </c>
       <c r="F24" t="str">
-        <f>'outlook-responses'!I31</f>
-        <v>Mark Billard</v>
+        <f>'outlook-responses'!I30</f>
+        <v>Kari Underhill</v>
       </c>
       <c r="G24" t="s">
         <v>191</v>
       </c>
       <c r="H24" t="str">
-        <f>'outlook-responses'!H31</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H30</f>
+        <v>In person</v>
       </c>
       <c r="I24" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -1953,7 +2158,7 @@
       </c>
       <c r="F25" t="str">
         <f>'outlook-responses'!I32</f>
-        <v>Lynn Collier</v>
+        <v>Mark Billard</v>
       </c>
       <c r="G25" t="s">
         <v>191</v>
@@ -1965,8 +2170,16 @@
       <c r="I25" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -1985,20 +2198,28 @@
       </c>
       <c r="F26" t="str">
         <f>'outlook-responses'!I33</f>
-        <v>Peter Comeau</v>
+        <v>Lynn Collier</v>
       </c>
       <c r="G26" t="s">
         <v>191</v>
       </c>
       <c r="H26" t="str">
         <f>'outlook-responses'!H33</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I26" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -2017,7 +2238,7 @@
       </c>
       <c r="F27" t="str">
         <f>'outlook-responses'!I34</f>
-        <v>Tania Davignon-Burton</v>
+        <v>Peter Comeau</v>
       </c>
       <c r="G27" t="s">
         <v>191</v>
@@ -2029,8 +2250,16 @@
       <c r="I27" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -2049,20 +2278,28 @@
       </c>
       <c r="F28" t="str">
         <f>'outlook-responses'!I35</f>
-        <v>Nell den Heyer</v>
+        <v>Tania Davignon-Burton</v>
       </c>
       <c r="G28" t="s">
         <v>191</v>
       </c>
       <c r="H28" t="str">
         <f>'outlook-responses'!H35</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I28" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -2081,7 +2318,7 @@
       </c>
       <c r="F29" t="str">
         <f>'outlook-responses'!I36</f>
-        <v>Danni Harper</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="G29" t="s">
         <v>191</v>
@@ -2093,8 +2330,16 @@
       <c r="I29" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -2113,7 +2358,7 @@
       </c>
       <c r="F30" t="str">
         <f>'outlook-responses'!I37</f>
-        <v>Kelly Kraska</v>
+        <v>Danni Harper</v>
       </c>
       <c r="G30" t="s">
         <v>191</v>
@@ -2125,8 +2370,16 @@
       <c r="I30" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -2145,20 +2398,28 @@
       </c>
       <c r="F31" t="str">
         <f>'outlook-responses'!I38</f>
-        <v>George Nau</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="G31" t="s">
         <v>191</v>
       </c>
       <c r="H31" t="str">
         <f>'outlook-responses'!H38</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I31" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -2177,20 +2438,28 @@
       </c>
       <c r="F32" t="str">
         <f>'outlook-responses'!I39</f>
-        <v>Gregory Puncher</v>
+        <v>George Nau</v>
       </c>
       <c r="G32" t="s">
         <v>191</v>
       </c>
       <c r="H32" t="str">
         <f>'outlook-responses'!H39</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I32" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>191</v>
       </c>
@@ -2201,28 +2470,36 @@
         <v>191</v>
       </c>
       <c r="D33" t="str">
-        <f>'outlook-responses'!A41</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A40</f>
+        <v>MAR</v>
       </c>
       <c r="E33" t="s">
         <v>191</v>
       </c>
       <c r="F33" t="str">
-        <f>'outlook-responses'!I41</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I40</f>
+        <v>Gregory Puncher</v>
       </c>
       <c r="G33" t="s">
         <v>191</v>
       </c>
       <c r="H33" t="str">
-        <f>'outlook-responses'!H41</f>
+        <f>'outlook-responses'!H40</f>
         <v>Virtual</v>
       </c>
       <c r="I33" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -2241,7 +2518,7 @@
       </c>
       <c r="F34" t="str">
         <f>'outlook-responses'!I42</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G34" t="s">
         <v>191</v>
@@ -2253,8 +2530,16 @@
       <c r="I34" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -2273,7 +2558,7 @@
       </c>
       <c r="F35" t="str">
         <f>'outlook-responses'!I43</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
@@ -2285,8 +2570,16 @@
       <c r="I35" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -2305,20 +2598,28 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I44</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="str">
         <f>'outlook-responses'!H44</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -2337,20 +2638,28 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>Marc Legresley</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
       </c>
       <c r="H37" t="str">
         <f>'outlook-responses'!H45</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I37" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -2369,7 +2678,7 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
@@ -2381,8 +2690,16 @@
       <c r="I38" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>191</v>
       </c>
@@ -2401,7 +2718,7 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I47</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
@@ -2413,8 +2730,16 @@
       <c r="I39" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -2433,20 +2758,28 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
         <f>'outlook-responses'!H48</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I40" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -2465,7 +2798,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -2477,8 +2810,16 @@
       <c r="I41" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -2489,28 +2830,36 @@
         <v>191</v>
       </c>
       <c r="D42" t="str">
-        <f>'outlook-responses'!A51</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A50</f>
+        <v>NL</v>
       </c>
       <c r="E42" t="s">
         <v>191</v>
       </c>
       <c r="F42" t="str">
-        <f>'outlook-responses'!I51</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I50</f>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
       </c>
       <c r="H42" t="str">
-        <f>'outlook-responses'!H51</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H50</f>
+        <v>In person</v>
       </c>
       <c r="I42" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -2521,28 +2870,36 @@
         <v>191</v>
       </c>
       <c r="D43" t="str">
-        <f>'outlook-responses'!A52</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A51</f>
+        <v>NL</v>
       </c>
       <c r="E43" t="s">
         <v>191</v>
       </c>
       <c r="F43" t="str">
-        <f>'outlook-responses'!I52</f>
-        <v>Karalea Cantera</v>
+        <f>'outlook-responses'!I51</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
       </c>
       <c r="H43" t="str">
-        <f>'outlook-responses'!H52</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H51</f>
+        <v>In person</v>
       </c>
       <c r="I43" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -2561,7 +2918,7 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Chelsea Cooke</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -2573,8 +2930,16 @@
       <c r="I44" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -2593,7 +2958,7 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Robyn Forrest</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -2605,8 +2970,16 @@
       <c r="I45" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -2625,7 +2998,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -2637,8 +3010,16 @@
       <c r="I46" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -2657,7 +3038,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Erin Herder</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -2669,8 +3050,16 @@
       <c r="I47" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -2689,7 +3078,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Kendra Holt</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -2701,8 +3090,16 @@
       <c r="I48" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -2721,7 +3118,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Yeongha Jung</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -2733,8 +3130,16 @@
       <c r="I49" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -2753,7 +3158,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Madeline Lavery</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -2765,8 +3170,16 @@
       <c r="I50" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -2785,7 +3198,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Kiana Matwichuk</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -2797,8 +3210,16 @@
       <c r="I51" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -2817,7 +3238,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Mackenzie Mazur</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -2829,8 +3250,16 @@
       <c r="I52" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -2849,7 +3278,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Judy McArthur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -2861,8 +3290,16 @@
       <c r="I53" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -2881,7 +3318,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Audrey Ty</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -2893,8 +3330,16 @@
       <c r="I54" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -2913,7 +3358,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Stephen Wischniowski</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -2925,8 +3370,16 @@
       <c r="I55" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -2945,7 +3398,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Emily Yungwirth</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -2957,8 +3410,16 @@
       <c r="I56" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>191</v>
       </c>
@@ -2969,60 +3430,76 @@
         <v>191</v>
       </c>
       <c r="D57" t="str">
+        <f>'outlook-responses'!A66</f>
+        <v>PAC</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" t="str">
+        <f>'outlook-responses'!I66</f>
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="G57" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" t="str">
+        <f>'outlook-responses'!H66</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I57" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" t="str">
         <f>'outlook-responses'!A67</f>
-        <v>QUE</v>
-      </c>
-      <c r="E57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57" t="str">
+        <v>PAC</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Rénald Belley</v>
-      </c>
-      <c r="G57" t="s">
-        <v>191</v>
-      </c>
-      <c r="H57" t="str">
+        <v>Emily Yungwirth</v>
+      </c>
+      <c r="G58" t="s">
+        <v>191</v>
+      </c>
+      <c r="H58" t="str">
         <f>'outlook-responses'!H67</f>
         <v>Virtual</v>
       </c>
-      <c r="I57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" t="str">
-        <f>'outlook-responses'!A68</f>
-        <v>QUE</v>
-      </c>
-      <c r="E58" t="s">
-        <v>191</v>
-      </c>
-      <c r="F58" t="str">
-        <f>'outlook-responses'!I68</f>
-        <v>Mathieu Desgagnés</v>
-      </c>
-      <c r="G58" t="s">
-        <v>191</v>
-      </c>
-      <c r="H58" t="str">
-        <f>'outlook-responses'!H68</f>
-        <v>Virtual</v>
-      </c>
       <c r="I58" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -3041,20 +3518,28 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Hélène Dionne</v>
+        <v>Rénald Belley</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
       </c>
       <c r="H59" t="str">
         <f>'outlook-responses'!H69</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I59" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -3073,20 +3558,28 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Kim Emond</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
       </c>
       <c r="H60" t="str">
         <f>'outlook-responses'!H70</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I60" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -3105,20 +3598,28 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Nicolas Le Corre</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
       </c>
       <c r="H61" t="str">
         <f>'outlook-responses'!H71</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I61" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -3137,41 +3638,141 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Andrew Smith</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
       </c>
       <c r="H62" t="str">
         <f>'outlook-responses'!H72</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I62" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>191</v>
       </c>
       <c r="B63">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="str">
+        <f>'outlook-responses'!A73</f>
+        <v>QUE</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" t="str">
+        <f>'outlook-responses'!I73</f>
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="G63" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" t="str">
+        <f>'outlook-responses'!H73</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I63" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>191</v>
       </c>
       <c r="B64">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="str">
+        <f>'outlook-responses'!A74</f>
+        <v>QUE</v>
+      </c>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" t="str">
+        <f>'outlook-responses'!I74</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" t="str">
+        <f>'outlook-responses'!H74</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I64" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>191</v>
       </c>
       <c r="B65">
         <v>62</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3181,46 +3782,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M72)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <f>SUM(M8:M74)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O72)</f>
+        <f>SUM(O8:O74)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N72)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f>SUM(N8:N74)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>187</v>
       </c>
@@ -3237,16 +3838,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C51+C31+C41+C67+C9</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f>C19+C53+C32+C42+C69+C9</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -3281,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -3309,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -3337,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -3365,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -3393,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -3421,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -3449,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -3477,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -3505,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -3513,8 +4114,8 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f>SUM(M19:M29)</f>
-        <v>11</v>
+        <f>SUM(M19:M30)</f>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -3533,15 +4134,15 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N29" si="2">IF(H19="In person",1,0)</f>
+        <f t="shared" ref="N19:N30" si="2">IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O29" si="3">IF(H19="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O19:O30" si="3">IF(H19="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -3570,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -3599,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -3628,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -3657,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -3686,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -3715,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -3744,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -3773,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -3802,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -3831,112 +4432,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <f>SUM(M31:M39)</f>
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ref="N31:N39" si="4">IF(H31="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ref="O31:O39" si="5">IF(H31="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>194</v>
       </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>170</v>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f>SUM(M32:M40)</f>
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H32" t="s">
         <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N32:N40" si="4">IF(H32="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O32:O40" si="5">IF(H32="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>62</v>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>221</v>
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>220</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>194</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="H34" t="s">
         <v>122</v>
       </c>
-      <c r="I34" t="s">
-        <v>222</v>
+      <c r="I34" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -3950,49 +4552,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>194</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>223</v>
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>194</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>159</v>
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H36" t="s">
         <v>140</v>
       </c>
-      <c r="I36" t="s">
-        <v>224</v>
+      <c r="I36" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -4006,21 +4608,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>194</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>131</v>
+        <v>158</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H37" t="s">
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -4034,922 +4636,979 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>194</v>
       </c>
-      <c r="E38" t="s">
-        <v>69</v>
+      <c r="E38" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>130</v>
+      <c r="E39" t="s">
+        <v>69</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <f>SUM(M41:M49)</f>
-        <v>9</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
         <v>140</v>
       </c>
-      <c r="I41" t="s">
-        <v>228</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <f>IF(H41="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f>IF(H41="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>227</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>195</v>
       </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <f>SUM(M42:M51)</f>
+        <v>10</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
       </c>
       <c r="H42" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>229</v>
+      <c r="I42" t="s">
+        <v>228</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f>IF(H42="In person",1,0)</f>
+        <f t="shared" ref="N42:N48" si="6">IF(H42="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>IF(H42="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O42:O48" si="7">IF(H42="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>195</v>
       </c>
-      <c r="E43" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" t="s">
-        <v>144</v>
+      <c r="E43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H43" t="s">
         <v>140</v>
       </c>
-      <c r="I43" t="s">
-        <v>230</v>
+      <c r="I43" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f>IF(H43="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>IF(H43="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>137</v>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f>IF(H44="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O44">
-        <f>IF(H44="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>195</v>
       </c>
-      <c r="E45" t="s">
-        <v>151</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
+      <c r="E45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f>IF(H45="In person",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O45">
-        <f>IF(H45="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>56</v>
+      <c r="E46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" t="s">
+        <v>150</v>
       </c>
       <c r="H46" t="s">
         <v>140</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>233</v>
+      <c r="I46" t="s">
+        <v>232</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f>IF(H46="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>IF(H46="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>195</v>
       </c>
-      <c r="E47" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" t="s">
-        <v>148</v>
+      <c r="E47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H47" t="s">
         <v>140</v>
       </c>
-      <c r="I47" t="s">
-        <v>234</v>
+      <c r="I47" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f>IF(H47="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f>IF(H47="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>195</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>263</v>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" t="s">
+        <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>195</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="H49" t="s">
         <v>122</v>
       </c>
       <c r="I49" t="s">
+        <v>260</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" t="s">
         <v>235</v>
       </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <f>IF(H49="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <f>IF(H49="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f>IF(H50="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f>IF(H50="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51">
-        <f>SUM(M51:M65)</f>
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>184</v>
+        <v>267</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>236</v>
+        <v>122</v>
+      </c>
+      <c r="I51" t="s">
+        <v>266</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" ref="N51:N65" si="6">IF(H51="In person",1,0)</f>
-        <v>0</v>
+        <f>IF(H51="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:O65" si="7">IF(H51="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" t="s">
-        <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>237</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H51="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>193</v>
       </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <f>SUM(M53:M67)</f>
+        <v>15</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>258</v>
+        <v>93</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H53" t="s">
         <v>140</v>
       </c>
-      <c r="I53" t="s">
-        <v>259</v>
+      <c r="I53" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
+        <f t="shared" ref="N53:N67" si="8">IF(H53="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O53:O67" si="9">IF(H53="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>238</v>
+      <c r="I54" t="s">
+        <v>237</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>193</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>17</v>
+        <v>257</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>193</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>53</v>
+        <v>185</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
-      <c r="I56" t="s">
-        <v>240</v>
+      <c r="I56" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>193</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>193</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>193</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>24</v>
+        <v>80</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>243</v>
+      <c r="I59" t="s">
+        <v>241</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>193</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>193</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
-      <c r="I61" t="s">
-        <v>245</v>
+      <c r="I61" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>193</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>190</v>
+        <v>84</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>246</v>
+      <c r="I62" t="s">
+        <v>244</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>193</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>193</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>193</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>249</v>
+      <c r="I65" t="s">
+        <v>247</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <f>SUM(M67:M72)</f>
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
-      <c r="I67" t="s">
-        <v>250</v>
+      <c r="I67" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N72" si="8">IF(H67="In person",1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O72" si="9">IF(H67="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E68" t="s">
-        <v>174</v>
-      </c>
-      <c r="F68" t="s">
-        <v>112</v>
-      </c>
-      <c r="H68" t="s">
-        <v>140</v>
-      </c>
-      <c r="I68" t="s">
-        <v>251</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O68">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>196</v>
       </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <f>SUM(M69:M74)</f>
+        <v>6</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="H69" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="N69:N74" si="10">IF(H69="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O69:O74" si="11">IF(H69="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>36</v>
+      <c r="E70" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>196</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s">
+        <v>122</v>
+      </c>
+      <c r="I72" t="s">
+        <v>253</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" t="s">
+        <v>254</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H74" t="s">
         <v>140</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I74" t="s">
         <v>255</v>
       </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="9"/>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E41:O49">
-    <sortCondition ref="E41:E49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E42:O50">
+    <sortCondition ref="E42:E50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4961,12 +5620,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4974,7 +5633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>IF('list-pre-google-forms'!E10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
@@ -4984,7 +5643,7 @@
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>IF('list-pre-google-forms'!E11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
@@ -4994,7 +5653,7 @@
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>IF('list-pre-google-forms'!E12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
@@ -5004,7 +5663,7 @@
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>IF('list-pre-google-forms'!E13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
@@ -5014,7 +5673,7 @@
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>IF('list-pre-google-forms'!E14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
@@ -5024,7 +5683,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>IF('list-pre-google-forms'!E15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
@@ -5034,7 +5693,7 @@
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>IF('list-pre-google-forms'!E16=1,'list-pre-google-forms'!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
@@ -5044,7 +5703,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>IF('list-pre-google-forms'!E17=1,'list-pre-google-forms'!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
@@ -5054,7 +5713,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>IF('list-pre-google-forms'!E18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
@@ -5064,7 +5723,7 @@
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>IF('list-pre-google-forms'!E19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
@@ -5074,7 +5733,7 @@
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>IF('list-pre-google-forms'!E20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
@@ -5084,7 +5743,7 @@
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>IF('list-pre-google-forms'!E21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
@@ -5094,7 +5753,7 @@
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>IF('list-pre-google-forms'!E22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
@@ -5104,7 +5763,7 @@
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>IF('list-pre-google-forms'!E23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
@@ -5114,7 +5773,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>IF('list-pre-google-forms'!E24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
@@ -5124,7 +5783,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>IF('list-pre-google-forms'!E25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
@@ -5134,7 +5793,7 @@
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>IF('list-pre-google-forms'!E26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
@@ -5144,7 +5803,7 @@
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>IF('list-pre-google-forms'!E27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
@@ -5154,7 +5813,7 @@
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>IF('list-pre-google-forms'!E28=1,'list-pre-google-forms'!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
@@ -5164,7 +5823,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>IF('list-pre-google-forms'!E29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
@@ -5174,7 +5833,7 @@
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>IF('list-pre-google-forms'!E30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
@@ -5184,7 +5843,7 @@
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>IF('list-pre-google-forms'!E31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
@@ -5194,7 +5853,7 @@
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>IF('list-pre-google-forms'!E32=1,'list-pre-google-forms'!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
@@ -5204,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>IF('list-pre-google-forms'!E33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
@@ -5214,7 +5873,7 @@
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>IF('list-pre-google-forms'!E34=1,'list-pre-google-forms'!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
@@ -5224,7 +5883,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>IF('list-pre-google-forms'!E35=1,'list-pre-google-forms'!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
@@ -5234,7 +5893,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>IF('list-pre-google-forms'!E36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
@@ -5244,7 +5903,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>IF('list-pre-google-forms'!E37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
@@ -5254,7 +5913,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>IF('list-pre-google-forms'!E38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
@@ -5264,7 +5923,7 @@
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>IF('list-pre-google-forms'!E39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
@@ -5274,7 +5933,7 @@
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>IF('list-pre-google-forms'!E40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
@@ -5284,7 +5943,7 @@
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>IF('list-pre-google-forms'!E41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
@@ -5294,7 +5953,7 @@
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>IF('list-pre-google-forms'!E42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
@@ -5304,7 +5963,7 @@
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>IF('list-pre-google-forms'!E43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
@@ -5314,7 +5973,7 @@
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>IF('list-pre-google-forms'!E44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
@@ -5324,7 +5983,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>IF('list-pre-google-forms'!E45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
@@ -5334,7 +5993,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>IF('list-pre-google-forms'!E46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
@@ -5344,7 +6003,7 @@
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>IF('list-pre-google-forms'!E47=1,'list-pre-google-forms'!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
@@ -5354,7 +6013,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>IF('list-pre-google-forms'!E48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
@@ -5364,7 +6023,7 @@
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>IF('list-pre-google-forms'!E49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
@@ -5374,7 +6033,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>IF('list-pre-google-forms'!E50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
@@ -5384,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>IF('list-pre-google-forms'!E51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
@@ -5394,7 +6053,7 @@
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>IF('list-pre-google-forms'!E52=1,'list-pre-google-forms'!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
@@ -5404,7 +6063,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>IF('list-pre-google-forms'!E53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
@@ -5414,7 +6073,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>IF('list-pre-google-forms'!E54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
@@ -5424,7 +6083,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>IF('list-pre-google-forms'!E55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
@@ -5434,7 +6093,7 @@
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>IF('list-pre-google-forms'!E56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
@@ -5444,7 +6103,7 @@
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>IF('list-pre-google-forms'!E57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
@@ -5454,7 +6113,7 @@
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>IF('list-pre-google-forms'!E58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
@@ -5464,7 +6123,7 @@
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>IF('list-pre-google-forms'!E59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
@@ -5474,7 +6133,7 @@
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>IF('list-pre-google-forms'!E60=1,'list-pre-google-forms'!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
@@ -5484,7 +6143,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>IF('list-pre-google-forms'!E61=1,'list-pre-google-forms'!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
@@ -5494,7 +6153,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>IF('list-pre-google-forms'!E62=1,'list-pre-google-forms'!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
@@ -5504,7 +6163,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>IF('list-pre-google-forms'!E63=1,'list-pre-google-forms'!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
@@ -5514,7 +6173,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>IF('list-pre-google-forms'!E64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
@@ -5524,7 +6183,7 @@
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>IF('list-pre-google-forms'!E65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
@@ -5534,7 +6193,7 @@
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>IF('list-pre-google-forms'!E66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
@@ -5544,7 +6203,7 @@
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>IF('list-pre-google-forms'!E67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
@@ -5554,7 +6213,7 @@
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>IF('list-pre-google-forms'!E68=1,'list-pre-google-forms'!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
@@ -5564,7 +6223,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>IF('list-pre-google-forms'!E69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
@@ -5574,7 +6233,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>IF('list-pre-google-forms'!E70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
@@ -5584,7 +6243,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>IF('list-pre-google-forms'!E71=1,'list-pre-google-forms'!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
@@ -5594,7 +6253,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>IF('list-pre-google-forms'!E72=1,'list-pre-google-forms'!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
@@ -5604,7 +6263,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>IF('list-pre-google-forms'!E73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
@@ -5614,7 +6273,7 @@
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>IF('list-pre-google-forms'!E74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
@@ -5624,7 +6283,7 @@
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>IF('list-pre-google-forms'!E75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
@@ -5634,7 +6293,7 @@
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>IF('list-pre-google-forms'!E76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
@@ -5644,7 +6303,7 @@
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>IF('list-pre-google-forms'!E77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
@@ -5654,7 +6313,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>IF('list-pre-google-forms'!E78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
@@ -5664,7 +6323,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>IF('list-pre-google-forms'!E79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
@@ -5674,7 +6333,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>IF('list-pre-google-forms'!E80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
@@ -5684,7 +6343,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>IF('list-pre-google-forms'!E81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
@@ -5694,7 +6353,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>IF('list-pre-google-forms'!E82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
@@ -5704,7 +6363,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>IF('list-pre-google-forms'!E83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
@@ -5714,7 +6373,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
         <f>IF('list-pre-google-forms'!G88=1,'list-pre-google-forms'!C88,"")</f>
         <v/>
@@ -5733,26 +6392,26 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -5764,7 +6423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -5774,7 +6433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>125</v>
@@ -5784,11 +6443,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -5814,11 +6473,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -5839,7 +6498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>141</v>
@@ -5865,7 +6524,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>142</v>
@@ -5891,7 +6550,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>143</v>
@@ -5917,7 +6576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -5943,7 +6602,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -5954,7 +6613,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>147</v>
@@ -5980,7 +6639,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>66</v>
@@ -6006,7 +6665,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>65</v>
@@ -6032,7 +6691,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>116</v>
@@ -6052,7 +6711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
@@ -6078,7 +6737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -6104,7 +6763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -6130,7 +6789,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -6153,7 +6812,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -6161,7 +6820,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -6174,7 +6833,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>126</v>
@@ -6193,7 +6852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -6216,7 +6875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -6239,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>68</v>
@@ -6265,7 +6924,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -6288,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -6311,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -6334,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>129</v>
@@ -6351,7 +7010,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -6374,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>130</v>
@@ -6391,7 +7050,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>133</v>
@@ -6405,13 +7064,13 @@
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -6424,7 +7083,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>73</v>
@@ -6447,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>107</v>
@@ -6467,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -6484,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
@@ -6501,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>111</v>
@@ -6518,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>118</v>
@@ -6535,12 +7194,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -6553,7 +7212,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>74</v>
@@ -6576,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
@@ -6593,7 +7252,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -6616,12 +7275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -6634,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -6657,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>77</v>
@@ -6674,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
@@ -6685,7 +7344,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -6698,7 +7357,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>78</v>
@@ -6721,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -6744,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>79</v>
@@ -6767,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -6790,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>80</v>
@@ -6813,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>81</v>
@@ -6830,7 +7489,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>82</v>
@@ -6847,7 +7506,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>83</v>
@@ -6864,7 +7523,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>84</v>
@@ -6881,7 +7540,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>85</v>
@@ -6904,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
         <v>58</v>
@@ -6927,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
         <v>92</v>
@@ -6950,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>93</v>
@@ -6973,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
@@ -6993,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="C69" s="2"/>
       <c r="E69" t="str">
@@ -7005,7 +7664,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -7018,7 +7677,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
         <v>136</v>
@@ -7035,7 +7694,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
         <v>86</v>
@@ -7052,7 +7711,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
         <v>87</v>
@@ -7075,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
         <v>88</v>
@@ -7098,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
         <v>89</v>
@@ -7121,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
         <v>138</v>
@@ -7141,23 +7800,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
@@ -7167,7 +7826,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
@@ -7177,7 +7836,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>126</v>
       </c>
@@ -7190,7 +7849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>114</v>
       </c>
@@ -7203,18 +7862,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F86"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F87"/>
     </row>
   </sheetData>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3DD49A-58FA-4B67-83DE-D7072998BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F85305-F2BB-44D1-9A2C-DE220024A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="268">
   <si>
     <t>Name</t>
   </si>
@@ -787,9 +787,6 @@
   </si>
   <si>
     <t>Emily Yungwirth</t>
-  </si>
-  <si>
-    <t>Rénald Belley</t>
   </si>
   <si>
     <t>Mathieu Desgagnés</t>
@@ -1207,9 +1204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:I63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1218,19 +1217,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
-        <f ca="1">CONCATENATE("List of the ", N1, "participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 61participants as of 2023-01-12 (23 in person and 38 virtual)</v>
+        <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
+        <v>List of the 60 participants as of 2023-01-12 (23 in person and 37 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J64)</f>
-        <v>38</v>
+        <f>SUM(J4:J63)</f>
+        <v>37</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
@@ -1266,7 +1265,7 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K67)</f>
+        <f>SUM(K4:K63)</f>
         <v>23</v>
       </c>
     </row>
@@ -1275,25 +1274,25 @@
         <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
         <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I3" t="s">
         <v>191</v>
@@ -1371,11 +1370,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J64" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J63" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K67" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K66" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3518,7 +3517,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Rénald Belley</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -3558,25 +3557,25 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
       </c>
       <c r="H60" t="str">
         <f>'outlook-responses'!H70</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I60" t="s">
         <v>191</v>
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3598,7 +3597,7 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Hélène Dionne</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -3638,25 +3637,25 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Kim Emond</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
       </c>
       <c r="H62" t="str">
         <f>'outlook-responses'!H72</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I62" t="s">
         <v>191</v>
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3678,7 +3677,7 @@
       </c>
       <c r="F63" t="str">
         <f>'outlook-responses'!I73</f>
-        <v>Nicolas Le Corre</v>
+        <v>Andrew Smith</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
@@ -3695,82 +3694,6 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" t="str">
-        <f>'outlook-responses'!A74</f>
-        <v>QUE</v>
-      </c>
-      <c r="E64" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" t="str">
-        <f>'outlook-responses'!I74</f>
-        <v>Andrew Smith</v>
-      </c>
-      <c r="G64" t="s">
-        <v>191</v>
-      </c>
-      <c r="H64" t="str">
-        <f>'outlook-responses'!H74</f>
-        <v>Virtual</v>
-      </c>
-      <c r="I64" t="s">
-        <v>191</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65">
-        <v>62</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66">
-        <v>63</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67">
-        <v>64</v>
-      </c>
-      <c r="K67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3782,10 +3705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3799,8 +3722,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M74)</f>
-        <v>61</v>
+        <f>SUM(M8:M73)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -3808,8 +3731,8 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O74)</f>
-        <v>38</v>
+        <f>SUM(O8:O73)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -3817,7 +3740,7 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N74)</f>
+        <f>SUM(N8:N73)</f>
         <v>23</v>
       </c>
     </row>
@@ -3844,7 +3767,7 @@
       </c>
       <c r="C7">
         <f>C19+C53+C32+C42+C69+C9</f>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -4437,17 +4360,17 @@
         <v>192</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
         <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -4928,16 +4851,16 @@
         <v>195</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="H49" t="s">
         <v>122</v>
       </c>
       <c r="I49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -4982,16 +4905,16 @@
         <v>195</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="H51" t="s">
         <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -5073,16 +4996,16 @@
         <v>193</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -5439,14 +5362,14 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <f>SUM(M69:M74)</f>
-        <v>6</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>113</v>
+        <f>SUM(M69:M73)</f>
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" t="s">
+        <v>112</v>
       </c>
       <c r="H69" t="s">
         <v>140</v>
@@ -5458,11 +5381,11 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N74" si="10">IF(H69="In person",1,0)</f>
+        <f t="shared" ref="N69:N73" si="10">IF(H69="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O74" si="11">IF(H69="Virtual",1,0)</f>
+        <f t="shared" ref="O69:O73" si="11">IF(H69="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5470,14 +5393,14 @@
       <c r="A70" t="s">
         <v>196</v>
       </c>
-      <c r="E70" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" t="s">
-        <v>112</v>
+      <c r="E70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="H70" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I70" t="s">
         <v>251</v>
@@ -5487,11 +5410,11 @@
       </c>
       <c r="N70">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -5499,10 +5422,10 @@
         <v>196</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
         <v>122</v>
@@ -5527,13 +5450,13 @@
         <v>196</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="H72" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I72" t="s">
         <v>253</v>
@@ -5543,11 +5466,11 @@
       </c>
       <c r="N72">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -5555,10 +5478,10 @@
         <v>196</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H73" t="s">
         <v>140</v>
@@ -5574,34 +5497,6 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H74" t="s">
-        <v>140</v>
-      </c>
-      <c r="I74" t="s">
-        <v>255</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O74">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F85305-F2BB-44D1-9A2C-DE220024A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F370EA-5C7A-437E-926B-20BFD9D2E115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,9 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:I63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1218,14 +1216,14 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 60 participants as of 2023-01-12 (23 in person and 37 virtual)</v>
+        <v>List of the 60 participants as of 2023-01-12 (22 in person and 38 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
         <f>SUM(J4:J63)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
@@ -1266,7 +1264,7 @@
       </c>
       <c r="L2">
         <f>SUM(K4:K63)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -1374,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K66" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K63" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2284,18 +2282,18 @@
       </c>
       <c r="H28" t="str">
         <f>'outlook-responses'!H35</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I28" t="s">
         <v>191</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -3707,9 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3732,7 +3728,7 @@
       </c>
       <c r="C2">
         <f>SUM(O8:O73)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -3741,7 +3737,7 @@
       </c>
       <c r="C3">
         <f>SUM(N8:N73)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -4486,7 +4482,7 @@
         <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
         <v>222</v>
@@ -4496,11 +4492,11 @@
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F370EA-5C7A-437E-926B-20BFD9D2E115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3077CE3-EBD9-4239-B53D-FA94BDF7418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="for-README" sheetId="4" r:id="rId1"/>
-    <sheet name="outlook-responses" sheetId="3" r:id="rId2"/>
-    <sheet name="emails" sheetId="2" r:id="rId3"/>
-    <sheet name="list-pre-google-forms" sheetId="1" r:id="rId4"/>
+    <sheet name="attendance" sheetId="5" r:id="rId1"/>
+    <sheet name="for-README" sheetId="4" r:id="rId2"/>
+    <sheet name="outlook-responses" sheetId="3" r:id="rId3"/>
+    <sheet name="emails" sheetId="2" r:id="rId4"/>
+    <sheet name="list-pre-google-forms" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -663,9 +664,6 @@
     <t>Xinhua Zhu</t>
   </si>
   <si>
-    <t>Suncica Avlijas</t>
-  </si>
-  <si>
     <t>Abby Daigle</t>
   </si>
   <si>
@@ -841,6 +839,30 @@
   </si>
   <si>
     <t>Jaime.Thomson@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>workshop attendance</t>
+  </si>
+  <si>
+    <t>Virtual or in person</t>
+  </si>
+  <si>
+    <t>Day1.20230131</t>
+  </si>
+  <si>
+    <t>Day3.20230202</t>
+  </si>
+  <si>
+    <t>Day2.20230201</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>$\checkmark$</t>
   </si>
 </sst>
 </file>
@@ -909,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -923,6 +945,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1203,35 +1226,1310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>'for-README'!F4</f>
+        <v>Laura Alsip</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'for-README'!M4</f>
+        <v>Alsip, Laura</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L4, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'for-README'!H4</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>'for-README'!F5</f>
+        <v>Lauren Burke</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'for-README'!M5</f>
+        <v>Burke, Lauren (Lauren.Burke@dfo-mpo.gc.ca)</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L5, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'for-README'!H5</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>'for-README'!F6</f>
+        <v>Kevin J Hedges</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'for-README'!M6</f>
+        <v>Hedges, Kevin</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L6, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D5" t="str">
+        <f>'for-README'!H6</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>'for-README'!F7</f>
+        <v>Michael Legge</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'for-README'!M7</f>
+        <v>Legge, Michael</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L7, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D6" t="str">
+        <f>'for-README'!H7</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>'for-README'!F8</f>
+        <v>Tracey Loewen</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'for-README'!M8</f>
+        <v>Loewen, Tracey</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L8, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D7" t="str">
+        <f>'for-README'!H8</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>'for-README'!F9</f>
+        <v>Brendan K Malley</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'for-README'!M9</f>
+        <v>Malley, Brendan K</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L9, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D8" t="str">
+        <f>'for-README'!H9</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>'for-README'!F10</f>
+        <v>Lenore J Vandenbyllaardt</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'for-README'!M10</f>
+        <v>Vandenbyllaardt, Lenore</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L10, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D9" t="str">
+        <f>'for-README'!H10</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>'for-README'!F11</f>
+        <v>Rick J Wastle</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'for-README'!M11</f>
+        <v>Wastle, Rick</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L11, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D10" t="str">
+        <f>'for-README'!H11</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>'for-README'!F12</f>
+        <v>Xinhua Zhu</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'for-README'!M12</f>
+        <v>Zhu, Xinhua</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L12, " Region")</f>
+        <v>DFO Science - Central and Arctic Region</v>
+      </c>
+      <c r="D11" t="str">
+        <f>'for-README'!H12</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>'for-README'!F13</f>
+        <v>Abby Daigle</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'for-README'!M13</f>
+        <v>Daigle, Abby</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L13, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D12" t="str">
+        <f>'for-README'!H13</f>
+        <v>In person</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>'for-README'!F14</f>
+        <v>Isabelle Forest</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'for-README'!M14</f>
+        <v xml:space="preserve">Forest, Isabelle </v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L14, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D13" t="str">
+        <f>'for-README'!H14</f>
+        <v>In person</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>'for-README'!F15</f>
+        <v>Matthew Horsman</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'for-README'!M15</f>
+        <v xml:space="preserve">Horsman, Matthew </v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L15, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D14" t="str">
+        <f>'for-README'!H15</f>
+        <v>In person</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>'for-README'!F16</f>
+        <v>Kirby Morrill</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'for-README'!M16</f>
+        <v>Morrill, Kirdy</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L16, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D15" t="str">
+        <f>'for-README'!H16</f>
+        <v>In person</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>'for-README'!F17</f>
+        <v>Daniel Ricard</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'for-README'!M17</f>
+        <v>Ricard, Daniel</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L17, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D16" t="str">
+        <f>'for-README'!H17</f>
+        <v>In person</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>'for-README'!F18</f>
+        <v>Karen Robertson</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'for-README'!M18</f>
+        <v>Robertson, Karen</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L18, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D17" t="str">
+        <f>'for-README'!H18</f>
+        <v>In person</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>'for-README'!F19</f>
+        <v>Sylvie Robichaud</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'for-README'!M19</f>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L19, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D18" t="str">
+        <f>'for-README'!H19</f>
+        <v>In person</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>'for-README'!F20</f>
+        <v>Nicolas Rolland</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'for-README'!M20</f>
+        <v>Rolland, Nicolas</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L20, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D19" t="str">
+        <f>'for-README'!H20</f>
+        <v>In person</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>'for-README'!F21</f>
+        <v>Jolene Sutton</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'for-README'!M21</f>
+        <v xml:space="preserve">Sutton, Jolene </v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L21, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D20" t="str">
+        <f>'for-README'!H21</f>
+        <v>In person</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>'for-README'!F22</f>
+        <v>François-Étienne Sylvain</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'for-README'!M22</f>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L22, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D21" t="str">
+        <f>'for-README'!H22</f>
+        <v>In person</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>'for-README'!F23</f>
+        <v>Kari Underhill</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'for-README'!M23</f>
+        <v>Underhill, Kari</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L23, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D22" t="str">
+        <f>'for-README'!H23</f>
+        <v>In person</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>'for-README'!F24</f>
+        <v>Mark Billard</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'for-README'!M24</f>
+        <v>Billard, Mark</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L24, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D23" t="str">
+        <f>'for-README'!H24</f>
+        <v>Virtual</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>'for-README'!F25</f>
+        <v>Lynn Collier</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'for-README'!M25</f>
+        <v>Collier, Lynn</v>
+      </c>
+      <c r="C24" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L25, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D24" t="str">
+        <f>'for-README'!H25</f>
+        <v>Virtual</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>'for-README'!F26</f>
+        <v>Peter Comeau</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'for-README'!M26</f>
+        <v>Comeau, Peter</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L26, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D25" t="str">
+        <f>'for-README'!H26</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>'for-README'!F27</f>
+        <v>Tania Davignon-Burton</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'for-README'!M27</f>
+        <v>Davignon-Burton, Tania</v>
+      </c>
+      <c r="C26" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L27, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D26" t="str">
+        <f>'for-README'!H27</f>
+        <v>Virtual</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>'for-README'!F28</f>
+        <v>Nell den Heyer</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'for-README'!M28</f>
+        <v>den Heyer, Nell</v>
+      </c>
+      <c r="C27" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L28, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D27" t="str">
+        <f>'for-README'!H28</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>'for-README'!F29</f>
+        <v>Danni Harper</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'for-README'!M29</f>
+        <v>Harper, Danni</v>
+      </c>
+      <c r="C28" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L29, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D28" t="str">
+        <f>'for-README'!H29</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>'for-README'!F30</f>
+        <v>Kelly Kraska</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'for-README'!M30</f>
+        <v>Kraska, Kelly</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L30, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D29" t="str">
+        <f>'for-README'!H30</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>'for-README'!F31</f>
+        <v>George Nau</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'for-README'!M31</f>
+        <v>Nau, George</v>
+      </c>
+      <c r="C30" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L31, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D30" t="str">
+        <f>'for-README'!H31</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>'for-README'!F32</f>
+        <v>Gregory Puncher</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'for-README'!M32</f>
+        <v>Puncher, Gregory</v>
+      </c>
+      <c r="C31" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L32, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D31" t="str">
+        <f>'for-README'!H32</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>'for-README'!F33</f>
+        <v>Aaron Adamack</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'for-README'!M33</f>
+        <v>Adamack, Aaron</v>
+      </c>
+      <c r="C32" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L33, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D32" t="str">
+        <f>'for-README'!H33</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>'for-README'!F34</f>
+        <v>Kelly Antaya</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'for-README'!M34</f>
+        <v>Antaya, Kelly</v>
+      </c>
+      <c r="C33" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L34, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D33" t="str">
+        <f>'for-README'!H34</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>'for-README'!F35</f>
+        <v>Dwight Drover</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'for-README'!M35</f>
+        <v>Drover, Dwight</v>
+      </c>
+      <c r="C34" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D34" t="str">
+        <f>'for-README'!H35</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>'for-README'!F36</f>
+        <v>Gillian Forbes</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'for-README'!M36</f>
+        <v>Forbes, Gillian</v>
+      </c>
+      <c r="C35" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D35" t="str">
+        <f>'for-README'!H36</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>'for-README'!F37</f>
+        <v>Marc Legresley</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'for-README'!M37</f>
+        <v>Legresley, Marc</v>
+      </c>
+      <c r="C36" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D36" t="str">
+        <f>'for-README'!H37</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>'for-README'!F38</f>
+        <v>Andrea Perreault</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'for-README'!M38</f>
+        <v>Perreault, Andrea</v>
+      </c>
+      <c r="C37" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D37" t="str">
+        <f>'for-README'!H38</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>'for-README'!F39</f>
+        <v>Hannah Polaczek</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'for-README'!M39</f>
+        <v>Polaczek, Hannah</v>
+      </c>
+      <c r="C38" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D38" t="str">
+        <f>'for-README'!H39</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>'for-README'!F40</f>
+        <v>Kierstyn Rideout</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'for-README'!M40</f>
+        <v>Rideout, Kierstyn</v>
+      </c>
+      <c r="C39" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D39" t="str">
+        <f>'for-README'!H40</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>'for-README'!F41</f>
+        <v>Meredith Schofield</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'for-README'!M41</f>
+        <v>Schofield, Meredith</v>
+      </c>
+      <c r="C40" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D40" t="str">
+        <f>'for-README'!H41</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>'for-README'!F42</f>
+        <v>Jaime Thomson</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'for-README'!M42</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D41" t="str">
+        <f>'for-README'!H42</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>'for-README'!F43</f>
+        <v>Barbara Campbell</v>
+      </c>
+      <c r="B42" t="str">
+        <f>'for-README'!M43</f>
+        <v>Campbell, Barbara</v>
+      </c>
+      <c r="C42" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D42" t="str">
+        <f>'for-README'!H43</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>'for-README'!F44</f>
+        <v>Karalea Cantera</v>
+      </c>
+      <c r="B43" t="str">
+        <f>'for-README'!M44</f>
+        <v>Cantera, Karalea</v>
+      </c>
+      <c r="C43" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D43" t="str">
+        <f>'for-README'!H44</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>'for-README'!F45</f>
+        <v>Chelsea Cooke</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'for-README'!M45</f>
+        <v>Cooke, Chelsea</v>
+      </c>
+      <c r="C44" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D44" t="str">
+        <f>'for-README'!H45</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>'for-README'!F46</f>
+        <v>Robyn Forrest</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'for-README'!M46</f>
+        <v xml:space="preserve">Forrest, Robyn </v>
+      </c>
+      <c r="C45" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D45" t="str">
+        <f>'for-README'!H46</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>'for-README'!F47</f>
+        <v>Sarah Hawkshaw</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'for-README'!M47</f>
+        <v>Hawkshaw, Sarah</v>
+      </c>
+      <c r="C46" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D46" t="str">
+        <f>'for-README'!H47</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>'for-README'!F48</f>
+        <v>Erin Herder</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'for-README'!M48</f>
+        <v>Herder, Erin</v>
+      </c>
+      <c r="C47" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D47" t="str">
+        <f>'for-README'!H48</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>'for-README'!F49</f>
+        <v>Kendra Holt</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'for-README'!M49</f>
+        <v>Holt, Kendra</v>
+      </c>
+      <c r="C48" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D48" t="str">
+        <f>'for-README'!H49</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>'for-README'!F50</f>
+        <v>Yeongha Jung</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'for-README'!M50</f>
+        <v>Jung, Yeongha</v>
+      </c>
+      <c r="C49" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D49" t="str">
+        <f>'for-README'!H50</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>'for-README'!F51</f>
+        <v>Madeline Lavery</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'for-README'!M51</f>
+        <v>Lavery, Madeline</v>
+      </c>
+      <c r="C50" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D50" t="str">
+        <f>'for-README'!H51</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>'for-README'!F52</f>
+        <v>Kiana Matwichuk</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'for-README'!M52</f>
+        <v>Matwichuk, Kiana</v>
+      </c>
+      <c r="C51" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D51" t="str">
+        <f>'for-README'!H52</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>'for-README'!F53</f>
+        <v>Mackenzie Mazur</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'for-README'!M53</f>
+        <v>Mazur, Mackenzie</v>
+      </c>
+      <c r="C52" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D52" t="str">
+        <f>'for-README'!H53</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>'for-README'!F54</f>
+        <v>Judy McArthur</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'for-README'!M54</f>
+        <v xml:space="preserve">McArthur, Judy </v>
+      </c>
+      <c r="C53" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D53" t="str">
+        <f>'for-README'!H54</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>'for-README'!F55</f>
+        <v>Audrey Ty</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'for-README'!M55</f>
+        <v>Ty, Audrey</v>
+      </c>
+      <c r="C54" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D54" t="str">
+        <f>'for-README'!H55</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>'for-README'!F56</f>
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'for-README'!M56</f>
+        <v>Wischniowski, Stephen</v>
+      </c>
+      <c r="C55" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D55" t="str">
+        <f>'for-README'!H56</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>'for-README'!F57</f>
+        <v>Emily Yungwirth</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'for-README'!M57</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
+      </c>
+      <c r="C56" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D56" t="str">
+        <f>'for-README'!H57</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>'for-README'!F58</f>
+        <v>Mathieu Desgagnés</v>
+      </c>
+      <c r="B57" t="str">
+        <f>'for-README'!M58</f>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
+      </c>
+      <c r="C57" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D57" t="str">
+        <f>'for-README'!H58</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>'for-README'!F59</f>
+        <v>Hélène Dionne</v>
+      </c>
+      <c r="B58" t="str">
+        <f>'for-README'!M59</f>
+        <v>Dionne, Hélène</v>
+      </c>
+      <c r="C58" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D58" t="str">
+        <f>'for-README'!H59</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>'for-README'!F60</f>
+        <v>Kim Emond</v>
+      </c>
+      <c r="B59" t="str">
+        <f>'for-README'!M60</f>
+        <v>Emond, Kim</v>
+      </c>
+      <c r="C59" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D59" t="str">
+        <f>'for-README'!H60</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>'for-README'!F61</f>
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'for-README'!M61</f>
+        <v>LeCorre, Nicolas</v>
+      </c>
+      <c r="C60" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D60" t="str">
+        <f>'for-README'!H61</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>'for-README'!F62</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="B61" t="str">
+        <f>'for-README'!M62</f>
+        <v>Smith, Andrew</v>
+      </c>
+      <c r="C61" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D61" t="str">
+        <f>'for-README'!H62</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" display="\\\checkmark" xr:uid="{EC64A9D3-5193-457B-91A2-0754BE470E62}"/>
+    <hyperlink ref="F17" r:id="rId2" display="\\\checkmark" xr:uid="{9CDEC8B5-719C-4C68-A595-C1D9AB06D3FA}"/>
+    <hyperlink ref="G17" r:id="rId3" display="\\\checkmark" xr:uid="{D2C8200E-001F-4B19-BDBE-BF95FF8B2BBA}"/>
+    <hyperlink ref="E26" r:id="rId4" display="\\\checkmark" xr:uid="{C1F59D27-700E-442B-BE1B-32FE10FB3D13}"/>
+    <hyperlink ref="F26" r:id="rId5" display="\\\checkmark" xr:uid="{10C4FF78-1042-44E5-A0C8-1E8CA4069328}"/>
+    <hyperlink ref="G26" r:id="rId6" display="\\\checkmark" xr:uid="{AE5EF954-4BD5-4121-8179-F33F3F3DB0AE}"/>
+    <hyperlink ref="E18" r:id="rId7" display="\\\checkmark" xr:uid="{AAD1DE9B-C560-4164-AAAE-312BB3585829}"/>
+    <hyperlink ref="F18" r:id="rId8" display="\\\checkmark" xr:uid="{B345DA9E-4A49-4DFB-93C3-ACACF088FCD3}"/>
+    <hyperlink ref="G18" r:id="rId9" display="\\\checkmark" xr:uid="{6A853DE8-D3F7-444F-9EE4-DBAC102FF1C5}"/>
+    <hyperlink ref="E19" r:id="rId10" display="\\\checkmark" xr:uid="{C4476BFC-64F8-4979-9B7B-10112B4935F1}"/>
+    <hyperlink ref="F19" r:id="rId11" display="\\\checkmark" xr:uid="{E5C1F3EA-C15E-4576-99D9-77311597EC38}"/>
+    <hyperlink ref="G19" r:id="rId12" display="\\\checkmark" xr:uid="{617CCE50-47ED-44FA-A238-7E1C877567C7}"/>
+    <hyperlink ref="E20" r:id="rId13" display="\\\checkmark" xr:uid="{766868A5-C38B-4A82-9716-B4A5FEA2C42B}"/>
+    <hyperlink ref="F20" r:id="rId14" display="\\\checkmark" xr:uid="{499FF205-5503-4752-8B30-15FA623A7B9F}"/>
+    <hyperlink ref="G20" r:id="rId15" display="\\\checkmark" xr:uid="{7C4F24B6-E6C9-4037-8FD5-9BCCEFCB6F03}"/>
+    <hyperlink ref="E21" r:id="rId16" display="\\\checkmark" xr:uid="{D6CABCF0-F5DF-4FC8-929F-3D15E6FC6A84}"/>
+    <hyperlink ref="F21" r:id="rId17" display="\\\checkmark" xr:uid="{817AB7AA-8FC5-4FE2-998D-B2B03C672BCF}"/>
+    <hyperlink ref="G21" r:id="rId18" display="\\\checkmark" xr:uid="{2BB7A1A2-86BA-4045-B3A6-3E693B57FE09}"/>
+    <hyperlink ref="E22" r:id="rId19" display="\\\checkmark" xr:uid="{8EE58748-9A28-44DD-B6A3-A8EDD9C1857F}"/>
+    <hyperlink ref="F22" r:id="rId20" display="\\\checkmark" xr:uid="{46ADD108-8C3D-4AB7-9CAD-7D3847F38450}"/>
+    <hyperlink ref="G22" r:id="rId21" display="\\\checkmark" xr:uid="{8D5D509B-92C1-4D05-9605-C2B1ADC53903}"/>
+    <hyperlink ref="E23" r:id="rId22" display="\\\checkmark" xr:uid="{AF2EF1E5-4AEF-4604-9B0B-992E0C001A77}"/>
+    <hyperlink ref="F23" r:id="rId23" display="\\\checkmark" xr:uid="{060587FC-B51A-4A6E-AA06-3420648D9AF0}"/>
+    <hyperlink ref="G23" r:id="rId24" display="\\\checkmark" xr:uid="{AC6B1E71-3308-46F5-BE5A-B75C7EF82DC1}"/>
+    <hyperlink ref="E24" r:id="rId25" display="\\\checkmark" xr:uid="{D9CDC626-A42A-47B4-9C12-3D34281F1FA8}"/>
+    <hyperlink ref="F24" r:id="rId26" display="\\\checkmark" xr:uid="{38334122-AED2-4F3E-8079-463104A791B7}"/>
+    <hyperlink ref="G24" r:id="rId27" display="\\\checkmark" xr:uid="{6D465AC6-DBE5-4AE6-A540-E8E38987FFC7}"/>
+    <hyperlink ref="E16" r:id="rId28" display="\\\checkmark" xr:uid="{50059F2D-D53B-43A7-BCB2-0D9C38E96615}"/>
+    <hyperlink ref="F16" r:id="rId29" display="\\\checkmark" xr:uid="{C527042D-FD1A-4554-B654-3281F3B62880}"/>
+    <hyperlink ref="G16" r:id="rId30" display="\\\checkmark" xr:uid="{A9612D1C-B9B0-44FD-AC99-4C53973BFCFD}"/>
+    <hyperlink ref="G15" r:id="rId31" display="\\\checkmark" xr:uid="{31D0C505-A782-43C6-8932-2E31DA51C1B1}"/>
+    <hyperlink ref="F15" r:id="rId32" display="\\\checkmark" xr:uid="{A1810319-DBB1-4F42-82B9-51E20103CC95}"/>
+    <hyperlink ref="E15" r:id="rId33" display="\\\checkmark" xr:uid="{618B4339-336D-4E85-83EE-3FCCB63C7845}"/>
+    <hyperlink ref="E14" r:id="rId34" display="\\\checkmark" xr:uid="{CEB12D8A-E301-49AA-B717-367403A75495}"/>
+    <hyperlink ref="F14" r:id="rId35" display="\\\checkmark" xr:uid="{C4A8BCFE-1FE6-45B6-85A6-9C231E617438}"/>
+    <hyperlink ref="G14" r:id="rId36" display="\\\checkmark" xr:uid="{4946C0F7-573E-4580-B42C-A227D1BAC9FD}"/>
+    <hyperlink ref="G13" r:id="rId37" display="\\\checkmark" xr:uid="{5AB2E3E4-F17F-4B1D-A22F-5D98DF0A655C}"/>
+    <hyperlink ref="F13" r:id="rId38" display="\\\checkmark" xr:uid="{E8223621-481B-4C69-8448-D8739C812E81}"/>
+    <hyperlink ref="E13" r:id="rId39" display="\\\checkmark" xr:uid="{7135914F-D60B-428A-8F04-9E058B2FC36B}"/>
+    <hyperlink ref="E12" r:id="rId40" display="\\\checkmark" xr:uid="{0231FF37-4D75-4C78-BA19-BF1957CB315A}"/>
+    <hyperlink ref="F12" r:id="rId41" display="\\\checkmark" xr:uid="{D34FFB3D-7B37-431D-BAF5-11163AF8E6B4}"/>
+    <hyperlink ref="G12" r:id="rId42" display="\\\checkmark" xr:uid="{F4E2B004-C911-4BD0-9C18-F64F822EABAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 60 participants as of 2023-01-12 (22 in person and 38 virtual)</v>
+        <v>List of the 59 participants as of 2023-01-16 (21 in person and 38 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J63)</f>
+        <f>SUM(J4:J62)</f>
         <v>38</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -1263,40 +2561,40 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K63)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <f>SUM(K4:K62)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
         <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1335,8 +2633,16 @@
         <f>IF(H4="In person",1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L4" t="str">
+        <f>'outlook-responses'!B9</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M4" t="str">
+        <f>'outlook-responses'!E9</f>
+        <v>Alsip, Laura</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -1368,15 +2674,23 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J63" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J58" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K63" si="1">IF(H5="In person",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K5:K58" si="1">IF(H5="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <f>'outlook-responses'!B10</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M5" t="str">
+        <f>'outlook-responses'!E10</f>
+        <v>Burke, Lauren (Lauren.Burke@dfo-mpo.gc.ca)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -1415,8 +2729,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L6" t="str">
+        <f>'outlook-responses'!B11</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M6" t="str">
+        <f>'outlook-responses'!E11</f>
+        <v>Hedges, Kevin</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -1455,8 +2777,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L7" t="str">
+        <f>'outlook-responses'!B12</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M7" t="str">
+        <f>'outlook-responses'!E12</f>
+        <v>Legge, Michael</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -1495,8 +2825,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L8" t="str">
+        <f>'outlook-responses'!B13</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M8" t="str">
+        <f>'outlook-responses'!E13</f>
+        <v>Loewen, Tracey</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -1535,8 +2873,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L9" t="str">
+        <f>'outlook-responses'!B14</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M9" t="str">
+        <f>'outlook-responses'!E14</f>
+        <v>Malley, Brendan K</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -1575,8 +2921,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L10" t="str">
+        <f>'outlook-responses'!B15</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M10" t="str">
+        <f>'outlook-responses'!E15</f>
+        <v>Vandenbyllaardt, Lenore</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -1615,8 +2969,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L11" t="str">
+        <f>'outlook-responses'!B16</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M11" t="str">
+        <f>'outlook-responses'!E16</f>
+        <v>Wastle, Rick</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -1655,8 +3017,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L12" t="str">
+        <f>'outlook-responses'!B17</f>
+        <v>Central and Arctic</v>
+      </c>
+      <c r="M12" t="str">
+        <f>'outlook-responses'!E17</f>
+        <v>Zhu, Xinhua</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -1675,7 +3045,7 @@
       </c>
       <c r="F13" t="str">
         <f>'outlook-responses'!I19</f>
-        <v>Suncica Avlijas</v>
+        <v>Abby Daigle</v>
       </c>
       <c r="G13" t="s">
         <v>191</v>
@@ -1695,8 +3065,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L13" t="str">
+        <f>'outlook-responses'!B19</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M13" t="str">
+        <f>'outlook-responses'!E19</f>
+        <v>Daigle, Abby</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -1715,7 +3093,7 @@
       </c>
       <c r="F14" t="str">
         <f>'outlook-responses'!I20</f>
-        <v>Abby Daigle</v>
+        <v>Isabelle Forest</v>
       </c>
       <c r="G14" t="s">
         <v>191</v>
@@ -1735,8 +3113,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L14" t="str">
+        <f>'outlook-responses'!B20</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M14" t="str">
+        <f>'outlook-responses'!E20</f>
+        <v xml:space="preserve">Forest, Isabelle </v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -1755,7 +3141,7 @@
       </c>
       <c r="F15" t="str">
         <f>'outlook-responses'!I21</f>
-        <v>Isabelle Forest</v>
+        <v>Matthew Horsman</v>
       </c>
       <c r="G15" t="s">
         <v>191</v>
@@ -1775,8 +3161,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L15" t="str">
+        <f>'outlook-responses'!B21</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M15" t="str">
+        <f>'outlook-responses'!E21</f>
+        <v xml:space="preserve">Horsman, Matthew </v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -1795,7 +3189,7 @@
       </c>
       <c r="F16" t="str">
         <f>'outlook-responses'!I22</f>
-        <v>Matthew Horsman</v>
+        <v>Kirby Morrill</v>
       </c>
       <c r="G16" t="s">
         <v>191</v>
@@ -1815,8 +3209,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="str">
+        <f>'outlook-responses'!B22</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M16" t="str">
+        <f>'outlook-responses'!E22</f>
+        <v>Morrill, Kirdy</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -1835,7 +3237,7 @@
       </c>
       <c r="F17" t="str">
         <f>'outlook-responses'!I23</f>
-        <v>Kirby Morrill</v>
+        <v>Daniel Ricard</v>
       </c>
       <c r="G17" t="s">
         <v>191</v>
@@ -1855,8 +3257,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="str">
+        <f>'outlook-responses'!B23</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M17" t="str">
+        <f>'outlook-responses'!E23</f>
+        <v>Ricard, Daniel</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -1875,7 +3285,7 @@
       </c>
       <c r="F18" t="str">
         <f>'outlook-responses'!I24</f>
-        <v>Daniel Ricard</v>
+        <v>Karen Robertson</v>
       </c>
       <c r="G18" t="s">
         <v>191</v>
@@ -1895,8 +3305,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="str">
+        <f>'outlook-responses'!B24</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M18" t="str">
+        <f>'outlook-responses'!E24</f>
+        <v>Robertson, Karen</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -1915,7 +3333,7 @@
       </c>
       <c r="F19" t="str">
         <f>'outlook-responses'!I25</f>
-        <v>Karen Robertson</v>
+        <v>Sylvie Robichaud</v>
       </c>
       <c r="G19" t="s">
         <v>191</v>
@@ -1935,8 +3353,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="str">
+        <f>'outlook-responses'!B25</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M19" t="str">
+        <f>'outlook-responses'!E25</f>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -1955,7 +3381,7 @@
       </c>
       <c r="F20" t="str">
         <f>'outlook-responses'!I26</f>
-        <v>Sylvie Robichaud</v>
+        <v>Nicolas Rolland</v>
       </c>
       <c r="G20" t="s">
         <v>191</v>
@@ -1975,8 +3401,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" t="str">
+        <f>'outlook-responses'!B26</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M20" t="str">
+        <f>'outlook-responses'!E26</f>
+        <v>Rolland, Nicolas</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -1995,7 +3429,7 @@
       </c>
       <c r="F21" t="str">
         <f>'outlook-responses'!I27</f>
-        <v>Nicolas Rolland</v>
+        <v>Jolene Sutton</v>
       </c>
       <c r="G21" t="s">
         <v>191</v>
@@ -2015,8 +3449,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" t="str">
+        <f>'outlook-responses'!B27</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M21" t="str">
+        <f>'outlook-responses'!E27</f>
+        <v xml:space="preserve">Sutton, Jolene </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -2035,7 +3477,7 @@
       </c>
       <c r="F22" t="str">
         <f>'outlook-responses'!I28</f>
-        <v>Jolene Sutton</v>
+        <v>François-Étienne Sylvain</v>
       </c>
       <c r="G22" t="s">
         <v>191</v>
@@ -2055,8 +3497,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" t="str">
+        <f>'outlook-responses'!B28</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M22" t="str">
+        <f>'outlook-responses'!E28</f>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -2075,7 +3525,7 @@
       </c>
       <c r="F23" t="str">
         <f>'outlook-responses'!I29</f>
-        <v>François-Étienne Sylvain</v>
+        <v>Kari Underhill</v>
       </c>
       <c r="G23" t="s">
         <v>191</v>
@@ -2095,8 +3545,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" t="str">
+        <f>'outlook-responses'!B29</f>
+        <v>Gulf</v>
+      </c>
+      <c r="M23" t="str">
+        <f>'outlook-responses'!E29</f>
+        <v>Underhill, Kari</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -2107,36 +3565,44 @@
         <v>191</v>
       </c>
       <c r="D24" t="str">
-        <f>'outlook-responses'!A30</f>
-        <v>GLF</v>
+        <f>'outlook-responses'!A31</f>
+        <v>MAR</v>
       </c>
       <c r="E24" t="s">
         <v>191</v>
       </c>
       <c r="F24" t="str">
-        <f>'outlook-responses'!I30</f>
-        <v>Kari Underhill</v>
+        <f>'outlook-responses'!I31</f>
+        <v>Mark Billard</v>
       </c>
       <c r="G24" t="s">
         <v>191</v>
       </c>
       <c r="H24" t="str">
-        <f>'outlook-responses'!H30</f>
-        <v>In person</v>
+        <f>'outlook-responses'!H31</f>
+        <v>Virtual</v>
       </c>
       <c r="I24" t="s">
         <v>191</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
+        <f>'outlook-responses'!B31</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M24" t="str">
+        <f>'outlook-responses'!E31</f>
+        <v>Billard, Mark</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -2155,7 +3621,7 @@
       </c>
       <c r="F25" t="str">
         <f>'outlook-responses'!I32</f>
-        <v>Mark Billard</v>
+        <v>Lynn Collier</v>
       </c>
       <c r="G25" t="s">
         <v>191</v>
@@ -2175,8 +3641,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" t="str">
+        <f>'outlook-responses'!B32</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M25" t="str">
+        <f>'outlook-responses'!E32</f>
+        <v>Collier, Lynn</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -2195,28 +3669,36 @@
       </c>
       <c r="F26" t="str">
         <f>'outlook-responses'!I33</f>
-        <v>Lynn Collier</v>
+        <v>Peter Comeau</v>
       </c>
       <c r="G26" t="s">
         <v>191</v>
       </c>
       <c r="H26" t="str">
         <f>'outlook-responses'!H33</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I26" t="s">
         <v>191</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L26" t="str">
+        <f>'outlook-responses'!B33</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M26" t="str">
+        <f>'outlook-responses'!E33</f>
+        <v>Comeau, Peter</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -2235,28 +3717,36 @@
       </c>
       <c r="F27" t="str">
         <f>'outlook-responses'!I34</f>
-        <v>Peter Comeau</v>
+        <v>Tania Davignon-Burton</v>
       </c>
       <c r="G27" t="s">
         <v>191</v>
       </c>
       <c r="H27" t="str">
         <f>'outlook-responses'!H34</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I27" t="s">
         <v>191</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
+        <f>'outlook-responses'!B34</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M27" t="str">
+        <f>'outlook-responses'!E34</f>
+        <v>Davignon-Burton, Tania</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -2275,7 +3765,7 @@
       </c>
       <c r="F28" t="str">
         <f>'outlook-responses'!I35</f>
-        <v>Tania Davignon-Burton</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="G28" t="s">
         <v>191</v>
@@ -2295,8 +3785,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="str">
+        <f>'outlook-responses'!B35</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M28" t="str">
+        <f>'outlook-responses'!E35</f>
+        <v>den Heyer, Nell</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -2315,7 +3813,7 @@
       </c>
       <c r="F29" t="str">
         <f>'outlook-responses'!I36</f>
-        <v>Nell den Heyer</v>
+        <v>Danni Harper</v>
       </c>
       <c r="G29" t="s">
         <v>191</v>
@@ -2335,8 +3833,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" t="str">
+        <f>'outlook-responses'!B36</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M29" t="str">
+        <f>'outlook-responses'!E36</f>
+        <v>Harper, Danni</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -2355,7 +3861,7 @@
       </c>
       <c r="F30" t="str">
         <f>'outlook-responses'!I37</f>
-        <v>Danni Harper</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="G30" t="s">
         <v>191</v>
@@ -2375,8 +3881,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" t="str">
+        <f>'outlook-responses'!B37</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M30" t="str">
+        <f>'outlook-responses'!E37</f>
+        <v>Kraska, Kelly</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -2395,28 +3909,36 @@
       </c>
       <c r="F31" t="str">
         <f>'outlook-responses'!I38</f>
-        <v>Kelly Kraska</v>
+        <v>George Nau</v>
       </c>
       <c r="G31" t="s">
         <v>191</v>
       </c>
       <c r="H31" t="str">
         <f>'outlook-responses'!H38</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I31" t="s">
         <v>191</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L31" t="str">
+        <f>'outlook-responses'!B38</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M31" t="str">
+        <f>'outlook-responses'!E38</f>
+        <v>Nau, George</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -2435,28 +3957,36 @@
       </c>
       <c r="F32" t="str">
         <f>'outlook-responses'!I39</f>
-        <v>George Nau</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="G32" t="s">
         <v>191</v>
       </c>
       <c r="H32" t="str">
         <f>'outlook-responses'!H39</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I32" t="s">
         <v>191</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
+        <f>'outlook-responses'!B39</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M32" t="str">
+        <f>'outlook-responses'!E39</f>
+        <v>Puncher, Gregory</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>191</v>
       </c>
@@ -2467,21 +3997,21 @@
         <v>191</v>
       </c>
       <c r="D33" t="str">
-        <f>'outlook-responses'!A40</f>
-        <v>MAR</v>
+        <f>'outlook-responses'!A41</f>
+        <v>NL</v>
       </c>
       <c r="E33" t="s">
         <v>191</v>
       </c>
       <c r="F33" t="str">
-        <f>'outlook-responses'!I40</f>
-        <v>Gregory Puncher</v>
+        <f>'outlook-responses'!I41</f>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G33" t="s">
         <v>191</v>
       </c>
       <c r="H33" t="str">
-        <f>'outlook-responses'!H40</f>
+        <f>'outlook-responses'!H41</f>
         <v>Virtual</v>
       </c>
       <c r="I33" t="s">
@@ -2495,8 +4025,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" t="str">
+        <f>'outlook-responses'!B41</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M33" t="str">
+        <f>'outlook-responses'!E41</f>
+        <v>Adamack, Aaron</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -2515,7 +4053,7 @@
       </c>
       <c r="F34" t="str">
         <f>'outlook-responses'!I42</f>
-        <v>Aaron Adamack</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G34" t="s">
         <v>191</v>
@@ -2535,8 +4073,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" t="str">
+        <f>'outlook-responses'!B42</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M34" t="str">
+        <f>'outlook-responses'!E42</f>
+        <v>Antaya, Kelly</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -2555,7 +4101,7 @@
       </c>
       <c r="F35" t="str">
         <f>'outlook-responses'!I43</f>
-        <v>Kelly Antaya</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
@@ -2575,8 +4121,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" t="str">
+        <f>'outlook-responses'!B43</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M35" t="str">
+        <f>'outlook-responses'!E43</f>
+        <v>Drover, Dwight</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -2595,28 +4149,36 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I44</f>
-        <v>Dwight Drover</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="str">
         <f>'outlook-responses'!H44</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L36" t="str">
+        <f>'outlook-responses'!B44</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M36" t="str">
+        <f>'outlook-responses'!E44</f>
+        <v>Forbes, Gillian</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -2635,28 +4197,36 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>Gillian Forbes</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
       </c>
       <c r="H37" t="str">
         <f>'outlook-responses'!H45</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I37" t="s">
         <v>191</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L37" t="str">
+        <f>'outlook-responses'!B45</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M37" t="str">
+        <f>'outlook-responses'!E45</f>
+        <v>Legresley, Marc</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -2675,7 +4245,7 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Marc Legresley</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
@@ -2695,8 +4265,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" t="str">
+        <f>'outlook-responses'!B46</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M38" t="str">
+        <f>'outlook-responses'!E46</f>
+        <v>Perreault, Andrea</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>191</v>
       </c>
@@ -2715,7 +4293,7 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I47</f>
-        <v>Andrea Perreault</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
@@ -2735,8 +4313,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" t="str">
+        <f>'outlook-responses'!B47</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M39" t="str">
+        <f>'outlook-responses'!E47</f>
+        <v>Polaczek, Hannah</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -2755,28 +4341,36 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Hannah Polaczek</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
         <f>'outlook-responses'!H48</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I40" t="s">
         <v>191</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L40" t="str">
+        <f>'outlook-responses'!B48</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M40" t="str">
+        <f>'outlook-responses'!E48</f>
+        <v>Rideout, Kierstyn</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -2795,7 +4389,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Kierstyn Rideout</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -2815,8 +4409,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41" t="str">
+        <f>'outlook-responses'!B49</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M41" t="str">
+        <f>'outlook-responses'!E49</f>
+        <v>Schofield, Meredith</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -2835,7 +4437,7 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I50</f>
-        <v>Meredith Schofield</v>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
@@ -2855,8 +4457,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" t="str">
+        <f>'outlook-responses'!B50</f>
+        <v>Newfoundland and Labrador</v>
+      </c>
+      <c r="M42" t="str">
+        <f>'outlook-responses'!E50</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -2867,36 +4477,44 @@
         <v>191</v>
       </c>
       <c r="D43" t="str">
-        <f>'outlook-responses'!A51</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A52</f>
+        <v>PAC</v>
       </c>
       <c r="E43" t="s">
         <v>191</v>
       </c>
       <c r="F43" t="str">
-        <f>'outlook-responses'!I51</f>
-        <v>Jaime Thomson</v>
+        <f>'outlook-responses'!I52</f>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
       </c>
       <c r="H43" t="str">
-        <f>'outlook-responses'!H51</f>
-        <v>In person</v>
+        <f>'outlook-responses'!H52</f>
+        <v>Virtual</v>
       </c>
       <c r="I43" t="s">
         <v>191</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
+        <f>'outlook-responses'!B52</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M43" t="str">
+        <f>'outlook-responses'!E52</f>
+        <v>Campbell, Barbara</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -2915,7 +4533,7 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Barbara Campbell</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -2935,8 +4553,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" t="str">
+        <f>'outlook-responses'!B53</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M44" t="str">
+        <f>'outlook-responses'!E53</f>
+        <v>Cantera, Karalea</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -2955,7 +4581,7 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Karalea Cantera</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -2975,8 +4601,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" t="str">
+        <f>'outlook-responses'!B54</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M45" t="str">
+        <f>'outlook-responses'!E54</f>
+        <v>Cooke, Chelsea</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -2995,7 +4629,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Chelsea Cooke</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -3015,8 +4649,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" t="str">
+        <f>'outlook-responses'!B55</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M46" t="str">
+        <f>'outlook-responses'!E55</f>
+        <v xml:space="preserve">Forrest, Robyn </v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -3035,7 +4677,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Robyn Forrest</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -3055,8 +4697,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" t="str">
+        <f>'outlook-responses'!B56</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M47" t="str">
+        <f>'outlook-responses'!E56</f>
+        <v>Hawkshaw, Sarah</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -3075,7 +4725,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -3095,8 +4745,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48" t="str">
+        <f>'outlook-responses'!B57</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M48" t="str">
+        <f>'outlook-responses'!E57</f>
+        <v>Herder, Erin</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -3115,7 +4773,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Erin Herder</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -3135,8 +4793,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49" t="str">
+        <f>'outlook-responses'!B58</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M49" t="str">
+        <f>'outlook-responses'!E58</f>
+        <v>Holt, Kendra</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -3155,7 +4821,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Kendra Holt</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -3175,8 +4841,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" t="str">
+        <f>'outlook-responses'!B59</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M50" t="str">
+        <f>'outlook-responses'!E59</f>
+        <v>Jung, Yeongha</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -3195,7 +4869,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Yeongha Jung</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -3215,8 +4889,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" t="str">
+        <f>'outlook-responses'!B60</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M51" t="str">
+        <f>'outlook-responses'!E60</f>
+        <v>Lavery, Madeline</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -3235,7 +4917,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Madeline Lavery</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -3255,8 +4937,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" t="str">
+        <f>'outlook-responses'!B61</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M52" t="str">
+        <f>'outlook-responses'!E61</f>
+        <v>Matwichuk, Kiana</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -3275,7 +4965,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Kiana Matwichuk</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -3295,8 +4985,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L53" t="str">
+        <f>'outlook-responses'!B62</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M53" t="str">
+        <f>'outlook-responses'!E62</f>
+        <v>Mazur, Mackenzie</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -3315,7 +5013,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Mackenzie Mazur</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -3335,8 +5033,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L54" t="str">
+        <f>'outlook-responses'!B63</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M54" t="str">
+        <f>'outlook-responses'!E63</f>
+        <v xml:space="preserve">McArthur, Judy </v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -3355,7 +5061,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Judy McArthur</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -3375,8 +5081,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L55" t="str">
+        <f>'outlook-responses'!B64</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M55" t="str">
+        <f>'outlook-responses'!E64</f>
+        <v>Ty, Audrey</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -3395,7 +5109,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Audrey Ty</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -3415,8 +5129,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L56" t="str">
+        <f>'outlook-responses'!B65</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M56" t="str">
+        <f>'outlook-responses'!E65</f>
+        <v>Wischniowski, Stephen</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>191</v>
       </c>
@@ -3435,7 +5157,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Stephen Wischniowski</v>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -3455,8 +5177,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L57" t="str">
+        <f>'outlook-responses'!B66</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M57" t="str">
+        <f>'outlook-responses'!E66</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3467,21 +5197,21 @@
         <v>191</v>
       </c>
       <c r="D58" t="str">
-        <f>'outlook-responses'!A67</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A68</f>
+        <v>QUE</v>
       </c>
       <c r="E58" t="s">
         <v>191</v>
       </c>
       <c r="F58" t="str">
-        <f>'outlook-responses'!I67</f>
-        <v>Emily Yungwirth</v>
+        <f>'outlook-responses'!I68</f>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
       </c>
       <c r="H58" t="str">
-        <f>'outlook-responses'!H67</f>
+        <f>'outlook-responses'!H68</f>
         <v>Virtual</v>
       </c>
       <c r="I58" t="s">
@@ -3495,8 +5225,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L58" t="str">
+        <f>'outlook-responses'!B68</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M58" t="str">
+        <f>'outlook-responses'!E68</f>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -3515,28 +5253,36 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
       </c>
       <c r="H59" t="str">
         <f>'outlook-responses'!H69</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I59" t="s">
         <v>191</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="J59:J64" si="2">IF(H59="Virtual",1,0)</f>
+        <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K59:K64" si="3">IF(H59="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L59" t="str">
+        <f>'outlook-responses'!B69</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M59" t="str">
+        <f>'outlook-responses'!E69</f>
+        <v>Dionne, Hélène</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -3555,7 +5301,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Hélène Dionne</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -3568,15 +5314,23 @@
         <v>191</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L60" t="str">
+        <f>'outlook-responses'!B70</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M60" t="str">
+        <f>'outlook-responses'!E70</f>
+        <v>Emond, Kim</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -3595,28 +5349,36 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Kim Emond</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
       </c>
       <c r="H61" t="str">
         <f>'outlook-responses'!H71</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I61" t="s">
         <v>191</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L61" t="str">
+        <f>'outlook-responses'!B71</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M61" t="str">
+        <f>'outlook-responses'!E71</f>
+        <v>LeCorre, Nicolas</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -3635,7 +5397,7 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Nicolas Le Corre</v>
+        <v>Andrew Smith</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
@@ -3648,15 +5410,23 @@
         <v>191</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="str">
+        <f>'outlook-responses'!B72</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M62" t="str">
+        <f>'outlook-responses'!E72</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -3665,35 +5435,6 @@
       </c>
       <c r="C63" t="s">
         <v>191</v>
-      </c>
-      <c r="D63" t="str">
-        <f>'outlook-responses'!A73</f>
-        <v>QUE</v>
-      </c>
-      <c r="E63" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" t="str">
-        <f>'outlook-responses'!I73</f>
-        <v>Andrew Smith</v>
-      </c>
-      <c r="G63" t="s">
-        <v>191</v>
-      </c>
-      <c r="H63" t="str">
-        <f>'outlook-responses'!H73</f>
-        <v>Virtual</v>
-      </c>
-      <c r="I63" t="s">
-        <v>191</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3701,46 +5442,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B30" sqref="A30:XFD30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M73)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <f>SUM(M8:M72)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O73)</f>
+        <f>SUM(O8:O72)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N73)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <f>SUM(N8:N72)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>187</v>
       </c>
@@ -3757,16 +5500,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C53+C32+C42+C69+C9</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <f>C19+C52+C31+C41+C68+C9</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -3801,10 +5544,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>197</v>
       </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
       <c r="E10" t="s">
         <v>168</v>
       </c>
@@ -3829,10 +5575,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>197</v>
       </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
       <c r="E11" t="s">
         <v>160</v>
       </c>
@@ -3857,10 +5606,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>197</v>
       </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
       <c r="E12" t="s">
         <v>153</v>
       </c>
@@ -3885,10 +5637,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>197</v>
       </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3913,10 +5668,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>197</v>
       </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
       <c r="E14" t="s">
         <v>77</v>
       </c>
@@ -3941,10 +5699,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
       <c r="E15" t="s">
         <v>156</v>
       </c>
@@ -3969,10 +5730,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>163</v>
       </c>
@@ -3997,10 +5761,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
       <c r="E17" t="s">
         <v>169</v>
       </c>
@@ -4025,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -4033,14 +5800,14 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f>SUM(M19:M30)</f>
-        <v>12</v>
+        <f>SUM(M19:M29)</f>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
@@ -4053,52 +5820,58 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N30" si="2">IF(H19="In person",1,0)</f>
+        <f>IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O30" si="3">IF(H19="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H19="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>177</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
         <v>122</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>209</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f>IF(H20="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H20="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>192</v>
       </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
@@ -4111,139 +5884,154 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f>IF(H21="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H21="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>192</v>
       </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>180</v>
+        <v>105</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>211</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f>IF(H22="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H22="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>192</v>
       </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
         <v>122</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>212</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f>IF(H23="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H23="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>192</v>
       </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>115</v>
+        <v>147</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>213</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f>IF(H24="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H24="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>192</v>
       </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>181</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
         <v>122</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>214</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f>IF(H25="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H25="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>192</v>
       </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
@@ -4256,23 +6044,26 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f>IF(H26="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H26="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>192</v>
       </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
@@ -4285,23 +6076,26 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f>IF(H27="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H27="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>192</v>
       </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
@@ -4314,88 +6108,93 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f>IF(H28="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H28="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>192</v>
       </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
         <v>122</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f>IF(H29="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f>IF(H29="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f>SUM(M31:M39)</f>
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" t="s">
         <v>218</v>
       </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N39" si="2">IF(H31="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O39" si="3">IF(H31="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
-        <f>SUM(M32:M40)</f>
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>19</v>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
       </c>
       <c r="H32" t="s">
         <v>140</v>
@@ -4407,135 +6206,150 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N40" si="4">IF(H32="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O40" si="5">IF(H32="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>170</v>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>220</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>194</v>
       </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
         <v>221</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>194</v>
       </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H35" t="s">
         <v>140</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>222</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>194</v>
       </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>158</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H36" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>223</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>194</v>
       </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="H37" t="s">
         <v>140</v>
@@ -4547,26 +6361,29 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>129</v>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I38" t="s">
         <v>225</v>
@@ -4575,26 +6392,29 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>194</v>
       </c>
-      <c r="E39" t="s">
-        <v>69</v>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
         <v>226</v>
@@ -4603,117 +6423,126 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" t="s">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f>SUM(M41:M50)</f>
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" t="s">
         <v>140</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>227</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N47" si="4">IF(H41="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41:O47" si="5">IF(H41="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>195</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42">
-        <f>SUM(M42:M51)</f>
-        <v>10</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" t="s">
-        <v>166</v>
+        <v>175</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H42" t="s">
         <v>140</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>228</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="N42:N48" si="6">IF(H42="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:O48" si="7">IF(H42="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>176</v>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" t="s">
+        <v>144</v>
       </c>
       <c r="H43" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>229</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>195</v>
       </c>
-      <c r="E44" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" t="s">
-        <v>144</v>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I44" t="s">
         <v>230</v>
@@ -4722,26 +6551,29 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>137</v>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
       </c>
       <c r="H45" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I45" t="s">
         <v>231</v>
@@ -4750,139 +6582,154 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>195</v>
       </c>
-      <c r="E46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" t="s">
-        <v>150</v>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H46" t="s">
         <v>140</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>232</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>56</v>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
       </c>
       <c r="H47" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>233</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>195</v>
       </c>
-      <c r="E48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" t="s">
-        <v>148</v>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I48" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>195</v>
       </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s">
         <v>122</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
+        <f>IF(H49="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(H49="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>195</v>
       </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="H50" t="s">
         <v>122</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -4896,161 +6743,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H51" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51" t="s">
-        <v>265</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <f>IF(H51="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <f>IF(H51="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <f>SUM(M52:M66)</f>
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N66" si="6">IF(H52="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52:O66" si="7">IF(H52="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>193</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
-      <c r="C53">
-        <f>SUM(M53:M67)</f>
-        <v>15</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>184</v>
+        <v>83</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H53" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>236</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" ref="N53:N67" si="8">IF(H53="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" ref="O53:O67" si="9">IF(H53="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>193</v>
       </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
       </c>
       <c r="I54" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>193</v>
       </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>257</v>
+        <v>185</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
-      <c r="I55" t="s">
-        <v>258</v>
+      <c r="I55" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>193</v>
       </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>238</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>193</v>
       </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>17</v>
+        <v>85</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
@@ -5062,23 +6924,26 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>193</v>
       </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
@@ -5090,23 +6955,26 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>193</v>
       </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
@@ -5118,79 +6986,88 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>242</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>193</v>
       </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>243</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
@@ -5202,107 +7079,119 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>245</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>193</v>
       </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>190</v>
+        <v>145</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>246</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>146</v>
+        <v>96</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
         <v>247</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
@@ -5314,61 +7203,64 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <f>SUM(M68:M72)</f>
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" t="s">
         <v>140</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I68" t="s">
         <v>249</v>
       </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:N72" si="8">IF(H68="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ref="O68:O72" si="9">IF(H68="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>196</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69">
-        <f>SUM(M69:M73)</f>
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>174</v>
-      </c>
-      <c r="F69" t="s">
-        <v>112</v>
+      <c r="E69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I69" t="s">
         <v>250</v>
@@ -5377,23 +7269,26 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N73" si="10">IF(H69="In person",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O73" si="11">IF(H69="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>196</v>
       </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s">
         <v>122</v>
@@ -5405,26 +7300,29 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>196</v>
       </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="H71" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I71" t="s">
         <v>252</v>
@@ -5433,23 +7331,26 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>196</v>
       </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H72" t="s">
         <v>140</v>
@@ -5461,62 +7362,34 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H73" t="s">
-        <v>140</v>
-      </c>
-      <c r="I73" t="s">
-        <v>254</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E42:O50">
-    <sortCondition ref="E42:E50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E41:O49">
+    <sortCondition ref="E41:E49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A495CC8-2D75-4904-B60D-B994B74791C5}">
   <dimension ref="A3:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -5524,7 +7397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF('list-pre-google-forms'!E10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
@@ -5534,7 +7407,7 @@
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF('list-pre-google-forms'!E11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
@@ -5544,7 +7417,7 @@
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF('list-pre-google-forms'!E12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
@@ -5554,7 +7427,7 @@
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF('list-pre-google-forms'!E13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
@@ -5564,7 +7437,7 @@
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF('list-pre-google-forms'!E14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
@@ -5574,7 +7447,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF('list-pre-google-forms'!E15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
@@ -5584,7 +7457,7 @@
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF('list-pre-google-forms'!E16=1,'list-pre-google-forms'!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
@@ -5594,7 +7467,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF('list-pre-google-forms'!E17=1,'list-pre-google-forms'!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
@@ -5604,7 +7477,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF('list-pre-google-forms'!E18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
@@ -5614,7 +7487,7 @@
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF('list-pre-google-forms'!E19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
@@ -5624,7 +7497,7 @@
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('list-pre-google-forms'!E20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
@@ -5634,7 +7507,7 @@
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF('list-pre-google-forms'!E21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
@@ -5644,7 +7517,7 @@
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF('list-pre-google-forms'!E22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
@@ -5654,7 +7527,7 @@
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF('list-pre-google-forms'!E23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
@@ -5664,7 +7537,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('list-pre-google-forms'!E24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
@@ -5674,7 +7547,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>IF('list-pre-google-forms'!E25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
@@ -5684,7 +7557,7 @@
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>IF('list-pre-google-forms'!E26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
@@ -5694,7 +7567,7 @@
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('list-pre-google-forms'!E27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
@@ -5704,7 +7577,7 @@
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>IF('list-pre-google-forms'!E28=1,'list-pre-google-forms'!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
@@ -5714,7 +7587,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>IF('list-pre-google-forms'!E29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
@@ -5724,7 +7597,7 @@
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>IF('list-pre-google-forms'!E30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
@@ -5734,7 +7607,7 @@
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>IF('list-pre-google-forms'!E31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
@@ -5744,7 +7617,7 @@
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>IF('list-pre-google-forms'!E32=1,'list-pre-google-forms'!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
@@ -5754,7 +7627,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>IF('list-pre-google-forms'!E33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
@@ -5764,7 +7637,7 @@
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF('list-pre-google-forms'!E34=1,'list-pre-google-forms'!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
@@ -5774,7 +7647,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>IF('list-pre-google-forms'!E35=1,'list-pre-google-forms'!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
@@ -5784,7 +7657,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>IF('list-pre-google-forms'!E36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
@@ -5794,7 +7667,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>IF('list-pre-google-forms'!E37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
@@ -5804,7 +7677,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>IF('list-pre-google-forms'!E38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
@@ -5814,7 +7687,7 @@
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>IF('list-pre-google-forms'!E39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
@@ -5824,7 +7697,7 @@
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>IF('list-pre-google-forms'!E40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
@@ -5834,7 +7707,7 @@
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>IF('list-pre-google-forms'!E41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
@@ -5844,7 +7717,7 @@
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>IF('list-pre-google-forms'!E42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
@@ -5854,7 +7727,7 @@
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>IF('list-pre-google-forms'!E43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
@@ -5864,7 +7737,7 @@
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF('list-pre-google-forms'!E44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
@@ -5874,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('list-pre-google-forms'!E45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
@@ -5884,7 +7757,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('list-pre-google-forms'!E46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
@@ -5894,7 +7767,7 @@
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>IF('list-pre-google-forms'!E47=1,'list-pre-google-forms'!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
@@ -5904,7 +7777,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>IF('list-pre-google-forms'!E48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
@@ -5914,7 +7787,7 @@
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>IF('list-pre-google-forms'!E49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
@@ -5924,7 +7797,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('list-pre-google-forms'!E50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
@@ -5934,7 +7807,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>IF('list-pre-google-forms'!E51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
@@ -5944,7 +7817,7 @@
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('list-pre-google-forms'!E52=1,'list-pre-google-forms'!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
@@ -5954,7 +7827,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF('list-pre-google-forms'!E53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
@@ -5964,7 +7837,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>IF('list-pre-google-forms'!E54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
@@ -5974,7 +7847,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>IF('list-pre-google-forms'!E55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
@@ -5984,7 +7857,7 @@
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>IF('list-pre-google-forms'!E56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
@@ -5994,7 +7867,7 @@
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>IF('list-pre-google-forms'!E57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
@@ -6004,7 +7877,7 @@
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>IF('list-pre-google-forms'!E58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
@@ -6014,7 +7887,7 @@
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>IF('list-pre-google-forms'!E59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
@@ -6024,7 +7897,7 @@
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>IF('list-pre-google-forms'!E60=1,'list-pre-google-forms'!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
@@ -6034,7 +7907,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>IF('list-pre-google-forms'!E61=1,'list-pre-google-forms'!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
@@ -6044,7 +7917,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>IF('list-pre-google-forms'!E62=1,'list-pre-google-forms'!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
@@ -6054,7 +7927,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>IF('list-pre-google-forms'!E63=1,'list-pre-google-forms'!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
@@ -6064,7 +7937,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>IF('list-pre-google-forms'!E64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
@@ -6074,7 +7947,7 @@
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>IF('list-pre-google-forms'!E65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
@@ -6084,7 +7957,7 @@
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>IF('list-pre-google-forms'!E66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
@@ -6094,7 +7967,7 @@
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('list-pre-google-forms'!E67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
@@ -6104,7 +7977,7 @@
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>IF('list-pre-google-forms'!E68=1,'list-pre-google-forms'!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
@@ -6114,7 +7987,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>IF('list-pre-google-forms'!E69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
@@ -6124,7 +7997,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>IF('list-pre-google-forms'!E70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
@@ -6134,7 +8007,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>IF('list-pre-google-forms'!E71=1,'list-pre-google-forms'!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
@@ -6144,7 +8017,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF('list-pre-google-forms'!E72=1,'list-pre-google-forms'!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
@@ -6154,7 +8027,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF('list-pre-google-forms'!E73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
@@ -6164,7 +8037,7 @@
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('list-pre-google-forms'!E74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
@@ -6174,7 +8047,7 @@
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('list-pre-google-forms'!E75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
@@ -6184,7 +8057,7 @@
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('list-pre-google-forms'!E76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
@@ -6194,7 +8067,7 @@
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('list-pre-google-forms'!E77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
@@ -6204,7 +8077,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF('list-pre-google-forms'!E78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
@@ -6214,7 +8087,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>IF('list-pre-google-forms'!E79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
@@ -6224,7 +8097,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>IF('list-pre-google-forms'!E80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
@@ -6234,7 +8107,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>IF('list-pre-google-forms'!E81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
@@ -6244,7 +8117,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>IF('list-pre-google-forms'!E82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
@@ -6254,7 +8127,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF('list-pre-google-forms'!E83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
@@ -6264,7 +8137,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
         <f>IF('list-pre-google-forms'!G88=1,'list-pre-google-forms'!C88,"")</f>
         <v/>
@@ -6275,7 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H87"/>
   <sheetViews>
@@ -6283,26 +8156,26 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6314,7 +8187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -6324,7 +8197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>125</v>
@@ -6334,11 +8207,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -6364,11 +8237,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -6389,7 +8262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>141</v>
@@ -6415,7 +8288,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>142</v>
@@ -6441,7 +8314,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>143</v>
@@ -6467,7 +8340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -6493,7 +8366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -6504,7 +8377,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>147</v>
@@ -6530,7 +8403,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>66</v>
@@ -6556,7 +8429,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>65</v>
@@ -6582,7 +8455,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>116</v>
@@ -6602,7 +8475,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
@@ -6628,7 +8501,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -6654,7 +8527,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -6680,7 +8553,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -6703,7 +8576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -6711,7 +8584,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -6724,7 +8597,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>126</v>
@@ -6743,7 +8616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -6766,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -6789,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>68</v>
@@ -6815,7 +8688,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -6838,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -6861,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -6884,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>129</v>
@@ -6901,7 +8774,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -6924,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>130</v>
@@ -6941,7 +8814,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>133</v>
@@ -6955,13 +8828,13 @@
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -6974,7 +8847,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>73</v>
@@ -6997,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>107</v>
@@ -7017,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -7034,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
@@ -7051,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>111</v>
@@ -7068,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>118</v>
@@ -7085,12 +8958,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -7103,7 +8976,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>74</v>
@@ -7126,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
@@ -7143,7 +9016,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -7166,12 +9039,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -7184,7 +9057,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -7207,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>77</v>
@@ -7224,7 +9097,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
@@ -7235,7 +9108,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -7248,7 +9121,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>78</v>
@@ -7271,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -7294,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>79</v>
@@ -7317,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -7340,7 +9213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>80</v>
@@ -7363,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>81</v>
@@ -7380,7 +9253,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>82</v>
@@ -7397,7 +9270,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>83</v>
@@ -7414,7 +9287,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>84</v>
@@ -7431,7 +9304,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>85</v>
@@ -7454,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
         <v>58</v>
@@ -7477,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
         <v>92</v>
@@ -7500,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>93</v>
@@ -7523,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
@@ -7543,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="C69" s="2"/>
       <c r="E69" t="str">
@@ -7555,7 +9428,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -7568,7 +9441,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
         <v>136</v>
@@ -7585,7 +9458,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
         <v>86</v>
@@ -7602,7 +9475,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
         <v>87</v>
@@ -7625,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
         <v>88</v>
@@ -7648,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
         <v>89</v>
@@ -7671,7 +9544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
         <v>138</v>
@@ -7691,23 +9564,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
@@ -7717,7 +9590,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
@@ -7727,7 +9600,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>126</v>
       </c>
@@ -7740,7 +9613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>114</v>
       </c>
@@ -7753,18 +9626,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F86"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F87"/>
     </row>
   </sheetData>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3077CE3-EBD9-4239-B53D-FA94BDF7418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31939F4-066F-4C14-BC5E-011B898EE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="281">
   <si>
     <t>Name</t>
   </si>
@@ -863,6 +863,24 @@
   </si>
   <si>
     <t>$\checkmark$</t>
+  </si>
+  <si>
+    <t>MacEachern, Ellen</t>
+  </si>
+  <si>
+    <t>Ellen MacEachern</t>
+  </si>
+  <si>
+    <t>Ellen.MacEachern@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Miller, Liz</t>
+  </si>
+  <si>
+    <t>Liz Miller</t>
+  </si>
+  <si>
+    <t>Elizabeth.Miller@dfo-mpo.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1870,17 +1888,17 @@
       </c>
       <c r="D29" t="str">
         <f>'for-README'!H30</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'for-README'!F31</f>
-        <v>George Nau</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="B30" t="str">
         <f>'for-README'!M31</f>
-        <v>Nau, George</v>
+        <v>MacEachern, Ellen</v>
       </c>
       <c r="C30" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L31, " Region")</f>
@@ -1894,11 +1912,11 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'for-README'!F32</f>
-        <v>Gregory Puncher</v>
+        <v>Liz Miller</v>
       </c>
       <c r="B31" t="str">
         <f>'for-README'!M32</f>
-        <v>Puncher, Gregory</v>
+        <v>Miller, Liz</v>
       </c>
       <c r="C31" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L32, " Region")</f>
@@ -1906,21 +1924,21 @@
       </c>
       <c r="D31" t="str">
         <f>'for-README'!H32</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'for-README'!F33</f>
-        <v>Aaron Adamack</v>
+        <v>George Nau</v>
       </c>
       <c r="B32" t="str">
         <f>'for-README'!M33</f>
-        <v>Adamack, Aaron</v>
+        <v>Nau, George</v>
       </c>
       <c r="C32" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L33, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D32" t="str">
         <f>'for-README'!H33</f>
@@ -1930,29 +1948,29 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'for-README'!F34</f>
-        <v>Kelly Antaya</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="B33" t="str">
         <f>'for-README'!M34</f>
-        <v>Antaya, Kelly</v>
+        <v>Puncher, Gregory</v>
       </c>
       <c r="C33" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L34, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D33" t="str">
         <f>'for-README'!H34</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'for-README'!F35</f>
-        <v>Dwight Drover</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="B34" t="str">
         <f>'for-README'!M35</f>
-        <v>Drover, Dwight</v>
+        <v>Adamack, Aaron</v>
       </c>
       <c r="C34" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
@@ -1966,11 +1984,11 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'for-README'!F36</f>
-        <v>Gillian Forbes</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="B35" t="str">
         <f>'for-README'!M36</f>
-        <v>Forbes, Gillian</v>
+        <v>Antaya, Kelly</v>
       </c>
       <c r="C35" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
@@ -1978,17 +1996,17 @@
       </c>
       <c r="D35" t="str">
         <f>'for-README'!H36</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'for-README'!F37</f>
-        <v>Marc Legresley</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="B36" t="str">
         <f>'for-README'!M37</f>
-        <v>Legresley, Marc</v>
+        <v>Drover, Dwight</v>
       </c>
       <c r="C36" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
@@ -2002,11 +2020,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'for-README'!F38</f>
-        <v>Andrea Perreault</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="B37" t="str">
         <f>'for-README'!M38</f>
-        <v>Perreault, Andrea</v>
+        <v>Forbes, Gillian</v>
       </c>
       <c r="C37" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
@@ -2014,17 +2032,17 @@
       </c>
       <c r="D37" t="str">
         <f>'for-README'!H38</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'for-README'!F39</f>
-        <v>Hannah Polaczek</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="B38" t="str">
         <f>'for-README'!M39</f>
-        <v>Polaczek, Hannah</v>
+        <v>Legresley, Marc</v>
       </c>
       <c r="C38" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
@@ -2038,11 +2056,11 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'for-README'!F40</f>
-        <v>Kierstyn Rideout</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="B39" t="str">
         <f>'for-README'!M40</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Perreault, Andrea</v>
       </c>
       <c r="C39" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
@@ -2050,17 +2068,17 @@
       </c>
       <c r="D39" t="str">
         <f>'for-README'!H40</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'for-README'!F41</f>
-        <v>Meredith Schofield</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="B40" t="str">
         <f>'for-README'!M41</f>
-        <v>Schofield, Meredith</v>
+        <v>Polaczek, Hannah</v>
       </c>
       <c r="C40" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
@@ -2068,17 +2086,17 @@
       </c>
       <c r="D40" t="str">
         <f>'for-README'!H41</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'for-README'!F42</f>
-        <v>Jaime Thomson</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="B41" t="str">
         <f>'for-README'!M42</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Rideout, Kierstyn</v>
       </c>
       <c r="C41" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
@@ -2092,47 +2110,47 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'for-README'!F43</f>
-        <v>Barbara Campbell</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="B42" t="str">
         <f>'for-README'!M43</f>
-        <v>Campbell, Barbara</v>
+        <v>Schofield, Meredith</v>
       </c>
       <c r="C42" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D42" t="str">
         <f>'for-README'!H43</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'for-README'!F44</f>
-        <v>Karalea Cantera</v>
+        <v>Jaime Thomson</v>
       </c>
       <c r="B43" t="str">
         <f>'for-README'!M44</f>
-        <v>Cantera, Karalea</v>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
       <c r="C43" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D43" t="str">
         <f>'for-README'!H44</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'for-README'!F45</f>
-        <v>Chelsea Cooke</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="B44" t="str">
         <f>'for-README'!M45</f>
-        <v>Cooke, Chelsea</v>
+        <v>Campbell, Barbara</v>
       </c>
       <c r="C44" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
@@ -2146,11 +2164,11 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'for-README'!F46</f>
-        <v>Robyn Forrest</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="B45" t="str">
         <f>'for-README'!M46</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Cantera, Karalea</v>
       </c>
       <c r="C45" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
@@ -2164,11 +2182,11 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'for-README'!F47</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="B46" t="str">
         <f>'for-README'!M47</f>
-        <v>Hawkshaw, Sarah</v>
+        <v>Cooke, Chelsea</v>
       </c>
       <c r="C46" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
@@ -2182,11 +2200,11 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'for-README'!F48</f>
-        <v>Erin Herder</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="B47" t="str">
         <f>'for-README'!M48</f>
-        <v>Herder, Erin</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
       <c r="C47" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
@@ -2200,11 +2218,11 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'for-README'!F49</f>
-        <v>Kendra Holt</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="B48" t="str">
         <f>'for-README'!M49</f>
-        <v>Holt, Kendra</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
       <c r="C48" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
@@ -2218,11 +2236,11 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'for-README'!F50</f>
-        <v>Yeongha Jung</v>
+        <v>Erin Herder</v>
       </c>
       <c r="B49" t="str">
         <f>'for-README'!M50</f>
-        <v>Jung, Yeongha</v>
+        <v>Herder, Erin</v>
       </c>
       <c r="C49" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
@@ -2236,11 +2254,11 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'for-README'!F51</f>
-        <v>Madeline Lavery</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="B50" t="str">
         <f>'for-README'!M51</f>
-        <v>Lavery, Madeline</v>
+        <v>Holt, Kendra</v>
       </c>
       <c r="C50" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
@@ -2254,11 +2272,11 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'for-README'!F52</f>
-        <v>Kiana Matwichuk</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="B51" t="str">
         <f>'for-README'!M52</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Jung, Yeongha</v>
       </c>
       <c r="C51" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
@@ -2272,11 +2290,11 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'for-README'!F53</f>
-        <v>Mackenzie Mazur</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="B52" t="str">
         <f>'for-README'!M53</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Lavery, Madeline</v>
       </c>
       <c r="C52" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
@@ -2290,11 +2308,11 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'for-README'!F54</f>
-        <v>Judy McArthur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="B53" t="str">
         <f>'for-README'!M54</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Matwichuk, Kiana</v>
       </c>
       <c r="C53" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
@@ -2308,11 +2326,11 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'for-README'!F55</f>
-        <v>Audrey Ty</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="B54" t="str">
         <f>'for-README'!M55</f>
-        <v>Ty, Audrey</v>
+        <v>Mazur, Mackenzie</v>
       </c>
       <c r="C54" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
@@ -2326,11 +2344,11 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'for-README'!F56</f>
-        <v>Stephen Wischniowski</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="B55" t="str">
         <f>'for-README'!M56</f>
-        <v>Wischniowski, Stephen</v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
       <c r="C55" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
@@ -2344,11 +2362,11 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'for-README'!F57</f>
-        <v>Emily Yungwirth</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="B56" t="str">
         <f>'for-README'!M57</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Ty, Audrey</v>
       </c>
       <c r="C56" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
@@ -2362,15 +2380,15 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'for-README'!F58</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="B57" t="str">
         <f>'for-README'!M58</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
+        <v>Wischniowski, Stephen</v>
       </c>
       <c r="C57" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
+        <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D57" t="str">
         <f>'for-README'!H58</f>
@@ -2380,29 +2398,29 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'for-README'!F59</f>
-        <v>Hélène Dionne</v>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="B58" t="str">
         <f>'for-README'!M59</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
       <c r="C58" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
+        <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D58" t="str">
         <f>'for-README'!H59</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'for-README'!F60</f>
-        <v>Kim Emond</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="B59" t="str">
         <f>'for-README'!M60</f>
-        <v>Emond, Kim</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
       <c r="C59" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
@@ -2410,17 +2428,17 @@
       </c>
       <c r="D59" t="str">
         <f>'for-README'!H60</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'for-README'!F61</f>
-        <v>Nicolas Le Corre</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="B60" t="str">
         <f>'for-README'!M61</f>
-        <v>LeCorre, Nicolas</v>
+        <v>Dionne, Hélène</v>
       </c>
       <c r="C60" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
@@ -2428,17 +2446,17 @@
       </c>
       <c r="D60" t="str">
         <f>'for-README'!H61</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'for-README'!F62</f>
-        <v>Andrew Smith</v>
+        <v>Kim Emond</v>
       </c>
       <c r="B61" t="str">
         <f>'for-README'!M62</f>
-        <v>Smith, Andrew</v>
+        <v>Emond, Kim</v>
       </c>
       <c r="C61" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
@@ -2446,6 +2464,42 @@
       </c>
       <c r="D61" t="str">
         <f>'for-README'!H62</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>'for-README'!F63</f>
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="B62" t="str">
+        <f>'for-README'!M63</f>
+        <v>LeCorre, Nicolas</v>
+      </c>
+      <c r="C62" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D62" t="str">
+        <f>'for-README'!H63</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>'for-README'!F64</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="B63" t="str">
+        <f>'for-README'!M64</f>
+        <v>Smith, Andrew</v>
+      </c>
+      <c r="C63" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D63" t="str">
+        <f>'for-README'!H64</f>
         <v>Virtual</v>
       </c>
     </row>
@@ -2500,11 +2554,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2514,18 +2566,18 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 59 participants as of 2023-01-16 (21 in person and 38 virtual)</v>
+        <v>List of the 61 participants as of 2023-01-16 (24 in person and 37 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J62)</f>
-        <v>38</v>
+        <f>SUM(J4:J64)</f>
+        <v>37</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
@@ -2561,8 +2613,8 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K62)</f>
-        <v>21</v>
+        <f>SUM(K4:K64)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2674,11 +2726,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J58" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J60" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K58" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K60" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -3868,18 +3920,18 @@
       </c>
       <c r="H30" t="str">
         <f>'outlook-responses'!H37</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I30" t="s">
         <v>191</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="str">
         <f>'outlook-responses'!B37</f>
@@ -3909,7 +3961,7 @@
       </c>
       <c r="F31" t="str">
         <f>'outlook-responses'!I38</f>
-        <v>George Nau</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="G31" t="s">
         <v>191</v>
@@ -3935,7 +3987,7 @@
       </c>
       <c r="M31" t="str">
         <f>'outlook-responses'!E38</f>
-        <v>Nau, George</v>
+        <v>MacEachern, Ellen</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3957,25 +4009,25 @@
       </c>
       <c r="F32" t="str">
         <f>'outlook-responses'!I39</f>
-        <v>Gregory Puncher</v>
+        <v>Liz Miller</v>
       </c>
       <c r="G32" t="s">
         <v>191</v>
       </c>
       <c r="H32" t="str">
         <f>'outlook-responses'!H39</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I32" t="s">
         <v>191</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="str">
         <f>'outlook-responses'!B39</f>
@@ -3983,7 +4035,7 @@
       </c>
       <c r="M32" t="str">
         <f>'outlook-responses'!E39</f>
-        <v>Puncher, Gregory</v>
+        <v>Miller, Liz</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3997,21 +4049,21 @@
         <v>191</v>
       </c>
       <c r="D33" t="str">
-        <f>'outlook-responses'!A41</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A40</f>
+        <v>MAR</v>
       </c>
       <c r="E33" t="s">
         <v>191</v>
       </c>
       <c r="F33" t="str">
-        <f>'outlook-responses'!I41</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I40</f>
+        <v>George Nau</v>
       </c>
       <c r="G33" t="s">
         <v>191</v>
       </c>
       <c r="H33" t="str">
-        <f>'outlook-responses'!H41</f>
+        <f>'outlook-responses'!H40</f>
         <v>Virtual</v>
       </c>
       <c r="I33" t="s">
@@ -4026,12 +4078,12 @@
         <v>0</v>
       </c>
       <c r="L33" t="str">
-        <f>'outlook-responses'!B41</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B40</f>
+        <v>Maritimes</v>
       </c>
       <c r="M33" t="str">
-        <f>'outlook-responses'!E41</f>
-        <v>Adamack, Aaron</v>
+        <f>'outlook-responses'!E40</f>
+        <v>Nau, George</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4045,41 +4097,41 @@
         <v>191</v>
       </c>
       <c r="D34" t="str">
-        <f>'outlook-responses'!A42</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A41</f>
+        <v>MAR</v>
       </c>
       <c r="E34" t="s">
         <v>191</v>
       </c>
       <c r="F34" t="str">
-        <f>'outlook-responses'!I42</f>
-        <v>Kelly Antaya</v>
+        <f>'outlook-responses'!I41</f>
+        <v>Gregory Puncher</v>
       </c>
       <c r="G34" t="s">
         <v>191</v>
       </c>
       <c r="H34" t="str">
-        <f>'outlook-responses'!H42</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H41</f>
+        <v>In person</v>
       </c>
       <c r="I34" t="s">
         <v>191</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="str">
-        <f>'outlook-responses'!B42</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B41</f>
+        <v>Maritimes</v>
       </c>
       <c r="M34" t="str">
-        <f>'outlook-responses'!E42</f>
-        <v>Antaya, Kelly</v>
+        <f>'outlook-responses'!E41</f>
+        <v>Puncher, Gregory</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4101,7 +4153,7 @@
       </c>
       <c r="F35" t="str">
         <f>'outlook-responses'!I43</f>
-        <v>Dwight Drover</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
@@ -4127,7 +4179,7 @@
       </c>
       <c r="M35" t="str">
         <f>'outlook-responses'!E43</f>
-        <v>Drover, Dwight</v>
+        <v>Adamack, Aaron</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4149,25 +4201,25 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I44</f>
-        <v>Gillian Forbes</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="str">
         <f>'outlook-responses'!H44</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="str">
         <f>'outlook-responses'!B44</f>
@@ -4175,7 +4227,7 @@
       </c>
       <c r="M36" t="str">
         <f>'outlook-responses'!E44</f>
-        <v>Forbes, Gillian</v>
+        <v>Antaya, Kelly</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4197,7 +4249,7 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>Marc Legresley</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
@@ -4223,7 +4275,7 @@
       </c>
       <c r="M37" t="str">
         <f>'outlook-responses'!E45</f>
-        <v>Legresley, Marc</v>
+        <v>Drover, Dwight</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4245,25 +4297,25 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Andrea Perreault</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
       </c>
       <c r="H38" t="str">
         <f>'outlook-responses'!H46</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I38" t="s">
         <v>191</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="str">
         <f>'outlook-responses'!B46</f>
@@ -4271,7 +4323,7 @@
       </c>
       <c r="M38" t="str">
         <f>'outlook-responses'!E46</f>
-        <v>Perreault, Andrea</v>
+        <v>Forbes, Gillian</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4293,7 +4345,7 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I47</f>
-        <v>Hannah Polaczek</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
@@ -4319,7 +4371,7 @@
       </c>
       <c r="M39" t="str">
         <f>'outlook-responses'!E47</f>
-        <v>Polaczek, Hannah</v>
+        <v>Legresley, Marc</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4341,25 +4393,25 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Kierstyn Rideout</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
         <f>'outlook-responses'!H48</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I40" t="s">
         <v>191</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="str">
         <f>'outlook-responses'!B48</f>
@@ -4367,7 +4419,7 @@
       </c>
       <c r="M40" t="str">
         <f>'outlook-responses'!E48</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Perreault, Andrea</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4389,25 +4441,25 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Meredith Schofield</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
       </c>
       <c r="H41" t="str">
         <f>'outlook-responses'!H49</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I41" t="s">
         <v>191</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="str">
         <f>'outlook-responses'!B49</f>
@@ -4415,7 +4467,7 @@
       </c>
       <c r="M41" t="str">
         <f>'outlook-responses'!E49</f>
-        <v>Schofield, Meredith</v>
+        <v>Polaczek, Hannah</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4437,7 +4489,7 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I50</f>
-        <v>Jaime Thomson</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
@@ -4463,7 +4515,7 @@
       </c>
       <c r="M42" t="str">
         <f>'outlook-responses'!E50</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Rideout, Kierstyn</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4477,41 +4529,41 @@
         <v>191</v>
       </c>
       <c r="D43" t="str">
-        <f>'outlook-responses'!A52</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A51</f>
+        <v>NL</v>
       </c>
       <c r="E43" t="s">
         <v>191</v>
       </c>
       <c r="F43" t="str">
-        <f>'outlook-responses'!I52</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I51</f>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
       </c>
       <c r="H43" t="str">
-        <f>'outlook-responses'!H52</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H51</f>
+        <v>In person</v>
       </c>
       <c r="I43" t="s">
         <v>191</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="str">
-        <f>'outlook-responses'!B52</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B51</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M43" t="str">
-        <f>'outlook-responses'!E52</f>
-        <v>Campbell, Barbara</v>
+        <f>'outlook-responses'!E51</f>
+        <v>Schofield, Meredith</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4525,41 +4577,41 @@
         <v>191</v>
       </c>
       <c r="D44" t="str">
-        <f>'outlook-responses'!A53</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A52</f>
+        <v>NL</v>
       </c>
       <c r="E44" t="s">
         <v>191</v>
       </c>
       <c r="F44" t="str">
-        <f>'outlook-responses'!I53</f>
-        <v>Karalea Cantera</v>
+        <f>'outlook-responses'!I52</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
       </c>
       <c r="H44" t="str">
-        <f>'outlook-responses'!H53</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H52</f>
+        <v>In person</v>
       </c>
       <c r="I44" t="s">
         <v>191</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="str">
-        <f>'outlook-responses'!B53</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B52</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M44" t="str">
-        <f>'outlook-responses'!E53</f>
-        <v>Cantera, Karalea</v>
+        <f>'outlook-responses'!E52</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4581,7 +4633,7 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Chelsea Cooke</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -4607,7 +4659,7 @@
       </c>
       <c r="M45" t="str">
         <f>'outlook-responses'!E54</f>
-        <v>Cooke, Chelsea</v>
+        <v>Campbell, Barbara</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4629,7 +4681,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Robyn Forrest</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -4655,7 +4707,7 @@
       </c>
       <c r="M46" t="str">
         <f>'outlook-responses'!E55</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Cantera, Karalea</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4677,7 +4729,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -4703,7 +4755,7 @@
       </c>
       <c r="M47" t="str">
         <f>'outlook-responses'!E56</f>
-        <v>Hawkshaw, Sarah</v>
+        <v>Cooke, Chelsea</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4725,7 +4777,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Erin Herder</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -4751,7 +4803,7 @@
       </c>
       <c r="M48" t="str">
         <f>'outlook-responses'!E57</f>
-        <v>Herder, Erin</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4773,7 +4825,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Kendra Holt</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -4799,7 +4851,7 @@
       </c>
       <c r="M49" t="str">
         <f>'outlook-responses'!E58</f>
-        <v>Holt, Kendra</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -4821,7 +4873,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Yeongha Jung</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -4847,7 +4899,7 @@
       </c>
       <c r="M50" t="str">
         <f>'outlook-responses'!E59</f>
-        <v>Jung, Yeongha</v>
+        <v>Herder, Erin</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -4869,7 +4921,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Madeline Lavery</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -4895,7 +4947,7 @@
       </c>
       <c r="M51" t="str">
         <f>'outlook-responses'!E60</f>
-        <v>Lavery, Madeline</v>
+        <v>Holt, Kendra</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -4917,7 +4969,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Kiana Matwichuk</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -4943,7 +4995,7 @@
       </c>
       <c r="M52" t="str">
         <f>'outlook-responses'!E61</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Jung, Yeongha</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -4965,7 +5017,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Mackenzie Mazur</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -4991,7 +5043,7 @@
       </c>
       <c r="M53" t="str">
         <f>'outlook-responses'!E62</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Lavery, Madeline</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5013,7 +5065,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Judy McArthur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -5039,7 +5091,7 @@
       </c>
       <c r="M54" t="str">
         <f>'outlook-responses'!E63</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Matwichuk, Kiana</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5061,7 +5113,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Audrey Ty</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -5087,7 +5139,7 @@
       </c>
       <c r="M55" t="str">
         <f>'outlook-responses'!E64</f>
-        <v>Ty, Audrey</v>
+        <v>Mazur, Mackenzie</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5109,7 +5161,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Stephen Wischniowski</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -5135,7 +5187,7 @@
       </c>
       <c r="M56" t="str">
         <f>'outlook-responses'!E65</f>
-        <v>Wischniowski, Stephen</v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5157,7 +5209,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Emily Yungwirth</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5183,7 +5235,7 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Ty, Audrey</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5197,89 +5249,89 @@
         <v>191</v>
       </c>
       <c r="D58" t="str">
+        <f>'outlook-responses'!A67</f>
+        <v>PAC</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" t="str">
+        <f>'outlook-responses'!I67</f>
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="G58" t="s">
+        <v>191</v>
+      </c>
+      <c r="H58" t="str">
+        <f>'outlook-responses'!H67</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I58" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58" t="str">
+        <f>'outlook-responses'!B67</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M58" t="str">
+        <f>'outlook-responses'!E67</f>
+        <v>Wischniowski, Stephen</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" t="str">
         <f>'outlook-responses'!A68</f>
-        <v>QUE</v>
-      </c>
-      <c r="E58" t="s">
-        <v>191</v>
-      </c>
-      <c r="F58" t="str">
+        <v>PAC</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Mathieu Desgagnés</v>
-      </c>
-      <c r="G58" t="s">
-        <v>191</v>
-      </c>
-      <c r="H58" t="str">
+        <v>Emily Yungwirth</v>
+      </c>
+      <c r="G59" t="s">
+        <v>191</v>
+      </c>
+      <c r="H59" t="str">
         <f>'outlook-responses'!H68</f>
         <v>Virtual</v>
       </c>
-      <c r="I58" t="s">
-        <v>191</v>
-      </c>
-      <c r="J58">
+      <c r="I59" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L58" t="str">
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L59" t="str">
         <f>'outlook-responses'!B68</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M58" t="str">
+        <v>Pacific</v>
+      </c>
+      <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" t="str">
-        <f>'outlook-responses'!A69</f>
-        <v>QUE</v>
-      </c>
-      <c r="E59" t="s">
-        <v>191</v>
-      </c>
-      <c r="F59" t="str">
-        <f>'outlook-responses'!I69</f>
-        <v>Hélène Dionne</v>
-      </c>
-      <c r="G59" t="s">
-        <v>191</v>
-      </c>
-      <c r="H59" t="str">
-        <f>'outlook-responses'!H69</f>
-        <v>In person</v>
-      </c>
-      <c r="I59" t="s">
-        <v>191</v>
-      </c>
-      <c r="J59">
-        <f t="shared" ref="J59:J64" si="2">IF(H59="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <f t="shared" ref="K59:K64" si="3">IF(H59="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L59" t="str">
-        <f>'outlook-responses'!B69</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M59" t="str">
-        <f>'outlook-responses'!E69</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5301,25 +5353,25 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Kim Emond</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
       </c>
       <c r="H60" t="str">
         <f>'outlook-responses'!H70</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I60" t="s">
         <v>191</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L60" t="str">
         <f>'outlook-responses'!B70</f>
@@ -5327,7 +5379,7 @@
       </c>
       <c r="M60" t="str">
         <f>'outlook-responses'!E70</f>
-        <v>Emond, Kim</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5349,25 +5401,25 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Nicolas Le Corre</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
       </c>
       <c r="H61" t="str">
         <f>'outlook-responses'!H71</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I61" t="s">
         <v>191</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="J61:J64" si="2">IF(H61="Virtual",1,0)</f>
+        <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="K61:K64" si="3">IF(H61="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="L61" t="str">
         <f>'outlook-responses'!B71</f>
@@ -5375,7 +5427,7 @@
       </c>
       <c r="M61" t="str">
         <f>'outlook-responses'!E71</f>
-        <v>LeCorre, Nicolas</v>
+        <v>Dionne, Hélène</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5397,25 +5449,25 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Andrew Smith</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
       </c>
       <c r="H62" t="str">
         <f>'outlook-responses'!H72</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I62" t="s">
         <v>191</v>
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="str">
         <f>'outlook-responses'!B72</f>
@@ -5423,7 +5475,7 @@
       </c>
       <c r="M62" t="str">
         <f>'outlook-responses'!E72</f>
-        <v>Smith, Andrew</v>
+        <v>Emond, Kim</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5434,6 +5486,102 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="str">
+        <f>'outlook-responses'!A73</f>
+        <v>QUE</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" t="str">
+        <f>'outlook-responses'!I73</f>
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="G63" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" t="str">
+        <f>'outlook-responses'!H73</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I63" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L63" t="str">
+        <f>'outlook-responses'!B73</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M63" t="str">
+        <f>'outlook-responses'!E73</f>
+        <v>LeCorre, Nicolas</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="str">
+        <f>'outlook-responses'!A74</f>
+        <v>QUE</v>
+      </c>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" t="str">
+        <f>'outlook-responses'!I74</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" t="str">
+        <f>'outlook-responses'!H74</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I64" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L64" t="str">
+        <f>'outlook-responses'!B74</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M64" t="str">
+        <f>'outlook-responses'!E74</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5444,11 +5592,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B30" sqref="A30:XFD30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5461,8 +5607,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M72)</f>
-        <v>59</v>
+        <f>SUM(M8:M74)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5470,8 +5616,8 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O72)</f>
-        <v>38</v>
+        <f>SUM(O8:O74)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5479,8 +5625,8 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N72)</f>
-        <v>21</v>
+        <f>SUM(N8:N74)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5505,8 +5651,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C52+C31+C41+C68+C9</f>
-        <v>59</v>
+        <f>C19+C54+C31+C43+C70+C9</f>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5820,11 +5966,11 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(H19="In person",1,0)</f>
+        <f t="shared" ref="N19:N29" si="2">IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>IF(H19="Virtual",1,0)</f>
+        <f t="shared" ref="O19:O29" si="3">IF(H19="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5852,11 +5998,11 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(H20="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IF(H20="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5884,11 +6030,11 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(H21="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IF(H21="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5916,11 +6062,11 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(H22="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IF(H22="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5948,11 +6094,11 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(H23="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>IF(H23="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5980,11 +6126,11 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(H24="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>IF(H24="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6012,11 +6158,11 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF(H25="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>IF(H25="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6044,11 +6190,11 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF(H26="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>IF(H26="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6076,11 +6222,11 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>IF(H27="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>IF(H27="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6108,11 +6254,11 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f>IF(H28="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>IF(H28="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6140,11 +6286,11 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f>IF(H29="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f>IF(H29="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6156,8 +6302,8 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <f>SUM(M31:M39)</f>
-        <v>9</v>
+        <f>SUM(M31:M41)</f>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>70</v>
@@ -6175,11 +6321,11 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N39" si="2">IF(H31="In person",1,0)</f>
+        <f>IF(H31="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:O39" si="3">IF(H31="Virtual",1,0)</f>
+        <f>IF(H31="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6206,11 +6352,11 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f>IF(H32="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f>IF(H32="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6237,11 +6383,11 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f>IF(H33="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f>IF(H33="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6268,11 +6414,11 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f>IF(H34="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f>IF(H34="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6299,11 +6445,11 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f>IF(H35="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f>IF(H35="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6330,11 +6476,11 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f>IF(H36="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f>IF(H36="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6352,7 +6498,7 @@
         <v>131</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I37" t="s">
         <v>224</v>
@@ -6361,12 +6507,12 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(H37="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(H37="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -6376,27 +6522,27 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>69</v>
+      <c r="E38" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="H38" t="s">
         <v>122</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f>IF(H38="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f>IF(H38="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6408,93 +6554,89 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f>IF(H39="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f>IF(H39="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
         <v>140</v>
       </c>
-      <c r="I39" t="s">
-        <v>226</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="3"/>
+      <c r="I40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f>IF(H40="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f>IF(H40="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <f>SUM(M41:M50)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" t="s">
-        <v>166</v>
+        <v>130</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N47" si="4">IF(H41="In person",1,0)</f>
-        <v>0</v>
+        <f>IF(H41="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41:O47" si="5">IF(H41="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(H41="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -6504,27 +6646,31 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
-        <v>167</v>
+      <c r="C43">
+        <f>SUM(M43:M52)</f>
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="H43" t="s">
         <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N43:N49" si="4">IF(H43="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O43:O49" si="5">IF(H43="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6536,27 +6682,27 @@
         <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44" t="s">
-        <v>230</v>
+        <v>140</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -6567,16 +6713,16 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
         <v>140</v>
       </c>
       <c r="I45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -6598,27 +6744,27 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>232</v>
+        <v>122</v>
+      </c>
+      <c r="I46" t="s">
+        <v>230</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -6629,16 +6775,16 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H47" t="s">
         <v>140</v>
       </c>
       <c r="I47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -6660,25 +6806,27 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>260</v>
+        <v>89</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" t="s">
-        <v>258</v>
+        <v>140</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -6688,28 +6836,28 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>54</v>
+      <c r="E49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
       </c>
       <c r="H49" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
-        <f>IF(H49="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O49">
-        <f>IF(H49="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -6720,93 +6868,87 @@
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H50" t="s">
         <v>122</v>
       </c>
       <c r="I50" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <f>IF(H50="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O50">
-        <f>IF(H50="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" t="s">
+        <v>234</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <f>IF(H51="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f>IF(H51="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52">
-        <f>SUM(M52:M66)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>184</v>
+        <v>265</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="H52" t="s">
-        <v>140</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>235</v>
+        <v>122</v>
+      </c>
+      <c r="I52" t="s">
+        <v>264</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:N66" si="6">IF(H52="In person",1,0)</f>
-        <v>0</v>
+        <f>IF(H52="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" ref="O52:O66" si="7">IF(H52="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I53" t="s">
-        <v>236</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>IF(H52="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -6816,26 +6958,31 @@
       <c r="B54" t="s">
         <v>16</v>
       </c>
+      <c r="C54">
+        <f>SUM(M54:M68)</f>
+        <v>15</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>256</v>
+        <v>93</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
       </c>
-      <c r="I54" t="s">
-        <v>257</v>
+      <c r="I54" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N54:N68" si="6">IF(H54="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O54">
+        <f t="shared" ref="O54:O68" si="7">IF(H54="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6847,16 +6994,16 @@
         <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>237</v>
+      <c r="I55" t="s">
+        <v>236</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -6878,16 +7025,16 @@
         <v>16</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>17</v>
+        <v>255</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -6897,7 +7044,6 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6909,16 +7055,16 @@
         <v>16</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>53</v>
+        <v>185</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
       </c>
-      <c r="I57" t="s">
-        <v>239</v>
+      <c r="I57" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -6940,16 +7086,16 @@
         <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -6971,16 +7117,16 @@
         <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
       </c>
       <c r="I59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -7002,16 +7148,16 @@
         <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>24</v>
+        <v>80</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>242</v>
+      <c r="I60" t="s">
+        <v>240</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -7033,16 +7179,16 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
       <c r="I61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -7064,16 +7210,16 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" t="s">
-        <v>244</v>
+      <c r="I62" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -7095,16 +7241,16 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>190</v>
+        <v>84</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>245</v>
+      <c r="I63" t="s">
+        <v>243</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -7126,16 +7272,16 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
       <c r="I64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -7157,16 +7303,16 @@
         <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -7188,16 +7334,16 @@
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>248</v>
+      <c r="I66" t="s">
+        <v>246</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -7211,70 +7357,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68">
-        <f>SUM(M68:M72)</f>
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>174</v>
-      </c>
-      <c r="F68" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
-      <c r="I68" t="s">
-        <v>249</v>
+      <c r="I68" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N72" si="8">IF(H68="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O72" si="9">IF(H68="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H69" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" t="s">
-        <v>250</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -7284,28 +7426,32 @@
       <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>36</v>
+      <c r="C70">
+        <f>SUM(M70:M74)</f>
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I70" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="N70:N74" si="8">IF(H70="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="O70:O74" si="9">IF(H70="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -7316,27 +7462,27 @@
         <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -7347,34 +7493,97 @@
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" t="s">
+        <v>252</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" t="s">
+        <v>140</v>
+      </c>
+      <c r="I74" t="s">
+        <v>253</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E41:O49">
-    <sortCondition ref="E41:E49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E31:O41">
+    <sortCondition ref="E31:E41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31939F4-066F-4C14-BC5E-011B898EE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1102F3-3721-4F3A-9462-40B75B75DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="282">
   <si>
     <t>Name</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>Elizabeth.Miller@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Andrew Darcy</t>
   </si>
 </sst>
 </file>
@@ -949,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -964,6 +967,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1245,9 +1249,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1471,11 +1475,11 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'for-README'!F14</f>
-        <v>Isabelle Forest</v>
+        <v>Andrew Darcy</v>
       </c>
       <c r="B13" t="str">
         <f>'for-README'!M14</f>
-        <v xml:space="preserve">Forest, Isabelle </v>
+        <v>Darcy, Andrew</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L14, " Region")</f>
@@ -1498,11 +1502,11 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'for-README'!F15</f>
-        <v>Matthew Horsman</v>
+        <v>Isabelle Forest</v>
       </c>
       <c r="B14" t="str">
         <f>'for-README'!M15</f>
-        <v xml:space="preserve">Horsman, Matthew </v>
+        <v xml:space="preserve">Forest, Isabelle </v>
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L15, " Region")</f>
@@ -1525,11 +1529,11 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'for-README'!F16</f>
-        <v>Kirby Morrill</v>
+        <v>Matthew Horsman</v>
       </c>
       <c r="B15" t="str">
         <f>'for-README'!M16</f>
-        <v>Morrill, Kirdy</v>
+        <v xml:space="preserve">Horsman, Matthew </v>
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L16, " Region")</f>
@@ -1552,11 +1556,11 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'for-README'!F17</f>
-        <v>Daniel Ricard</v>
+        <v>Kirby Morrill</v>
       </c>
       <c r="B16" t="str">
         <f>'for-README'!M17</f>
-        <v>Ricard, Daniel</v>
+        <v>Morrill, Kirdy</v>
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L17, " Region")</f>
@@ -1579,11 +1583,11 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'for-README'!F18</f>
-        <v>Karen Robertson</v>
+        <v>Daniel Ricard</v>
       </c>
       <c r="B17" t="str">
         <f>'for-README'!M18</f>
-        <v>Robertson, Karen</v>
+        <v>Ricard, Daniel</v>
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L18, " Region")</f>
@@ -1606,11 +1610,11 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'for-README'!F19</f>
-        <v>Sylvie Robichaud</v>
+        <v>Karen Robertson</v>
       </c>
       <c r="B18" t="str">
         <f>'for-README'!M19</f>
-        <v xml:space="preserve">Robichaud, Sylvie </v>
+        <v>Robertson, Karen</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L19, " Region")</f>
@@ -1633,11 +1637,11 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'for-README'!F20</f>
-        <v>Nicolas Rolland</v>
+        <v>Sylvie Robichaud</v>
       </c>
       <c r="B19" t="str">
         <f>'for-README'!M20</f>
-        <v>Rolland, Nicolas</v>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L20, " Region")</f>
@@ -1660,11 +1664,11 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'for-README'!F21</f>
-        <v>Jolene Sutton</v>
+        <v>Nicolas Rolland</v>
       </c>
       <c r="B20" t="str">
         <f>'for-README'!M21</f>
-        <v xml:space="preserve">Sutton, Jolene </v>
+        <v>Rolland, Nicolas</v>
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L21, " Region")</f>
@@ -1687,11 +1691,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'for-README'!F22</f>
-        <v>François-Étienne Sylvain</v>
+        <v>Jolene Sutton</v>
       </c>
       <c r="B21" t="str">
         <f>'for-README'!M22</f>
-        <v xml:space="preserve">Sylvain, François-Étienne </v>
+        <v xml:space="preserve">Sutton, Jolene </v>
       </c>
       <c r="C21" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L22, " Region")</f>
@@ -1714,11 +1718,11 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'for-README'!F23</f>
-        <v>Kari Underhill</v>
+        <v>François-Étienne Sylvain</v>
       </c>
       <c r="B22" t="str">
         <f>'for-README'!M23</f>
-        <v>Underhill, Kari</v>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
       <c r="C22" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L23, " Region")</f>
@@ -1741,19 +1745,19 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'for-README'!F24</f>
-        <v>Mark Billard</v>
+        <v>Kari Underhill</v>
       </c>
       <c r="B23" t="str">
         <f>'for-README'!M24</f>
-        <v>Billard, Mark</v>
+        <v>Underhill, Kari</v>
       </c>
       <c r="C23" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L24, " Region")</f>
-        <v>DFO Science - Maritimes Region</v>
+        <v>DFO Science - Gulf Region</v>
       </c>
       <c r="D23" t="str">
         <f>'for-README'!H24</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>274</v>
@@ -1768,11 +1772,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'for-README'!F25</f>
-        <v>Lynn Collier</v>
+        <v>Mark Billard</v>
       </c>
       <c r="B24" t="str">
         <f>'for-README'!M25</f>
-        <v>Collier, Lynn</v>
+        <v>Billard, Mark</v>
       </c>
       <c r="C24" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L25, " Region")</f>
@@ -1782,24 +1786,18 @@
         <f>'for-README'!H25</f>
         <v>Virtual</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>274</v>
-      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'for-README'!F26</f>
-        <v>Peter Comeau</v>
+        <v>Lynn Collier</v>
       </c>
       <c r="B25" t="str">
         <f>'for-README'!M26</f>
-        <v>Comeau, Peter</v>
+        <v>Collier, Lynn</v>
       </c>
       <c r="C25" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L26, " Region")</f>
@@ -1807,17 +1805,17 @@
       </c>
       <c r="D25" t="str">
         <f>'for-README'!H26</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'for-README'!F27</f>
-        <v>Tania Davignon-Burton</v>
+        <v>Peter Comeau</v>
       </c>
       <c r="B26" t="str">
         <f>'for-README'!M27</f>
-        <v>Davignon-Burton, Tania</v>
+        <v>Comeau, Peter</v>
       </c>
       <c r="C26" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L27, " Region")</f>
@@ -1825,7 +1823,7 @@
       </c>
       <c r="D26" t="str">
         <f>'for-README'!H27</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>274</v>
@@ -1840,11 +1838,11 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'for-README'!F28</f>
-        <v>Nell den Heyer</v>
+        <v>Tania Davignon-Burton</v>
       </c>
       <c r="B27" t="str">
         <f>'for-README'!M28</f>
-        <v>den Heyer, Nell</v>
+        <v>Davignon-Burton, Tania</v>
       </c>
       <c r="C27" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L28, " Region")</f>
@@ -1858,11 +1856,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'for-README'!F29</f>
-        <v>Danni Harper</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="B28" t="str">
         <f>'for-README'!M29</f>
-        <v>Harper, Danni</v>
+        <v>den Heyer, Nell</v>
       </c>
       <c r="C28" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L29, " Region")</f>
@@ -1876,11 +1874,11 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'for-README'!F30</f>
-        <v>Kelly Kraska</v>
+        <v>Danni Harper</v>
       </c>
       <c r="B29" t="str">
         <f>'for-README'!M30</f>
-        <v>Kraska, Kelly</v>
+        <v>Harper, Danni</v>
       </c>
       <c r="C29" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L30, " Region")</f>
@@ -1888,17 +1886,17 @@
       </c>
       <c r="D29" t="str">
         <f>'for-README'!H30</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'for-README'!F31</f>
-        <v>Ellen MacEachern</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="B30" t="str">
         <f>'for-README'!M31</f>
-        <v>MacEachern, Ellen</v>
+        <v>Kraska, Kelly</v>
       </c>
       <c r="C30" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L31, " Region")</f>
@@ -1912,11 +1910,11 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'for-README'!F32</f>
-        <v>Liz Miller</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="B31" t="str">
         <f>'for-README'!M32</f>
-        <v>Miller, Liz</v>
+        <v>MacEachern, Ellen</v>
       </c>
       <c r="C31" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L32, " Region")</f>
@@ -1930,11 +1928,11 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'for-README'!F33</f>
-        <v>George Nau</v>
+        <v>Liz Miller</v>
       </c>
       <c r="B32" t="str">
         <f>'for-README'!M33</f>
-        <v>Nau, George</v>
+        <v>Miller, Liz</v>
       </c>
       <c r="C32" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L33, " Region")</f>
@@ -1942,17 +1940,17 @@
       </c>
       <c r="D32" t="str">
         <f>'for-README'!H33</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'for-README'!F34</f>
-        <v>Gregory Puncher</v>
+        <v>George Nau</v>
       </c>
       <c r="B33" t="str">
         <f>'for-README'!M34</f>
-        <v>Puncher, Gregory</v>
+        <v>Nau, George</v>
       </c>
       <c r="C33" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L34, " Region")</f>
@@ -1960,35 +1958,35 @@
       </c>
       <c r="D33" t="str">
         <f>'for-README'!H34</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'for-README'!F35</f>
-        <v>Aaron Adamack</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="B34" t="str">
         <f>'for-README'!M35</f>
-        <v>Adamack, Aaron</v>
+        <v>Puncher, Gregory</v>
       </c>
       <c r="C34" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D34" t="str">
         <f>'for-README'!H35</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'for-README'!F36</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="B35" t="str">
         <f>'for-README'!M36</f>
-        <v>Antaya, Kelly</v>
+        <v>Adamack, Aaron</v>
       </c>
       <c r="C35" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
@@ -2002,11 +2000,11 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'for-README'!F37</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="B36" t="str">
         <f>'for-README'!M37</f>
-        <v>Drover, Dwight</v>
+        <v>Antaya, Kelly</v>
       </c>
       <c r="C36" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
@@ -2020,11 +2018,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'for-README'!F38</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="B37" t="str">
         <f>'for-README'!M38</f>
-        <v>Forbes, Gillian</v>
+        <v>Drover, Dwight</v>
       </c>
       <c r="C37" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
@@ -2032,17 +2030,17 @@
       </c>
       <c r="D37" t="str">
         <f>'for-README'!H38</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'for-README'!F39</f>
-        <v>Marc Legresley</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="B38" t="str">
         <f>'for-README'!M39</f>
-        <v>Legresley, Marc</v>
+        <v>Forbes, Gillian</v>
       </c>
       <c r="C38" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
@@ -2050,17 +2048,17 @@
       </c>
       <c r="D38" t="str">
         <f>'for-README'!H39</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'for-README'!F40</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="B39" t="str">
         <f>'for-README'!M40</f>
-        <v>Perreault, Andrea</v>
+        <v>Legresley, Marc</v>
       </c>
       <c r="C39" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
@@ -2074,11 +2072,11 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'for-README'!F41</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="B40" t="str">
         <f>'for-README'!M41</f>
-        <v>Polaczek, Hannah</v>
+        <v>Perreault, Andrea</v>
       </c>
       <c r="C40" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
@@ -2092,11 +2090,11 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'for-README'!F42</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="B41" t="str">
         <f>'for-README'!M42</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Polaczek, Hannah</v>
       </c>
       <c r="C41" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
@@ -2104,17 +2102,17 @@
       </c>
       <c r="D41" t="str">
         <f>'for-README'!H42</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'for-README'!F43</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="B42" t="str">
         <f>'for-README'!M43</f>
-        <v>Schofield, Meredith</v>
+        <v>Rideout, Kierstyn</v>
       </c>
       <c r="C42" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
@@ -2128,11 +2126,11 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'for-README'!F44</f>
-        <v>Jaime Thomson</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="B43" t="str">
         <f>'for-README'!M44</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Schofield, Meredith</v>
       </c>
       <c r="C43" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
@@ -2146,29 +2144,29 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'for-README'!F45</f>
-        <v>Barbara Campbell</v>
+        <v>Jaime Thomson</v>
       </c>
       <c r="B44" t="str">
         <f>'for-README'!M45</f>
-        <v>Campbell, Barbara</v>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
       <c r="C44" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D44" t="str">
         <f>'for-README'!H45</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'for-README'!F46</f>
-        <v>Karalea Cantera</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="B45" t="str">
         <f>'for-README'!M46</f>
-        <v>Cantera, Karalea</v>
+        <v>Campbell, Barbara</v>
       </c>
       <c r="C45" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
@@ -2182,11 +2180,11 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'for-README'!F47</f>
-        <v>Chelsea Cooke</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="B46" t="str">
         <f>'for-README'!M47</f>
-        <v>Cooke, Chelsea</v>
+        <v>Cantera, Karalea</v>
       </c>
       <c r="C46" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
@@ -2200,11 +2198,11 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'for-README'!F48</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="B47" t="str">
         <f>'for-README'!M48</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Cooke, Chelsea</v>
       </c>
       <c r="C47" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
@@ -2218,11 +2216,11 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'for-README'!F49</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="B48" t="str">
         <f>'for-README'!M49</f>
-        <v>Hawkshaw, Sarah</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
       <c r="C48" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
@@ -2236,11 +2234,11 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'for-README'!F50</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="B49" t="str">
         <f>'for-README'!M50</f>
-        <v>Herder, Erin</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
       <c r="C49" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
@@ -2254,11 +2252,11 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'for-README'!F51</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="B50" t="str">
         <f>'for-README'!M51</f>
-        <v>Holt, Kendra</v>
+        <v>Herder, Erin</v>
       </c>
       <c r="C50" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
@@ -2272,11 +2270,11 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'for-README'!F52</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="B51" t="str">
         <f>'for-README'!M52</f>
-        <v>Jung, Yeongha</v>
+        <v>Holt, Kendra</v>
       </c>
       <c r="C51" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
@@ -2290,11 +2288,11 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'for-README'!F53</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="B52" t="str">
         <f>'for-README'!M53</f>
-        <v>Lavery, Madeline</v>
+        <v>Jung, Yeongha</v>
       </c>
       <c r="C52" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
@@ -2308,11 +2306,11 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'for-README'!F54</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="B53" t="str">
         <f>'for-README'!M54</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Lavery, Madeline</v>
       </c>
       <c r="C53" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
@@ -2326,11 +2324,11 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'for-README'!F55</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="B54" t="str">
         <f>'for-README'!M55</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Matwichuk, Kiana</v>
       </c>
       <c r="C54" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
@@ -2344,11 +2342,11 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'for-README'!F56</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="B55" t="str">
         <f>'for-README'!M56</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Mazur, Mackenzie</v>
       </c>
       <c r="C55" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
@@ -2362,11 +2360,11 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'for-README'!F57</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="B56" t="str">
         <f>'for-README'!M57</f>
-        <v>Ty, Audrey</v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
       <c r="C56" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
@@ -2380,11 +2378,11 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'for-README'!F58</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="B57" t="str">
         <f>'for-README'!M58</f>
-        <v>Wischniowski, Stephen</v>
+        <v>Ty, Audrey</v>
       </c>
       <c r="C57" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
@@ -2398,11 +2396,11 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'for-README'!F59</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="B58" t="str">
         <f>'for-README'!M59</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Wischniowski, Stephen</v>
       </c>
       <c r="C58" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
@@ -2416,15 +2414,15 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'for-README'!F60</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="B59" t="str">
         <f>'for-README'!M60</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
       <c r="C59" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
+        <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D59" t="str">
         <f>'for-README'!H60</f>
@@ -2434,11 +2432,11 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'for-README'!F61</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="B60" t="str">
         <f>'for-README'!M61</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
       <c r="C60" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
@@ -2446,17 +2444,17 @@
       </c>
       <c r="D60" t="str">
         <f>'for-README'!H61</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'for-README'!F62</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="B61" t="str">
         <f>'for-README'!M62</f>
-        <v>Emond, Kim</v>
+        <v>Dionne, Hélène</v>
       </c>
       <c r="C61" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
@@ -2470,11 +2468,11 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'for-README'!F63</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="B62" t="str">
         <f>'for-README'!M63</f>
-        <v>LeCorre, Nicolas</v>
+        <v>Emond, Kim</v>
       </c>
       <c r="C62" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
@@ -2482,17 +2480,17 @@
       </c>
       <c r="D62" t="str">
         <f>'for-README'!H63</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'for-README'!F64</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="B63" t="str">
         <f>'for-README'!M64</f>
-        <v>Smith, Andrew</v>
+        <v>LeCorre, Nicolas</v>
       </c>
       <c r="C63" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
@@ -2500,6 +2498,24 @@
       </c>
       <c r="D63" t="str">
         <f>'for-README'!H64</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>'for-README'!F65</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="B64" t="str">
+        <f>'for-README'!M65</f>
+        <v>Smith, Andrew</v>
+      </c>
+      <c r="C64" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D64" t="str">
+        <f>'for-README'!H65</f>
         <v>Virtual</v>
       </c>
     </row>
@@ -2529,24 +2545,21 @@
     <hyperlink ref="E23" r:id="rId22" display="\\\checkmark" xr:uid="{AF2EF1E5-4AEF-4604-9B0B-992E0C001A77}"/>
     <hyperlink ref="F23" r:id="rId23" display="\\\checkmark" xr:uid="{060587FC-B51A-4A6E-AA06-3420648D9AF0}"/>
     <hyperlink ref="G23" r:id="rId24" display="\\\checkmark" xr:uid="{AC6B1E71-3308-46F5-BE5A-B75C7EF82DC1}"/>
-    <hyperlink ref="E24" r:id="rId25" display="\\\checkmark" xr:uid="{D9CDC626-A42A-47B4-9C12-3D34281F1FA8}"/>
-    <hyperlink ref="F24" r:id="rId26" display="\\\checkmark" xr:uid="{38334122-AED2-4F3E-8079-463104A791B7}"/>
-    <hyperlink ref="G24" r:id="rId27" display="\\\checkmark" xr:uid="{6D465AC6-DBE5-4AE6-A540-E8E38987FFC7}"/>
-    <hyperlink ref="E16" r:id="rId28" display="\\\checkmark" xr:uid="{50059F2D-D53B-43A7-BCB2-0D9C38E96615}"/>
-    <hyperlink ref="F16" r:id="rId29" display="\\\checkmark" xr:uid="{C527042D-FD1A-4554-B654-3281F3B62880}"/>
-    <hyperlink ref="G16" r:id="rId30" display="\\\checkmark" xr:uid="{A9612D1C-B9B0-44FD-AC99-4C53973BFCFD}"/>
-    <hyperlink ref="G15" r:id="rId31" display="\\\checkmark" xr:uid="{31D0C505-A782-43C6-8932-2E31DA51C1B1}"/>
-    <hyperlink ref="F15" r:id="rId32" display="\\\checkmark" xr:uid="{A1810319-DBB1-4F42-82B9-51E20103CC95}"/>
-    <hyperlink ref="E15" r:id="rId33" display="\\\checkmark" xr:uid="{618B4339-336D-4E85-83EE-3FCCB63C7845}"/>
-    <hyperlink ref="E14" r:id="rId34" display="\\\checkmark" xr:uid="{CEB12D8A-E301-49AA-B717-367403A75495}"/>
-    <hyperlink ref="F14" r:id="rId35" display="\\\checkmark" xr:uid="{C4A8BCFE-1FE6-45B6-85A6-9C231E617438}"/>
-    <hyperlink ref="G14" r:id="rId36" display="\\\checkmark" xr:uid="{4946C0F7-573E-4580-B42C-A227D1BAC9FD}"/>
-    <hyperlink ref="G13" r:id="rId37" display="\\\checkmark" xr:uid="{5AB2E3E4-F17F-4B1D-A22F-5D98DF0A655C}"/>
-    <hyperlink ref="F13" r:id="rId38" display="\\\checkmark" xr:uid="{E8223621-481B-4C69-8448-D8739C812E81}"/>
-    <hyperlink ref="E13" r:id="rId39" display="\\\checkmark" xr:uid="{7135914F-D60B-428A-8F04-9E058B2FC36B}"/>
-    <hyperlink ref="E12" r:id="rId40" display="\\\checkmark" xr:uid="{0231FF37-4D75-4C78-BA19-BF1957CB315A}"/>
-    <hyperlink ref="F12" r:id="rId41" display="\\\checkmark" xr:uid="{D34FFB3D-7B37-431D-BAF5-11163AF8E6B4}"/>
-    <hyperlink ref="G12" r:id="rId42" display="\\\checkmark" xr:uid="{F4E2B004-C911-4BD0-9C18-F64F822EABAD}"/>
+    <hyperlink ref="E16" r:id="rId25" display="\\\checkmark" xr:uid="{50059F2D-D53B-43A7-BCB2-0D9C38E96615}"/>
+    <hyperlink ref="F16" r:id="rId26" display="\\\checkmark" xr:uid="{C527042D-FD1A-4554-B654-3281F3B62880}"/>
+    <hyperlink ref="G16" r:id="rId27" display="\\\checkmark" xr:uid="{A9612D1C-B9B0-44FD-AC99-4C53973BFCFD}"/>
+    <hyperlink ref="G15" r:id="rId28" display="\\\checkmark" xr:uid="{31D0C505-A782-43C6-8932-2E31DA51C1B1}"/>
+    <hyperlink ref="F15" r:id="rId29" display="\\\checkmark" xr:uid="{A1810319-DBB1-4F42-82B9-51E20103CC95}"/>
+    <hyperlink ref="E15" r:id="rId30" display="\\\checkmark" xr:uid="{618B4339-336D-4E85-83EE-3FCCB63C7845}"/>
+    <hyperlink ref="E14" r:id="rId31" display="\\\checkmark" xr:uid="{CEB12D8A-E301-49AA-B717-367403A75495}"/>
+    <hyperlink ref="F14" r:id="rId32" display="\\\checkmark" xr:uid="{C4A8BCFE-1FE6-45B6-85A6-9C231E617438}"/>
+    <hyperlink ref="G14" r:id="rId33" display="\\\checkmark" xr:uid="{4946C0F7-573E-4580-B42C-A227D1BAC9FD}"/>
+    <hyperlink ref="G13" r:id="rId34" display="\\\checkmark" xr:uid="{5AB2E3E4-F17F-4B1D-A22F-5D98DF0A655C}"/>
+    <hyperlink ref="F13" r:id="rId35" display="\\\checkmark" xr:uid="{E8223621-481B-4C69-8448-D8739C812E81}"/>
+    <hyperlink ref="E13" r:id="rId36" display="\\\checkmark" xr:uid="{7135914F-D60B-428A-8F04-9E058B2FC36B}"/>
+    <hyperlink ref="E12" r:id="rId37" display="\\\checkmark" xr:uid="{0231FF37-4D75-4C78-BA19-BF1957CB315A}"/>
+    <hyperlink ref="F12" r:id="rId38" display="\\\checkmark" xr:uid="{D34FFB3D-7B37-431D-BAF5-11163AF8E6B4}"/>
+    <hyperlink ref="G12" r:id="rId39" display="\\\checkmark" xr:uid="{F4E2B004-C911-4BD0-9C18-F64F822EABAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2554,9 +2567,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2566,18 +2579,18 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 61 participants as of 2023-01-16 (24 in person and 37 virtual)</v>
+        <v>List of the 62 participants as of 2023-01-16 (25 in person and 37 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J64)</f>
+        <f>SUM(J4:J65)</f>
         <v>37</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
@@ -2613,8 +2626,8 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K64)</f>
-        <v>24</v>
+        <f>SUM(K4:K65)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2726,11 +2739,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J60" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J61" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K60" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K61" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -3145,7 +3158,7 @@
       </c>
       <c r="F14" t="str">
         <f>'outlook-responses'!I20</f>
-        <v>Isabelle Forest</v>
+        <v>Andrew Darcy</v>
       </c>
       <c r="G14" t="s">
         <v>191</v>
@@ -3171,7 +3184,7 @@
       </c>
       <c r="M14" t="str">
         <f>'outlook-responses'!E20</f>
-        <v xml:space="preserve">Forest, Isabelle </v>
+        <v>Darcy, Andrew</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3193,7 +3206,7 @@
       </c>
       <c r="F15" t="str">
         <f>'outlook-responses'!I21</f>
-        <v>Matthew Horsman</v>
+        <v>Isabelle Forest</v>
       </c>
       <c r="G15" t="s">
         <v>191</v>
@@ -3219,7 +3232,7 @@
       </c>
       <c r="M15" t="str">
         <f>'outlook-responses'!E21</f>
-        <v xml:space="preserve">Horsman, Matthew </v>
+        <v xml:space="preserve">Forest, Isabelle </v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3241,7 +3254,7 @@
       </c>
       <c r="F16" t="str">
         <f>'outlook-responses'!I22</f>
-        <v>Kirby Morrill</v>
+        <v>Matthew Horsman</v>
       </c>
       <c r="G16" t="s">
         <v>191</v>
@@ -3267,7 +3280,7 @@
       </c>
       <c r="M16" t="str">
         <f>'outlook-responses'!E22</f>
-        <v>Morrill, Kirdy</v>
+        <v xml:space="preserve">Horsman, Matthew </v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3289,7 +3302,7 @@
       </c>
       <c r="F17" t="str">
         <f>'outlook-responses'!I23</f>
-        <v>Daniel Ricard</v>
+        <v>Kirby Morrill</v>
       </c>
       <c r="G17" t="s">
         <v>191</v>
@@ -3315,7 +3328,7 @@
       </c>
       <c r="M17" t="str">
         <f>'outlook-responses'!E23</f>
-        <v>Ricard, Daniel</v>
+        <v>Morrill, Kirdy</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3337,7 +3350,7 @@
       </c>
       <c r="F18" t="str">
         <f>'outlook-responses'!I24</f>
-        <v>Karen Robertson</v>
+        <v>Daniel Ricard</v>
       </c>
       <c r="G18" t="s">
         <v>191</v>
@@ -3363,7 +3376,7 @@
       </c>
       <c r="M18" t="str">
         <f>'outlook-responses'!E24</f>
-        <v>Robertson, Karen</v>
+        <v>Ricard, Daniel</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3385,7 +3398,7 @@
       </c>
       <c r="F19" t="str">
         <f>'outlook-responses'!I25</f>
-        <v>Sylvie Robichaud</v>
+        <v>Karen Robertson</v>
       </c>
       <c r="G19" t="s">
         <v>191</v>
@@ -3411,7 +3424,7 @@
       </c>
       <c r="M19" t="str">
         <f>'outlook-responses'!E25</f>
-        <v xml:space="preserve">Robichaud, Sylvie </v>
+        <v>Robertson, Karen</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3433,7 +3446,7 @@
       </c>
       <c r="F20" t="str">
         <f>'outlook-responses'!I26</f>
-        <v>Nicolas Rolland</v>
+        <v>Sylvie Robichaud</v>
       </c>
       <c r="G20" t="s">
         <v>191</v>
@@ -3459,7 +3472,7 @@
       </c>
       <c r="M20" t="str">
         <f>'outlook-responses'!E26</f>
-        <v>Rolland, Nicolas</v>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3481,7 +3494,7 @@
       </c>
       <c r="F21" t="str">
         <f>'outlook-responses'!I27</f>
-        <v>Jolene Sutton</v>
+        <v>Nicolas Rolland</v>
       </c>
       <c r="G21" t="s">
         <v>191</v>
@@ -3507,7 +3520,7 @@
       </c>
       <c r="M21" t="str">
         <f>'outlook-responses'!E27</f>
-        <v xml:space="preserve">Sutton, Jolene </v>
+        <v>Rolland, Nicolas</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3529,7 +3542,7 @@
       </c>
       <c r="F22" t="str">
         <f>'outlook-responses'!I28</f>
-        <v>François-Étienne Sylvain</v>
+        <v>Jolene Sutton</v>
       </c>
       <c r="G22" t="s">
         <v>191</v>
@@ -3555,7 +3568,7 @@
       </c>
       <c r="M22" t="str">
         <f>'outlook-responses'!E28</f>
-        <v xml:space="preserve">Sylvain, François-Étienne </v>
+        <v xml:space="preserve">Sutton, Jolene </v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3577,7 +3590,7 @@
       </c>
       <c r="F23" t="str">
         <f>'outlook-responses'!I29</f>
-        <v>Kari Underhill</v>
+        <v>François-Étienne Sylvain</v>
       </c>
       <c r="G23" t="s">
         <v>191</v>
@@ -3603,7 +3616,7 @@
       </c>
       <c r="M23" t="str">
         <f>'outlook-responses'!E29</f>
-        <v>Underhill, Kari</v>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3617,41 +3630,41 @@
         <v>191</v>
       </c>
       <c r="D24" t="str">
-        <f>'outlook-responses'!A31</f>
-        <v>MAR</v>
+        <f>'outlook-responses'!A30</f>
+        <v>GLF</v>
       </c>
       <c r="E24" t="s">
         <v>191</v>
       </c>
       <c r="F24" t="str">
-        <f>'outlook-responses'!I31</f>
-        <v>Mark Billard</v>
+        <f>'outlook-responses'!I30</f>
+        <v>Kari Underhill</v>
       </c>
       <c r="G24" t="s">
         <v>191</v>
       </c>
       <c r="H24" t="str">
-        <f>'outlook-responses'!H31</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H30</f>
+        <v>In person</v>
       </c>
       <c r="I24" t="s">
         <v>191</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="K24" si="2">IF(H24="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="L24" t="str">
-        <f>'outlook-responses'!B31</f>
-        <v>Maritimes</v>
+        <f>'outlook-responses'!B30</f>
+        <v>Gulf</v>
       </c>
       <c r="M24" t="str">
-        <f>'outlook-responses'!E31</f>
-        <v>Billard, Mark</v>
+        <f>'outlook-responses'!E30</f>
+        <v>Underhill, Kari</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3673,7 +3686,7 @@
       </c>
       <c r="F25" t="str">
         <f>'outlook-responses'!I32</f>
-        <v>Lynn Collier</v>
+        <v>Mark Billard</v>
       </c>
       <c r="G25" t="s">
         <v>191</v>
@@ -3699,7 +3712,7 @@
       </c>
       <c r="M25" t="str">
         <f>'outlook-responses'!E32</f>
-        <v>Collier, Lynn</v>
+        <v>Billard, Mark</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3721,25 +3734,25 @@
       </c>
       <c r="F26" t="str">
         <f>'outlook-responses'!I33</f>
-        <v>Peter Comeau</v>
+        <v>Lynn Collier</v>
       </c>
       <c r="G26" t="s">
         <v>191</v>
       </c>
       <c r="H26" t="str">
         <f>'outlook-responses'!H33</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I26" t="s">
         <v>191</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="str">
         <f>'outlook-responses'!B33</f>
@@ -3747,7 +3760,7 @@
       </c>
       <c r="M26" t="str">
         <f>'outlook-responses'!E33</f>
-        <v>Comeau, Peter</v>
+        <v>Collier, Lynn</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3769,25 +3782,25 @@
       </c>
       <c r="F27" t="str">
         <f>'outlook-responses'!I34</f>
-        <v>Tania Davignon-Burton</v>
+        <v>Peter Comeau</v>
       </c>
       <c r="G27" t="s">
         <v>191</v>
       </c>
       <c r="H27" t="str">
         <f>'outlook-responses'!H34</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I27" t="s">
         <v>191</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="str">
         <f>'outlook-responses'!B34</f>
@@ -3795,7 +3808,7 @@
       </c>
       <c r="M27" t="str">
         <f>'outlook-responses'!E34</f>
-        <v>Davignon-Burton, Tania</v>
+        <v>Comeau, Peter</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3817,7 +3830,7 @@
       </c>
       <c r="F28" t="str">
         <f>'outlook-responses'!I35</f>
-        <v>Nell den Heyer</v>
+        <v>Tania Davignon-Burton</v>
       </c>
       <c r="G28" t="s">
         <v>191</v>
@@ -3843,7 +3856,7 @@
       </c>
       <c r="M28" t="str">
         <f>'outlook-responses'!E35</f>
-        <v>den Heyer, Nell</v>
+        <v>Davignon-Burton, Tania</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3865,7 +3878,7 @@
       </c>
       <c r="F29" t="str">
         <f>'outlook-responses'!I36</f>
-        <v>Danni Harper</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="G29" t="s">
         <v>191</v>
@@ -3891,7 +3904,7 @@
       </c>
       <c r="M29" t="str">
         <f>'outlook-responses'!E36</f>
-        <v>Harper, Danni</v>
+        <v>den Heyer, Nell</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3913,25 +3926,25 @@
       </c>
       <c r="F30" t="str">
         <f>'outlook-responses'!I37</f>
-        <v>Kelly Kraska</v>
+        <v>Danni Harper</v>
       </c>
       <c r="G30" t="s">
         <v>191</v>
       </c>
       <c r="H30" t="str">
         <f>'outlook-responses'!H37</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I30" t="s">
         <v>191</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="str">
         <f>'outlook-responses'!B37</f>
@@ -3939,7 +3952,7 @@
       </c>
       <c r="M30" t="str">
         <f>'outlook-responses'!E37</f>
-        <v>Kraska, Kelly</v>
+        <v>Harper, Danni</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3961,7 +3974,7 @@
       </c>
       <c r="F31" t="str">
         <f>'outlook-responses'!I38</f>
-        <v>Ellen MacEachern</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="G31" t="s">
         <v>191</v>
@@ -3987,7 +4000,7 @@
       </c>
       <c r="M31" t="str">
         <f>'outlook-responses'!E38</f>
-        <v>MacEachern, Ellen</v>
+        <v>Kraska, Kelly</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4009,7 +4022,7 @@
       </c>
       <c r="F32" t="str">
         <f>'outlook-responses'!I39</f>
-        <v>Liz Miller</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="G32" t="s">
         <v>191</v>
@@ -4035,7 +4048,7 @@
       </c>
       <c r="M32" t="str">
         <f>'outlook-responses'!E39</f>
-        <v>Miller, Liz</v>
+        <v>MacEachern, Ellen</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4057,25 +4070,25 @@
       </c>
       <c r="F33" t="str">
         <f>'outlook-responses'!I40</f>
-        <v>George Nau</v>
+        <v>Liz Miller</v>
       </c>
       <c r="G33" t="s">
         <v>191</v>
       </c>
       <c r="H33" t="str">
         <f>'outlook-responses'!H40</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I33" t="s">
         <v>191</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="str">
         <f>'outlook-responses'!B40</f>
@@ -4083,7 +4096,7 @@
       </c>
       <c r="M33" t="str">
         <f>'outlook-responses'!E40</f>
-        <v>Nau, George</v>
+        <v>Miller, Liz</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4105,25 +4118,25 @@
       </c>
       <c r="F34" t="str">
         <f>'outlook-responses'!I41</f>
-        <v>Gregory Puncher</v>
+        <v>George Nau</v>
       </c>
       <c r="G34" t="s">
         <v>191</v>
       </c>
       <c r="H34" t="str">
         <f>'outlook-responses'!H41</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I34" t="s">
         <v>191</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="str">
         <f>'outlook-responses'!B41</f>
@@ -4131,7 +4144,7 @@
       </c>
       <c r="M34" t="str">
         <f>'outlook-responses'!E41</f>
-        <v>Puncher, Gregory</v>
+        <v>Nau, George</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4145,41 +4158,41 @@
         <v>191</v>
       </c>
       <c r="D35" t="str">
-        <f>'outlook-responses'!A43</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A42</f>
+        <v>MAR</v>
       </c>
       <c r="E35" t="s">
         <v>191</v>
       </c>
       <c r="F35" t="str">
-        <f>'outlook-responses'!I43</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I42</f>
+        <v>Gregory Puncher</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
       </c>
       <c r="H35" t="str">
-        <f>'outlook-responses'!H43</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H42</f>
+        <v>In person</v>
       </c>
       <c r="I35" t="s">
         <v>191</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="str">
-        <f>'outlook-responses'!B43</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B42</f>
+        <v>Maritimes</v>
       </c>
       <c r="M35" t="str">
-        <f>'outlook-responses'!E43</f>
-        <v>Adamack, Aaron</v>
+        <f>'outlook-responses'!E42</f>
+        <v>Puncher, Gregory</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4201,7 +4214,7 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I44</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
@@ -4227,7 +4240,7 @@
       </c>
       <c r="M36" t="str">
         <f>'outlook-responses'!E44</f>
-        <v>Antaya, Kelly</v>
+        <v>Adamack, Aaron</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4249,7 +4262,7 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
@@ -4275,7 +4288,7 @@
       </c>
       <c r="M37" t="str">
         <f>'outlook-responses'!E45</f>
-        <v>Drover, Dwight</v>
+        <v>Antaya, Kelly</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4297,25 +4310,25 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
       </c>
       <c r="H38" t="str">
         <f>'outlook-responses'!H46</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I38" t="s">
         <v>191</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="str">
         <f>'outlook-responses'!B46</f>
@@ -4323,7 +4336,7 @@
       </c>
       <c r="M38" t="str">
         <f>'outlook-responses'!E46</f>
-        <v>Forbes, Gillian</v>
+        <v>Drover, Dwight</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4345,25 +4358,25 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I47</f>
-        <v>Marc Legresley</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
       </c>
       <c r="H39" t="str">
         <f>'outlook-responses'!H47</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I39" t="s">
         <v>191</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="str">
         <f>'outlook-responses'!B47</f>
@@ -4371,7 +4384,7 @@
       </c>
       <c r="M39" t="str">
         <f>'outlook-responses'!E47</f>
-        <v>Legresley, Marc</v>
+        <v>Forbes, Gillian</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4393,7 +4406,7 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
@@ -4419,7 +4432,7 @@
       </c>
       <c r="M40" t="str">
         <f>'outlook-responses'!E48</f>
-        <v>Perreault, Andrea</v>
+        <v>Legresley, Marc</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4441,7 +4454,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -4467,7 +4480,7 @@
       </c>
       <c r="M41" t="str">
         <f>'outlook-responses'!E49</f>
-        <v>Polaczek, Hannah</v>
+        <v>Perreault, Andrea</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4489,25 +4502,25 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I50</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
       </c>
       <c r="H42" t="str">
         <f>'outlook-responses'!H50</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I42" t="s">
         <v>191</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="str">
         <f>'outlook-responses'!B50</f>
@@ -4515,7 +4528,7 @@
       </c>
       <c r="M42" t="str">
         <f>'outlook-responses'!E50</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Polaczek, Hannah</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4537,7 +4550,7 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
@@ -4563,7 +4576,7 @@
       </c>
       <c r="M43" t="str">
         <f>'outlook-responses'!E51</f>
-        <v>Schofield, Meredith</v>
+        <v>Rideout, Kierstyn</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4585,7 +4598,7 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Jaime Thomson</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -4611,7 +4624,7 @@
       </c>
       <c r="M44" t="str">
         <f>'outlook-responses'!E52</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Schofield, Meredith</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4625,41 +4638,41 @@
         <v>191</v>
       </c>
       <c r="D45" t="str">
-        <f>'outlook-responses'!A54</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A53</f>
+        <v>NL</v>
       </c>
       <c r="E45" t="s">
         <v>191</v>
       </c>
       <c r="F45" t="str">
-        <f>'outlook-responses'!I54</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I53</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
       </c>
       <c r="H45" t="str">
-        <f>'outlook-responses'!H54</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H53</f>
+        <v>In person</v>
       </c>
       <c r="I45" t="s">
         <v>191</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="str">
-        <f>'outlook-responses'!B54</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B53</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M45" t="str">
-        <f>'outlook-responses'!E54</f>
-        <v>Campbell, Barbara</v>
+        <f>'outlook-responses'!E53</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4681,7 +4694,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Karalea Cantera</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -4707,7 +4720,7 @@
       </c>
       <c r="M46" t="str">
         <f>'outlook-responses'!E55</f>
-        <v>Cantera, Karalea</v>
+        <v>Campbell, Barbara</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4729,7 +4742,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Chelsea Cooke</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -4755,7 +4768,7 @@
       </c>
       <c r="M47" t="str">
         <f>'outlook-responses'!E56</f>
-        <v>Cooke, Chelsea</v>
+        <v>Cantera, Karalea</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4777,7 +4790,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -4803,7 +4816,7 @@
       </c>
       <c r="M48" t="str">
         <f>'outlook-responses'!E57</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Cooke, Chelsea</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4825,7 +4838,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -4851,7 +4864,7 @@
       </c>
       <c r="M49" t="str">
         <f>'outlook-responses'!E58</f>
-        <v>Hawkshaw, Sarah</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -4873,7 +4886,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -4899,7 +4912,7 @@
       </c>
       <c r="M50" t="str">
         <f>'outlook-responses'!E59</f>
-        <v>Herder, Erin</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -4921,7 +4934,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -4947,7 +4960,7 @@
       </c>
       <c r="M51" t="str">
         <f>'outlook-responses'!E60</f>
-        <v>Holt, Kendra</v>
+        <v>Herder, Erin</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -4969,7 +4982,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -4995,7 +5008,7 @@
       </c>
       <c r="M52" t="str">
         <f>'outlook-responses'!E61</f>
-        <v>Jung, Yeongha</v>
+        <v>Holt, Kendra</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5017,7 +5030,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -5043,7 +5056,7 @@
       </c>
       <c r="M53" t="str">
         <f>'outlook-responses'!E62</f>
-        <v>Lavery, Madeline</v>
+        <v>Jung, Yeongha</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5065,7 +5078,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -5091,7 +5104,7 @@
       </c>
       <c r="M54" t="str">
         <f>'outlook-responses'!E63</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Lavery, Madeline</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5113,7 +5126,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -5139,7 +5152,7 @@
       </c>
       <c r="M55" t="str">
         <f>'outlook-responses'!E64</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Matwichuk, Kiana</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5161,7 +5174,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -5187,7 +5200,7 @@
       </c>
       <c r="M56" t="str">
         <f>'outlook-responses'!E65</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Mazur, Mackenzie</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5209,7 +5222,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5235,7 +5248,7 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v>Ty, Audrey</v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5257,7 +5270,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -5283,7 +5296,7 @@
       </c>
       <c r="M58" t="str">
         <f>'outlook-responses'!E67</f>
-        <v>Wischniowski, Stephen</v>
+        <v>Ty, Audrey</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5305,7 +5318,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -5331,7 +5344,7 @@
       </c>
       <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Wischniowski, Stephen</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5345,21 +5358,21 @@
         <v>191</v>
       </c>
       <c r="D60" t="str">
-        <f>'outlook-responses'!A70</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A69</f>
+        <v>PAC</v>
       </c>
       <c r="E60" t="s">
         <v>191</v>
       </c>
       <c r="F60" t="str">
-        <f>'outlook-responses'!I70</f>
-        <v>Mathieu Desgagnés</v>
+        <f>'outlook-responses'!I69</f>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
       </c>
       <c r="H60" t="str">
-        <f>'outlook-responses'!H70</f>
+        <f>'outlook-responses'!H69</f>
         <v>Virtual</v>
       </c>
       <c r="I60" t="s">
@@ -5374,12 +5387,12 @@
         <v>0</v>
       </c>
       <c r="L60" t="str">
-        <f>'outlook-responses'!B70</f>
-        <v>Quebec</v>
+        <f>'outlook-responses'!B69</f>
+        <v>Pacific</v>
       </c>
       <c r="M60" t="str">
-        <f>'outlook-responses'!E70</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
+        <f>'outlook-responses'!E69</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5401,25 +5414,25 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
       </c>
       <c r="H61" t="str">
         <f>'outlook-responses'!H71</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I61" t="s">
         <v>191</v>
       </c>
       <c r="J61">
-        <f t="shared" ref="J61:J64" si="2">IF(H61="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K61">
-        <f t="shared" ref="K61:K64" si="3">IF(H61="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L61" t="str">
         <f>'outlook-responses'!B71</f>
@@ -5427,7 +5440,7 @@
       </c>
       <c r="M61" t="str">
         <f>'outlook-responses'!E71</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5449,7 +5462,7 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
@@ -5462,11 +5475,11 @@
         <v>191</v>
       </c>
       <c r="J62">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J62:J65" si="3">IF(H62="Virtual",1,0)</f>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K62:K65" si="4">IF(H62="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="L62" t="str">
@@ -5475,7 +5488,7 @@
       </c>
       <c r="M62" t="str">
         <f>'outlook-responses'!E72</f>
-        <v>Emond, Kim</v>
+        <v>Dionne, Hélène</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5497,25 +5510,25 @@
       </c>
       <c r="F63" t="str">
         <f>'outlook-responses'!I73</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
       </c>
       <c r="H63" t="str">
         <f>'outlook-responses'!H73</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I63" t="s">
         <v>191</v>
       </c>
       <c r="J63">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="L63" t="str">
         <f>'outlook-responses'!B73</f>
@@ -5523,7 +5536,7 @@
       </c>
       <c r="M63" t="str">
         <f>'outlook-responses'!E73</f>
-        <v>LeCorre, Nicolas</v>
+        <v>Emond, Kim</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5545,7 +5558,7 @@
       </c>
       <c r="F64" t="str">
         <f>'outlook-responses'!I74</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
@@ -5558,11 +5571,11 @@
         <v>191</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L64" t="str">
@@ -5571,10 +5584,10 @@
       </c>
       <c r="M64" t="str">
         <f>'outlook-responses'!E74</f>
-        <v>Smith, Andrew</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>LeCorre, Nicolas</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -5582,6 +5595,54 @@
         <v>62</v>
       </c>
       <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="str">
+        <f>'outlook-responses'!A75</f>
+        <v>QUE</v>
+      </c>
+      <c r="E65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" t="str">
+        <f>'outlook-responses'!I75</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G65" t="s">
+        <v>191</v>
+      </c>
+      <c r="H65" t="str">
+        <f>'outlook-responses'!H75</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I65" t="s">
+        <v>191</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L65" t="str">
+        <f>'outlook-responses'!B75</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M65" t="str">
+        <f>'outlook-responses'!E75</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5592,7 +5653,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5607,8 +5668,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M74)</f>
-        <v>61</v>
+        <f>SUM(M8:M75)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5616,7 +5677,7 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O74)</f>
+        <f>SUM(O8:O75)</f>
         <v>37</v>
       </c>
     </row>
@@ -5625,8 +5686,8 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N74)</f>
-        <v>24</v>
+        <f>SUM(N8:N75)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5651,8 +5712,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C54+C31+C43+C70+C9</f>
-        <v>61</v>
+        <f>C19+C55+C32+C44+C71+C9</f>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5946,8 +6007,8 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f>SUM(M19:M29)</f>
-        <v>11</v>
+        <f>SUM(M19:M30)</f>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
@@ -5966,11 +6027,11 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N29" si="2">IF(H19="In person",1,0)</f>
+        <f>IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O29" si="3">IF(H19="Virtual",1,0)</f>
+        <f>IF(H19="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5982,27 +6043,27 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>178</v>
+        <v>64</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
         <v>122</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f>IF(H20="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
+        <f>IF(H20="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6014,27 +6075,27 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
         <v>122</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f>IF(H21="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f>IF(H21="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6046,27 +6107,27 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>104</v>
+        <v>179</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
         <v>122</v>
       </c>
-      <c r="I22" t="s">
-        <v>211</v>
+      <c r="I22" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f>IF(H22="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f>IF(H22="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6078,27 +6139,27 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>212</v>
+      <c r="I23" t="s">
+        <v>211</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f>IF(H23="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
+        <f>IF(H23="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6110,27 +6171,27 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
         <v>122</v>
       </c>
-      <c r="I24" t="s">
-        <v>213</v>
+      <c r="I24" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f>IF(H24="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
+        <f>IF(H24="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6142,27 +6203,27 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>117</v>
+        <v>147</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>214</v>
+      <c r="I25" t="s">
+        <v>213</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f>IF(H25="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f>IF(H25="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6174,27 +6235,27 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
         <v>122</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f>IF(H26="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f>IF(H26="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6206,27 +6267,27 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
         <v>122</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f>IF(H27="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f>IF(H27="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6238,27 +6299,27 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
         <v>122</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f>IF(H28="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f>IF(H28="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6270,63 +6331,60 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
         <v>122</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f>IF(H29="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f>IF(H29="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <f>SUM(M31:M41)</f>
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <f>IF(H31="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f>IF(H31="Virtual",1,0)</f>
-        <v>1</v>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f>IF(H30="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f>IF(H30="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -6336,27 +6394,31 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>170</v>
+      <c r="C32">
+        <f>SUM(M32:M42)</f>
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H32" t="s">
         <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <f>IF(H32="In person",1,0)</f>
+        <f t="shared" ref="N32:N42" si="2">IF(H32="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>IF(H32="Virtual",1,0)</f>
+        <f t="shared" ref="O32:O42" si="3">IF(H32="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6367,28 +6429,28 @@
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>62</v>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>220</v>
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>219</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <f>IF(H33="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O33">
-        <f>IF(H33="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -6399,27 +6461,27 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" t="s">
-        <v>221</v>
+        <v>122</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <f>IF(H34="In person",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O34">
-        <f>IF(H34="Virtual",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -6430,26 +6492,26 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H35" t="s">
         <v>140</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>222</v>
+      <c r="I35" t="s">
+        <v>221</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f>IF(H35="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>IF(H35="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6461,26 +6523,26 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>159</v>
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H36" t="s">
         <v>140</v>
       </c>
-      <c r="I36" t="s">
-        <v>223</v>
+      <c r="I36" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f>IF(H36="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>IF(H36="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6492,27 +6554,27 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>131</v>
+        <v>158</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <f>IF(H37="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O37">
-        <f>IF(H37="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -6523,26 +6585,26 @@
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
         <v>122</v>
       </c>
       <c r="I38" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <f>IF(H38="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O38">
-        <f>IF(H38="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6554,26 +6616,26 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H39" t="s">
         <v>122</v>
       </c>
       <c r="I39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
-        <f>IF(H39="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O39">
-        <f>IF(H39="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6584,28 +6646,28 @@
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>69</v>
+      <c r="E40" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I40" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <f>IF(H40="In person",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O40">
-        <f>IF(H40="Virtual",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -6615,63 +6677,59 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>122</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>226</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <f>IF(H41="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <f>IF(H41="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <f>SUM(M43:M52)</f>
-        <v>10</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H43" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" t="s">
-        <v>227</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ref="N43:N49" si="4">IF(H43="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" ref="O43:O49" si="5">IF(H43="Virtual",1,0)</f>
-        <v>1</v>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -6681,27 +6739,31 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
+      <c r="C44">
+        <f>SUM(M44:M53)</f>
+        <v>10</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>166</v>
       </c>
       <c r="H44" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>228</v>
+      <c r="I44" t="s">
+        <v>227</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N44:N50" si="4">IF(H44="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O44:O50" si="5">IF(H44="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6712,17 +6774,17 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="E45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" t="s">
-        <v>144</v>
+      <c r="E45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H45" t="s">
         <v>140</v>
       </c>
-      <c r="I45" t="s">
-        <v>229</v>
+      <c r="I45" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -6743,28 +6805,28 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>137</v>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -6774,28 +6836,28 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" t="s">
-        <v>150</v>
+      <c r="E47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -6805,17 +6867,17 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>56</v>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
       </c>
       <c r="H48" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>232</v>
+      <c r="I48" t="s">
+        <v>231</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -6836,17 +6898,17 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" t="s">
-        <v>148</v>
+      <c r="E49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H49" t="s">
         <v>140</v>
       </c>
-      <c r="I49" t="s">
-        <v>233</v>
+      <c r="I49" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -6867,26 +6929,28 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>260</v>
+      <c r="E50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" t="s">
+        <v>148</v>
       </c>
       <c r="H50" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I50" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -6897,26 +6961,24 @@
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="H51" t="s">
         <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f>IF(H51="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O51">
-        <f>IF(H51="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6928,16 +6990,16 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="H52" t="s">
         <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -6951,39 +7013,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <f>SUM(M54:M68)</f>
-        <v>15</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H54" t="s">
-        <v>140</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <f t="shared" ref="N54:N68" si="6">IF(H54="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f t="shared" ref="O54:O68" si="7">IF(H54="Virtual",1,0)</f>
-        <v>1</v>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" t="s">
+        <v>264</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f>IF(H53="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f>IF(H53="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -6993,27 +7051,31 @@
       <c r="B55" t="s">
         <v>16</v>
       </c>
+      <c r="C55">
+        <f>SUM(M55:M69)</f>
+        <v>15</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
-      <c r="I55" t="s">
-        <v>236</v>
+      <c r="I55" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N55:N69" si="6">IF(H55="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O55:O69" si="7">IF(H55="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7025,16 +7087,16 @@
         <v>16</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -7044,6 +7106,7 @@
         <v>0</v>
       </c>
       <c r="O56">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7055,16 +7118,16 @@
         <v>16</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>59</v>
+        <v>255</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>237</v>
+      <c r="I57" t="s">
+        <v>257</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -7074,7 +7137,6 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7086,16 +7148,16 @@
         <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>17</v>
+        <v>185</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
       </c>
-      <c r="I58" t="s">
-        <v>238</v>
+      <c r="I58" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -7117,16 +7179,16 @@
         <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
       </c>
       <c r="I59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -7148,16 +7210,16 @@
         <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -7179,16 +7241,16 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
       <c r="I61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -7210,16 +7272,16 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>242</v>
+      <c r="I62" t="s">
+        <v>241</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -7241,16 +7303,16 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
-      <c r="I63" t="s">
-        <v>243</v>
+      <c r="I63" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -7272,16 +7334,16 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
       <c r="I64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -7303,16 +7365,16 @@
         <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>245</v>
+      <c r="I65" t="s">
+        <v>244</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -7334,16 +7396,16 @@
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
-      <c r="I66" t="s">
-        <v>246</v>
+      <c r="I66" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -7365,16 +7427,16 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>247</v>
+      <c r="I67" t="s">
+        <v>246</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -7396,16 +7458,16 @@
         <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -7419,38 +7481,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70">
-        <f>SUM(M70:M74)</f>
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" t="s">
-        <v>112</v>
-      </c>
-      <c r="H70" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s">
         <v>140</v>
       </c>
-      <c r="I70" t="s">
-        <v>249</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <f t="shared" ref="N70:N74" si="8">IF(H70="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <f t="shared" ref="O70:O74" si="9">IF(H70="Virtual",1,0)</f>
+      <c r="I69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7461,28 +7519,32 @@
       <c r="B71" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>119</v>
+      <c r="C71">
+        <f>SUM(M71:M75)</f>
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" t="s">
+        <v>112</v>
       </c>
       <c r="H71" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="N71:N75" si="8">IF(H71="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="O71:O75" si="9">IF(H71="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -7493,16 +7555,16 @@
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H72" t="s">
         <v>122</v>
       </c>
       <c r="I72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -7524,27 +7586,27 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -7555,16 +7617,16 @@
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H74" t="s">
         <v>140</v>
       </c>
       <c r="I74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -7578,12 +7640,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H75" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" t="s">
+        <v>253</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E31:O41">
-    <sortCondition ref="E31:E41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E19:O30">
+    <sortCondition ref="E19:E30"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{7B3B921E-9FBB-4D88-BC1A-055CFDECF96E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1102F3-3721-4F3A-9462-40B75B75DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCCEE44-6C9E-4109-87E7-615BF04030E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="283">
   <si>
     <t>Name</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>Andrew Darcy</t>
+  </si>
+  <si>
+    <t>Catriona Regnier-McKellar</t>
   </si>
 </sst>
 </file>
@@ -1249,18 +1252,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>'for-README'!F4</f>
         <v>Laura Alsip</v>
@@ -1301,7 +1306,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>'for-README'!F5</f>
         <v>Lauren Burke</v>
@@ -1319,7 +1324,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>'for-README'!F6</f>
         <v>Kevin J Hedges</v>
@@ -1337,7 +1342,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>'for-README'!F7</f>
         <v>Michael Legge</v>
@@ -1355,7 +1360,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>'for-README'!F8</f>
         <v>Tracey Loewen</v>
@@ -1373,7 +1378,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>'for-README'!F9</f>
         <v>Brendan K Malley</v>
@@ -1391,7 +1396,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>'for-README'!F10</f>
         <v>Lenore J Vandenbyllaardt</v>
@@ -1409,7 +1414,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>'for-README'!F11</f>
         <v>Rick J Wastle</v>
@@ -1427,7 +1432,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>'for-README'!F12</f>
         <v>Xinhua Zhu</v>
@@ -1445,7 +1450,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>'for-README'!F13</f>
         <v>Abby Daigle</v>
@@ -1472,7 +1477,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>'for-README'!F14</f>
         <v>Andrew Darcy</v>
@@ -1499,7 +1504,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>'for-README'!F15</f>
         <v>Isabelle Forest</v>
@@ -1526,7 +1531,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>'for-README'!F16</f>
         <v>Matthew Horsman</v>
@@ -1553,7 +1558,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>'for-README'!F17</f>
         <v>Kirby Morrill</v>
@@ -1580,7 +1585,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>'for-README'!F18</f>
         <v>Daniel Ricard</v>
@@ -1607,7 +1612,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>'for-README'!F19</f>
         <v>Karen Robertson</v>
@@ -1634,7 +1639,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>'for-README'!F20</f>
         <v>Sylvie Robichaud</v>
@@ -1661,7 +1666,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>'for-README'!F21</f>
         <v>Nicolas Rolland</v>
@@ -1688,7 +1693,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>'for-README'!F22</f>
         <v>Jolene Sutton</v>
@@ -1715,7 +1720,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>'for-README'!F23</f>
         <v>François-Étienne Sylvain</v>
@@ -1742,7 +1747,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>'for-README'!F24</f>
         <v>Kari Underhill</v>
@@ -1769,7 +1774,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>'for-README'!F25</f>
         <v>Mark Billard</v>
@@ -1790,7 +1795,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>'for-README'!F26</f>
         <v>Lynn Collier</v>
@@ -1808,7 +1813,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>'for-README'!F27</f>
         <v>Peter Comeau</v>
@@ -1835,7 +1840,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>'for-README'!F28</f>
         <v>Tania Davignon-Burton</v>
@@ -1853,7 +1858,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>'for-README'!F29</f>
         <v>Nell den Heyer</v>
@@ -1871,7 +1876,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>'for-README'!F30</f>
         <v>Danni Harper</v>
@@ -1889,7 +1894,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>'for-README'!F31</f>
         <v>Kelly Kraska</v>
@@ -1907,7 +1912,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>'for-README'!F32</f>
         <v>Ellen MacEachern</v>
@@ -1925,7 +1930,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>'for-README'!F33</f>
         <v>Liz Miller</v>
@@ -1943,7 +1948,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>'for-README'!F34</f>
         <v>George Nau</v>
@@ -1961,7 +1966,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>'for-README'!F35</f>
         <v>Gregory Puncher</v>
@@ -1979,32 +1984,32 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>'for-README'!F36</f>
-        <v>Aaron Adamack</v>
+        <v>Catriona Regnier-McKellar</v>
       </c>
       <c r="B35" t="str">
         <f>'for-README'!M36</f>
-        <v>Adamack, Aaron</v>
+        <v>Regnier-McKellar, Catriona</v>
       </c>
       <c r="C35" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D35" t="str">
         <f>'for-README'!H36</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>'for-README'!F37</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="B36" t="str">
         <f>'for-README'!M37</f>
-        <v>Antaya, Kelly</v>
+        <v>Adamack, Aaron</v>
       </c>
       <c r="C36" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
@@ -2015,14 +2020,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>'for-README'!F38</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="B37" t="str">
         <f>'for-README'!M38</f>
-        <v>Drover, Dwight</v>
+        <v>Antaya, Kelly</v>
       </c>
       <c r="C37" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
@@ -2033,14 +2038,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>'for-README'!F39</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="B38" t="str">
         <f>'for-README'!M39</f>
-        <v>Forbes, Gillian</v>
+        <v>Drover, Dwight</v>
       </c>
       <c r="C38" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
@@ -2048,17 +2053,17 @@
       </c>
       <c r="D38" t="str">
         <f>'for-README'!H39</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>'for-README'!F40</f>
-        <v>Marc Legresley</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="B39" t="str">
         <f>'for-README'!M40</f>
-        <v>Legresley, Marc</v>
+        <v>Forbes, Gillian</v>
       </c>
       <c r="C39" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
@@ -2066,17 +2071,17 @@
       </c>
       <c r="D39" t="str">
         <f>'for-README'!H40</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>'for-README'!F41</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="B40" t="str">
         <f>'for-README'!M41</f>
-        <v>Perreault, Andrea</v>
+        <v>Legresley, Marc</v>
       </c>
       <c r="C40" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
@@ -2087,14 +2092,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>'for-README'!F42</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="B41" t="str">
         <f>'for-README'!M42</f>
-        <v>Polaczek, Hannah</v>
+        <v>Perreault, Andrea</v>
       </c>
       <c r="C41" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
@@ -2105,14 +2110,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>'for-README'!F43</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="B42" t="str">
         <f>'for-README'!M43</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Polaczek, Hannah</v>
       </c>
       <c r="C42" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
@@ -2120,17 +2125,17 @@
       </c>
       <c r="D42" t="str">
         <f>'for-README'!H43</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>'for-README'!F44</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="B43" t="str">
         <f>'for-README'!M44</f>
-        <v>Schofield, Meredith</v>
+        <v>Rideout, Kierstyn</v>
       </c>
       <c r="C43" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
@@ -2141,14 +2146,14 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>'for-README'!F45</f>
-        <v>Jaime Thomson</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="B44" t="str">
         <f>'for-README'!M45</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Schofield, Meredith</v>
       </c>
       <c r="C44" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
@@ -2159,32 +2164,32 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>'for-README'!F46</f>
-        <v>Barbara Campbell</v>
+        <v>Jaime Thomson</v>
       </c>
       <c r="B45" t="str">
         <f>'for-README'!M46</f>
-        <v>Campbell, Barbara</v>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
       <c r="C45" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D45" t="str">
         <f>'for-README'!H46</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>'for-README'!F47</f>
-        <v>Karalea Cantera</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="B46" t="str">
         <f>'for-README'!M47</f>
-        <v>Cantera, Karalea</v>
+        <v>Campbell, Barbara</v>
       </c>
       <c r="C46" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
@@ -2195,14 +2200,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>'for-README'!F48</f>
-        <v>Chelsea Cooke</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="B47" t="str">
         <f>'for-README'!M48</f>
-        <v>Cooke, Chelsea</v>
+        <v>Cantera, Karalea</v>
       </c>
       <c r="C47" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
@@ -2213,14 +2218,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>'for-README'!F49</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="B48" t="str">
         <f>'for-README'!M49</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Cooke, Chelsea</v>
       </c>
       <c r="C48" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
@@ -2231,14 +2236,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>'for-README'!F50</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="B49" t="str">
         <f>'for-README'!M50</f>
-        <v>Hawkshaw, Sarah</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
       <c r="C49" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
@@ -2249,14 +2254,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>'for-README'!F51</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="B50" t="str">
         <f>'for-README'!M51</f>
-        <v>Herder, Erin</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
       <c r="C50" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
@@ -2267,14 +2272,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>'for-README'!F52</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="B51" t="str">
         <f>'for-README'!M52</f>
-        <v>Holt, Kendra</v>
+        <v>Herder, Erin</v>
       </c>
       <c r="C51" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
@@ -2285,14 +2290,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>'for-README'!F53</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="B52" t="str">
         <f>'for-README'!M53</f>
-        <v>Jung, Yeongha</v>
+        <v>Holt, Kendra</v>
       </c>
       <c r="C52" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
@@ -2303,14 +2308,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>'for-README'!F54</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="B53" t="str">
         <f>'for-README'!M54</f>
-        <v>Lavery, Madeline</v>
+        <v>Jung, Yeongha</v>
       </c>
       <c r="C53" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
@@ -2321,14 +2326,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>'for-README'!F55</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="B54" t="str">
         <f>'for-README'!M55</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Lavery, Madeline</v>
       </c>
       <c r="C54" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
@@ -2339,14 +2344,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>'for-README'!F56</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="B55" t="str">
         <f>'for-README'!M56</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Matwichuk, Kiana</v>
       </c>
       <c r="C55" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
@@ -2357,14 +2362,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>'for-README'!F57</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="B56" t="str">
         <f>'for-README'!M57</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Mazur, Mackenzie</v>
       </c>
       <c r="C56" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
@@ -2375,14 +2380,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>'for-README'!F58</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="B57" t="str">
         <f>'for-README'!M58</f>
-        <v>Ty, Audrey</v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
       <c r="C57" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
@@ -2393,14 +2398,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>'for-README'!F59</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="B58" t="str">
         <f>'for-README'!M59</f>
-        <v>Wischniowski, Stephen</v>
+        <v>Ty, Audrey</v>
       </c>
       <c r="C58" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
@@ -2411,14 +2416,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>'for-README'!F60</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="B59" t="str">
         <f>'for-README'!M60</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Wischniowski, Stephen</v>
       </c>
       <c r="C59" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
@@ -2429,32 +2434,32 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>'for-README'!F61</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="B60" t="str">
         <f>'for-README'!M61</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
       <c r="C60" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
+        <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D60" t="str">
         <f>'for-README'!H61</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>'for-README'!F62</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="B61" t="str">
         <f>'for-README'!M62</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
       <c r="C61" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
@@ -2462,17 +2467,17 @@
       </c>
       <c r="D61" t="str">
         <f>'for-README'!H62</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>'for-README'!F63</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="B62" t="str">
         <f>'for-README'!M63</f>
-        <v>Emond, Kim</v>
+        <v>Dionne, Hélène</v>
       </c>
       <c r="C62" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
@@ -2483,14 +2488,14 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>'for-README'!F64</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="B63" t="str">
         <f>'for-README'!M64</f>
-        <v>LeCorre, Nicolas</v>
+        <v>Emond, Kim</v>
       </c>
       <c r="C63" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
@@ -2498,17 +2503,17 @@
       </c>
       <c r="D63" t="str">
         <f>'for-README'!H64</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>'for-README'!F65</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="B64" t="str">
         <f>'for-README'!M65</f>
-        <v>Smith, Andrew</v>
+        <v>LeCorre, Nicolas</v>
       </c>
       <c r="C64" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
@@ -2516,6 +2521,24 @@
       </c>
       <c r="D64" t="str">
         <f>'for-README'!H65</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f>'for-README'!F66</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="B65" t="str">
+        <f>'for-README'!M66</f>
+        <v>Smith, Andrew</v>
+      </c>
+      <c r="C65" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D65" t="str">
+        <f>'for-README'!H66</f>
         <v>Virtual</v>
       </c>
     </row>
@@ -2567,34 +2590,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L66" sqref="L4:L66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 62 participants as of 2023-01-16 (25 in person and 37 virtual)</v>
+        <v>List of the 63 participants as of 2023-01-19 (25 in person and 38 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J65)</f>
-        <v>37</v>
+        <f>SUM(J4:J66)</f>
+        <v>38</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2626,11 +2651,11 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K65)</f>
+        <f>SUM(K4:K66)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -2659,7 +2684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -2707,7 +2732,7 @@
         <v>Alsip, Laura</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -2739,11 +2764,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J61" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J62" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K61" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K62" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -2755,7 +2780,7 @@
         <v>Burke, Lauren (Lauren.Burke@dfo-mpo.gc.ca)</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2803,7 +2828,7 @@
         <v>Hedges, Kevin</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -2851,7 +2876,7 @@
         <v>Legge, Michael</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -2899,7 +2924,7 @@
         <v>Loewen, Tracey</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -2947,7 +2972,7 @@
         <v>Malley, Brendan K</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -2995,7 +3020,7 @@
         <v>Vandenbyllaardt, Lenore</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -3043,7 +3068,7 @@
         <v>Wastle, Rick</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -3091,7 +3116,7 @@
         <v>Zhu, Xinhua</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -3139,7 +3164,7 @@
         <v>Daigle, Abby</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -3187,7 +3212,7 @@
         <v>Darcy, Andrew</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -3235,7 +3260,7 @@
         <v xml:space="preserve">Forest, Isabelle </v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -3283,7 +3308,7 @@
         <v xml:space="preserve">Horsman, Matthew </v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -3331,7 +3356,7 @@
         <v>Morrill, Kirdy</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3379,7 +3404,7 @@
         <v>Ricard, Daniel</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -3427,7 +3452,7 @@
         <v>Robertson, Karen</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -3475,7 +3500,7 @@
         <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -3523,7 +3548,7 @@
         <v>Rolland, Nicolas</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -3571,7 +3596,7 @@
         <v xml:space="preserve">Sutton, Jolene </v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -3619,7 +3644,7 @@
         <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -3667,7 +3692,7 @@
         <v>Underhill, Kari</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -3715,7 +3740,7 @@
         <v>Billard, Mark</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -3763,7 +3788,7 @@
         <v>Collier, Lynn</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -3811,7 +3836,7 @@
         <v>Comeau, Peter</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -3859,7 +3884,7 @@
         <v>Davignon-Burton, Tania</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -3907,7 +3932,7 @@
         <v>den Heyer, Nell</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -3955,7 +3980,7 @@
         <v>Harper, Danni</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -4003,7 +4028,7 @@
         <v>Kraska, Kelly</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -4051,7 +4076,7 @@
         <v>MacEachern, Ellen</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>191</v>
       </c>
@@ -4099,7 +4124,7 @@
         <v>Miller, Liz</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -4147,7 +4172,7 @@
         <v>Nau, George</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -4195,10 +4220,7 @@
         <v>Puncher, Gregory</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>191</v>
-      </c>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>33</v>
       </c>
@@ -4206,21 +4228,21 @@
         <v>191</v>
       </c>
       <c r="D36" t="str">
-        <f>'outlook-responses'!A44</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A43</f>
+        <v>MAR</v>
       </c>
       <c r="E36" t="s">
         <v>191</v>
       </c>
       <c r="F36" t="str">
-        <f>'outlook-responses'!I44</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I43</f>
+        <v>Catriona Regnier-McKellar</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="str">
-        <f>'outlook-responses'!H44</f>
+        <f>'outlook-responses'!H43</f>
         <v>Virtual</v>
       </c>
       <c r="I36" t="s">
@@ -4235,15 +4257,15 @@
         <v>0</v>
       </c>
       <c r="L36" t="str">
-        <f>'outlook-responses'!B44</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B43</f>
+        <v>Maritimes</v>
       </c>
       <c r="M36" t="str">
-        <f>'outlook-responses'!E44</f>
-        <v>Adamack, Aaron</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <f>'outlook-responses'!E43</f>
+        <v>Regnier-McKellar, Catriona</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -4262,7 +4284,7 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
@@ -4288,10 +4310,10 @@
       </c>
       <c r="M37" t="str">
         <f>'outlook-responses'!E45</f>
-        <v>Antaya, Kelly</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Adamack, Aaron</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -4310,7 +4332,7 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
@@ -4336,10 +4358,10 @@
       </c>
       <c r="M38" t="str">
         <f>'outlook-responses'!E46</f>
-        <v>Drover, Dwight</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Antaya, Kelly</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>191</v>
       </c>
@@ -4358,25 +4380,25 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I47</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
       </c>
       <c r="H39" t="str">
         <f>'outlook-responses'!H47</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I39" t="s">
         <v>191</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="str">
         <f>'outlook-responses'!B47</f>
@@ -4384,10 +4406,10 @@
       </c>
       <c r="M39" t="str">
         <f>'outlook-responses'!E47</f>
-        <v>Forbes, Gillian</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Drover, Dwight</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -4406,25 +4428,25 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Marc Legresley</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
         <f>'outlook-responses'!H48</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I40" t="s">
         <v>191</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="str">
         <f>'outlook-responses'!B48</f>
@@ -4432,10 +4454,10 @@
       </c>
       <c r="M40" t="str">
         <f>'outlook-responses'!E48</f>
-        <v>Legresley, Marc</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Forbes, Gillian</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -4454,7 +4476,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -4480,10 +4502,10 @@
       </c>
       <c r="M41" t="str">
         <f>'outlook-responses'!E49</f>
-        <v>Perreault, Andrea</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Legresley, Marc</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -4502,7 +4524,7 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I50</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
@@ -4528,10 +4550,10 @@
       </c>
       <c r="M42" t="str">
         <f>'outlook-responses'!E50</f>
-        <v>Polaczek, Hannah</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Perreault, Andrea</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -4550,25 +4572,25 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
       </c>
       <c r="H43" t="str">
         <f>'outlook-responses'!H51</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I43" t="s">
         <v>191</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="str">
         <f>'outlook-responses'!B51</f>
@@ -4576,10 +4598,10 @@
       </c>
       <c r="M43" t="str">
         <f>'outlook-responses'!E51</f>
-        <v>Rideout, Kierstyn</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Polaczek, Hannah</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -4598,7 +4620,7 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -4624,10 +4646,10 @@
       </c>
       <c r="M44" t="str">
         <f>'outlook-responses'!E52</f>
-        <v>Schofield, Meredith</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Rideout, Kierstyn</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4646,7 +4668,7 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Jaime Thomson</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -4672,10 +4694,10 @@
       </c>
       <c r="M45" t="str">
         <f>'outlook-responses'!E53</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Schofield, Meredith</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -4686,44 +4708,44 @@
         <v>191</v>
       </c>
       <c r="D46" t="str">
-        <f>'outlook-responses'!A55</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A54</f>
+        <v>NL</v>
       </c>
       <c r="E46" t="s">
         <v>191</v>
       </c>
       <c r="F46" t="str">
-        <f>'outlook-responses'!I55</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I54</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
       </c>
       <c r="H46" t="str">
-        <f>'outlook-responses'!H55</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H54</f>
+        <v>In person</v>
       </c>
       <c r="I46" t="s">
         <v>191</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="str">
-        <f>'outlook-responses'!B55</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B54</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M46" t="str">
-        <f>'outlook-responses'!E55</f>
-        <v>Campbell, Barbara</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <f>'outlook-responses'!E54</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -4742,7 +4764,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Karalea Cantera</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -4768,10 +4790,10 @@
       </c>
       <c r="M47" t="str">
         <f>'outlook-responses'!E56</f>
-        <v>Cantera, Karalea</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Campbell, Barbara</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -4790,7 +4812,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Chelsea Cooke</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -4816,10 +4838,10 @@
       </c>
       <c r="M48" t="str">
         <f>'outlook-responses'!E57</f>
-        <v>Cooke, Chelsea</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Cantera, Karalea</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -4838,7 +4860,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -4864,10 +4886,10 @@
       </c>
       <c r="M49" t="str">
         <f>'outlook-responses'!E58</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Cooke, Chelsea</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -4886,7 +4908,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -4912,10 +4934,10 @@
       </c>
       <c r="M50" t="str">
         <f>'outlook-responses'!E59</f>
-        <v>Hawkshaw, Sarah</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Forrest, Robyn </v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -4934,7 +4956,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -4960,10 +4982,10 @@
       </c>
       <c r="M51" t="str">
         <f>'outlook-responses'!E60</f>
-        <v>Herder, Erin</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Hawkshaw, Sarah</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -4982,7 +5004,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -5008,10 +5030,10 @@
       </c>
       <c r="M52" t="str">
         <f>'outlook-responses'!E61</f>
-        <v>Holt, Kendra</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Herder, Erin</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -5030,7 +5052,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -5056,10 +5078,10 @@
       </c>
       <c r="M53" t="str">
         <f>'outlook-responses'!E62</f>
-        <v>Jung, Yeongha</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Holt, Kendra</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -5078,7 +5100,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -5104,10 +5126,10 @@
       </c>
       <c r="M54" t="str">
         <f>'outlook-responses'!E63</f>
-        <v>Lavery, Madeline</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Jung, Yeongha</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -5126,7 +5148,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -5152,10 +5174,10 @@
       </c>
       <c r="M55" t="str">
         <f>'outlook-responses'!E64</f>
-        <v>Matwichuk, Kiana</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Lavery, Madeline</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -5174,7 +5196,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -5200,10 +5222,10 @@
       </c>
       <c r="M56" t="str">
         <f>'outlook-responses'!E65</f>
-        <v>Mazur, Mackenzie</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Matwichuk, Kiana</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>191</v>
       </c>
@@ -5222,7 +5244,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5248,10 +5270,10 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v xml:space="preserve">McArthur, Judy </v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Mazur, Mackenzie</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -5270,7 +5292,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -5296,10 +5318,10 @@
       </c>
       <c r="M58" t="str">
         <f>'outlook-responses'!E67</f>
-        <v>Ty, Audrey</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">McArthur, Judy </v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -5318,7 +5340,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -5344,10 +5366,10 @@
       </c>
       <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v>Wischniowski, Stephen</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Ty, Audrey</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -5366,7 +5388,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -5392,10 +5414,10 @@
       </c>
       <c r="M60" t="str">
         <f>'outlook-responses'!E69</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Wischniowski, Stephen</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -5406,21 +5428,21 @@
         <v>191</v>
       </c>
       <c r="D61" t="str">
-        <f>'outlook-responses'!A71</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A70</f>
+        <v>PAC</v>
       </c>
       <c r="E61" t="s">
         <v>191</v>
       </c>
       <c r="F61" t="str">
-        <f>'outlook-responses'!I71</f>
-        <v>Mathieu Desgagnés</v>
+        <f>'outlook-responses'!I70</f>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
       </c>
       <c r="H61" t="str">
-        <f>'outlook-responses'!H71</f>
+        <f>'outlook-responses'!H70</f>
         <v>Virtual</v>
       </c>
       <c r="I61" t="s">
@@ -5435,15 +5457,15 @@
         <v>0</v>
       </c>
       <c r="L61" t="str">
-        <f>'outlook-responses'!B71</f>
-        <v>Quebec</v>
+        <f>'outlook-responses'!B70</f>
+        <v>Pacific</v>
       </c>
       <c r="M61" t="str">
-        <f>'outlook-responses'!E71</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <f>'outlook-responses'!E70</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -5462,25 +5484,25 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
       </c>
       <c r="H62" t="str">
         <f>'outlook-responses'!H72</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I62" t="s">
         <v>191</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J65" si="3">IF(H62="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K65" si="4">IF(H62="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L62" t="str">
         <f>'outlook-responses'!B72</f>
@@ -5488,10 +5510,10 @@
       </c>
       <c r="M62" t="str">
         <f>'outlook-responses'!E72</f>
-        <v>Dionne, Hélène</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -5510,7 +5532,7 @@
       </c>
       <c r="F63" t="str">
         <f>'outlook-responses'!I73</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
@@ -5523,11 +5545,11 @@
         <v>191</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J63:J66" si="3">IF(H63="Virtual",1,0)</f>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K63:K66" si="4">IF(H63="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="L63" t="str">
@@ -5536,10 +5558,10 @@
       </c>
       <c r="M63" t="str">
         <f>'outlook-responses'!E73</f>
-        <v>Emond, Kim</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Dionne, Hélène</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -5558,25 +5580,25 @@
       </c>
       <c r="F64" t="str">
         <f>'outlook-responses'!I74</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
       </c>
       <c r="H64" t="str">
         <f>'outlook-responses'!H74</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I64" t="s">
         <v>191</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="str">
         <f>'outlook-responses'!B74</f>
@@ -5584,10 +5606,10 @@
       </c>
       <c r="M64" t="str">
         <f>'outlook-responses'!E74</f>
-        <v>LeCorre, Nicolas</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Emond, Kim</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -5606,7 +5628,7 @@
       </c>
       <c r="F65" t="str">
         <f>'outlook-responses'!I75</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G65" t="s">
         <v>191</v>
@@ -5632,10 +5654,10 @@
       </c>
       <c r="M65" t="str">
         <f>'outlook-responses'!E75</f>
-        <v>Smith, Andrew</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>LeCorre, Nicolas</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -5643,6 +5665,54 @@
         <v>63</v>
       </c>
       <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="str">
+        <f>'outlook-responses'!A76</f>
+        <v>QUE</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" t="str">
+        <f>'outlook-responses'!I76</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H66" t="str">
+        <f>'outlook-responses'!H76</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="str">
+        <f>'outlook-responses'!B76</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M66" t="str">
+        <f>'outlook-responses'!E76</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5653,44 +5723,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M75)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <f>SUM(M8:M76)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O75)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f>SUM(O8:O76)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N75)</f>
+        <f>SUM(N8:N76)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>187</v>
       </c>
@@ -5707,16 +5777,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C55+C32+C44+C71+C9</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f>C19+C56+C32+C45+C72+C9</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -5751,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -5782,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -5813,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -5844,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -5875,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -5906,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -5937,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -5968,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -5999,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -6027,15 +6097,15 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(H19="In person",1,0)</f>
+        <f t="shared" ref="N19:N30" si="2">IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>IF(H19="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O19:O30" si="3">IF(H19="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -6059,15 +6129,15 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(H20="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IF(H20="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -6091,15 +6161,15 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(H21="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IF(H21="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -6123,15 +6193,15 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(H22="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IF(H22="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -6155,15 +6225,15 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(H23="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>IF(H23="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -6187,15 +6257,15 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(H24="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>IF(H24="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -6219,15 +6289,15 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF(H25="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>IF(H25="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -6251,15 +6321,15 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF(H26="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>IF(H26="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -6283,15 +6353,15 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>IF(H27="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>IF(H27="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -6315,15 +6385,15 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f>IF(H28="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>IF(H28="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -6347,15 +6417,15 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f>IF(H29="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f>IF(H29="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -6379,15 +6449,15 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f>IF(H30="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O30">
-        <f>IF(H30="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -6395,8 +6465,8 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <f>SUM(M32:M42)</f>
-        <v>11</v>
+        <f>SUM(M32:M43)</f>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>70</v>
@@ -6414,15 +6484,15 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N42" si="2">IF(H32="In person",1,0)</f>
+        <f>IF(H32="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O42" si="3">IF(H32="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H32="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -6445,15 +6515,15 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f>IF(H33="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H33="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -6476,15 +6546,15 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f>IF(H34="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H34="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -6507,15 +6577,15 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f>IF(H35="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H35="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -6538,15 +6608,15 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f>IF(H36="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H36="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -6569,15 +6639,15 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f>IF(H37="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H37="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -6600,15 +6670,15 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f>IF(H38="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H38="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -6631,15 +6701,15 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f>IF(H39="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H39="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -6662,15 +6732,15 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f>IF(H40="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H40="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -6693,15 +6763,15 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f>IF(H41="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <f>IF(H41="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -6724,98 +6794,98 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f>IF(H42="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <f>SUM(M44:M53)</f>
-        <v>10</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" t="s">
+        <f>IF(H42="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
         <v>140</v>
       </c>
-      <c r="I44" t="s">
-        <v>227</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <f t="shared" ref="N44:N50" si="4">IF(H44="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f t="shared" ref="O44:O50" si="5">IF(H44="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f>IF(H43="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f>IF(H43="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>195</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
+      <c r="C45">
+        <f>SUM(M45:M54)</f>
+        <v>10</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>166</v>
       </c>
       <c r="H45" t="s">
         <v>140</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>228</v>
+      <c r="I45" t="s">
+        <v>227</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N45:N51" si="4">IF(H45="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O45:O51" si="5">IF(H45="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>195</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" t="s">
-        <v>144</v>
+      <c r="E46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H46" t="s">
         <v>140</v>
       </c>
-      <c r="I46" t="s">
-        <v>229</v>
+      <c r="I46" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -6829,86 +6899,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>195</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>137</v>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" t="s">
+        <v>144</v>
       </c>
       <c r="H47" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>195</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
+      <c r="E48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>195</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>56</v>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
       </c>
       <c r="H49" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>232</v>
+      <c r="I49" t="s">
+        <v>231</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -6922,24 +6992,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>195</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" t="s">
-        <v>148</v>
+      <c r="E50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="I50" t="s">
-        <v>233</v>
+      <c r="I50" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -6953,36 +7023,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>195</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>260</v>
+      <c r="E51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" t="s">
+        <v>148</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -6990,30 +7062,28 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="H52" t="s">
         <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f>IF(H52="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O52">
-        <f>IF(H52="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -7021,16 +7091,16 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="H53" t="s">
         <v>122</v>
       </c>
       <c r="I53" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -7044,73 +7114,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55">
-        <f>SUM(M55:M69)</f>
-        <v>15</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <f t="shared" ref="N55:N69" si="6">IF(H55="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f t="shared" ref="O55:O69" si="7">IF(H55="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" t="s">
+        <v>264</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f>IF(H54="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f>IF(H54="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>193</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
+      <c r="C56">
+        <f>SUM(M56:M70)</f>
+        <v>15</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
-      <c r="I56" t="s">
-        <v>236</v>
+      <c r="I56" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N56:N70" si="6">IF(H56="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O56:O70" si="7">IF(H56="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -7118,16 +7188,16 @@
         <v>16</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -7137,10 +7207,11 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -7148,16 +7219,16 @@
         <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>59</v>
+        <v>255</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>237</v>
+      <c r="I58" t="s">
+        <v>257</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -7167,11 +7238,10 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -7179,16 +7249,16 @@
         <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>17</v>
+        <v>185</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
       </c>
-      <c r="I59" t="s">
-        <v>238</v>
+      <c r="I59" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -7202,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -7210,16 +7280,16 @@
         <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -7233,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -7241,16 +7311,16 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
       <c r="I61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -7264,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -7272,16 +7342,16 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
       <c r="I62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -7295,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -7303,16 +7373,16 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>242</v>
+      <c r="I63" t="s">
+        <v>241</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -7326,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -7334,16 +7404,16 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
-      <c r="I64" t="s">
-        <v>243</v>
+      <c r="I64" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -7357,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -7365,16 +7435,16 @@
         <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
       <c r="I65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -7388,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -7396,16 +7466,16 @@
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>245</v>
+      <c r="I66" t="s">
+        <v>244</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -7419,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -7427,16 +7497,16 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
-      <c r="I67" t="s">
-        <v>246</v>
+      <c r="I67" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -7450,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -7458,16 +7528,16 @@
         <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>247</v>
+      <c r="I68" t="s">
+        <v>246</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -7481,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -7489,16 +7559,16 @@
         <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H69" t="s">
         <v>140</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -7512,73 +7582,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71">
-        <f>SUM(M71:M75)</f>
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s">
         <v>140</v>
       </c>
-      <c r="I71" t="s">
-        <v>249</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <f t="shared" ref="N71:N75" si="8">IF(H71="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <f t="shared" ref="O71:O75" si="9">IF(H71="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>196</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>119</v>
+      <c r="C72">
+        <f>SUM(M72:M76)</f>
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" t="s">
+        <v>112</v>
       </c>
       <c r="H72" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="N72:N76" si="8">IF(H72="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O72:O76" si="9">IF(H72="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>196</v>
       </c>
@@ -7586,16 +7656,16 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s">
         <v>122</v>
       </c>
       <c r="I73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -7609,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -7617,30 +7687,30 @@
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -7648,16 +7718,16 @@
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H75" t="s">
         <v>140</v>
       </c>
       <c r="I75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -7671,9 +7741,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H76" t="s">
+        <v>140</v>
+      </c>
+      <c r="I76" t="s">
+        <v>253</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E19:O30">
-    <sortCondition ref="E19:E30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E32:O43">
+    <sortCondition ref="E32:E43"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{7B3B921E-9FBB-4D88-BC1A-055CFDECF96E}"/>
@@ -7689,12 +7790,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -7702,7 +7803,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>IF('list-pre-google-forms'!E10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
@@ -7712,7 +7813,7 @@
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>IF('list-pre-google-forms'!E11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
@@ -7722,7 +7823,7 @@
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>IF('list-pre-google-forms'!E12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
@@ -7732,7 +7833,7 @@
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>IF('list-pre-google-forms'!E13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
@@ -7742,7 +7843,7 @@
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>IF('list-pre-google-forms'!E14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
@@ -7752,7 +7853,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>IF('list-pre-google-forms'!E15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
@@ -7762,7 +7863,7 @@
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>IF('list-pre-google-forms'!E16=1,'list-pre-google-forms'!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
@@ -7772,7 +7873,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>IF('list-pre-google-forms'!E17=1,'list-pre-google-forms'!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
@@ -7782,7 +7883,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>IF('list-pre-google-forms'!E18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
@@ -7792,7 +7893,7 @@
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>IF('list-pre-google-forms'!E19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
@@ -7802,7 +7903,7 @@
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>IF('list-pre-google-forms'!E20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
@@ -7812,7 +7913,7 @@
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>IF('list-pre-google-forms'!E21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
@@ -7822,7 +7923,7 @@
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>IF('list-pre-google-forms'!E22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
@@ -7832,7 +7933,7 @@
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>IF('list-pre-google-forms'!E23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
@@ -7842,7 +7943,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>IF('list-pre-google-forms'!E24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
@@ -7852,7 +7953,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>IF('list-pre-google-forms'!E25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
@@ -7862,7 +7963,7 @@
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>IF('list-pre-google-forms'!E26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
@@ -7872,7 +7973,7 @@
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>IF('list-pre-google-forms'!E27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
@@ -7882,7 +7983,7 @@
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>IF('list-pre-google-forms'!E28=1,'list-pre-google-forms'!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
@@ -7892,7 +7993,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>IF('list-pre-google-forms'!E29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
@@ -7902,7 +8003,7 @@
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>IF('list-pre-google-forms'!E30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
@@ -7912,7 +8013,7 @@
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>IF('list-pre-google-forms'!E31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
@@ -7922,7 +8023,7 @@
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>IF('list-pre-google-forms'!E32=1,'list-pre-google-forms'!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
@@ -7932,7 +8033,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>IF('list-pre-google-forms'!E33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
@@ -7942,7 +8043,7 @@
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>IF('list-pre-google-forms'!E34=1,'list-pre-google-forms'!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
@@ -7952,7 +8053,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>IF('list-pre-google-forms'!E35=1,'list-pre-google-forms'!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
@@ -7962,7 +8063,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>IF('list-pre-google-forms'!E36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
@@ -7972,7 +8073,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>IF('list-pre-google-forms'!E37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
@@ -7982,7 +8083,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>IF('list-pre-google-forms'!E38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
@@ -7992,7 +8093,7 @@
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>IF('list-pre-google-forms'!E39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
@@ -8002,7 +8103,7 @@
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>IF('list-pre-google-forms'!E40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
@@ -8012,7 +8113,7 @@
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>IF('list-pre-google-forms'!E41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
@@ -8022,7 +8123,7 @@
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>IF('list-pre-google-forms'!E42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
@@ -8032,7 +8133,7 @@
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>IF('list-pre-google-forms'!E43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
@@ -8042,7 +8143,7 @@
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>IF('list-pre-google-forms'!E44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
@@ -8052,7 +8153,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>IF('list-pre-google-forms'!E45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
@@ -8062,7 +8163,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>IF('list-pre-google-forms'!E46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
@@ -8072,7 +8173,7 @@
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>IF('list-pre-google-forms'!E47=1,'list-pre-google-forms'!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
@@ -8082,7 +8183,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>IF('list-pre-google-forms'!E48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
@@ -8092,7 +8193,7 @@
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>IF('list-pre-google-forms'!E49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
@@ -8102,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>IF('list-pre-google-forms'!E50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
@@ -8112,7 +8213,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>IF('list-pre-google-forms'!E51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
@@ -8122,7 +8223,7 @@
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>IF('list-pre-google-forms'!E52=1,'list-pre-google-forms'!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
@@ -8132,7 +8233,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>IF('list-pre-google-forms'!E53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
@@ -8142,7 +8243,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>IF('list-pre-google-forms'!E54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
@@ -8152,7 +8253,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>IF('list-pre-google-forms'!E55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
@@ -8162,7 +8263,7 @@
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>IF('list-pre-google-forms'!E56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
@@ -8172,7 +8273,7 @@
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>IF('list-pre-google-forms'!E57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
@@ -8182,7 +8283,7 @@
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>IF('list-pre-google-forms'!E58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
@@ -8192,7 +8293,7 @@
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>IF('list-pre-google-forms'!E59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
@@ -8202,7 +8303,7 @@
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>IF('list-pre-google-forms'!E60=1,'list-pre-google-forms'!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
@@ -8212,7 +8313,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>IF('list-pre-google-forms'!E61=1,'list-pre-google-forms'!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
@@ -8222,7 +8323,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>IF('list-pre-google-forms'!E62=1,'list-pre-google-forms'!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
@@ -8232,7 +8333,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>IF('list-pre-google-forms'!E63=1,'list-pre-google-forms'!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
@@ -8242,7 +8343,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>IF('list-pre-google-forms'!E64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
@@ -8252,7 +8353,7 @@
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>IF('list-pre-google-forms'!E65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
@@ -8262,7 +8363,7 @@
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>IF('list-pre-google-forms'!E66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
@@ -8272,7 +8373,7 @@
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>IF('list-pre-google-forms'!E67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
@@ -8282,7 +8383,7 @@
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>IF('list-pre-google-forms'!E68=1,'list-pre-google-forms'!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
@@ -8292,7 +8393,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>IF('list-pre-google-forms'!E69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
@@ -8302,7 +8403,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>IF('list-pre-google-forms'!E70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
@@ -8312,7 +8413,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>IF('list-pre-google-forms'!E71=1,'list-pre-google-forms'!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
@@ -8322,7 +8423,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>IF('list-pre-google-forms'!E72=1,'list-pre-google-forms'!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
@@ -8332,7 +8433,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>IF('list-pre-google-forms'!E73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
@@ -8342,7 +8443,7 @@
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>IF('list-pre-google-forms'!E74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
@@ -8352,7 +8453,7 @@
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>IF('list-pre-google-forms'!E75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
@@ -8362,7 +8463,7 @@
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>IF('list-pre-google-forms'!E76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
@@ -8372,7 +8473,7 @@
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>IF('list-pre-google-forms'!E77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
@@ -8382,7 +8483,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>IF('list-pre-google-forms'!E78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
@@ -8392,7 +8493,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>IF('list-pre-google-forms'!E79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
@@ -8402,7 +8503,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>IF('list-pre-google-forms'!E80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
@@ -8412,7 +8513,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>IF('list-pre-google-forms'!E81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
@@ -8422,7 +8523,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>IF('list-pre-google-forms'!E82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
@@ -8432,7 +8533,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>IF('list-pre-google-forms'!E83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
@@ -8442,7 +8543,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
         <f>IF('list-pre-google-forms'!G88=1,'list-pre-google-forms'!C88,"")</f>
         <v/>
@@ -8461,26 +8562,26 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -8492,7 +8593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -8502,7 +8603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>125</v>
@@ -8512,11 +8613,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -8542,11 +8643,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -8567,7 +8668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>141</v>
@@ -8593,7 +8694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>142</v>
@@ -8619,7 +8720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>143</v>
@@ -8645,7 +8746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -8671,7 +8772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -8682,7 +8783,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>147</v>
@@ -8708,7 +8809,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>66</v>
@@ -8734,7 +8835,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>65</v>
@@ -8760,7 +8861,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>116</v>
@@ -8780,7 +8881,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
@@ -8806,7 +8907,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -8832,7 +8933,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -8858,7 +8959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -8881,7 +8982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -8889,7 +8990,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -8902,7 +9003,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>126</v>
@@ -8921,7 +9022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -8944,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -8967,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>68</v>
@@ -8993,7 +9094,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -9016,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -9039,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -9062,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>129</v>
@@ -9079,7 +9180,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -9102,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>130</v>
@@ -9119,7 +9220,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>133</v>
@@ -9133,13 +9234,13 @@
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -9152,7 +9253,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>73</v>
@@ -9175,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>107</v>
@@ -9195,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -9212,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
@@ -9229,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>111</v>
@@ -9246,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>118</v>
@@ -9263,12 +9364,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -9281,7 +9382,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>74</v>
@@ -9304,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
@@ -9321,7 +9422,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -9344,12 +9445,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -9362,7 +9463,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -9385,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>77</v>
@@ -9402,7 +9503,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
@@ -9413,7 +9514,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -9426,7 +9527,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>78</v>
@@ -9449,7 +9550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -9472,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>79</v>
@@ -9495,7 +9596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -9518,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>80</v>
@@ -9541,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>81</v>
@@ -9558,7 +9659,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>82</v>
@@ -9575,7 +9676,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>83</v>
@@ -9592,7 +9693,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>84</v>
@@ -9609,7 +9710,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>85</v>
@@ -9632,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
         <v>58</v>
@@ -9655,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
         <v>92</v>
@@ -9678,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>93</v>
@@ -9701,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
@@ -9721,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="C69" s="2"/>
       <c r="E69" t="str">
@@ -9733,7 +9834,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -9746,7 +9847,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
         <v>136</v>
@@ -9763,7 +9864,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
         <v>86</v>
@@ -9780,7 +9881,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
         <v>87</v>
@@ -9803,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
         <v>88</v>
@@ -9826,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
         <v>89</v>
@@ -9849,7 +9950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
         <v>138</v>
@@ -9869,23 +9970,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
@@ -9895,7 +9996,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
@@ -9905,7 +10006,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>126</v>
       </c>
@@ -9918,7 +10019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>114</v>
       </c>
@@ -9931,18 +10032,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F86"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F87"/>
     </row>
   </sheetData>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCCEE44-6C9E-4109-87E7-615BF04030E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCC0CA-025B-4A57-9907-129951A423DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -887,6 +887,36 @@
   </si>
   <si>
     <t>Catriona Regnier-McKellar</t>
+  </si>
+  <si>
+    <t>MacFarlane, Colin</t>
+  </si>
+  <si>
+    <t>Colin MacFarlane</t>
+  </si>
+  <si>
+    <t>McGee, Kelsey</t>
+  </si>
+  <si>
+    <t>Kelsey McGee</t>
+  </si>
+  <si>
+    <t>Samantha Hudson</t>
+  </si>
+  <si>
+    <t>Hudson, Samantha</t>
+  </si>
+  <si>
+    <t>Morrill, Kirby</t>
+  </si>
+  <si>
+    <t>Samantha.Hudson@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Kelsey.Mcgee@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Colin.Macfarlane@dfo-mpo.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -955,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -970,7 +1000,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1252,11 +1281,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1561,11 +1588,11 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>'for-README'!F17</f>
-        <v>Kirby Morrill</v>
+        <v>Samantha Hudson</v>
       </c>
       <c r="B16" t="str">
         <f>'for-README'!M17</f>
-        <v>Morrill, Kirdy</v>
+        <v>Hudson, Samantha</v>
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L17, " Region")</f>
@@ -1573,7 +1600,7 @@
       </c>
       <c r="D16" t="str">
         <f>'for-README'!H17</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>274</v>
@@ -1588,11 +1615,11 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>'for-README'!F18</f>
-        <v>Daniel Ricard</v>
+        <v>Colin MacFarlane</v>
       </c>
       <c r="B17" t="str">
         <f>'for-README'!M18</f>
-        <v>Ricard, Daniel</v>
+        <v>MacFarlane, Colin</v>
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L18, " Region")</f>
@@ -1615,11 +1642,11 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>'for-README'!F19</f>
-        <v>Karen Robertson</v>
+        <v>Kelsey McGee</v>
       </c>
       <c r="B18" t="str">
         <f>'for-README'!M19</f>
-        <v>Robertson, Karen</v>
+        <v>McGee, Kelsey</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L19, " Region")</f>
@@ -1642,11 +1669,11 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>'for-README'!F20</f>
-        <v>Sylvie Robichaud</v>
+        <v>Kirby Morrill</v>
       </c>
       <c r="B19" t="str">
         <f>'for-README'!M20</f>
-        <v xml:space="preserve">Robichaud, Sylvie </v>
+        <v>Morrill, Kirby</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L20, " Region")</f>
@@ -1669,11 +1696,11 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>'for-README'!F21</f>
-        <v>Nicolas Rolland</v>
+        <v>Daniel Ricard</v>
       </c>
       <c r="B20" t="str">
         <f>'for-README'!M21</f>
-        <v>Rolland, Nicolas</v>
+        <v>Ricard, Daniel</v>
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L21, " Region")</f>
@@ -1696,11 +1723,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>'for-README'!F22</f>
-        <v>Jolene Sutton</v>
+        <v>Karen Robertson</v>
       </c>
       <c r="B21" t="str">
         <f>'for-README'!M22</f>
-        <v xml:space="preserve">Sutton, Jolene </v>
+        <v>Robertson, Karen</v>
       </c>
       <c r="C21" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L22, " Region")</f>
@@ -1723,11 +1750,11 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>'for-README'!F23</f>
-        <v>François-Étienne Sylvain</v>
+        <v>Sylvie Robichaud</v>
       </c>
       <c r="B22" t="str">
         <f>'for-README'!M23</f>
-        <v xml:space="preserve">Sylvain, François-Étienne </v>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
       <c r="C22" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L23, " Region")</f>
@@ -1750,11 +1777,11 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>'for-README'!F24</f>
-        <v>Kari Underhill</v>
+        <v>Nicolas Rolland</v>
       </c>
       <c r="B23" t="str">
         <f>'for-README'!M24</f>
-        <v>Underhill, Kari</v>
+        <v>Rolland, Nicolas</v>
       </c>
       <c r="C23" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L24, " Region")</f>
@@ -1777,19 +1804,19 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>'for-README'!F25</f>
-        <v>Mark Billard</v>
+        <v>Jolene Sutton</v>
       </c>
       <c r="B24" t="str">
         <f>'for-README'!M25</f>
-        <v>Billard, Mark</v>
+        <v xml:space="preserve">Sutton, Jolene </v>
       </c>
       <c r="C24" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L25, " Region")</f>
-        <v>DFO Science - Maritimes Region</v>
+        <v>DFO Science - Gulf Region</v>
       </c>
       <c r="D24" t="str">
         <f>'for-README'!H25</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1798,33 +1825,33 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>'for-README'!F26</f>
-        <v>Lynn Collier</v>
+        <v>François-Étienne Sylvain</v>
       </c>
       <c r="B25" t="str">
         <f>'for-README'!M26</f>
-        <v>Collier, Lynn</v>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
       <c r="C25" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L26, " Region")</f>
-        <v>DFO Science - Maritimes Region</v>
+        <v>DFO Science - Gulf Region</v>
       </c>
       <c r="D25" t="str">
         <f>'for-README'!H26</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>'for-README'!F27</f>
-        <v>Peter Comeau</v>
+        <v>Kari Underhill</v>
       </c>
       <c r="B26" t="str">
         <f>'for-README'!M27</f>
-        <v>Comeau, Peter</v>
+        <v>Underhill, Kari</v>
       </c>
       <c r="C26" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L27, " Region")</f>
-        <v>DFO Science - Maritimes Region</v>
+        <v>DFO Science - Gulf Region</v>
       </c>
       <c r="D26" t="str">
         <f>'for-README'!H27</f>
@@ -1843,11 +1870,11 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>'for-README'!F28</f>
-        <v>Tania Davignon-Burton</v>
+        <v>Mark Billard</v>
       </c>
       <c r="B27" t="str">
         <f>'for-README'!M28</f>
-        <v>Davignon-Burton, Tania</v>
+        <v>Billard, Mark</v>
       </c>
       <c r="C27" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L28, " Region")</f>
@@ -1861,11 +1888,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>'for-README'!F29</f>
-        <v>Nell den Heyer</v>
+        <v>Lynn Collier</v>
       </c>
       <c r="B28" t="str">
         <f>'for-README'!M29</f>
-        <v>den Heyer, Nell</v>
+        <v>Collier, Lynn</v>
       </c>
       <c r="C28" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L29, " Region")</f>
@@ -1879,11 +1906,11 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>'for-README'!F30</f>
-        <v>Danni Harper</v>
+        <v>Peter Comeau</v>
       </c>
       <c r="B29" t="str">
         <f>'for-README'!M30</f>
-        <v>Harper, Danni</v>
+        <v>Comeau, Peter</v>
       </c>
       <c r="C29" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L30, " Region")</f>
@@ -1891,17 +1918,17 @@
       </c>
       <c r="D29" t="str">
         <f>'for-README'!H30</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>'for-README'!F31</f>
-        <v>Kelly Kraska</v>
+        <v>Tania Davignon-Burton</v>
       </c>
       <c r="B30" t="str">
         <f>'for-README'!M31</f>
-        <v>Kraska, Kelly</v>
+        <v>Davignon-Burton, Tania</v>
       </c>
       <c r="C30" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L31, " Region")</f>
@@ -1909,17 +1936,17 @@
       </c>
       <c r="D30" t="str">
         <f>'for-README'!H31</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>'for-README'!F32</f>
-        <v>Ellen MacEachern</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="B31" t="str">
         <f>'for-README'!M32</f>
-        <v>MacEachern, Ellen</v>
+        <v>den Heyer, Nell</v>
       </c>
       <c r="C31" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L32, " Region")</f>
@@ -1927,17 +1954,17 @@
       </c>
       <c r="D31" t="str">
         <f>'for-README'!H32</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>'for-README'!F33</f>
-        <v>Liz Miller</v>
+        <v>Danni Harper</v>
       </c>
       <c r="B32" t="str">
         <f>'for-README'!M33</f>
-        <v>Miller, Liz</v>
+        <v>Harper, Danni</v>
       </c>
       <c r="C32" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L33, " Region")</f>
@@ -1945,17 +1972,17 @@
       </c>
       <c r="D32" t="str">
         <f>'for-README'!H33</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>'for-README'!F34</f>
-        <v>George Nau</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="B33" t="str">
         <f>'for-README'!M34</f>
-        <v>Nau, George</v>
+        <v>Kraska, Kelly</v>
       </c>
       <c r="C33" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L34, " Region")</f>
@@ -1963,17 +1990,17 @@
       </c>
       <c r="D33" t="str">
         <f>'for-README'!H34</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>'for-README'!F35</f>
-        <v>Gregory Puncher</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="B34" t="str">
         <f>'for-README'!M35</f>
-        <v>Puncher, Gregory</v>
+        <v>MacEachern, Ellen</v>
       </c>
       <c r="C34" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
@@ -1987,11 +2014,11 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>'for-README'!F36</f>
-        <v>Catriona Regnier-McKellar</v>
+        <v>Liz Miller</v>
       </c>
       <c r="B35" t="str">
         <f>'for-README'!M36</f>
-        <v>Regnier-McKellar, Catriona</v>
+        <v>Miller, Liz</v>
       </c>
       <c r="C35" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
@@ -1999,21 +2026,21 @@
       </c>
       <c r="D35" t="str">
         <f>'for-README'!H36</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>'for-README'!F37</f>
-        <v>Aaron Adamack</v>
+        <v>George Nau</v>
       </c>
       <c r="B36" t="str">
         <f>'for-README'!M37</f>
-        <v>Adamack, Aaron</v>
+        <v>Nau, George</v>
       </c>
       <c r="C36" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D36" t="str">
         <f>'for-README'!H37</f>
@@ -2023,33 +2050,33 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>'for-README'!F38</f>
-        <v>Kelly Antaya</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="B37" t="str">
         <f>'for-README'!M38</f>
-        <v>Antaya, Kelly</v>
+        <v>Puncher, Gregory</v>
       </c>
       <c r="C37" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D37" t="str">
         <f>'for-README'!H38</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>'for-README'!F39</f>
-        <v>Dwight Drover</v>
+        <v>Catriona Regnier-McKellar</v>
       </c>
       <c r="B38" t="str">
         <f>'for-README'!M39</f>
-        <v>Drover, Dwight</v>
+        <v>Regnier-McKellar, Catriona</v>
       </c>
       <c r="C38" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D38" t="str">
         <f>'for-README'!H39</f>
@@ -2059,11 +2086,11 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>'for-README'!F40</f>
-        <v>Gillian Forbes</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="B39" t="str">
         <f>'for-README'!M40</f>
-        <v>Forbes, Gillian</v>
+        <v>Adamack, Aaron</v>
       </c>
       <c r="C39" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
@@ -2071,17 +2098,17 @@
       </c>
       <c r="D39" t="str">
         <f>'for-README'!H40</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>'for-README'!F41</f>
-        <v>Marc Legresley</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="B40" t="str">
         <f>'for-README'!M41</f>
-        <v>Legresley, Marc</v>
+        <v>Antaya, Kelly</v>
       </c>
       <c r="C40" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
@@ -2095,11 +2122,11 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>'for-README'!F42</f>
-        <v>Andrea Perreault</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="B41" t="str">
         <f>'for-README'!M42</f>
-        <v>Perreault, Andrea</v>
+        <v>Drover, Dwight</v>
       </c>
       <c r="C41" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
@@ -2113,11 +2140,11 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>'for-README'!F43</f>
-        <v>Hannah Polaczek</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="B42" t="str">
         <f>'for-README'!M43</f>
-        <v>Polaczek, Hannah</v>
+        <v>Forbes, Gillian</v>
       </c>
       <c r="C42" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
@@ -2125,17 +2152,17 @@
       </c>
       <c r="D42" t="str">
         <f>'for-README'!H43</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>'for-README'!F44</f>
-        <v>Kierstyn Rideout</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="B43" t="str">
         <f>'for-README'!M44</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Legresley, Marc</v>
       </c>
       <c r="C43" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
@@ -2143,17 +2170,17 @@
       </c>
       <c r="D43" t="str">
         <f>'for-README'!H44</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>'for-README'!F45</f>
-        <v>Meredith Schofield</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="B44" t="str">
         <f>'for-README'!M45</f>
-        <v>Schofield, Meredith</v>
+        <v>Perreault, Andrea</v>
       </c>
       <c r="C44" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
@@ -2161,17 +2188,17 @@
       </c>
       <c r="D44" t="str">
         <f>'for-README'!H45</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>'for-README'!F46</f>
-        <v>Jaime Thomson</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="B45" t="str">
         <f>'for-README'!M46</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Polaczek, Hannah</v>
       </c>
       <c r="C45" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
@@ -2179,71 +2206,71 @@
       </c>
       <c r="D45" t="str">
         <f>'for-README'!H46</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>'for-README'!F47</f>
-        <v>Barbara Campbell</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="B46" t="str">
         <f>'for-README'!M47</f>
-        <v>Campbell, Barbara</v>
+        <v>Rideout, Kierstyn</v>
       </c>
       <c r="C46" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D46" t="str">
         <f>'for-README'!H47</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>'for-README'!F48</f>
-        <v>Karalea Cantera</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="B47" t="str">
         <f>'for-README'!M48</f>
-        <v>Cantera, Karalea</v>
+        <v>Schofield, Meredith</v>
       </c>
       <c r="C47" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D47" t="str">
         <f>'for-README'!H48</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>'for-README'!F49</f>
-        <v>Chelsea Cooke</v>
+        <v>Jaime Thomson</v>
       </c>
       <c r="B48" t="str">
         <f>'for-README'!M49</f>
-        <v>Cooke, Chelsea</v>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
       <c r="C48" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D48" t="str">
         <f>'for-README'!H49</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>'for-README'!F50</f>
-        <v>Robyn Forrest</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="B49" t="str">
         <f>'for-README'!M50</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Campbell, Barbara</v>
       </c>
       <c r="C49" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
@@ -2257,11 +2284,11 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>'for-README'!F51</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="B50" t="str">
         <f>'for-README'!M51</f>
-        <v>Hawkshaw, Sarah</v>
+        <v>Cantera, Karalea</v>
       </c>
       <c r="C50" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
@@ -2275,11 +2302,11 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>'for-README'!F52</f>
-        <v>Erin Herder</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="B51" t="str">
         <f>'for-README'!M52</f>
-        <v>Herder, Erin</v>
+        <v>Cooke, Chelsea</v>
       </c>
       <c r="C51" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
@@ -2293,11 +2320,11 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>'for-README'!F53</f>
-        <v>Kendra Holt</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="B52" t="str">
         <f>'for-README'!M53</f>
-        <v>Holt, Kendra</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
       <c r="C52" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
@@ -2311,11 +2338,11 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>'for-README'!F54</f>
-        <v>Yeongha Jung</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="B53" t="str">
         <f>'for-README'!M54</f>
-        <v>Jung, Yeongha</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
       <c r="C53" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
@@ -2329,11 +2356,11 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>'for-README'!F55</f>
-        <v>Madeline Lavery</v>
+        <v>Erin Herder</v>
       </c>
       <c r="B54" t="str">
         <f>'for-README'!M55</f>
-        <v>Lavery, Madeline</v>
+        <v>Herder, Erin</v>
       </c>
       <c r="C54" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
@@ -2347,11 +2374,11 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>'for-README'!F56</f>
-        <v>Kiana Matwichuk</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="B55" t="str">
         <f>'for-README'!M56</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Holt, Kendra</v>
       </c>
       <c r="C55" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
@@ -2365,11 +2392,11 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>'for-README'!F57</f>
-        <v>Mackenzie Mazur</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="B56" t="str">
         <f>'for-README'!M57</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Jung, Yeongha</v>
       </c>
       <c r="C56" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
@@ -2383,11 +2410,11 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>'for-README'!F58</f>
-        <v>Judy McArthur</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="B57" t="str">
         <f>'for-README'!M58</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Lavery, Madeline</v>
       </c>
       <c r="C57" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
@@ -2401,11 +2428,11 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>'for-README'!F59</f>
-        <v>Audrey Ty</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="B58" t="str">
         <f>'for-README'!M59</f>
-        <v>Ty, Audrey</v>
+        <v>Matwichuk, Kiana</v>
       </c>
       <c r="C58" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
@@ -2419,11 +2446,11 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>'for-README'!F60</f>
-        <v>Stephen Wischniowski</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="B59" t="str">
         <f>'for-README'!M60</f>
-        <v>Wischniowski, Stephen</v>
+        <v>Mazur, Mackenzie</v>
       </c>
       <c r="C59" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
@@ -2437,11 +2464,11 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>'for-README'!F61</f>
-        <v>Emily Yungwirth</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="B60" t="str">
         <f>'for-README'!M61</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
       <c r="C60" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
@@ -2455,15 +2482,15 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>'for-README'!F62</f>
-        <v>Mathieu Desgagnés</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="B61" t="str">
         <f>'for-README'!M62</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
+        <v>Ty, Audrey</v>
       </c>
       <c r="C61" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
+        <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D61" t="str">
         <f>'for-README'!H62</f>
@@ -2473,47 +2500,47 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>'for-README'!F63</f>
-        <v>Hélène Dionne</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="B62" t="str">
         <f>'for-README'!M63</f>
-        <v>Dionne, Hélène</v>
+        <v>Wischniowski, Stephen</v>
       </c>
       <c r="C62" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
+        <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D62" t="str">
         <f>'for-README'!H63</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>'for-README'!F64</f>
-        <v>Kim Emond</v>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="B63" t="str">
         <f>'for-README'!M64</f>
-        <v>Emond, Kim</v>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
       <c r="C63" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
+        <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D63" t="str">
         <f>'for-README'!H64</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>'for-README'!F65</f>
-        <v>Nicolas Le Corre</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="B64" t="str">
         <f>'for-README'!M65</f>
-        <v>LeCorre, Nicolas</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
       <c r="C64" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
@@ -2527,11 +2554,11 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>'for-README'!F66</f>
-        <v>Andrew Smith</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="B65" t="str">
         <f>'for-README'!M66</f>
-        <v>Smith, Andrew</v>
+        <v>Dionne, Hélène</v>
       </c>
       <c r="C65" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
@@ -2539,6 +2566,60 @@
       </c>
       <c r="D65" t="str">
         <f>'for-README'!H66</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f>'for-README'!F67</f>
+        <v>Kim Emond</v>
+      </c>
+      <c r="B66" t="str">
+        <f>'for-README'!M67</f>
+        <v>Emond, Kim</v>
+      </c>
+      <c r="C66" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L67, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D66" t="str">
+        <f>'for-README'!H67</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f>'for-README'!F68</f>
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="B67" t="str">
+        <f>'for-README'!M68</f>
+        <v>LeCorre, Nicolas</v>
+      </c>
+      <c r="C67" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L68, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D67" t="str">
+        <f>'for-README'!H68</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f>'for-README'!F69</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="B68" t="str">
+        <f>'for-README'!M69</f>
+        <v>Smith, Andrew</v>
+      </c>
+      <c r="C68" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L69, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D68" t="str">
+        <f>'for-README'!H69</f>
         <v>Virtual</v>
       </c>
     </row>
@@ -2590,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L66" sqref="L4:L66"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2604,18 +2685,18 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 63 participants as of 2023-01-19 (25 in person and 38 virtual)</v>
+        <v>List of the 66 participants as of 2023-01-23 (27 in person and 39 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J66)</f>
-        <v>38</v>
+        <f>SUM(J4:J69)</f>
+        <v>39</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
@@ -2651,8 +2732,8 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K66)</f>
-        <v>25</v>
+        <f>SUM(K4:K69)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -2764,11 +2845,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J62" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J65" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K62" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K65" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -3327,25 +3408,25 @@
       </c>
       <c r="F17" t="str">
         <f>'outlook-responses'!I23</f>
-        <v>Kirby Morrill</v>
+        <v>Samantha Hudson</v>
       </c>
       <c r="G17" t="s">
         <v>191</v>
       </c>
       <c r="H17" t="str">
         <f>'outlook-responses'!H23</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I17" t="s">
         <v>191</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="str">
         <f>'outlook-responses'!B23</f>
@@ -3353,7 +3434,7 @@
       </c>
       <c r="M17" t="str">
         <f>'outlook-responses'!E23</f>
-        <v>Morrill, Kirdy</v>
+        <v>Hudson, Samantha</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -3375,7 +3456,7 @@
       </c>
       <c r="F18" t="str">
         <f>'outlook-responses'!I24</f>
-        <v>Daniel Ricard</v>
+        <v>Colin MacFarlane</v>
       </c>
       <c r="G18" t="s">
         <v>191</v>
@@ -3401,7 +3482,7 @@
       </c>
       <c r="M18" t="str">
         <f>'outlook-responses'!E24</f>
-        <v>Ricard, Daniel</v>
+        <v>MacFarlane, Colin</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -3423,7 +3504,7 @@
       </c>
       <c r="F19" t="str">
         <f>'outlook-responses'!I25</f>
-        <v>Karen Robertson</v>
+        <v>Kelsey McGee</v>
       </c>
       <c r="G19" t="s">
         <v>191</v>
@@ -3449,7 +3530,7 @@
       </c>
       <c r="M19" t="str">
         <f>'outlook-responses'!E25</f>
-        <v>Robertson, Karen</v>
+        <v>McGee, Kelsey</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -3471,7 +3552,7 @@
       </c>
       <c r="F20" t="str">
         <f>'outlook-responses'!I26</f>
-        <v>Sylvie Robichaud</v>
+        <v>Kirby Morrill</v>
       </c>
       <c r="G20" t="s">
         <v>191</v>
@@ -3497,7 +3578,7 @@
       </c>
       <c r="M20" t="str">
         <f>'outlook-responses'!E26</f>
-        <v xml:space="preserve">Robichaud, Sylvie </v>
+        <v>Morrill, Kirby</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -3519,7 +3600,7 @@
       </c>
       <c r="F21" t="str">
         <f>'outlook-responses'!I27</f>
-        <v>Nicolas Rolland</v>
+        <v>Daniel Ricard</v>
       </c>
       <c r="G21" t="s">
         <v>191</v>
@@ -3545,7 +3626,7 @@
       </c>
       <c r="M21" t="str">
         <f>'outlook-responses'!E27</f>
-        <v>Rolland, Nicolas</v>
+        <v>Ricard, Daniel</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -3567,7 +3648,7 @@
       </c>
       <c r="F22" t="str">
         <f>'outlook-responses'!I28</f>
-        <v>Jolene Sutton</v>
+        <v>Karen Robertson</v>
       </c>
       <c r="G22" t="s">
         <v>191</v>
@@ -3593,7 +3674,7 @@
       </c>
       <c r="M22" t="str">
         <f>'outlook-responses'!E28</f>
-        <v xml:space="preserve">Sutton, Jolene </v>
+        <v>Robertson, Karen</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -3615,7 +3696,7 @@
       </c>
       <c r="F23" t="str">
         <f>'outlook-responses'!I29</f>
-        <v>François-Étienne Sylvain</v>
+        <v>Sylvie Robichaud</v>
       </c>
       <c r="G23" t="s">
         <v>191</v>
@@ -3641,7 +3722,7 @@
       </c>
       <c r="M23" t="str">
         <f>'outlook-responses'!E29</f>
-        <v xml:space="preserve">Sylvain, François-Étienne </v>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -3663,7 +3744,7 @@
       </c>
       <c r="F24" t="str">
         <f>'outlook-responses'!I30</f>
-        <v>Kari Underhill</v>
+        <v>Nicolas Rolland</v>
       </c>
       <c r="G24" t="s">
         <v>191</v>
@@ -3680,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24" si="2">IF(H24="In person",1,0)</f>
+        <f t="shared" ref="K24:K27" si="2">IF(H24="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="L24" t="str">
@@ -3689,7 +3770,7 @@
       </c>
       <c r="M24" t="str">
         <f>'outlook-responses'!E30</f>
-        <v>Underhill, Kari</v>
+        <v>Rolland, Nicolas</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -3703,41 +3784,41 @@
         <v>191</v>
       </c>
       <c r="D25" t="str">
-        <f>'outlook-responses'!A32</f>
-        <v>MAR</v>
+        <f>'outlook-responses'!A31</f>
+        <v>GLF</v>
       </c>
       <c r="E25" t="s">
         <v>191</v>
       </c>
       <c r="F25" t="str">
-        <f>'outlook-responses'!I32</f>
-        <v>Mark Billard</v>
+        <f>'outlook-responses'!I31</f>
+        <v>Jolene Sutton</v>
       </c>
       <c r="G25" t="s">
         <v>191</v>
       </c>
       <c r="H25" t="str">
-        <f>'outlook-responses'!H32</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H31</f>
+        <v>In person</v>
       </c>
       <c r="I25" t="s">
         <v>191</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="L25" t="str">
-        <f>'outlook-responses'!B32</f>
-        <v>Maritimes</v>
+        <f>'outlook-responses'!B31</f>
+        <v>Gulf</v>
       </c>
       <c r="M25" t="str">
-        <f>'outlook-responses'!E32</f>
-        <v>Billard, Mark</v>
+        <f>'outlook-responses'!E31</f>
+        <v xml:space="preserve">Sutton, Jolene </v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -3751,41 +3832,41 @@
         <v>191</v>
       </c>
       <c r="D26" t="str">
-        <f>'outlook-responses'!A33</f>
-        <v>MAR</v>
+        <f>'outlook-responses'!A32</f>
+        <v>GLF</v>
       </c>
       <c r="E26" t="s">
         <v>191</v>
       </c>
       <c r="F26" t="str">
-        <f>'outlook-responses'!I33</f>
-        <v>Lynn Collier</v>
+        <f>'outlook-responses'!I32</f>
+        <v>François-Étienne Sylvain</v>
       </c>
       <c r="G26" t="s">
         <v>191</v>
       </c>
       <c r="H26" t="str">
-        <f>'outlook-responses'!H33</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H32</f>
+        <v>In person</v>
       </c>
       <c r="I26" t="s">
         <v>191</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="L26" t="str">
-        <f>'outlook-responses'!B33</f>
-        <v>Maritimes</v>
+        <f>'outlook-responses'!B32</f>
+        <v>Gulf</v>
       </c>
       <c r="M26" t="str">
-        <f>'outlook-responses'!E33</f>
-        <v>Collier, Lynn</v>
+        <f>'outlook-responses'!E32</f>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -3799,21 +3880,21 @@
         <v>191</v>
       </c>
       <c r="D27" t="str">
-        <f>'outlook-responses'!A34</f>
-        <v>MAR</v>
+        <f>'outlook-responses'!A33</f>
+        <v>GLF</v>
       </c>
       <c r="E27" t="s">
         <v>191</v>
       </c>
       <c r="F27" t="str">
-        <f>'outlook-responses'!I34</f>
-        <v>Peter Comeau</v>
+        <f>'outlook-responses'!I33</f>
+        <v>Kari Underhill</v>
       </c>
       <c r="G27" t="s">
         <v>191</v>
       </c>
       <c r="H27" t="str">
-        <f>'outlook-responses'!H34</f>
+        <f>'outlook-responses'!H33</f>
         <v>In person</v>
       </c>
       <c r="I27" t="s">
@@ -3824,16 +3905,16 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L27" t="str">
-        <f>'outlook-responses'!B34</f>
-        <v>Maritimes</v>
+        <f>'outlook-responses'!B33</f>
+        <v>Gulf</v>
       </c>
       <c r="M27" t="str">
-        <f>'outlook-responses'!E34</f>
-        <v>Comeau, Peter</v>
+        <f>'outlook-responses'!E33</f>
+        <v>Underhill, Kari</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -3855,7 +3936,7 @@
       </c>
       <c r="F28" t="str">
         <f>'outlook-responses'!I35</f>
-        <v>Tania Davignon-Burton</v>
+        <v>Mark Billard</v>
       </c>
       <c r="G28" t="s">
         <v>191</v>
@@ -3881,7 +3962,7 @@
       </c>
       <c r="M28" t="str">
         <f>'outlook-responses'!E35</f>
-        <v>Davignon-Burton, Tania</v>
+        <v>Billard, Mark</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -3903,7 +3984,7 @@
       </c>
       <c r="F29" t="str">
         <f>'outlook-responses'!I36</f>
-        <v>Nell den Heyer</v>
+        <v>Lynn Collier</v>
       </c>
       <c r="G29" t="s">
         <v>191</v>
@@ -3929,7 +4010,7 @@
       </c>
       <c r="M29" t="str">
         <f>'outlook-responses'!E36</f>
-        <v>den Heyer, Nell</v>
+        <v>Collier, Lynn</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -3951,25 +4032,25 @@
       </c>
       <c r="F30" t="str">
         <f>'outlook-responses'!I37</f>
-        <v>Danni Harper</v>
+        <v>Peter Comeau</v>
       </c>
       <c r="G30" t="s">
         <v>191</v>
       </c>
       <c r="H30" t="str">
         <f>'outlook-responses'!H37</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I30" t="s">
         <v>191</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="str">
         <f>'outlook-responses'!B37</f>
@@ -3977,7 +4058,7 @@
       </c>
       <c r="M30" t="str">
         <f>'outlook-responses'!E37</f>
-        <v>Harper, Danni</v>
+        <v>Comeau, Peter</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -3999,25 +4080,25 @@
       </c>
       <c r="F31" t="str">
         <f>'outlook-responses'!I38</f>
-        <v>Kelly Kraska</v>
+        <v>Tania Davignon-Burton</v>
       </c>
       <c r="G31" t="s">
         <v>191</v>
       </c>
       <c r="H31" t="str">
         <f>'outlook-responses'!H38</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I31" t="s">
         <v>191</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="str">
         <f>'outlook-responses'!B38</f>
@@ -4025,7 +4106,7 @@
       </c>
       <c r="M31" t="str">
         <f>'outlook-responses'!E38</f>
-        <v>Kraska, Kelly</v>
+        <v>Davignon-Burton, Tania</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -4047,25 +4128,25 @@
       </c>
       <c r="F32" t="str">
         <f>'outlook-responses'!I39</f>
-        <v>Ellen MacEachern</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="G32" t="s">
         <v>191</v>
       </c>
       <c r="H32" t="str">
         <f>'outlook-responses'!H39</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I32" t="s">
         <v>191</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="str">
         <f>'outlook-responses'!B39</f>
@@ -4073,7 +4154,7 @@
       </c>
       <c r="M32" t="str">
         <f>'outlook-responses'!E39</f>
-        <v>MacEachern, Ellen</v>
+        <v>den Heyer, Nell</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -4095,25 +4176,25 @@
       </c>
       <c r="F33" t="str">
         <f>'outlook-responses'!I40</f>
-        <v>Liz Miller</v>
+        <v>Danni Harper</v>
       </c>
       <c r="G33" t="s">
         <v>191</v>
       </c>
       <c r="H33" t="str">
         <f>'outlook-responses'!H40</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I33" t="s">
         <v>191</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="str">
         <f>'outlook-responses'!B40</f>
@@ -4121,7 +4202,7 @@
       </c>
       <c r="M33" t="str">
         <f>'outlook-responses'!E40</f>
-        <v>Miller, Liz</v>
+        <v>Harper, Danni</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -4143,25 +4224,25 @@
       </c>
       <c r="F34" t="str">
         <f>'outlook-responses'!I41</f>
-        <v>George Nau</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="G34" t="s">
         <v>191</v>
       </c>
       <c r="H34" t="str">
         <f>'outlook-responses'!H41</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I34" t="s">
         <v>191</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="str">
         <f>'outlook-responses'!B41</f>
@@ -4169,7 +4250,7 @@
       </c>
       <c r="M34" t="str">
         <f>'outlook-responses'!E41</f>
-        <v>Nau, George</v>
+        <v>Kraska, Kelly</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -4191,7 +4272,7 @@
       </c>
       <c r="F35" t="str">
         <f>'outlook-responses'!I42</f>
-        <v>Gregory Puncher</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
@@ -4217,10 +4298,13 @@
       </c>
       <c r="M35" t="str">
         <f>'outlook-responses'!E42</f>
-        <v>Puncher, Gregory</v>
+        <v>MacEachern, Ellen</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
       <c r="B36">
         <v>33</v>
       </c>
@@ -4236,25 +4320,25 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I43</f>
-        <v>Catriona Regnier-McKellar</v>
+        <v>Liz Miller</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="str">
         <f>'outlook-responses'!H43</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="str">
         <f>'outlook-responses'!B43</f>
@@ -4262,7 +4346,7 @@
       </c>
       <c r="M36" t="str">
         <f>'outlook-responses'!E43</f>
-        <v>Regnier-McKellar, Catriona</v>
+        <v>Miller, Liz</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -4276,21 +4360,21 @@
         <v>191</v>
       </c>
       <c r="D37" t="str">
-        <f>'outlook-responses'!A45</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A44</f>
+        <v>MAR</v>
       </c>
       <c r="E37" t="s">
         <v>191</v>
       </c>
       <c r="F37" t="str">
-        <f>'outlook-responses'!I45</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I44</f>
+        <v>George Nau</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
       </c>
       <c r="H37" t="str">
-        <f>'outlook-responses'!H45</f>
+        <f>'outlook-responses'!H44</f>
         <v>Virtual</v>
       </c>
       <c r="I37" t="s">
@@ -4305,12 +4389,12 @@
         <v>0</v>
       </c>
       <c r="L37" t="str">
-        <f>'outlook-responses'!B45</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B44</f>
+        <v>Maritimes</v>
       </c>
       <c r="M37" t="str">
-        <f>'outlook-responses'!E45</f>
-        <v>Adamack, Aaron</v>
+        <f>'outlook-responses'!E44</f>
+        <v>Nau, George</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -4324,71 +4408,71 @@
         <v>191</v>
       </c>
       <c r="D38" t="str">
+        <f>'outlook-responses'!A45</f>
+        <v>MAR</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" t="str">
+        <f>'outlook-responses'!I45</f>
+        <v>Gregory Puncher</v>
+      </c>
+      <c r="G38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" t="str">
+        <f>'outlook-responses'!H45</f>
+        <v>In person</v>
+      </c>
+      <c r="I38" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L38" t="str">
+        <f>'outlook-responses'!B45</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M38" t="str">
+        <f>'outlook-responses'!E45</f>
+        <v>Puncher, Gregory</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="str">
         <f>'outlook-responses'!A46</f>
-        <v>NL</v>
-      </c>
-      <c r="E38" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" t="str">
+        <v>MAR</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Kelly Antaya</v>
-      </c>
-      <c r="G38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" t="str">
+        <v>Catriona Regnier-McKellar</v>
+      </c>
+      <c r="G39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" t="str">
         <f>'outlook-responses'!H46</f>
         <v>Virtual</v>
       </c>
-      <c r="I38" t="s">
-        <v>191</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" t="str">
-        <f>'outlook-responses'!B46</f>
-        <v>Newfoundland and Labrador</v>
-      </c>
-      <c r="M38" t="str">
-        <f>'outlook-responses'!E46</f>
-        <v>Antaya, Kelly</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" t="str">
-        <f>'outlook-responses'!A47</f>
-        <v>NL</v>
-      </c>
-      <c r="E39" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" t="str">
-        <f>'outlook-responses'!I47</f>
-        <v>Dwight Drover</v>
-      </c>
-      <c r="G39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" t="str">
-        <f>'outlook-responses'!H47</f>
-        <v>Virtual</v>
-      </c>
       <c r="I39" t="s">
         <v>191</v>
       </c>
@@ -4401,12 +4485,12 @@
         <v>0</v>
       </c>
       <c r="L39" t="str">
-        <f>'outlook-responses'!B47</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B46</f>
+        <v>Maritimes</v>
       </c>
       <c r="M39" t="str">
-        <f>'outlook-responses'!E47</f>
-        <v>Drover, Dwight</v>
+        <f>'outlook-responses'!E46</f>
+        <v>Regnier-McKellar, Catriona</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -4428,25 +4512,25 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Gillian Forbes</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
         <f>'outlook-responses'!H48</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I40" t="s">
         <v>191</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="str">
         <f>'outlook-responses'!B48</f>
@@ -4454,7 +4538,7 @@
       </c>
       <c r="M40" t="str">
         <f>'outlook-responses'!E48</f>
-        <v>Forbes, Gillian</v>
+        <v>Adamack, Aaron</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -4476,7 +4560,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Marc Legresley</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -4502,7 +4586,7 @@
       </c>
       <c r="M41" t="str">
         <f>'outlook-responses'!E49</f>
-        <v>Legresley, Marc</v>
+        <v>Antaya, Kelly</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -4524,7 +4608,7 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I50</f>
-        <v>Andrea Perreault</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
@@ -4550,7 +4634,7 @@
       </c>
       <c r="M42" t="str">
         <f>'outlook-responses'!E50</f>
-        <v>Perreault, Andrea</v>
+        <v>Drover, Dwight</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -4572,25 +4656,25 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Hannah Polaczek</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
       </c>
       <c r="H43" t="str">
         <f>'outlook-responses'!H51</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I43" t="s">
         <v>191</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="str">
         <f>'outlook-responses'!B51</f>
@@ -4598,7 +4682,7 @@
       </c>
       <c r="M43" t="str">
         <f>'outlook-responses'!E51</f>
-        <v>Polaczek, Hannah</v>
+        <v>Forbes, Gillian</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -4620,25 +4704,25 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Kierstyn Rideout</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
       </c>
       <c r="H44" t="str">
         <f>'outlook-responses'!H52</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I44" t="s">
         <v>191</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="str">
         <f>'outlook-responses'!B52</f>
@@ -4646,7 +4730,7 @@
       </c>
       <c r="M44" t="str">
         <f>'outlook-responses'!E52</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Legresley, Marc</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -4668,25 +4752,25 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Meredith Schofield</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
       </c>
       <c r="H45" t="str">
         <f>'outlook-responses'!H53</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I45" t="s">
         <v>191</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="str">
         <f>'outlook-responses'!B53</f>
@@ -4694,7 +4778,7 @@
       </c>
       <c r="M45" t="str">
         <f>'outlook-responses'!E53</f>
-        <v>Schofield, Meredith</v>
+        <v>Perreault, Andrea</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -4716,25 +4800,25 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Jaime Thomson</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
       </c>
       <c r="H46" t="str">
         <f>'outlook-responses'!H54</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I46" t="s">
         <v>191</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="str">
         <f>'outlook-responses'!B54</f>
@@ -4742,7 +4826,7 @@
       </c>
       <c r="M46" t="str">
         <f>'outlook-responses'!E54</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Polaczek, Hannah</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -4756,41 +4840,41 @@
         <v>191</v>
       </c>
       <c r="D47" t="str">
-        <f>'outlook-responses'!A56</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A55</f>
+        <v>NL</v>
       </c>
       <c r="E47" t="s">
         <v>191</v>
       </c>
       <c r="F47" t="str">
-        <f>'outlook-responses'!I56</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I55</f>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
       </c>
       <c r="H47" t="str">
-        <f>'outlook-responses'!H56</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H55</f>
+        <v>In person</v>
       </c>
       <c r="I47" t="s">
         <v>191</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="str">
-        <f>'outlook-responses'!B56</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B55</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M47" t="str">
-        <f>'outlook-responses'!E56</f>
-        <v>Campbell, Barbara</v>
+        <f>'outlook-responses'!E55</f>
+        <v>Rideout, Kierstyn</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -4804,41 +4888,41 @@
         <v>191</v>
       </c>
       <c r="D48" t="str">
-        <f>'outlook-responses'!A57</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A56</f>
+        <v>NL</v>
       </c>
       <c r="E48" t="s">
         <v>191</v>
       </c>
       <c r="F48" t="str">
-        <f>'outlook-responses'!I57</f>
-        <v>Karalea Cantera</v>
+        <f>'outlook-responses'!I56</f>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
       </c>
       <c r="H48" t="str">
-        <f>'outlook-responses'!H57</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H56</f>
+        <v>In person</v>
       </c>
       <c r="I48" t="s">
         <v>191</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="str">
-        <f>'outlook-responses'!B57</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B56</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M48" t="str">
-        <f>'outlook-responses'!E57</f>
-        <v>Cantera, Karalea</v>
+        <f>'outlook-responses'!E56</f>
+        <v>Schofield, Meredith</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -4852,41 +4936,41 @@
         <v>191</v>
       </c>
       <c r="D49" t="str">
-        <f>'outlook-responses'!A58</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A57</f>
+        <v>NL</v>
       </c>
       <c r="E49" t="s">
         <v>191</v>
       </c>
       <c r="F49" t="str">
-        <f>'outlook-responses'!I58</f>
-        <v>Chelsea Cooke</v>
+        <f>'outlook-responses'!I57</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
       </c>
       <c r="H49" t="str">
-        <f>'outlook-responses'!H58</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H57</f>
+        <v>In person</v>
       </c>
       <c r="I49" t="s">
         <v>191</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="str">
-        <f>'outlook-responses'!B58</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B57</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M49" t="str">
-        <f>'outlook-responses'!E58</f>
-        <v>Cooke, Chelsea</v>
+        <f>'outlook-responses'!E57</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -4908,7 +4992,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Robyn Forrest</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -4934,7 +5018,7 @@
       </c>
       <c r="M50" t="str">
         <f>'outlook-responses'!E59</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Campbell, Barbara</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -4956,7 +5040,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -4982,7 +5066,7 @@
       </c>
       <c r="M51" t="str">
         <f>'outlook-responses'!E60</f>
-        <v>Hawkshaw, Sarah</v>
+        <v>Cantera, Karalea</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -5004,7 +5088,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Erin Herder</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -5030,7 +5114,7 @@
       </c>
       <c r="M52" t="str">
         <f>'outlook-responses'!E61</f>
-        <v>Herder, Erin</v>
+        <v>Cooke, Chelsea</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -5052,7 +5136,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Kendra Holt</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -5078,7 +5162,7 @@
       </c>
       <c r="M53" t="str">
         <f>'outlook-responses'!E62</f>
-        <v>Holt, Kendra</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -5100,7 +5184,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Yeongha Jung</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -5126,7 +5210,7 @@
       </c>
       <c r="M54" t="str">
         <f>'outlook-responses'!E63</f>
-        <v>Jung, Yeongha</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -5148,7 +5232,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Madeline Lavery</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -5174,7 +5258,7 @@
       </c>
       <c r="M55" t="str">
         <f>'outlook-responses'!E64</f>
-        <v>Lavery, Madeline</v>
+        <v>Herder, Erin</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -5196,7 +5280,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Kiana Matwichuk</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -5222,7 +5306,7 @@
       </c>
       <c r="M56" t="str">
         <f>'outlook-responses'!E65</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Holt, Kendra</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -5244,7 +5328,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Mackenzie Mazur</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5270,7 +5354,7 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Jung, Yeongha</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -5292,7 +5376,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Judy McArthur</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -5318,7 +5402,7 @@
       </c>
       <c r="M58" t="str">
         <f>'outlook-responses'!E67</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Lavery, Madeline</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -5340,7 +5424,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Audrey Ty</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -5366,7 +5450,7 @@
       </c>
       <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v>Ty, Audrey</v>
+        <v>Matwichuk, Kiana</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -5388,7 +5472,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Stephen Wischniowski</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -5414,7 +5498,7 @@
       </c>
       <c r="M60" t="str">
         <f>'outlook-responses'!E69</f>
-        <v>Wischniowski, Stephen</v>
+        <v>Mazur, Mackenzie</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -5436,7 +5520,7 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Emily Yungwirth</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -5462,7 +5546,7 @@
       </c>
       <c r="M61" t="str">
         <f>'outlook-responses'!E70</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -5476,89 +5560,89 @@
         <v>191</v>
       </c>
       <c r="D62" t="str">
+        <f>'outlook-responses'!A71</f>
+        <v>PAC</v>
+      </c>
+      <c r="E62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" t="str">
+        <f>'outlook-responses'!I71</f>
+        <v>Audrey Ty</v>
+      </c>
+      <c r="G62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" t="str">
+        <f>'outlook-responses'!H71</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I62" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="str">
+        <f>'outlook-responses'!B71</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M62" t="str">
+        <f>'outlook-responses'!E71</f>
+        <v>Ty, Audrey</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="str">
         <f>'outlook-responses'!A72</f>
-        <v>QUE</v>
-      </c>
-      <c r="E62" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" t="str">
+        <v>PAC</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Mathieu Desgagnés</v>
-      </c>
-      <c r="G62" t="s">
-        <v>191</v>
-      </c>
-      <c r="H62" t="str">
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="G63" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" t="str">
         <f>'outlook-responses'!H72</f>
         <v>Virtual</v>
       </c>
-      <c r="I62" t="s">
-        <v>191</v>
-      </c>
-      <c r="J62">
+      <c r="I63" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L62" t="str">
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L63" t="str">
         <f>'outlook-responses'!B72</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M62" t="str">
+        <v>Pacific</v>
+      </c>
+      <c r="M63" t="str">
         <f>'outlook-responses'!E72</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" t="str">
-        <f>'outlook-responses'!A73</f>
-        <v>QUE</v>
-      </c>
-      <c r="E63" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" t="str">
-        <f>'outlook-responses'!I73</f>
-        <v>Hélène Dionne</v>
-      </c>
-      <c r="G63" t="s">
-        <v>191</v>
-      </c>
-      <c r="H63" t="str">
-        <f>'outlook-responses'!H73</f>
-        <v>In person</v>
-      </c>
-      <c r="I63" t="s">
-        <v>191</v>
-      </c>
-      <c r="J63">
-        <f t="shared" ref="J63:J66" si="3">IF(H63="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <f t="shared" ref="K63:K66" si="4">IF(H63="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L63" t="str">
-        <f>'outlook-responses'!B73</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M63" t="str">
-        <f>'outlook-responses'!E73</f>
-        <v>Dionne, Hélène</v>
+        <v>Wischniowski, Stephen</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -5572,41 +5656,41 @@
         <v>191</v>
       </c>
       <c r="D64" t="str">
-        <f>'outlook-responses'!A74</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A73</f>
+        <v>PAC</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
       </c>
       <c r="F64" t="str">
-        <f>'outlook-responses'!I74</f>
-        <v>Kim Emond</v>
+        <f>'outlook-responses'!I73</f>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
       </c>
       <c r="H64" t="str">
-        <f>'outlook-responses'!H74</f>
-        <v>In person</v>
+        <f>'outlook-responses'!H73</f>
+        <v>Virtual</v>
       </c>
       <c r="I64" t="s">
         <v>191</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L64" t="str">
-        <f>'outlook-responses'!B74</f>
-        <v>Quebec</v>
+        <f>'outlook-responses'!B73</f>
+        <v>Pacific</v>
       </c>
       <c r="M64" t="str">
-        <f>'outlook-responses'!E74</f>
-        <v>Emond, Kim</v>
+        <f>'outlook-responses'!E73</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -5628,7 +5712,7 @@
       </c>
       <c r="F65" t="str">
         <f>'outlook-responses'!I75</f>
-        <v>Nicolas Le Corre</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G65" t="s">
         <v>191</v>
@@ -5641,11 +5725,11 @@
         <v>191</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L65" t="str">
@@ -5654,7 +5738,7 @@
       </c>
       <c r="M65" t="str">
         <f>'outlook-responses'!E75</f>
-        <v>LeCorre, Nicolas</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -5676,25 +5760,25 @@
       </c>
       <c r="F66" t="str">
         <f>'outlook-responses'!I76</f>
-        <v>Andrew Smith</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G66" t="s">
         <v>191</v>
       </c>
       <c r="H66" t="str">
         <f>'outlook-responses'!H76</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I66" t="s">
         <v>191</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="J66:J69" si="3">IF(H66="Virtual",1,0)</f>
+        <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="K66:K69" si="4">IF(H66="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="L66" t="str">
         <f>'outlook-responses'!B76</f>
@@ -5702,7 +5786,7 @@
       </c>
       <c r="M66" t="str">
         <f>'outlook-responses'!E76</f>
-        <v>Smith, Andrew</v>
+        <v>Dionne, Hélène</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -5713,6 +5797,150 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="str">
+        <f>'outlook-responses'!A77</f>
+        <v>QUE</v>
+      </c>
+      <c r="E67" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" t="str">
+        <f>'outlook-responses'!I77</f>
+        <v>Kim Emond</v>
+      </c>
+      <c r="G67" t="s">
+        <v>191</v>
+      </c>
+      <c r="H67" t="str">
+        <f>'outlook-responses'!H77</f>
+        <v>In person</v>
+      </c>
+      <c r="I67" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L67" t="str">
+        <f>'outlook-responses'!B77</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M67" t="str">
+        <f>'outlook-responses'!E77</f>
+        <v>Emond, Kim</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="str">
+        <f>'outlook-responses'!A78</f>
+        <v>QUE</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" t="str">
+        <f>'outlook-responses'!I78</f>
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="G68" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" t="str">
+        <f>'outlook-responses'!H78</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I68" t="s">
+        <v>191</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68" t="str">
+        <f>'outlook-responses'!B78</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M68" t="str">
+        <f>'outlook-responses'!E78</f>
+        <v>LeCorre, Nicolas</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="str">
+        <f>'outlook-responses'!A79</f>
+        <v>QUE</v>
+      </c>
+      <c r="E69" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" t="str">
+        <f>'outlook-responses'!I79</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G69" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69" t="str">
+        <f>'outlook-responses'!H79</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I69" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69" t="str">
+        <f>'outlook-responses'!B79</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M69" t="str">
+        <f>'outlook-responses'!E79</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5723,12 +5951,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" customWidth="1"/>
     <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
@@ -5738,8 +5967,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M76)</f>
-        <v>63</v>
+        <f>SUM(M8:M79)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -5747,8 +5976,8 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O76)</f>
-        <v>38</v>
+        <f>SUM(O8:O79)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -5756,8 +5985,8 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N76)</f>
-        <v>25</v>
+        <f>SUM(N8:N79)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -5782,8 +6011,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C56+C32+C45+C72+C9</f>
-        <v>63</v>
+        <f>C19+C59+C35+C48+C75+C9</f>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -6077,8 +6306,8 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f>SUM(M19:M30)</f>
-        <v>12</v>
+        <f>SUM(M19:M33)</f>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
@@ -6097,11 +6326,11 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N30" si="2">IF(H19="In person",1,0)</f>
+        <f>IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O30" si="3">IF(H19="Virtual",1,0)</f>
+        <f>IF(H19="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6115,7 +6344,7 @@
       <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2"/>
@@ -6129,11 +6358,11 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f>IF(H20="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
+        <f>IF(H20="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6161,11 +6390,11 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f>IF(H21="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f>IF(H21="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6193,11 +6422,11 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f>IF(H22="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f>IF(H22="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6208,29 +6437,29 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>104</v>
+      <c r="E23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(H23="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(H23="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -6241,27 +6470,27 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
         <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f>IF(H24="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
+        <f>IF(H24="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6273,27 +6502,27 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>285</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
         <v>122</v>
       </c>
-      <c r="I25" t="s">
-        <v>213</v>
+      <c r="I25" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f>IF(H25="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f>IF(H25="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6305,27 +6534,27 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>117</v>
+        <v>289</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>214</v>
+      <c r="I26" t="s">
+        <v>211</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f>IF(H26="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f>IF(H26="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6337,27 +6566,27 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
         <v>122</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f>IF(H27="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f>IF(H27="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6369,27 +6598,27 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>28</v>
+        <v>147</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>216</v>
+      <c r="I28" t="s">
+        <v>213</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f>IF(H28="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f>IF(H28="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6401,27 +6630,27 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
         <v>122</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f>IF(H29="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f>IF(H29="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6433,124 +6662,123 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
         <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f>IF(H30="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f>IF(H30="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f>IF(H31="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f>IF(H31="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <f>SUM(M32:M43)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" t="s">
-        <v>218</v>
+        <v>122</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
         <f>IF(H32="In person",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <f>IF(H32="Virtual",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>170</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" t="s">
-        <v>219</v>
+        <v>122</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
         <f>IF(H33="In person",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <f>IF(H33="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <f>IF(H34="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <f>IF(H34="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6561,27 +6789,31 @@
       <c r="B35" t="s">
         <v>6</v>
       </c>
+      <c r="C35">
+        <f>SUM(M35:M46)</f>
+        <v>12</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f>IF(H35="In person",1,0)</f>
+        <f t="shared" ref="N35:N46" si="2">IF(H35="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>IF(H35="Virtual",1,0)</f>
+        <f t="shared" ref="O35" si="3">IF(H35="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6592,27 +6824,27 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>32</v>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
       </c>
       <c r="H36" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>222</v>
+      <c r="I36" t="s">
+        <v>219</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f>IF(H36="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>IF(H36="Virtual",1,0)</f>
+        <f t="shared" ref="O36:O46" si="4">IF(H36="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6624,27 +6856,27 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>159</v>
+        <v>126</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" t="s">
-        <v>223</v>
+        <v>122</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <f>IF(H37="In person",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O37">
-        <f>IF(H37="Virtual",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -6655,27 +6887,27 @@
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>131</v>
+        <v>72</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <f>IF(H38="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O38">
-        <f>IF(H38="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -6686,27 +6918,27 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>277</v>
+        <v>33</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" t="s">
-        <v>276</v>
+        <v>140</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
-        <f>IF(H39="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O39">
-        <f>IF(H39="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -6717,27 +6949,27 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>280</v>
+        <v>158</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <f>IF(H40="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O40">
-        <f>IF(H40="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -6747,28 +6979,28 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>69</v>
+      <c r="E41" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f>IF(H41="In person",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O41">
-        <f>IF(H41="Virtual",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -6779,26 +7011,26 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="H42" t="s">
         <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f>IF(H42="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O42">
-        <f>IF(H42="Virtual",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6810,123 +7042,119 @@
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>279</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
         <v>140</v>
       </c>
-      <c r="I43" t="s">
-        <v>282</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <f>IF(H43="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f>IF(H43="Virtual",1,0)</f>
+      <c r="I44" t="s">
+        <v>225</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45">
-        <f>SUM(M45:M54)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>166</v>
+        <v>130</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:N51" si="4">IF(H45="In person",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O51" si="5">IF(H45="Virtual",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
         <v>140</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>228</v>
+      <c r="I46" t="s">
+        <v>282</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" t="s">
-        <v>229</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6937,28 +7165,32 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
+      <c r="C48">
+        <f>SUM(M48:M57)</f>
+        <v>10</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="N48:N54" si="5">IF(H48="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="O48:O54" si="6">IF(H48="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -6968,27 +7200,27 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" t="s">
-        <v>150</v>
+      <c r="E49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H49" t="s">
         <v>140</v>
       </c>
-      <c r="I49" t="s">
-        <v>231</v>
+      <c r="I49" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6999,27 +7231,27 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>56</v>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
       </c>
       <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>232</v>
+      <c r="I50" t="s">
+        <v>229</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7030,28 +7262,28 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" t="s">
-        <v>148</v>
+      <c r="E51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O51">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -7061,26 +7293,28 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>260</v>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
       </c>
       <c r="H52" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -7091,27 +7325,27 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H53" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" t="s">
-        <v>234</v>
+        <v>140</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f>IF(H53="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="O53">
-        <f>IF(H53="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -7121,124 +7355,119 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>266</v>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>148</v>
       </c>
       <c r="H54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" t="s">
+        <v>233</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H55" t="s">
         <v>122</v>
       </c>
-      <c r="I54" t="s">
-        <v>264</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <f>IF(H54="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <f>IF(H54="Virtual",1,0)</f>
+      <c r="I55" t="s">
+        <v>258</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <f>SUM(M56:M70)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>184</v>
+        <v>88</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>235</v>
+        <v>122</v>
+      </c>
+      <c r="I56" t="s">
+        <v>234</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:N70" si="6">IF(H56="In person",1,0)</f>
-        <v>0</v>
+        <f>IF(H56="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O56">
-        <f t="shared" ref="O56:O70" si="7">IF(H56="Virtual",1,0)</f>
-        <v>1</v>
+        <f>IF(H56="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I57" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(H57="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H58" t="s">
-        <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>257</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
+        <f>IF(H57="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -7248,27 +7477,31 @@
       <c r="B59" t="s">
         <v>16</v>
       </c>
+      <c r="C59">
+        <f>SUM(M59:M73)</f>
+        <v>15</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="H59" t="s">
         <v>140</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N59:N73" si="7">IF(H59="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O59:O73" si="8">IF(H59="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7280,26 +7513,26 @@
         <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>17</v>
+        <v>83</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H60" t="s">
         <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7311,26 +7544,25 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
       <c r="I61" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7342,26 +7574,26 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>48</v>
+        <v>185</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" t="s">
-        <v>240</v>
+      <c r="I62" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7373,26 +7605,26 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7404,26 +7636,26 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>24</v>
+        <v>85</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>242</v>
+      <c r="I64" t="s">
+        <v>239</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7435,26 +7667,26 @@
         <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
       <c r="I65" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7466,26 +7698,26 @@
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7497,26 +7729,26 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7528,26 +7760,26 @@
         <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>146</v>
+        <v>84</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7559,26 +7791,26 @@
         <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
         <v>140</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>247</v>
+      <c r="I69" t="s">
+        <v>244</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7590,124 +7822,120 @@
         <v>16</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="H70" t="s">
         <v>140</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" t="s">
+        <v>140</v>
+      </c>
+      <c r="I71" t="s">
+        <v>246</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72">
-        <f>SUM(M72:M76)</f>
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>174</v>
-      </c>
-      <c r="F72" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H72" t="s">
         <v>140</v>
       </c>
-      <c r="I72" t="s">
-        <v>249</v>
+      <c r="I72" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" ref="N72:N76" si="8">IF(H72="In person",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" ref="O72:O76" si="9">IF(H72="Virtual",1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>119</v>
+        <v>186</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="H73" t="s">
-        <v>122</v>
-      </c>
-      <c r="I73" t="s">
-        <v>250</v>
+        <v>140</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="8"/>
         <v>1</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" t="s">
-        <v>122</v>
-      </c>
-      <c r="I74" t="s">
-        <v>251</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -7717,27 +7945,31 @@
       <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>108</v>
+      <c r="C75">
+        <f>SUM(M75:M79)</f>
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" t="s">
+        <v>112</v>
       </c>
       <c r="H75" t="s">
         <v>140</v>
       </c>
       <c r="I75" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N75:N79" si="9">IF(H75="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O75:O79" si="10">IF(H75="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7749,38 +7981,128 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76" t="s">
+        <v>250</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>122</v>
+      </c>
+      <c r="I77" t="s">
+        <v>251</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" t="s">
+        <v>140</v>
+      </c>
+      <c r="I78" t="s">
+        <v>252</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H79" t="s">
         <v>140</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I79" t="s">
         <v>253</v>
       </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O76">
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E32:O43">
-    <sortCondition ref="E32:E43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E19:O33">
+    <sortCondition ref="E19:E33"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{7B3B921E-9FBB-4D88-BC1A-055CFDECF96E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCC0CA-025B-4A57-9907-129951A423DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E54DC5-DC3E-4BF0-9193-5AF1DC3C4946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="299">
   <si>
     <t>Name</t>
   </si>
@@ -917,6 +917,24 @@
   </si>
   <si>
     <t>Colin.Macfarlane@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Healey, Victoria</t>
+  </si>
+  <si>
+    <t>Victoria Healey</t>
+  </si>
+  <si>
+    <t>Victoria.Healey@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Lee, Lingbo</t>
+  </si>
+  <si>
+    <t>Lingbo.Li@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Lingbo Lee</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1996,11 +2014,11 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>'for-README'!F35</f>
-        <v>Ellen MacEachern</v>
+        <v>Lingbo Lee</v>
       </c>
       <c r="B34" t="str">
         <f>'for-README'!M35</f>
-        <v>MacEachern, Ellen</v>
+        <v>Lee, Lingbo</v>
       </c>
       <c r="C34" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
@@ -2008,17 +2026,17 @@
       </c>
       <c r="D34" t="str">
         <f>'for-README'!H35</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>'for-README'!F36</f>
-        <v>Liz Miller</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="B35" t="str">
         <f>'for-README'!M36</f>
-        <v>Miller, Liz</v>
+        <v>MacEachern, Ellen</v>
       </c>
       <c r="C35" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
@@ -2032,11 +2050,11 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>'for-README'!F37</f>
-        <v>George Nau</v>
+        <v>Liz Miller</v>
       </c>
       <c r="B36" t="str">
         <f>'for-README'!M37</f>
-        <v>Nau, George</v>
+        <v>Miller, Liz</v>
       </c>
       <c r="C36" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
@@ -2044,17 +2062,17 @@
       </c>
       <c r="D36" t="str">
         <f>'for-README'!H37</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>'for-README'!F38</f>
-        <v>Gregory Puncher</v>
+        <v>George Nau</v>
       </c>
       <c r="B37" t="str">
         <f>'for-README'!M38</f>
-        <v>Puncher, Gregory</v>
+        <v>Nau, George</v>
       </c>
       <c r="C37" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
@@ -2062,17 +2080,17 @@
       </c>
       <c r="D37" t="str">
         <f>'for-README'!H38</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>'for-README'!F39</f>
-        <v>Catriona Regnier-McKellar</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="B38" t="str">
         <f>'for-README'!M39</f>
-        <v>Regnier-McKellar, Catriona</v>
+        <v>Puncher, Gregory</v>
       </c>
       <c r="C38" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
@@ -2080,546 +2098,546 @@
       </c>
       <c r="D38" t="str">
         <f>'for-README'!H39</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
-        <f>'for-README'!F40</f>
+        <f>'for-README'!F41</f>
         <v>Aaron Adamack</v>
       </c>
       <c r="B39" t="str">
-        <f>'for-README'!M40</f>
+        <f>'for-README'!M41</f>
         <v>Adamack, Aaron</v>
       </c>
       <c r="C39" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D39" t="str">
-        <f>'for-README'!H40</f>
+        <f>'for-README'!H41</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
-        <f>'for-README'!F41</f>
+        <f>'for-README'!F42</f>
         <v>Kelly Antaya</v>
       </c>
       <c r="B40" t="str">
-        <f>'for-README'!M41</f>
+        <f>'for-README'!M42</f>
         <v>Antaya, Kelly</v>
       </c>
       <c r="C40" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D40" t="str">
-        <f>'for-README'!H41</f>
+        <f>'for-README'!H42</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
-        <f>'for-README'!F42</f>
+        <f>'for-README'!F43</f>
         <v>Dwight Drover</v>
       </c>
       <c r="B41" t="str">
-        <f>'for-README'!M42</f>
+        <f>'for-README'!M43</f>
         <v>Drover, Dwight</v>
       </c>
       <c r="C41" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D41" t="str">
-        <f>'for-README'!H42</f>
+        <f>'for-README'!H43</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f>'for-README'!F43</f>
+        <f>'for-README'!F44</f>
         <v>Gillian Forbes</v>
       </c>
       <c r="B42" t="str">
-        <f>'for-README'!M43</f>
+        <f>'for-README'!M44</f>
         <v>Forbes, Gillian</v>
       </c>
       <c r="C42" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D42" t="str">
-        <f>'for-README'!H43</f>
+        <f>'for-README'!H44</f>
         <v>In person</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
-        <f>'for-README'!F44</f>
-        <v>Marc Legresley</v>
+        <f>'for-README'!F45</f>
+        <v>Victoria Healey</v>
       </c>
       <c r="B43" t="str">
-        <f>'for-README'!M44</f>
-        <v>Legresley, Marc</v>
+        <f>'for-README'!M45</f>
+        <v>Healey, Victoria</v>
       </c>
       <c r="C43" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D43" t="str">
-        <f>'for-README'!H44</f>
+        <f>'for-README'!H45</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
-        <f>'for-README'!F45</f>
-        <v>Andrea Perreault</v>
+        <f>'for-README'!F46</f>
+        <v>Marc Legresley</v>
       </c>
       <c r="B44" t="str">
-        <f>'for-README'!M45</f>
-        <v>Perreault, Andrea</v>
+        <f>'for-README'!M46</f>
+        <v>Legresley, Marc</v>
       </c>
       <c r="C44" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D44" t="str">
-        <f>'for-README'!H45</f>
+        <f>'for-README'!H46</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
-        <f>'for-README'!F46</f>
-        <v>Hannah Polaczek</v>
+        <f>'for-README'!F47</f>
+        <v>Andrea Perreault</v>
       </c>
       <c r="B45" t="str">
-        <f>'for-README'!M46</f>
-        <v>Polaczek, Hannah</v>
+        <f>'for-README'!M47</f>
+        <v>Perreault, Andrea</v>
       </c>
       <c r="C45" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D45" t="str">
-        <f>'for-README'!H46</f>
+        <f>'for-README'!H47</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
-        <f>'for-README'!F47</f>
-        <v>Kierstyn Rideout</v>
+        <f>'for-README'!F48</f>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="B46" t="str">
-        <f>'for-README'!M47</f>
-        <v>Rideout, Kierstyn</v>
+        <f>'for-README'!M48</f>
+        <v>Polaczek, Hannah</v>
       </c>
       <c r="C46" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D46" t="str">
-        <f>'for-README'!H47</f>
-        <v>In person</v>
+        <f>'for-README'!H48</f>
+        <v>Virtual</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
-        <f>'for-README'!F48</f>
-        <v>Meredith Schofield</v>
+        <f>'for-README'!F49</f>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="B47" t="str">
-        <f>'for-README'!M48</f>
-        <v>Schofield, Meredith</v>
+        <f>'for-README'!M49</f>
+        <v>Rideout, Kierstyn</v>
       </c>
       <c r="C47" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D47" t="str">
-        <f>'for-README'!H48</f>
+        <f>'for-README'!H49</f>
         <v>In person</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
-        <f>'for-README'!F49</f>
-        <v>Jaime Thomson</v>
+        <f>'for-README'!F50</f>
+        <v>Meredith Schofield</v>
       </c>
       <c r="B48" t="str">
-        <f>'for-README'!M49</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <f>'for-README'!M50</f>
+        <v>Schofield, Meredith</v>
       </c>
       <c r="C48" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D48" t="str">
-        <f>'for-README'!H49</f>
+        <f>'for-README'!H50</f>
         <v>In person</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
-        <f>'for-README'!F50</f>
+        <f>'for-README'!F52</f>
         <v>Barbara Campbell</v>
       </c>
       <c r="B49" t="str">
-        <f>'for-README'!M50</f>
+        <f>'for-README'!M52</f>
         <v>Campbell, Barbara</v>
       </c>
       <c r="C49" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D49" t="str">
-        <f>'for-README'!H50</f>
+        <f>'for-README'!H52</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
-        <f>'for-README'!F51</f>
+        <f>'for-README'!F53</f>
         <v>Karalea Cantera</v>
       </c>
       <c r="B50" t="str">
-        <f>'for-README'!M51</f>
+        <f>'for-README'!M53</f>
         <v>Cantera, Karalea</v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D50" t="str">
-        <f>'for-README'!H51</f>
+        <f>'for-README'!H53</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
-        <f>'for-README'!F52</f>
+        <f>'for-README'!F54</f>
         <v>Chelsea Cooke</v>
       </c>
       <c r="B51" t="str">
-        <f>'for-README'!M52</f>
+        <f>'for-README'!M54</f>
         <v>Cooke, Chelsea</v>
       </c>
       <c r="C51" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D51" t="str">
-        <f>'for-README'!H52</f>
+        <f>'for-README'!H54</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
-        <f>'for-README'!F53</f>
+        <f>'for-README'!F55</f>
         <v>Robyn Forrest</v>
       </c>
       <c r="B52" t="str">
-        <f>'for-README'!M53</f>
+        <f>'for-README'!M55</f>
         <v xml:space="preserve">Forrest, Robyn </v>
       </c>
       <c r="C52" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D52" t="str">
-        <f>'for-README'!H53</f>
+        <f>'for-README'!H55</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
-        <f>'for-README'!F54</f>
+        <f>'for-README'!F56</f>
         <v>Sarah Hawkshaw</v>
       </c>
       <c r="B53" t="str">
-        <f>'for-README'!M54</f>
+        <f>'for-README'!M56</f>
         <v>Hawkshaw, Sarah</v>
       </c>
       <c r="C53" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D53" t="str">
-        <f>'for-README'!H54</f>
+        <f>'for-README'!H56</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
-        <f>'for-README'!F55</f>
+        <f>'for-README'!F57</f>
         <v>Erin Herder</v>
       </c>
       <c r="B54" t="str">
-        <f>'for-README'!M55</f>
+        <f>'for-README'!M57</f>
         <v>Herder, Erin</v>
       </c>
       <c r="C54" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D54" t="str">
-        <f>'for-README'!H55</f>
+        <f>'for-README'!H57</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
-        <f>'for-README'!F56</f>
+        <f>'for-README'!F58</f>
         <v>Kendra Holt</v>
       </c>
       <c r="B55" t="str">
-        <f>'for-README'!M56</f>
+        <f>'for-README'!M58</f>
         <v>Holt, Kendra</v>
       </c>
       <c r="C55" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D55" t="str">
-        <f>'for-README'!H56</f>
+        <f>'for-README'!H58</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
-        <f>'for-README'!F57</f>
+        <f>'for-README'!F59</f>
         <v>Yeongha Jung</v>
       </c>
       <c r="B56" t="str">
-        <f>'for-README'!M57</f>
+        <f>'for-README'!M59</f>
         <v>Jung, Yeongha</v>
       </c>
       <c r="C56" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D56" t="str">
-        <f>'for-README'!H57</f>
+        <f>'for-README'!H59</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
-        <f>'for-README'!F58</f>
+        <f>'for-README'!F60</f>
         <v>Madeline Lavery</v>
       </c>
       <c r="B57" t="str">
-        <f>'for-README'!M58</f>
+        <f>'for-README'!M60</f>
         <v>Lavery, Madeline</v>
       </c>
       <c r="C57" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D57" t="str">
-        <f>'for-README'!H58</f>
+        <f>'for-README'!H60</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
-        <f>'for-README'!F59</f>
+        <f>'for-README'!F61</f>
         <v>Kiana Matwichuk</v>
       </c>
       <c r="B58" t="str">
-        <f>'for-README'!M59</f>
+        <f>'for-README'!M61</f>
         <v>Matwichuk, Kiana</v>
       </c>
       <c r="C58" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D58" t="str">
-        <f>'for-README'!H59</f>
+        <f>'for-README'!H61</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
-        <f>'for-README'!F60</f>
+        <f>'for-README'!F62</f>
         <v>Mackenzie Mazur</v>
       </c>
       <c r="B59" t="str">
-        <f>'for-README'!M60</f>
+        <f>'for-README'!M62</f>
         <v>Mazur, Mackenzie</v>
       </c>
       <c r="C59" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D59" t="str">
-        <f>'for-README'!H60</f>
+        <f>'for-README'!H62</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
-        <f>'for-README'!F61</f>
+        <f>'for-README'!F63</f>
         <v>Judy McArthur</v>
       </c>
       <c r="B60" t="str">
-        <f>'for-README'!M61</f>
+        <f>'for-README'!M63</f>
         <v xml:space="preserve">McArthur, Judy </v>
       </c>
       <c r="C60" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D60" t="str">
-        <f>'for-README'!H61</f>
+        <f>'for-README'!H63</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
-        <f>'for-README'!F62</f>
+        <f>'for-README'!F64</f>
         <v>Audrey Ty</v>
       </c>
       <c r="B61" t="str">
-        <f>'for-README'!M62</f>
+        <f>'for-README'!M64</f>
         <v>Ty, Audrey</v>
       </c>
       <c r="C61" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D61" t="str">
-        <f>'for-README'!H62</f>
+        <f>'for-README'!H64</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
-        <f>'for-README'!F63</f>
+        <f>'for-README'!F65</f>
         <v>Stephen Wischniowski</v>
       </c>
       <c r="B62" t="str">
-        <f>'for-README'!M63</f>
+        <f>'for-README'!M65</f>
         <v>Wischniowski, Stephen</v>
       </c>
       <c r="C62" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D62" t="str">
-        <f>'for-README'!H63</f>
+        <f>'for-README'!H65</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
-        <f>'for-README'!F64</f>
+        <f>'for-README'!F66</f>
         <v>Emily Yungwirth</v>
       </c>
       <c r="B63" t="str">
-        <f>'for-README'!M64</f>
+        <f>'for-README'!M66</f>
         <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D63" t="str">
-        <f>'for-README'!H64</f>
+        <f>'for-README'!H66</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
-        <f>'for-README'!F65</f>
+        <f>'for-README'!F67</f>
         <v>Mathieu Desgagnés</v>
       </c>
       <c r="B64" t="str">
-        <f>'for-README'!M65</f>
+        <f>'for-README'!M67</f>
         <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
       <c r="C64" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L67, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D64" t="str">
-        <f>'for-README'!H65</f>
+        <f>'for-README'!H67</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
-        <f>'for-README'!F66</f>
+        <f>'for-README'!F68</f>
         <v>Hélène Dionne</v>
       </c>
       <c r="B65" t="str">
-        <f>'for-README'!M66</f>
+        <f>'for-README'!M68</f>
         <v>Dionne, Hélène</v>
       </c>
       <c r="C65" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L68, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D65" t="str">
-        <f>'for-README'!H66</f>
+        <f>'for-README'!H68</f>
         <v>In person</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
-        <f>'for-README'!F67</f>
+        <f>'for-README'!F69</f>
         <v>Kim Emond</v>
       </c>
       <c r="B66" t="str">
-        <f>'for-README'!M67</f>
+        <f>'for-README'!M69</f>
         <v>Emond, Kim</v>
       </c>
       <c r="C66" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L67, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L69, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D66" t="str">
-        <f>'for-README'!H67</f>
+        <f>'for-README'!H69</f>
         <v>In person</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
-        <f>'for-README'!F68</f>
+        <f>'for-README'!F70</f>
         <v>Nicolas Le Corre</v>
       </c>
       <c r="B67" t="str">
-        <f>'for-README'!M68</f>
+        <f>'for-README'!M70</f>
         <v>LeCorre, Nicolas</v>
       </c>
       <c r="C67" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L68, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L70, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D67" t="str">
-        <f>'for-README'!H68</f>
+        <f>'for-README'!H70</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
-        <f>'for-README'!F69</f>
+        <f>'for-README'!F71</f>
         <v>Andrew Smith</v>
       </c>
       <c r="B68" t="str">
-        <f>'for-README'!M69</f>
+        <f>'for-README'!M71</f>
         <v>Smith, Andrew</v>
       </c>
       <c r="C68" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L69, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L71, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D68" t="str">
-        <f>'for-README'!H69</f>
+        <f>'for-README'!H71</f>
         <v>Virtual</v>
       </c>
     </row>
@@ -2671,11 +2689,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:I69"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2685,18 +2701,18 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 66 participants as of 2023-01-23 (27 in person and 39 virtual)</v>
+        <v>List of the 68 participants as of 2023-01-29 (27 in person and 41 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J69)</f>
-        <v>39</v>
+        <f>SUM(J4:J71)</f>
+        <v>41</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
@@ -2732,7 +2748,7 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K69)</f>
+        <f>SUM(K4:K71)</f>
         <v>27</v>
       </c>
     </row>
@@ -2845,11 +2861,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J65" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J67" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K65" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K67" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -4272,25 +4288,25 @@
       </c>
       <c r="F35" t="str">
         <f>'outlook-responses'!I42</f>
-        <v>Ellen MacEachern</v>
+        <v>Lingbo Lee</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
       </c>
       <c r="H35" t="str">
         <f>'outlook-responses'!H42</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I35" t="s">
         <v>191</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="str">
         <f>'outlook-responses'!B42</f>
@@ -4298,7 +4314,7 @@
       </c>
       <c r="M35" t="str">
         <f>'outlook-responses'!E42</f>
-        <v>MacEachern, Ellen</v>
+        <v>Lee, Lingbo</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -4320,7 +4336,7 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I43</f>
-        <v>Liz Miller</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
@@ -4346,7 +4362,7 @@
       </c>
       <c r="M36" t="str">
         <f>'outlook-responses'!E43</f>
-        <v>Miller, Liz</v>
+        <v>MacEachern, Ellen</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -4368,25 +4384,25 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I44</f>
-        <v>George Nau</v>
+        <v>Liz Miller</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
       </c>
       <c r="H37" t="str">
         <f>'outlook-responses'!H44</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I37" t="s">
         <v>191</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="str">
         <f>'outlook-responses'!B44</f>
@@ -4394,7 +4410,7 @@
       </c>
       <c r="M37" t="str">
         <f>'outlook-responses'!E44</f>
-        <v>Nau, George</v>
+        <v>Miller, Liz</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -4416,25 +4432,25 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>Gregory Puncher</v>
+        <v>George Nau</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
       </c>
       <c r="H38" t="str">
         <f>'outlook-responses'!H45</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I38" t="s">
         <v>191</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="str">
         <f>'outlook-responses'!B45</f>
@@ -4442,7 +4458,7 @@
       </c>
       <c r="M38" t="str">
         <f>'outlook-responses'!E45</f>
-        <v>Puncher, Gregory</v>
+        <v>Nau, George</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -4464,25 +4480,25 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Catriona Regnier-McKellar</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
       </c>
       <c r="H39" t="str">
         <f>'outlook-responses'!H46</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I39" t="s">
         <v>191</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="str">
         <f>'outlook-responses'!B46</f>
@@ -4490,7 +4506,7 @@
       </c>
       <c r="M39" t="str">
         <f>'outlook-responses'!E46</f>
-        <v>Regnier-McKellar, Catriona</v>
+        <v>Puncher, Gregory</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -4504,21 +4520,21 @@
         <v>191</v>
       </c>
       <c r="D40" t="str">
-        <f>'outlook-responses'!A48</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A47</f>
+        <v>MAR</v>
       </c>
       <c r="E40" t="s">
         <v>191</v>
       </c>
       <c r="F40" t="str">
-        <f>'outlook-responses'!I48</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I47</f>
+        <v>Catriona Regnier-McKellar</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
-        <f>'outlook-responses'!H48</f>
+        <f>'outlook-responses'!H47</f>
         <v>Virtual</v>
       </c>
       <c r="I40" t="s">
@@ -4533,12 +4549,8 @@
         <v>0</v>
       </c>
       <c r="L40" t="str">
-        <f>'outlook-responses'!B48</f>
-        <v>Newfoundland and Labrador</v>
-      </c>
-      <c r="M40" t="str">
-        <f>'outlook-responses'!E48</f>
-        <v>Adamack, Aaron</v>
+        <f>'outlook-responses'!B47</f>
+        <v>Maritimes</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -4560,7 +4572,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="M41" t="str">
         <f>'outlook-responses'!E49</f>
-        <v>Antaya, Kelly</v>
+        <v>Adamack, Aaron</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -4608,7 +4620,7 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I50</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
@@ -4634,7 +4646,7 @@
       </c>
       <c r="M42" t="str">
         <f>'outlook-responses'!E50</f>
-        <v>Drover, Dwight</v>
+        <v>Antaya, Kelly</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -4656,25 +4668,25 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
       </c>
       <c r="H43" t="str">
         <f>'outlook-responses'!H51</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I43" t="s">
         <v>191</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="str">
         <f>'outlook-responses'!B51</f>
@@ -4682,7 +4694,7 @@
       </c>
       <c r="M43" t="str">
         <f>'outlook-responses'!E51</f>
-        <v>Forbes, Gillian</v>
+        <v>Drover, Dwight</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -4704,25 +4716,25 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Marc Legresley</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
       </c>
       <c r="H44" t="str">
         <f>'outlook-responses'!H52</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I44" t="s">
         <v>191</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="str">
         <f>'outlook-responses'!B52</f>
@@ -4730,7 +4742,7 @@
       </c>
       <c r="M44" t="str">
         <f>'outlook-responses'!E52</f>
-        <v>Legresley, Marc</v>
+        <v>Forbes, Gillian</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -4752,7 +4764,7 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Andrea Perreault</v>
+        <v>Victoria Healey</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
@@ -4778,7 +4790,7 @@
       </c>
       <c r="M45" t="str">
         <f>'outlook-responses'!E53</f>
-        <v>Perreault, Andrea</v>
+        <v>Healey, Victoria</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -4800,7 +4812,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Hannah Polaczek</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -4826,7 +4838,7 @@
       </c>
       <c r="M46" t="str">
         <f>'outlook-responses'!E54</f>
-        <v>Polaczek, Hannah</v>
+        <v>Legresley, Marc</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -4848,25 +4860,25 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Kierstyn Rideout</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
       </c>
       <c r="H47" t="str">
         <f>'outlook-responses'!H55</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I47" t="s">
         <v>191</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="str">
         <f>'outlook-responses'!B55</f>
@@ -4874,7 +4886,7 @@
       </c>
       <c r="M47" t="str">
         <f>'outlook-responses'!E55</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Perreault, Andrea</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -4896,25 +4908,25 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Meredith Schofield</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
       </c>
       <c r="H48" t="str">
         <f>'outlook-responses'!H56</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I48" t="s">
         <v>191</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="str">
         <f>'outlook-responses'!B56</f>
@@ -4922,7 +4934,7 @@
       </c>
       <c r="M48" t="str">
         <f>'outlook-responses'!E56</f>
-        <v>Schofield, Meredith</v>
+        <v>Polaczek, Hannah</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -4944,7 +4956,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Jaime Thomson</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -4970,7 +4982,7 @@
       </c>
       <c r="M49" t="str">
         <f>'outlook-responses'!E57</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Rideout, Kierstyn</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -4984,41 +4996,41 @@
         <v>191</v>
       </c>
       <c r="D50" t="str">
-        <f>'outlook-responses'!A59</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A58</f>
+        <v>NL</v>
       </c>
       <c r="E50" t="s">
         <v>191</v>
       </c>
       <c r="F50" t="str">
-        <f>'outlook-responses'!I59</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I58</f>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
       </c>
       <c r="H50" t="str">
-        <f>'outlook-responses'!H59</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H58</f>
+        <v>In person</v>
       </c>
       <c r="I50" t="s">
         <v>191</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="str">
-        <f>'outlook-responses'!B59</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B58</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M50" t="str">
-        <f>'outlook-responses'!E59</f>
-        <v>Campbell, Barbara</v>
+        <f>'outlook-responses'!E58</f>
+        <v>Schofield, Meredith</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -5032,41 +5044,41 @@
         <v>191</v>
       </c>
       <c r="D51" t="str">
-        <f>'outlook-responses'!A60</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A59</f>
+        <v>NL</v>
       </c>
       <c r="E51" t="s">
         <v>191</v>
       </c>
       <c r="F51" t="str">
-        <f>'outlook-responses'!I60</f>
-        <v>Karalea Cantera</v>
+        <f>'outlook-responses'!I59</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
       </c>
       <c r="H51" t="str">
-        <f>'outlook-responses'!H60</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H59</f>
+        <v>In person</v>
       </c>
       <c r="I51" t="s">
         <v>191</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="str">
-        <f>'outlook-responses'!B60</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B59</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M51" t="str">
-        <f>'outlook-responses'!E60</f>
-        <v>Cantera, Karalea</v>
+        <f>'outlook-responses'!E59</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -5088,7 +5100,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Chelsea Cooke</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -5114,7 +5126,7 @@
       </c>
       <c r="M52" t="str">
         <f>'outlook-responses'!E61</f>
-        <v>Cooke, Chelsea</v>
+        <v>Campbell, Barbara</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -5136,7 +5148,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Robyn Forrest</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -5162,7 +5174,7 @@
       </c>
       <c r="M53" t="str">
         <f>'outlook-responses'!E62</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Cantera, Karalea</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -5184,7 +5196,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -5210,7 +5222,7 @@
       </c>
       <c r="M54" t="str">
         <f>'outlook-responses'!E63</f>
-        <v>Hawkshaw, Sarah</v>
+        <v>Cooke, Chelsea</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -5232,7 +5244,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Erin Herder</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -5258,7 +5270,7 @@
       </c>
       <c r="M55" t="str">
         <f>'outlook-responses'!E64</f>
-        <v>Herder, Erin</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -5280,7 +5292,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Kendra Holt</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -5306,7 +5318,7 @@
       </c>
       <c r="M56" t="str">
         <f>'outlook-responses'!E65</f>
-        <v>Holt, Kendra</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -5328,7 +5340,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Yeongha Jung</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5354,7 +5366,7 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v>Jung, Yeongha</v>
+        <v>Herder, Erin</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -5376,7 +5388,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Madeline Lavery</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -5402,7 +5414,7 @@
       </c>
       <c r="M58" t="str">
         <f>'outlook-responses'!E67</f>
-        <v>Lavery, Madeline</v>
+        <v>Holt, Kendra</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -5424,7 +5436,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Kiana Matwichuk</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -5450,7 +5462,7 @@
       </c>
       <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Jung, Yeongha</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -5472,7 +5484,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Mackenzie Mazur</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -5498,7 +5510,7 @@
       </c>
       <c r="M60" t="str">
         <f>'outlook-responses'!E69</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Lavery, Madeline</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -5520,7 +5532,7 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Judy McArthur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -5546,7 +5558,7 @@
       </c>
       <c r="M61" t="str">
         <f>'outlook-responses'!E70</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Matwichuk, Kiana</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -5568,7 +5580,7 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Audrey Ty</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
@@ -5594,7 +5606,7 @@
       </c>
       <c r="M62" t="str">
         <f>'outlook-responses'!E71</f>
-        <v>Ty, Audrey</v>
+        <v>Mazur, Mackenzie</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -5616,7 +5628,7 @@
       </c>
       <c r="F63" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Stephen Wischniowski</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
@@ -5642,7 +5654,7 @@
       </c>
       <c r="M63" t="str">
         <f>'outlook-responses'!E72</f>
-        <v>Wischniowski, Stephen</v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -5664,7 +5676,7 @@
       </c>
       <c r="F64" t="str">
         <f>'outlook-responses'!I73</f>
-        <v>Emily Yungwirth</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
@@ -5690,7 +5702,7 @@
       </c>
       <c r="M64" t="str">
         <f>'outlook-responses'!E73</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Ty, Audrey</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -5704,89 +5716,89 @@
         <v>191</v>
       </c>
       <c r="D65" t="str">
+        <f>'outlook-responses'!A74</f>
+        <v>PAC</v>
+      </c>
+      <c r="E65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" t="str">
+        <f>'outlook-responses'!I74</f>
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="G65" t="s">
+        <v>191</v>
+      </c>
+      <c r="H65" t="str">
+        <f>'outlook-responses'!H74</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I65" t="s">
+        <v>191</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L65" t="str">
+        <f>'outlook-responses'!B74</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M65" t="str">
+        <f>'outlook-responses'!E74</f>
+        <v>Wischniowski, Stephen</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="str">
         <f>'outlook-responses'!A75</f>
-        <v>QUE</v>
-      </c>
-      <c r="E65" t="s">
-        <v>191</v>
-      </c>
-      <c r="F65" t="str">
+        <v>PAC</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" t="str">
         <f>'outlook-responses'!I75</f>
-        <v>Mathieu Desgagnés</v>
-      </c>
-      <c r="G65" t="s">
-        <v>191</v>
-      </c>
-      <c r="H65" t="str">
+        <v>Emily Yungwirth</v>
+      </c>
+      <c r="G66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H66" t="str">
         <f>'outlook-responses'!H75</f>
         <v>Virtual</v>
       </c>
-      <c r="I65" t="s">
-        <v>191</v>
-      </c>
-      <c r="J65">
+      <c r="I66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L65" t="str">
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="str">
         <f>'outlook-responses'!B75</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M65" t="str">
+        <v>Pacific</v>
+      </c>
+      <c r="M66" t="str">
         <f>'outlook-responses'!E75</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" t="str">
-        <f>'outlook-responses'!A76</f>
-        <v>QUE</v>
-      </c>
-      <c r="E66" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66" t="str">
-        <f>'outlook-responses'!I76</f>
-        <v>Hélène Dionne</v>
-      </c>
-      <c r="G66" t="s">
-        <v>191</v>
-      </c>
-      <c r="H66" t="str">
-        <f>'outlook-responses'!H76</f>
-        <v>In person</v>
-      </c>
-      <c r="I66" t="s">
-        <v>191</v>
-      </c>
-      <c r="J66">
-        <f t="shared" ref="J66:J69" si="3">IF(H66="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <f t="shared" ref="K66:K69" si="4">IF(H66="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L66" t="str">
-        <f>'outlook-responses'!B76</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M66" t="str">
-        <f>'outlook-responses'!E76</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -5808,25 +5820,25 @@
       </c>
       <c r="F67" t="str">
         <f>'outlook-responses'!I77</f>
-        <v>Kim Emond</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G67" t="s">
         <v>191</v>
       </c>
       <c r="H67" t="str">
         <f>'outlook-responses'!H77</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I67" t="s">
         <v>191</v>
       </c>
       <c r="J67">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L67" t="str">
         <f>'outlook-responses'!B77</f>
@@ -5834,7 +5846,7 @@
       </c>
       <c r="M67" t="str">
         <f>'outlook-responses'!E77</f>
-        <v>Emond, Kim</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -5856,25 +5868,25 @@
       </c>
       <c r="F68" t="str">
         <f>'outlook-responses'!I78</f>
-        <v>Nicolas Le Corre</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G68" t="s">
         <v>191</v>
       </c>
       <c r="H68" t="str">
         <f>'outlook-responses'!H78</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I68" t="s">
         <v>191</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="J68:J71" si="3">IF(H68="Virtual",1,0)</f>
+        <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="K68:K71" si="4">IF(H68="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="L68" t="str">
         <f>'outlook-responses'!B78</f>
@@ -5882,7 +5894,7 @@
       </c>
       <c r="M68" t="str">
         <f>'outlook-responses'!E78</f>
-        <v>LeCorre, Nicolas</v>
+        <v>Dionne, Hélène</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -5904,25 +5916,25 @@
       </c>
       <c r="F69" t="str">
         <f>'outlook-responses'!I79</f>
-        <v>Andrew Smith</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G69" t="s">
         <v>191</v>
       </c>
       <c r="H69" t="str">
         <f>'outlook-responses'!H79</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I69" t="s">
         <v>191</v>
       </c>
       <c r="J69">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="str">
         <f>'outlook-responses'!B79</f>
@@ -5930,7 +5942,7 @@
       </c>
       <c r="M69" t="str">
         <f>'outlook-responses'!E79</f>
-        <v>Smith, Andrew</v>
+        <v>Emond, Kim</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -5941,6 +5953,102 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="str">
+        <f>'outlook-responses'!A80</f>
+        <v>QUE</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" t="str">
+        <f>'outlook-responses'!I80</f>
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="G70" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" t="str">
+        <f>'outlook-responses'!H80</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I70" t="s">
+        <v>191</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" t="str">
+        <f>'outlook-responses'!B80</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M70" t="str">
+        <f>'outlook-responses'!E80</f>
+        <v>LeCorre, Nicolas</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="str">
+        <f>'outlook-responses'!A81</f>
+        <v>QUE</v>
+      </c>
+      <c r="E71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" t="str">
+        <f>'outlook-responses'!I81</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G71" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" t="str">
+        <f>'outlook-responses'!H81</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I71" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71" t="str">
+        <f>'outlook-responses'!B81</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M71" t="str">
+        <f>'outlook-responses'!E81</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5951,9 +6059,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5967,8 +6077,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M79)</f>
-        <v>66</v>
+        <f>SUM(M8:M81)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -5976,8 +6086,8 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O79)</f>
-        <v>39</v>
+        <f>SUM(O8:O81)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -5985,7 +6095,7 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N79)</f>
+        <f>SUM(N8:N81)</f>
         <v>27</v>
       </c>
     </row>
@@ -6011,8 +6121,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C59+C35+C48+C75+C9</f>
-        <v>66</v>
+        <f>C19+C61+C35+C49+C77+C9</f>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -6326,11 +6436,11 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(H19="In person",1,0)</f>
+        <f t="shared" ref="N19:N33" si="2">IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>IF(H19="Virtual",1,0)</f>
+        <f t="shared" ref="O19:O33" si="3">IF(H19="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6358,11 +6468,11 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(H20="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IF(H20="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6390,11 +6500,11 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(H21="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IF(H21="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6422,11 +6532,11 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(H22="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IF(H22="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6454,11 +6564,11 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(H23="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>IF(H23="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6486,11 +6596,11 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(H24="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>IF(H24="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6518,11 +6628,11 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF(H25="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>IF(H25="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6550,11 +6660,11 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF(H26="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>IF(H26="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6582,11 +6692,11 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>IF(H27="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>IF(H27="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6614,11 +6724,11 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f>IF(H28="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>IF(H28="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6646,11 +6756,11 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f>IF(H29="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f>IF(H29="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6678,11 +6788,11 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f>IF(H30="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O30">
-        <f>IF(H30="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6710,11 +6820,11 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f>IF(H31="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O31">
-        <f>IF(H31="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6742,11 +6852,11 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f>IF(H32="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O32">
-        <f>IF(H32="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6774,11 +6884,11 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f>IF(H33="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O33">
-        <f>IF(H33="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6790,8 +6900,8 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <f>SUM(M35:M46)</f>
-        <v>12</v>
+        <f>SUM(M35:M47)</f>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>70</v>
@@ -6809,11 +6919,11 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N46" si="2">IF(H35="In person",1,0)</f>
+        <f>IF(H35="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35" si="3">IF(H35="Virtual",1,0)</f>
+        <f>IF(H35="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6840,11 +6950,11 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f>IF(H36="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O46" si="4">IF(H36="Virtual",1,0)</f>
+        <f>IF(H36="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6871,11 +6981,11 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f>IF(H37="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
+        <f>IF(H37="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6902,11 +7012,11 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f>IF(H38="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="4"/>
+        <f>IF(H38="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6933,11 +7043,11 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f>IF(H39="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="4"/>
+        <f>IF(H39="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6964,11 +7074,11 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f>IF(H40="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="4"/>
+        <f>IF(H40="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6995,11 +7105,11 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f>IF(H41="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O41">
-        <f t="shared" si="4"/>
+        <f>IF(H41="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7011,27 +7121,27 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(H42="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(H42="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -7042,26 +7152,26 @@
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H43" t="s">
         <v>122</v>
       </c>
       <c r="I43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f>IF(H43="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O43">
-        <f t="shared" si="4"/>
+        <f>IF(H43="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7072,28 +7182,28 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>69</v>
+      <c r="E44" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I44" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(H44="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(H44="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -7103,28 +7213,28 @@
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>130</v>
+      <c r="E45" t="s">
+        <v>69</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(H45="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(H45="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -7135,61 +7245,57 @@
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" t="s">
+        <v>226</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f>IF(H46="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f>IF(H46="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>140</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>282</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>195</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48">
-        <f>SUM(M48:M57)</f>
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H48" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" t="s">
-        <v>227</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <f t="shared" ref="N48:N54" si="5">IF(H48="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" ref="O48:O54" si="6">IF(H48="Virtual",1,0)</f>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f>IF(H47="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f>IF(H47="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7200,27 +7306,31 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
+      <c r="C49">
+        <f>SUM(M49:M59)</f>
+        <v>11</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>166</v>
       </c>
       <c r="H49" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>228</v>
+      <c r="I49" t="s">
+        <v>227</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="5"/>
+        <f>IF(H49="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="6"/>
+        <f>IF(H49="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7231,27 +7341,27 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" t="s">
-        <v>144</v>
+      <c r="E50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="I50" t="s">
-        <v>229</v>
+      <c r="I50" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="5"/>
+        <f>IF(H50="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="6"/>
+        <f>IF(H50="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7262,28 +7372,28 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>137</v>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
+        <v>144</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(H51="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(H51="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -7293,28 +7403,28 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" t="s">
-        <v>150</v>
+      <c r="E52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(H52="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(H52="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -7325,26 +7435,26 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>56</v>
+        <v>293</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="H53" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>232</v>
+      <c r="I53" t="s">
+        <v>294</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
+        <f>IF(H53="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="6"/>
+        <f>IF(H53="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7356,26 +7466,26 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
       </c>
       <c r="I54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
+        <f>IF(H54="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="6"/>
+        <f>IF(H54="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7387,25 +7497,27 @@
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>260</v>
+        <v>89</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H55" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55" t="s">
-        <v>258</v>
+        <v>140</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <f>IF(H55="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <f>IF(H55="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -7415,28 +7527,28 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>54</v>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
       </c>
       <c r="H56" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
         <f>IF(H56="In person",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <f>IF(H56="Virtual",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -7447,93 +7559,87 @@
         <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H57" t="s">
         <v>122</v>
       </c>
       <c r="I57" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f>IF(H57="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O57">
-        <f>IF(H57="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" t="s">
+        <v>234</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f>IF(H58="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <f>IF(H58="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59">
-        <f>SUM(M59:M73)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>184</v>
+        <v>265</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="H59" t="s">
-        <v>140</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>235</v>
+        <v>122</v>
+      </c>
+      <c r="I59" t="s">
+        <v>264</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <f t="shared" ref="N59:N73" si="7">IF(H59="In person",1,0)</f>
-        <v>0</v>
+        <f>IF(H59="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O59">
-        <f t="shared" ref="O59:O73" si="8">IF(H59="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" t="s">
-        <v>236</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(H59="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -7543,26 +7649,31 @@
       <c r="B61" t="s">
         <v>16</v>
       </c>
+      <c r="C61">
+        <f>SUM(M61:M75)</f>
+        <v>15</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>256</v>
+        <v>93</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H61" t="s">
         <v>140</v>
       </c>
-      <c r="I61" t="s">
-        <v>257</v>
+      <c r="I61" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N61:N75" si="4">IF(H61="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O61">
+        <f t="shared" ref="O61:O75" si="5">IF(H61="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7574,26 +7685,26 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>237</v>
+      <c r="I62" t="s">
+        <v>236</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7605,26 +7716,25 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>17</v>
+        <v>255</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7636,26 +7746,26 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>53</v>
+        <v>185</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
-      <c r="I64" t="s">
-        <v>239</v>
+      <c r="I64" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7667,26 +7777,26 @@
         <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
       <c r="I65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7698,26 +7808,26 @@
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7729,26 +7839,26 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>24</v>
+        <v>80</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>242</v>
+      <c r="I67" t="s">
+        <v>240</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7760,26 +7870,26 @@
         <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7791,26 +7901,26 @@
         <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
         <v>140</v>
       </c>
-      <c r="I69" t="s">
-        <v>244</v>
+      <c r="I69" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7822,26 +7932,26 @@
         <v>16</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>190</v>
+        <v>84</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H70" t="s">
         <v>140</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>245</v>
+      <c r="I70" t="s">
+        <v>243</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7853,26 +7963,26 @@
         <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H71" t="s">
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7884,26 +7994,26 @@
         <v>16</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="H72" t="s">
         <v>140</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7915,93 +8025,89 @@
         <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H73" t="s">
         <v>140</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>248</v>
+      <c r="I73" t="s">
+        <v>246</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H74" t="s">
+        <v>140</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75">
-        <f>SUM(M75:M79)</f>
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>174</v>
-      </c>
-      <c r="F75" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="H75" t="s">
         <v>140</v>
       </c>
-      <c r="I75" t="s">
-        <v>249</v>
+      <c r="I75" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" ref="N75:N79" si="9">IF(H75="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" ref="O75:O79" si="10">IF(H75="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H76" t="s">
-        <v>122</v>
-      </c>
-      <c r="I76" t="s">
-        <v>250</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -8011,28 +8117,32 @@
       <c r="B77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>36</v>
+      <c r="C77">
+        <f>SUM(M77:M81)</f>
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" t="s">
+        <v>112</v>
       </c>
       <c r="H77" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ref="N77:N81" si="6">IF(H77="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="O77:O81" si="7">IF(H77="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -8043,27 +8153,27 @@
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O78">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -8074,32 +8184,94 @@
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s">
+        <v>122</v>
+      </c>
+      <c r="I79" t="s">
+        <v>251</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H80" t="s">
+        <v>140</v>
+      </c>
+      <c r="I80" t="s">
+        <v>252</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H81" t="s">
         <v>140</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I81" t="s">
         <v>253</v>
       </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="10"/>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E19:O33">
-    <sortCondition ref="E19:E33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E49:O59">
+    <sortCondition ref="E49:E59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E54DC5-DC3E-4BF0-9193-5AF1DC3C4946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D27159-84FC-4940-B3AA-6358BD77D556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2691,7 +2691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6919,11 +6921,11 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f>IF(H35="In person",1,0)</f>
+        <f t="shared" ref="N35:N47" si="4">IF(H35="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>IF(H35="Virtual",1,0)</f>
+        <f t="shared" ref="O35:O47" si="5">IF(H35="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6950,11 +6952,11 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f>IF(H36="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>IF(H36="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6981,11 +6983,11 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f>IF(H37="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O37">
-        <f>IF(H37="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7012,11 +7014,11 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f>IF(H38="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>IF(H38="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7043,11 +7045,11 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f>IF(H39="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>IF(H39="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7074,11 +7076,11 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f>IF(H40="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f>IF(H40="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7105,11 +7107,11 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <f>IF(H41="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O41">
-        <f>IF(H41="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7136,11 +7138,11 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f>IF(H42="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>IF(H42="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7167,11 +7169,11 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f>IF(H43="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O43">
-        <f>IF(H43="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7198,11 +7200,11 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f>IF(H44="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O44">
-        <f>IF(H44="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7229,11 +7231,11 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f>IF(H45="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>IF(H45="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7260,11 +7262,11 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <f>IF(H46="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O46">
-        <f>IF(H46="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7291,11 +7293,11 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <f>IF(H47="In person",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f>IF(H47="Virtual",1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7326,11 +7328,11 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <f>IF(H49="In person",1,0)</f>
+        <f t="shared" ref="N49:N56" si="6">IF(H49="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f>IF(H49="Virtual",1,0)</f>
+        <f t="shared" ref="O49:O56" si="7">IF(H49="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7357,11 +7359,11 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <f>IF(H50="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f>IF(H50="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7388,11 +7390,11 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <f>IF(H51="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>IF(H51="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7419,11 +7421,11 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <f>IF(H52="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O52">
-        <f>IF(H52="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7450,11 +7452,11 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <f>IF(H53="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f>IF(H53="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7481,11 +7483,11 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <f>IF(H54="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f>IF(H54="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7512,11 +7514,11 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <f>IF(H55="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f>IF(H55="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7543,11 +7545,11 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <f>IF(H56="In person",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f>IF(H56="Virtual",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7669,11 +7671,11 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" ref="N61:N75" si="4">IF(H61="In person",1,0)</f>
+        <f t="shared" ref="N61:N75" si="8">IF(H61="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" ref="O61:O75" si="5">IF(H61="Virtual",1,0)</f>
+        <f t="shared" ref="O61:O75" si="9">IF(H61="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7700,11 +7702,11 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7731,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O63">
@@ -7761,11 +7763,11 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7792,11 +7794,11 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7823,11 +7825,11 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7854,11 +7856,11 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7885,11 +7887,11 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7916,11 +7918,11 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7947,11 +7949,11 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7978,11 +7980,11 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8009,11 +8011,11 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8040,11 +8042,11 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8071,11 +8073,11 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8102,11 +8104,11 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8137,11 +8139,11 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" ref="N77:N81" si="6">IF(H77="In person",1,0)</f>
+        <f t="shared" ref="N77:N81" si="10">IF(H77="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" ref="O77:O81" si="7">IF(H77="Virtual",1,0)</f>
+        <f t="shared" ref="O77:O81" si="11">IF(H77="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8168,11 +8170,11 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8199,11 +8201,11 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8230,11 +8232,11 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -8261,11 +8263,11 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D27159-84FC-4940-B3AA-6358BD77D556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4F4105-C129-4026-A3B3-6521DADB8F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -935,6 +935,15 @@
   </si>
   <si>
     <t>Lingbo Lee</t>
+  </si>
+  <si>
+    <t>Way-Nee, Emily</t>
+  </si>
+  <si>
+    <t>Emily.Way-Nee@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Emily Way-Nee</t>
   </si>
 </sst>
 </file>
@@ -1299,18 +1308,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'for-README'!F4</f>
         <v>Laura Alsip</v>
@@ -1351,7 +1360,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'for-README'!F5</f>
         <v>Lauren Burke</v>
@@ -1369,7 +1378,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'for-README'!F6</f>
         <v>Kevin J Hedges</v>
@@ -1387,7 +1396,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'for-README'!F7</f>
         <v>Michael Legge</v>
@@ -1405,7 +1414,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'for-README'!F8</f>
         <v>Tracey Loewen</v>
@@ -1423,7 +1432,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'for-README'!F9</f>
         <v>Brendan K Malley</v>
@@ -1441,7 +1450,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'for-README'!F10</f>
         <v>Lenore J Vandenbyllaardt</v>
@@ -1459,7 +1468,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'for-README'!F11</f>
         <v>Rick J Wastle</v>
@@ -1477,7 +1486,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'for-README'!F12</f>
         <v>Xinhua Zhu</v>
@@ -1495,7 +1504,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'for-README'!F13</f>
         <v>Abby Daigle</v>
@@ -1522,7 +1531,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'for-README'!F14</f>
         <v>Andrew Darcy</v>
@@ -1549,7 +1558,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'for-README'!F15</f>
         <v>Isabelle Forest</v>
@@ -1576,7 +1585,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'for-README'!F16</f>
         <v>Matthew Horsman</v>
@@ -1603,7 +1612,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'for-README'!F17</f>
         <v>Samantha Hudson</v>
@@ -1630,7 +1639,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'for-README'!F18</f>
         <v>Colin MacFarlane</v>
@@ -1657,7 +1666,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'for-README'!F19</f>
         <v>Kelsey McGee</v>
@@ -1684,7 +1693,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'for-README'!F20</f>
         <v>Kirby Morrill</v>
@@ -1711,7 +1720,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'for-README'!F21</f>
         <v>Daniel Ricard</v>
@@ -1738,7 +1747,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'for-README'!F22</f>
         <v>Karen Robertson</v>
@@ -1765,7 +1774,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'for-README'!F23</f>
         <v>Sylvie Robichaud</v>
@@ -1792,7 +1801,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'for-README'!F24</f>
         <v>Nicolas Rolland</v>
@@ -1819,7 +1828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'for-README'!F25</f>
         <v>Jolene Sutton</v>
@@ -1840,7 +1849,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'for-README'!F26</f>
         <v>François-Étienne Sylvain</v>
@@ -1858,7 +1867,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'for-README'!F27</f>
         <v>Kari Underhill</v>
@@ -1885,7 +1894,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'for-README'!F28</f>
         <v>Mark Billard</v>
@@ -1903,7 +1912,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'for-README'!F29</f>
         <v>Lynn Collier</v>
@@ -1921,7 +1930,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'for-README'!F30</f>
         <v>Peter Comeau</v>
@@ -1939,7 +1948,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'for-README'!F31</f>
         <v>Tania Davignon-Burton</v>
@@ -1957,7 +1966,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'for-README'!F32</f>
         <v>Nell den Heyer</v>
@@ -1975,7 +1984,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'for-README'!F33</f>
         <v>Danni Harper</v>
@@ -1993,7 +2002,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'for-README'!F34</f>
         <v>Kelly Kraska</v>
@@ -2011,7 +2020,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'for-README'!F35</f>
         <v>Lingbo Lee</v>
@@ -2029,7 +2038,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'for-README'!F36</f>
         <v>Ellen MacEachern</v>
@@ -2047,7 +2056,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'for-README'!F37</f>
         <v>Liz Miller</v>
@@ -2065,7 +2074,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'for-README'!F38</f>
         <v>George Nau</v>
@@ -2083,7 +2092,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'for-README'!F39</f>
         <v>Gregory Puncher</v>
@@ -2101,32 +2110,32 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>'for-README'!F41</f>
-        <v>Aaron Adamack</v>
+        <f>'for-README'!F40</f>
+        <v>Catriona Regnier-McKellar</v>
       </c>
       <c r="B39" t="str">
-        <f>'for-README'!M41</f>
-        <v>Adamack, Aaron</v>
+        <f>'for-README'!M40</f>
+        <v>Regnier-McKellar, Catriona</v>
       </c>
       <c r="C39" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D39" t="str">
-        <f>'for-README'!H41</f>
+        <f>'for-README'!H40</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'for-README'!F42</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="B40" t="str">
         <f>'for-README'!M42</f>
-        <v>Antaya, Kelly</v>
+        <v>Adamack, Aaron</v>
       </c>
       <c r="C40" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
@@ -2137,14 +2146,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'for-README'!F43</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="B41" t="str">
         <f>'for-README'!M43</f>
-        <v>Drover, Dwight</v>
+        <v>Antaya, Kelly</v>
       </c>
       <c r="C41" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
@@ -2155,14 +2164,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'for-README'!F44</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="B42" t="str">
         <f>'for-README'!M44</f>
-        <v>Forbes, Gillian</v>
+        <v>Drover, Dwight</v>
       </c>
       <c r="C42" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
@@ -2170,17 +2179,17 @@
       </c>
       <c r="D42" t="str">
         <f>'for-README'!H44</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'for-README'!F45</f>
-        <v>Victoria Healey</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="B43" t="str">
         <f>'for-README'!M45</f>
-        <v>Healey, Victoria</v>
+        <v>Forbes, Gillian</v>
       </c>
       <c r="C43" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
@@ -2188,17 +2197,17 @@
       </c>
       <c r="D43" t="str">
         <f>'for-README'!H45</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'for-README'!F46</f>
-        <v>Marc Legresley</v>
+        <v>Victoria Healey</v>
       </c>
       <c r="B44" t="str">
         <f>'for-README'!M46</f>
-        <v>Legresley, Marc</v>
+        <v>Healey, Victoria</v>
       </c>
       <c r="C44" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
@@ -2209,14 +2218,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'for-README'!F47</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="B45" t="str">
         <f>'for-README'!M47</f>
-        <v>Perreault, Andrea</v>
+        <v>Legresley, Marc</v>
       </c>
       <c r="C45" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
@@ -2227,14 +2236,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'for-README'!F48</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="B46" t="str">
         <f>'for-README'!M48</f>
-        <v>Polaczek, Hannah</v>
+        <v>Perreault, Andrea</v>
       </c>
       <c r="C46" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
@@ -2245,14 +2254,14 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'for-README'!F49</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="B47" t="str">
         <f>'for-README'!M49</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Polaczek, Hannah</v>
       </c>
       <c r="C47" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
@@ -2260,17 +2269,17 @@
       </c>
       <c r="D47" t="str">
         <f>'for-README'!H49</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'for-README'!F50</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="B48" t="str">
         <f>'for-README'!M50</f>
-        <v>Schofield, Meredith</v>
+        <v>Rideout, Kierstyn</v>
       </c>
       <c r="C48" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
@@ -2281,363 +2290,399 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
+        <f>'for-README'!F51</f>
+        <v>Meredith Schofield</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'for-README'!M51</f>
+        <v>Schofield, Meredith</v>
+      </c>
+      <c r="C49" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D49" t="str">
+        <f>'for-README'!H51</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
         <f>'for-README'!F52</f>
+        <v>Jaime Thomson</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'for-README'!M52</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
+      </c>
+      <c r="C50" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D50" t="str">
+        <f>'for-README'!H52</f>
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>'for-README'!F53</f>
         <v>Barbara Campbell</v>
       </c>
-      <c r="B49" t="str">
-        <f>'for-README'!M52</f>
+      <c r="B51" t="str">
+        <f>'for-README'!M53</f>
         <v>Campbell, Barbara</v>
       </c>
-      <c r="C49" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
-      </c>
-      <c r="D49" t="str">
-        <f>'for-README'!H52</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="str">
-        <f>'for-README'!F53</f>
-        <v>Karalea Cantera</v>
-      </c>
-      <c r="B50" t="str">
-        <f>'for-README'!M53</f>
-        <v>Cantera, Karalea</v>
-      </c>
-      <c r="C50" t="str">
+      <c r="C51" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D51" t="str">
         <f>'for-README'!H53</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="str">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>'for-README'!F54</f>
-        <v>Chelsea Cooke</v>
-      </c>
-      <c r="B51" t="str">
+        <v>Karalea Cantera</v>
+      </c>
+      <c r="B52" t="str">
         <f>'for-README'!M54</f>
-        <v>Cooke, Chelsea</v>
-      </c>
-      <c r="C51" t="str">
+        <v>Cantera, Karalea</v>
+      </c>
+      <c r="C52" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D52" t="str">
         <f>'for-README'!H54</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="str">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>'for-README'!F55</f>
-        <v>Robyn Forrest</v>
-      </c>
-      <c r="B52" t="str">
+        <v>Chelsea Cooke</v>
+      </c>
+      <c r="B53" t="str">
         <f>'for-README'!M55</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
-      </c>
-      <c r="C52" t="str">
+        <v>Cooke, Chelsea</v>
+      </c>
+      <c r="C53" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D53" t="str">
         <f>'for-README'!H55</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="str">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>'for-README'!F56</f>
-        <v>Sarah Hawkshaw</v>
-      </c>
-      <c r="B53" t="str">
+        <v>Robyn Forrest</v>
+      </c>
+      <c r="B54" t="str">
         <f>'for-README'!M56</f>
-        <v>Hawkshaw, Sarah</v>
-      </c>
-      <c r="C53" t="str">
+        <v xml:space="preserve">Forrest, Robyn </v>
+      </c>
+      <c r="C54" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D53" t="str">
+      <c r="D54" t="str">
         <f>'for-README'!H56</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="str">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f>'for-README'!F57</f>
-        <v>Erin Herder</v>
-      </c>
-      <c r="B54" t="str">
+        <v>Sarah Hawkshaw</v>
+      </c>
+      <c r="B55" t="str">
         <f>'for-README'!M57</f>
-        <v>Herder, Erin</v>
-      </c>
-      <c r="C54" t="str">
+        <v>Hawkshaw, Sarah</v>
+      </c>
+      <c r="C55" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D55" t="str">
         <f>'for-README'!H57</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="str">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <f>'for-README'!F58</f>
-        <v>Kendra Holt</v>
-      </c>
-      <c r="B55" t="str">
+        <v>Erin Herder</v>
+      </c>
+      <c r="B56" t="str">
         <f>'for-README'!M58</f>
-        <v>Holt, Kendra</v>
-      </c>
-      <c r="C55" t="str">
+        <v>Herder, Erin</v>
+      </c>
+      <c r="C56" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D56" t="str">
         <f>'for-README'!H58</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="str">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
         <f>'for-README'!F59</f>
-        <v>Yeongha Jung</v>
-      </c>
-      <c r="B56" t="str">
+        <v>Kendra Holt</v>
+      </c>
+      <c r="B57" t="str">
         <f>'for-README'!M59</f>
-        <v>Jung, Yeongha</v>
-      </c>
-      <c r="C56" t="str">
+        <v>Holt, Kendra</v>
+      </c>
+      <c r="C57" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D57" t="str">
         <f>'for-README'!H59</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="str">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
         <f>'for-README'!F60</f>
-        <v>Madeline Lavery</v>
-      </c>
-      <c r="B57" t="str">
+        <v>Yeongha Jung</v>
+      </c>
+      <c r="B58" t="str">
         <f>'for-README'!M60</f>
-        <v>Lavery, Madeline</v>
-      </c>
-      <c r="C57" t="str">
+        <v>Jung, Yeongha</v>
+      </c>
+      <c r="C58" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D58" t="str">
         <f>'for-README'!H60</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="str">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
         <f>'for-README'!F61</f>
-        <v>Kiana Matwichuk</v>
-      </c>
-      <c r="B58" t="str">
+        <v>Madeline Lavery</v>
+      </c>
+      <c r="B59" t="str">
         <f>'for-README'!M61</f>
-        <v>Matwichuk, Kiana</v>
-      </c>
-      <c r="C58" t="str">
+        <v>Lavery, Madeline</v>
+      </c>
+      <c r="C59" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D59" t="str">
         <f>'for-README'!H61</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="str">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
         <f>'for-README'!F62</f>
-        <v>Mackenzie Mazur</v>
-      </c>
-      <c r="B59" t="str">
+        <v>Kiana Matwichuk</v>
+      </c>
+      <c r="B60" t="str">
         <f>'for-README'!M62</f>
-        <v>Mazur, Mackenzie</v>
-      </c>
-      <c r="C59" t="str">
+        <v>Matwichuk, Kiana</v>
+      </c>
+      <c r="C60" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D60" t="str">
         <f>'for-README'!H62</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="str">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
         <f>'for-README'!F63</f>
-        <v>Judy McArthur</v>
-      </c>
-      <c r="B60" t="str">
+        <v>Mackenzie Mazur</v>
+      </c>
+      <c r="B61" t="str">
         <f>'for-README'!M63</f>
-        <v xml:space="preserve">McArthur, Judy </v>
-      </c>
-      <c r="C60" t="str">
+        <v>Mazur, Mackenzie</v>
+      </c>
+      <c r="C61" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D61" t="str">
         <f>'for-README'!H63</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="str">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
         <f>'for-README'!F64</f>
-        <v>Audrey Ty</v>
-      </c>
-      <c r="B61" t="str">
+        <v>Judy McArthur</v>
+      </c>
+      <c r="B62" t="str">
         <f>'for-README'!M64</f>
-        <v>Ty, Audrey</v>
-      </c>
-      <c r="C61" t="str">
+        <v xml:space="preserve">McArthur, Judy </v>
+      </c>
+      <c r="C62" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D62" t="str">
         <f>'for-README'!H64</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="str">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
         <f>'for-README'!F65</f>
-        <v>Stephen Wischniowski</v>
-      </c>
-      <c r="B62" t="str">
+        <v>Audrey Ty</v>
+      </c>
+      <c r="B63" t="str">
         <f>'for-README'!M65</f>
-        <v>Wischniowski, Stephen</v>
-      </c>
-      <c r="C62" t="str">
+        <v>Ty, Audrey</v>
+      </c>
+      <c r="C63" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D63" t="str">
         <f>'for-README'!H65</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="str">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
         <f>'for-README'!F66</f>
-        <v>Emily Yungwirth</v>
-      </c>
-      <c r="B63" t="str">
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="B64" t="str">
         <f>'for-README'!M66</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
-      </c>
-      <c r="C63" t="str">
+        <v>Wischniowski, Stephen</v>
+      </c>
+      <c r="C64" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D64" t="str">
         <f>'for-README'!H66</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="str">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
         <f>'for-README'!F67</f>
-        <v>Mathieu Desgagnés</v>
-      </c>
-      <c r="B64" t="str">
+        <v>Emily Yungwirth</v>
+      </c>
+      <c r="B65" t="str">
         <f>'for-README'!M67</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-      <c r="C64" t="str">
+        <v xml:space="preserve">Yungwirth, Emily </v>
+      </c>
+      <c r="C65" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L67, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
-      </c>
-      <c r="D64" t="str">
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D65" t="str">
         <f>'for-README'!H67</f>
         <v>Virtual</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="str">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
         <f>'for-README'!F68</f>
-        <v>Hélène Dionne</v>
-      </c>
-      <c r="B65" t="str">
+        <v>Mathieu Desgagnés</v>
+      </c>
+      <c r="B66" t="str">
         <f>'for-README'!M68</f>
-        <v>Dionne, Hélène</v>
-      </c>
-      <c r="C65" t="str">
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
+      </c>
+      <c r="C66" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L68, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D66" t="str">
         <f>'for-README'!H68</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="str">
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
         <f>'for-README'!F69</f>
-        <v>Kim Emond</v>
-      </c>
-      <c r="B66" t="str">
+        <v>Hélène Dionne</v>
+      </c>
+      <c r="B67" t="str">
         <f>'for-README'!M69</f>
-        <v>Emond, Kim</v>
-      </c>
-      <c r="C66" t="str">
+        <v>Dionne, Hélène</v>
+      </c>
+      <c r="C67" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L69, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D67" t="str">
         <f>'for-README'!H69</f>
         <v>In person</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="str">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
         <f>'for-README'!F70</f>
-        <v>Nicolas Le Corre</v>
-      </c>
-      <c r="B67" t="str">
+        <v>Kim Emond</v>
+      </c>
+      <c r="B68" t="str">
         <f>'for-README'!M70</f>
-        <v>LeCorre, Nicolas</v>
-      </c>
-      <c r="C67" t="str">
+        <v>Emond, Kim</v>
+      </c>
+      <c r="C68" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L70, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D68" t="str">
         <f>'for-README'!H70</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="str">
+        <v>In person</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
         <f>'for-README'!F71</f>
-        <v>Andrew Smith</v>
-      </c>
-      <c r="B68" t="str">
+        <v>Nicolas Le Corre</v>
+      </c>
+      <c r="B69" t="str">
         <f>'for-README'!M71</f>
-        <v>Smith, Andrew</v>
-      </c>
-      <c r="C68" t="str">
+        <v>LeCorre, Nicolas</v>
+      </c>
+      <c r="C69" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L71, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D69" t="str">
         <f>'for-README'!H71</f>
+        <v>Virtual</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>'for-README'!F72</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="B70" t="str">
+        <f>'for-README'!M72</f>
+        <v>Smith, Andrew</v>
+      </c>
+      <c r="C70" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L72, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D70" t="str">
+        <f>'for-README'!H72</f>
         <v>Virtual</v>
       </c>
     </row>
@@ -2689,36 +2734,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 68 participants as of 2023-01-29 (27 in person and 41 virtual)</v>
+        <v>List of the 69 participants as of 2023-01-30 (27 in person and 42 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J71)</f>
-        <v>41</v>
+        <f>SUM(J4:J72)</f>
+        <v>42</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2750,11 +2795,11 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K71)</f>
+        <f>SUM(K4:K72)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -2783,7 +2828,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -2831,7 +2876,7 @@
         <v>Alsip, Laura</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -2863,11 +2908,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J67" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J68" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K67" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K68" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -2879,7 +2924,7 @@
         <v>Burke, Lauren (Lauren.Burke@dfo-mpo.gc.ca)</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2927,7 +2972,7 @@
         <v>Hedges, Kevin</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -2975,7 +3020,7 @@
         <v>Legge, Michael</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -3023,7 +3068,7 @@
         <v>Loewen, Tracey</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -3071,7 +3116,7 @@
         <v>Malley, Brendan K</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -3119,7 +3164,7 @@
         <v>Vandenbyllaardt, Lenore</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -3167,7 +3212,7 @@
         <v>Wastle, Rick</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -3215,7 +3260,7 @@
         <v>Zhu, Xinhua</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -3263,7 +3308,7 @@
         <v>Daigle, Abby</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -3311,7 +3356,7 @@
         <v>Darcy, Andrew</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -3359,7 +3404,7 @@
         <v xml:space="preserve">Forest, Isabelle </v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -3407,7 +3452,7 @@
         <v xml:space="preserve">Horsman, Matthew </v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -3455,7 +3500,7 @@
         <v>Hudson, Samantha</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3503,7 +3548,7 @@
         <v>MacFarlane, Colin</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -3551,7 +3596,7 @@
         <v>McGee, Kelsey</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -3599,7 +3644,7 @@
         <v>Morrill, Kirby</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -3647,7 +3692,7 @@
         <v>Ricard, Daniel</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -3695,7 +3740,7 @@
         <v>Robertson, Karen</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -3743,7 +3788,7 @@
         <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -3791,7 +3836,7 @@
         <v>Rolland, Nicolas</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -3839,7 +3884,7 @@
         <v xml:space="preserve">Sutton, Jolene </v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -3887,7 +3932,7 @@
         <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -3935,7 +3980,7 @@
         <v>Underhill, Kari</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -3983,7 +4028,7 @@
         <v>Billard, Mark</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -4031,7 +4076,7 @@
         <v>Collier, Lynn</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -4079,7 +4124,7 @@
         <v>Comeau, Peter</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -4127,7 +4172,7 @@
         <v>Davignon-Burton, Tania</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -4175,7 +4220,7 @@
         <v>den Heyer, Nell</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>191</v>
       </c>
@@ -4223,7 +4268,7 @@
         <v>Harper, Danni</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -4271,7 +4316,7 @@
         <v>Kraska, Kelly</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -4319,7 +4364,7 @@
         <v>Lee, Lingbo</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -4367,7 +4412,7 @@
         <v>MacEachern, Ellen</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -4415,7 +4460,7 @@
         <v>Miller, Liz</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -4463,7 +4508,7 @@
         <v>Nau, George</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>191</v>
       </c>
@@ -4511,7 +4556,7 @@
         <v>Puncher, Gregory</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -4554,8 +4599,12 @@
         <f>'outlook-responses'!B47</f>
         <v>Maritimes</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M40" t="str">
+        <f>'outlook-responses'!E47</f>
+        <v>Regnier-McKellar, Catriona</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -4566,21 +4615,21 @@
         <v>191</v>
       </c>
       <c r="D41" t="str">
-        <f>'outlook-responses'!A49</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A48</f>
+        <v>MAR</v>
       </c>
       <c r="E41" t="s">
         <v>191</v>
       </c>
       <c r="F41" t="str">
-        <f>'outlook-responses'!I49</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I48</f>
+        <v>Emily Way-Nee</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
       </c>
       <c r="H41" t="str">
-        <f>'outlook-responses'!H49</f>
+        <f>'outlook-responses'!H48</f>
         <v>Virtual</v>
       </c>
       <c r="I41" t="s">
@@ -4595,15 +4644,15 @@
         <v>0</v>
       </c>
       <c r="L41" t="str">
-        <f>'outlook-responses'!B49</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B48</f>
+        <v>Maritimes</v>
       </c>
       <c r="M41" t="str">
-        <f>'outlook-responses'!E49</f>
-        <v>Adamack, Aaron</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <f>'outlook-responses'!E48</f>
+        <v>Way-Nee, Emily</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -4622,7 +4671,7 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I50</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
@@ -4648,10 +4697,10 @@
       </c>
       <c r="M42" t="str">
         <f>'outlook-responses'!E50</f>
-        <v>Antaya, Kelly</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Adamack, Aaron</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -4670,7 +4719,7 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
@@ -4696,10 +4745,10 @@
       </c>
       <c r="M43" t="str">
         <f>'outlook-responses'!E51</f>
-        <v>Drover, Dwight</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Antaya, Kelly</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -4718,25 +4767,25 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
       </c>
       <c r="H44" t="str">
         <f>'outlook-responses'!H52</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I44" t="s">
         <v>191</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="str">
         <f>'outlook-responses'!B52</f>
@@ -4744,10 +4793,10 @@
       </c>
       <c r="M44" t="str">
         <f>'outlook-responses'!E52</f>
-        <v>Forbes, Gillian</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Drover, Dwight</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4766,25 +4815,25 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Victoria Healey</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
       </c>
       <c r="H45" t="str">
         <f>'outlook-responses'!H53</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I45" t="s">
         <v>191</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="str">
         <f>'outlook-responses'!B53</f>
@@ -4792,10 +4841,10 @@
       </c>
       <c r="M45" t="str">
         <f>'outlook-responses'!E53</f>
-        <v>Healey, Victoria</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Forbes, Gillian</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -4814,7 +4863,7 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Marc Legresley</v>
+        <v>Victoria Healey</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
@@ -4840,10 +4889,10 @@
       </c>
       <c r="M46" t="str">
         <f>'outlook-responses'!E54</f>
-        <v>Legresley, Marc</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Healey, Victoria</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -4862,7 +4911,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -4888,10 +4937,10 @@
       </c>
       <c r="M47" t="str">
         <f>'outlook-responses'!E55</f>
-        <v>Perreault, Andrea</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Legresley, Marc</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -4910,7 +4959,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -4936,10 +4985,10 @@
       </c>
       <c r="M48" t="str">
         <f>'outlook-responses'!E56</f>
-        <v>Polaczek, Hannah</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Perreault, Andrea</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -4958,25 +5007,25 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
       </c>
       <c r="H49" t="str">
         <f>'outlook-responses'!H57</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I49" t="s">
         <v>191</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="str">
         <f>'outlook-responses'!B57</f>
@@ -4984,10 +5033,10 @@
       </c>
       <c r="M49" t="str">
         <f>'outlook-responses'!E57</f>
-        <v>Rideout, Kierstyn</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Polaczek, Hannah</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -5006,7 +5055,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -5032,10 +5081,10 @@
       </c>
       <c r="M50" t="str">
         <f>'outlook-responses'!E58</f>
-        <v>Schofield, Meredith</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Rideout, Kierstyn</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -5054,7 +5103,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Jaime Thomson</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -5080,10 +5129,10 @@
       </c>
       <c r="M51" t="str">
         <f>'outlook-responses'!E59</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Schofield, Meredith</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -5094,44 +5143,44 @@
         <v>191</v>
       </c>
       <c r="D52" t="str">
-        <f>'outlook-responses'!A61</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A60</f>
+        <v>NL</v>
       </c>
       <c r="E52" t="s">
         <v>191</v>
       </c>
       <c r="F52" t="str">
-        <f>'outlook-responses'!I61</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I60</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
       </c>
       <c r="H52" t="str">
-        <f>'outlook-responses'!H61</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H60</f>
+        <v>In person</v>
       </c>
       <c r="I52" t="s">
         <v>191</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="str">
-        <f>'outlook-responses'!B61</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B60</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M52" t="str">
-        <f>'outlook-responses'!E61</f>
-        <v>Campbell, Barbara</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <f>'outlook-responses'!E60</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -5150,7 +5199,7 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I62</f>
-        <v>Karalea Cantera</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
@@ -5176,10 +5225,10 @@
       </c>
       <c r="M53" t="str">
         <f>'outlook-responses'!E62</f>
-        <v>Cantera, Karalea</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Campbell, Barbara</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -5198,7 +5247,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Chelsea Cooke</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -5224,10 +5273,10 @@
       </c>
       <c r="M54" t="str">
         <f>'outlook-responses'!E63</f>
-        <v>Cooke, Chelsea</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Cantera, Karalea</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -5246,7 +5295,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -5272,10 +5321,10 @@
       </c>
       <c r="M55" t="str">
         <f>'outlook-responses'!E64</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Cooke, Chelsea</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -5294,7 +5343,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -5320,10 +5369,10 @@
       </c>
       <c r="M56" t="str">
         <f>'outlook-responses'!E65</f>
-        <v>Hawkshaw, Sarah</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">Forrest, Robyn </v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>191</v>
       </c>
@@ -5342,7 +5391,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5368,10 +5417,10 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v>Herder, Erin</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Hawkshaw, Sarah</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -5390,7 +5439,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -5416,10 +5465,10 @@
       </c>
       <c r="M58" t="str">
         <f>'outlook-responses'!E67</f>
-        <v>Holt, Kendra</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Herder, Erin</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -5438,7 +5487,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -5464,10 +5513,10 @@
       </c>
       <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v>Jung, Yeongha</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Holt, Kendra</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -5486,7 +5535,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -5512,10 +5561,10 @@
       </c>
       <c r="M60" t="str">
         <f>'outlook-responses'!E69</f>
-        <v>Lavery, Madeline</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Jung, Yeongha</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -5534,7 +5583,7 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -5560,10 +5609,10 @@
       </c>
       <c r="M61" t="str">
         <f>'outlook-responses'!E70</f>
-        <v>Matwichuk, Kiana</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Lavery, Madeline</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -5582,7 +5631,7 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
@@ -5608,10 +5657,10 @@
       </c>
       <c r="M62" t="str">
         <f>'outlook-responses'!E71</f>
-        <v>Mazur, Mackenzie</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Matwichuk, Kiana</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -5630,7 +5679,7 @@
       </c>
       <c r="F63" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
@@ -5656,10 +5705,10 @@
       </c>
       <c r="M63" t="str">
         <f>'outlook-responses'!E72</f>
-        <v xml:space="preserve">McArthur, Judy </v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Mazur, Mackenzie</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -5678,7 +5727,7 @@
       </c>
       <c r="F64" t="str">
         <f>'outlook-responses'!I73</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
@@ -5704,10 +5753,10 @@
       </c>
       <c r="M64" t="str">
         <f>'outlook-responses'!E73</f>
-        <v>Ty, Audrey</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">McArthur, Judy </v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -5726,7 +5775,7 @@
       </c>
       <c r="F65" t="str">
         <f>'outlook-responses'!I74</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G65" t="s">
         <v>191</v>
@@ -5752,10 +5801,10 @@
       </c>
       <c r="M65" t="str">
         <f>'outlook-responses'!E74</f>
-        <v>Wischniowski, Stephen</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Ty, Audrey</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -5774,7 +5823,7 @@
       </c>
       <c r="F66" t="str">
         <f>'outlook-responses'!I75</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="G66" t="s">
         <v>191</v>
@@ -5800,10 +5849,10 @@
       </c>
       <c r="M66" t="str">
         <f>'outlook-responses'!E75</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Wischniowski, Stephen</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5814,21 +5863,21 @@
         <v>191</v>
       </c>
       <c r="D67" t="str">
-        <f>'outlook-responses'!A77</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A76</f>
+        <v>PAC</v>
       </c>
       <c r="E67" t="s">
         <v>191</v>
       </c>
       <c r="F67" t="str">
-        <f>'outlook-responses'!I77</f>
-        <v>Mathieu Desgagnés</v>
+        <f>'outlook-responses'!I76</f>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G67" t="s">
         <v>191</v>
       </c>
       <c r="H67" t="str">
-        <f>'outlook-responses'!H77</f>
+        <f>'outlook-responses'!H76</f>
         <v>Virtual</v>
       </c>
       <c r="I67" t="s">
@@ -5843,15 +5892,15 @@
         <v>0</v>
       </c>
       <c r="L67" t="str">
-        <f>'outlook-responses'!B77</f>
-        <v>Quebec</v>
+        <f>'outlook-responses'!B76</f>
+        <v>Pacific</v>
       </c>
       <c r="M67" t="str">
-        <f>'outlook-responses'!E77</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+        <f>'outlook-responses'!E76</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -5870,25 +5919,25 @@
       </c>
       <c r="F68" t="str">
         <f>'outlook-responses'!I78</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G68" t="s">
         <v>191</v>
       </c>
       <c r="H68" t="str">
         <f>'outlook-responses'!H78</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I68" t="s">
         <v>191</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J71" si="3">IF(H68="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K71" si="4">IF(H68="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L68" t="str">
         <f>'outlook-responses'!B78</f>
@@ -5896,10 +5945,10 @@
       </c>
       <c r="M68" t="str">
         <f>'outlook-responses'!E78</f>
-        <v>Dionne, Hélène</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -5918,7 +5967,7 @@
       </c>
       <c r="F69" t="str">
         <f>'outlook-responses'!I79</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G69" t="s">
         <v>191</v>
@@ -5931,11 +5980,11 @@
         <v>191</v>
       </c>
       <c r="J69">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J69:J72" si="3">IF(H69="Virtual",1,0)</f>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K69:K72" si="4">IF(H69="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="L69" t="str">
@@ -5944,10 +5993,10 @@
       </c>
       <c r="M69" t="str">
         <f>'outlook-responses'!E79</f>
-        <v>Emond, Kim</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Dionne, Hélène</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -5966,25 +6015,25 @@
       </c>
       <c r="F70" t="str">
         <f>'outlook-responses'!I80</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G70" t="s">
         <v>191</v>
       </c>
       <c r="H70" t="str">
         <f>'outlook-responses'!H80</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I70" t="s">
         <v>191</v>
       </c>
       <c r="J70">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="str">
         <f>'outlook-responses'!B80</f>
@@ -5992,10 +6041,10 @@
       </c>
       <c r="M70" t="str">
         <f>'outlook-responses'!E80</f>
-        <v>LeCorre, Nicolas</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+        <v>Emond, Kim</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>191</v>
       </c>
@@ -6014,7 +6063,7 @@
       </c>
       <c r="F71" t="str">
         <f>'outlook-responses'!I81</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G71" t="s">
         <v>191</v>
@@ -6040,10 +6089,10 @@
       </c>
       <c r="M71" t="str">
         <f>'outlook-responses'!E81</f>
-        <v>Smith, Andrew</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+        <v>LeCorre, Nicolas</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -6051,6 +6100,54 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="str">
+        <f>'outlook-responses'!A82</f>
+        <v>QUE</v>
+      </c>
+      <c r="E72" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72" t="str">
+        <f>'outlook-responses'!I82</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G72" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72" t="str">
+        <f>'outlook-responses'!H82</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I72" t="s">
+        <v>191</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L72" t="str">
+        <f>'outlook-responses'!B82</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M72" t="str">
+        <f>'outlook-responses'!E82</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6061,47 +6158,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M81)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <f>SUM(M8:M82)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O81)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <f>SUM(O8:O82)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N81)</f>
+        <f>SUM(N8:N82)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>187</v>
       </c>
@@ -6118,16 +6215,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C61+C35+C49+C77+C9</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <f>C19+C62+C35+C50+C78+C9</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -6162,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -6193,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -6224,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -6255,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -6286,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -6317,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -6348,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -6379,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -6410,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -6446,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -6478,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -6510,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -6542,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -6574,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -6606,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -6638,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -6670,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -6702,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -6734,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -6766,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -6798,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>192</v>
       </c>
@@ -6830,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -6862,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -6894,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -6902,8 +6999,8 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <f>SUM(M35:M47)</f>
-        <v>13</v>
+        <f>SUM(M35:M48)</f>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>70</v>
@@ -6921,15 +7018,15 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N47" si="4">IF(H35="In person",1,0)</f>
+        <f t="shared" ref="N35:N48" si="4">IF(H35="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:O47" si="5">IF(H35="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O35:O48" si="5">IF(H35="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -6960,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -6991,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -7022,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -7053,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -7084,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -7115,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -7146,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -7177,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -7208,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>194</v>
       </c>
@@ -7239,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>194</v>
       </c>
@@ -7270,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -7301,90 +7398,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49">
-        <f>SUM(M49:M59)</f>
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H48" t="s">
         <v>140</v>
       </c>
-      <c r="I49" t="s">
-        <v>227</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <f t="shared" ref="N49:N56" si="6">IF(H49="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ref="O49:O56" si="7">IF(H49="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>195</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
+      <c r="C50">
+        <f>SUM(M50:M60)</f>
+        <v>11</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
+        <v>166</v>
       </c>
       <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>228</v>
+      <c r="I50" t="s">
+        <v>227</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N50:N57" si="6">IF(H50="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O50:O57" si="7">IF(H50="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>195</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" t="s">
-        <v>144</v>
+      <c r="E51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H51" t="s">
         <v>140</v>
       </c>
-      <c r="I51" t="s">
-        <v>229</v>
+      <c r="I51" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -7398,38 +7495,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>195</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>137</v>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="s">
+        <v>144</v>
       </c>
       <c r="H52" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -7437,47 +7534,47 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>295</v>
+        <v>136</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I53" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>195</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" t="s">
-        <v>150</v>
+      <c r="E54" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="H54" t="s">
         <v>140</v>
       </c>
       <c r="I54" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -7491,24 +7588,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>195</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>56</v>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>232</v>
+      <c r="I55" t="s">
+        <v>231</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -7522,24 +7619,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>195</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" t="s">
-        <v>148</v>
+      <c r="E56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
-      <c r="I56" t="s">
-        <v>233</v>
+      <c r="I56" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -7553,36 +7650,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>195</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>260</v>
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="s">
+        <v>148</v>
       </c>
       <c r="H57" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>195</v>
       </c>
@@ -7590,30 +7689,28 @@
         <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="H58" t="s">
         <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <f>IF(H58="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O58">
-        <f>IF(H58="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>195</v>
       </c>
@@ -7621,16 +7718,16 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="H59" t="s">
         <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -7644,73 +7741,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61">
-        <f>SUM(M61:M75)</f>
-        <v>15</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H61" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <f t="shared" ref="N61:N75" si="8">IF(H61="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <f t="shared" ref="O61:O75" si="9">IF(H61="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" t="s">
+        <v>264</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <f>IF(H60="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f>IF(H60="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
+      <c r="C62">
+        <f>SUM(M62:M76)</f>
+        <v>15</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H62" t="s">
         <v>140</v>
       </c>
-      <c r="I62" t="s">
-        <v>236</v>
+      <c r="I62" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N62:N76" si="8">IF(H62="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O62:O76" si="9">IF(H62="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -7718,16 +7815,16 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -7737,10 +7834,11 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -7748,16 +7846,16 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>59</v>
+        <v>255</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>237</v>
+      <c r="I64" t="s">
+        <v>257</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -7767,11 +7865,10 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -7779,16 +7876,16 @@
         <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>17</v>
+        <v>185</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
-      <c r="I65" t="s">
-        <v>238</v>
+      <c r="I65" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -7802,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -7810,16 +7907,16 @@
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -7833,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -7841,16 +7938,16 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -7864,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -7872,16 +7969,16 @@
         <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -7895,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -7903,16 +8000,16 @@
         <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H69" t="s">
         <v>140</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>242</v>
+      <c r="I69" t="s">
+        <v>241</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -7926,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>193</v>
       </c>
@@ -7934,16 +8031,16 @@
         <v>16</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H70" t="s">
         <v>140</v>
       </c>
-      <c r="I70" t="s">
-        <v>243</v>
+      <c r="I70" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -7957,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -7965,16 +8062,16 @@
         <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H71" t="s">
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -7988,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -7996,16 +8093,16 @@
         <v>16</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s">
         <v>140</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>245</v>
+      <c r="I72" t="s">
+        <v>244</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -8019,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -8027,16 +8124,16 @@
         <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H73" t="s">
         <v>140</v>
       </c>
-      <c r="I73" t="s">
-        <v>246</v>
+      <c r="I73" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -8050,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -8058,16 +8155,16 @@
         <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H74" t="s">
         <v>140</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>247</v>
+      <c r="I74" t="s">
+        <v>246</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -8081,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -8089,16 +8186,16 @@
         <v>16</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H75" t="s">
         <v>140</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -8112,73 +8209,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77">
-        <f>SUM(M77:M81)</f>
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H77" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s">
         <v>140</v>
       </c>
-      <c r="I77" t="s">
-        <v>249</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <f t="shared" ref="N77:N81" si="10">IF(H77="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <f t="shared" ref="O77:O81" si="11">IF(H77="Virtual",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>196</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>119</v>
+      <c r="C78">
+        <f>SUM(M78:M82)</f>
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" t="s">
+        <v>112</v>
       </c>
       <c r="H78" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="N78:N82" si="10">IF(H78="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O78:O82" si="11">IF(H78="Virtual",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -8186,16 +8283,16 @@
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H79" t="s">
         <v>122</v>
       </c>
       <c r="I79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -8209,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -8217,30 +8314,30 @@
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -8248,16 +8345,16 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H81" t="s">
         <v>140</v>
       </c>
       <c r="I81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -8271,9 +8368,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H82" t="s">
+        <v>140</v>
+      </c>
+      <c r="I82" t="s">
+        <v>253</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E49:O59">
-    <sortCondition ref="E49:E59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E50:O60">
+    <sortCondition ref="E50:E60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8286,12 +8414,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -8299,7 +8427,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF('list-pre-google-forms'!E10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
@@ -8309,7 +8437,7 @@
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF('list-pre-google-forms'!E11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
@@ -8319,7 +8447,7 @@
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF('list-pre-google-forms'!E12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
@@ -8329,7 +8457,7 @@
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF('list-pre-google-forms'!E13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
@@ -8339,7 +8467,7 @@
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF('list-pre-google-forms'!E14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
@@ -8349,7 +8477,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF('list-pre-google-forms'!E15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
@@ -8359,7 +8487,7 @@
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF('list-pre-google-forms'!E16=1,'list-pre-google-forms'!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
@@ -8369,7 +8497,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF('list-pre-google-forms'!E17=1,'list-pre-google-forms'!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
@@ -8379,7 +8507,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF('list-pre-google-forms'!E18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
@@ -8389,7 +8517,7 @@
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF('list-pre-google-forms'!E19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
@@ -8399,7 +8527,7 @@
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('list-pre-google-forms'!E20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
@@ -8409,7 +8537,7 @@
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF('list-pre-google-forms'!E21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
@@ -8419,7 +8547,7 @@
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF('list-pre-google-forms'!E22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
@@ -8429,7 +8557,7 @@
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF('list-pre-google-forms'!E23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
@@ -8439,7 +8567,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('list-pre-google-forms'!E24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
@@ -8449,7 +8577,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>IF('list-pre-google-forms'!E25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
@@ -8459,7 +8587,7 @@
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>IF('list-pre-google-forms'!E26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
@@ -8469,7 +8597,7 @@
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('list-pre-google-forms'!E27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
@@ -8479,7 +8607,7 @@
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>IF('list-pre-google-forms'!E28=1,'list-pre-google-forms'!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
@@ -8489,7 +8617,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>IF('list-pre-google-forms'!E29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
@@ -8499,7 +8627,7 @@
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>IF('list-pre-google-forms'!E30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
@@ -8509,7 +8637,7 @@
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>IF('list-pre-google-forms'!E31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
@@ -8519,7 +8647,7 @@
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>IF('list-pre-google-forms'!E32=1,'list-pre-google-forms'!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
@@ -8529,7 +8657,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>IF('list-pre-google-forms'!E33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
@@ -8539,7 +8667,7 @@
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF('list-pre-google-forms'!E34=1,'list-pre-google-forms'!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
@@ -8549,7 +8677,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>IF('list-pre-google-forms'!E35=1,'list-pre-google-forms'!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
@@ -8559,7 +8687,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>IF('list-pre-google-forms'!E36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
@@ -8569,7 +8697,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>IF('list-pre-google-forms'!E37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
@@ -8579,7 +8707,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>IF('list-pre-google-forms'!E38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
@@ -8589,7 +8717,7 @@
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>IF('list-pre-google-forms'!E39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
@@ -8599,7 +8727,7 @@
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>IF('list-pre-google-forms'!E40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
@@ -8609,7 +8737,7 @@
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>IF('list-pre-google-forms'!E41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
@@ -8619,7 +8747,7 @@
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>IF('list-pre-google-forms'!E42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
@@ -8629,7 +8757,7 @@
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>IF('list-pre-google-forms'!E43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
@@ -8639,7 +8767,7 @@
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF('list-pre-google-forms'!E44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
@@ -8649,7 +8777,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('list-pre-google-forms'!E45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
@@ -8659,7 +8787,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('list-pre-google-forms'!E46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
@@ -8669,7 +8797,7 @@
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>IF('list-pre-google-forms'!E47=1,'list-pre-google-forms'!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
@@ -8679,7 +8807,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>IF('list-pre-google-forms'!E48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
@@ -8689,7 +8817,7 @@
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>IF('list-pre-google-forms'!E49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
@@ -8699,7 +8827,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('list-pre-google-forms'!E50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
@@ -8709,7 +8837,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>IF('list-pre-google-forms'!E51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
@@ -8719,7 +8847,7 @@
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('list-pre-google-forms'!E52=1,'list-pre-google-forms'!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
@@ -8729,7 +8857,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF('list-pre-google-forms'!E53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
@@ -8739,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>IF('list-pre-google-forms'!E54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
@@ -8749,7 +8877,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>IF('list-pre-google-forms'!E55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
@@ -8759,7 +8887,7 @@
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>IF('list-pre-google-forms'!E56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
@@ -8769,7 +8897,7 @@
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>IF('list-pre-google-forms'!E57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
@@ -8779,7 +8907,7 @@
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>IF('list-pre-google-forms'!E58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
@@ -8789,7 +8917,7 @@
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>IF('list-pre-google-forms'!E59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
@@ -8799,7 +8927,7 @@
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>IF('list-pre-google-forms'!E60=1,'list-pre-google-forms'!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
@@ -8809,7 +8937,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>IF('list-pre-google-forms'!E61=1,'list-pre-google-forms'!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
@@ -8819,7 +8947,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>IF('list-pre-google-forms'!E62=1,'list-pre-google-forms'!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
@@ -8829,7 +8957,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>IF('list-pre-google-forms'!E63=1,'list-pre-google-forms'!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
@@ -8839,7 +8967,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>IF('list-pre-google-forms'!E64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
@@ -8849,7 +8977,7 @@
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>IF('list-pre-google-forms'!E65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
@@ -8859,7 +8987,7 @@
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>IF('list-pre-google-forms'!E66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
@@ -8869,7 +8997,7 @@
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('list-pre-google-forms'!E67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
@@ -8879,7 +9007,7 @@
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>IF('list-pre-google-forms'!E68=1,'list-pre-google-forms'!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
@@ -8889,7 +9017,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>IF('list-pre-google-forms'!E69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
@@ -8899,7 +9027,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>IF('list-pre-google-forms'!E70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
@@ -8909,7 +9037,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>IF('list-pre-google-forms'!E71=1,'list-pre-google-forms'!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
@@ -8919,7 +9047,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF('list-pre-google-forms'!E72=1,'list-pre-google-forms'!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
@@ -8929,7 +9057,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF('list-pre-google-forms'!E73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
@@ -8939,7 +9067,7 @@
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('list-pre-google-forms'!E74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
@@ -8949,7 +9077,7 @@
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('list-pre-google-forms'!E75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
@@ -8959,7 +9087,7 @@
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('list-pre-google-forms'!E76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
@@ -8969,7 +9097,7 @@
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('list-pre-google-forms'!E77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
@@ -8979,7 +9107,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF('list-pre-google-forms'!E78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
@@ -8989,7 +9117,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>IF('list-pre-google-forms'!E79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
@@ -8999,7 +9127,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>IF('list-pre-google-forms'!E80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
@@ -9009,7 +9137,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>IF('list-pre-google-forms'!E81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
@@ -9019,7 +9147,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>IF('list-pre-google-forms'!E82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
@@ -9029,7 +9157,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF('list-pre-google-forms'!E83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
@@ -9039,7 +9167,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
         <f>IF('list-pre-google-forms'!G88=1,'list-pre-google-forms'!C88,"")</f>
         <v/>
@@ -9058,26 +9186,26 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -9089,7 +9217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -9099,7 +9227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>125</v>
@@ -9109,11 +9237,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -9139,11 +9267,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -9164,7 +9292,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>141</v>
@@ -9190,7 +9318,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>142</v>
@@ -9216,7 +9344,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>143</v>
@@ -9242,7 +9370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -9268,7 +9396,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -9279,7 +9407,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>147</v>
@@ -9305,7 +9433,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>66</v>
@@ -9331,7 +9459,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>65</v>
@@ -9357,7 +9485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>116</v>
@@ -9377,7 +9505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
@@ -9403,7 +9531,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -9429,7 +9557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -9455,7 +9583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -9478,7 +9606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -9486,7 +9614,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -9499,7 +9627,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>126</v>
@@ -9518,7 +9646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -9541,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -9564,7 +9692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>68</v>
@@ -9590,7 +9718,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -9613,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -9636,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -9659,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>129</v>
@@ -9676,7 +9804,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -9699,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>130</v>
@@ -9716,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>133</v>
@@ -9730,13 +9858,13 @@
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -9749,7 +9877,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>73</v>
@@ -9772,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>107</v>
@@ -9792,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -9809,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
@@ -9826,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>111</v>
@@ -9843,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>118</v>
@@ -9860,12 +9988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -9878,7 +10006,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>74</v>
@@ -9901,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
@@ -9918,7 +10046,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -9941,12 +10069,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -9959,7 +10087,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -9982,7 +10110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>77</v>
@@ -9999,7 +10127,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
@@ -10010,7 +10138,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -10023,7 +10151,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>78</v>
@@ -10046,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -10069,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>79</v>
@@ -10092,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -10115,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>80</v>
@@ -10138,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>81</v>
@@ -10155,7 +10283,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>82</v>
@@ -10172,7 +10300,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>83</v>
@@ -10189,7 +10317,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>84</v>
@@ -10206,7 +10334,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>85</v>
@@ -10229,7 +10357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
         <v>58</v>
@@ -10252,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
         <v>92</v>
@@ -10275,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>93</v>
@@ -10298,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
@@ -10318,7 +10446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="C69" s="2"/>
       <c r="E69" t="str">
@@ -10330,7 +10458,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -10343,7 +10471,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
         <v>136</v>
@@ -10360,7 +10488,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
         <v>86</v>
@@ -10377,7 +10505,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
         <v>87</v>
@@ -10400,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
         <v>88</v>
@@ -10423,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
         <v>89</v>
@@ -10446,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
         <v>138</v>
@@ -10466,23 +10594,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
@@ -10492,7 +10620,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
@@ -10502,7 +10630,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>126</v>
       </c>
@@ -10515,7 +10643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>114</v>
       </c>
@@ -10528,18 +10656,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F86"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F87"/>
     </row>
   </sheetData>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4F4105-C129-4026-A3B3-6521DADB8F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408AC26-077E-471F-BD08-9319000FDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -944,6 +944,15 @@
   </si>
   <si>
     <t>Emily Way-Nee</t>
+  </si>
+  <si>
+    <t>Jacob.Burbank@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Burbank, Jacob</t>
+  </si>
+  <si>
+    <t>Jacob Burbank</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1516,11 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'for-README'!F13</f>
-        <v>Abby Daigle</v>
+        <v>Jacob Burbank</v>
       </c>
       <c r="B12" t="str">
         <f>'for-README'!M13</f>
-        <v>Daigle, Abby</v>
+        <v>Burbank, Jacob</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L13, " Region")</f>
@@ -1534,11 +1543,11 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'for-README'!F14</f>
-        <v>Andrew Darcy</v>
+        <v>Abby Daigle</v>
       </c>
       <c r="B13" t="str">
         <f>'for-README'!M14</f>
-        <v>Darcy, Andrew</v>
+        <v>Daigle, Abby</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L14, " Region")</f>
@@ -1561,11 +1570,11 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'for-README'!F15</f>
-        <v>Isabelle Forest</v>
+        <v>Andrew Darcy</v>
       </c>
       <c r="B14" t="str">
         <f>'for-README'!M15</f>
-        <v xml:space="preserve">Forest, Isabelle </v>
+        <v>Darcy, Andrew</v>
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L15, " Region")</f>
@@ -1588,11 +1597,11 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'for-README'!F16</f>
-        <v>Matthew Horsman</v>
+        <v>Isabelle Forest</v>
       </c>
       <c r="B15" t="str">
         <f>'for-README'!M16</f>
-        <v xml:space="preserve">Horsman, Matthew </v>
+        <v xml:space="preserve">Forest, Isabelle </v>
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L16, " Region")</f>
@@ -1615,11 +1624,11 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'for-README'!F17</f>
-        <v>Samantha Hudson</v>
+        <v>Matthew Horsman</v>
       </c>
       <c r="B16" t="str">
         <f>'for-README'!M17</f>
-        <v>Hudson, Samantha</v>
+        <v xml:space="preserve">Horsman, Matthew </v>
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L17, " Region")</f>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="D16" t="str">
         <f>'for-README'!H17</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>274</v>
@@ -1642,11 +1651,11 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'for-README'!F18</f>
-        <v>Colin MacFarlane</v>
+        <v>Samantha Hudson</v>
       </c>
       <c r="B17" t="str">
         <f>'for-README'!M18</f>
-        <v>MacFarlane, Colin</v>
+        <v>Hudson, Samantha</v>
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L18, " Region")</f>
@@ -1654,7 +1663,7 @@
       </c>
       <c r="D17" t="str">
         <f>'for-README'!H18</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>274</v>
@@ -1669,11 +1678,11 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'for-README'!F19</f>
-        <v>Kelsey McGee</v>
+        <v>Colin MacFarlane</v>
       </c>
       <c r="B18" t="str">
         <f>'for-README'!M19</f>
-        <v>McGee, Kelsey</v>
+        <v>MacFarlane, Colin</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L19, " Region")</f>
@@ -1696,11 +1705,11 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'for-README'!F20</f>
-        <v>Kirby Morrill</v>
+        <v>Kelsey McGee</v>
       </c>
       <c r="B19" t="str">
         <f>'for-README'!M20</f>
-        <v>Morrill, Kirby</v>
+        <v>McGee, Kelsey</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L20, " Region")</f>
@@ -1723,11 +1732,11 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'for-README'!F21</f>
-        <v>Daniel Ricard</v>
+        <v>Kirby Morrill</v>
       </c>
       <c r="B20" t="str">
         <f>'for-README'!M21</f>
-        <v>Ricard, Daniel</v>
+        <v>Morrill, Kirby</v>
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L21, " Region")</f>
@@ -1750,11 +1759,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'for-README'!F22</f>
-        <v>Karen Robertson</v>
+        <v>Daniel Ricard</v>
       </c>
       <c r="B21" t="str">
         <f>'for-README'!M22</f>
-        <v>Robertson, Karen</v>
+        <v>Ricard, Daniel</v>
       </c>
       <c r="C21" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L22, " Region")</f>
@@ -1777,11 +1786,11 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'for-README'!F23</f>
-        <v>Sylvie Robichaud</v>
+        <v>Karen Robertson</v>
       </c>
       <c r="B22" t="str">
         <f>'for-README'!M23</f>
-        <v xml:space="preserve">Robichaud, Sylvie </v>
+        <v>Robertson, Karen</v>
       </c>
       <c r="C22" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L23, " Region")</f>
@@ -1804,11 +1813,11 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'for-README'!F24</f>
-        <v>Nicolas Rolland</v>
+        <v>Sylvie Robichaud</v>
       </c>
       <c r="B23" t="str">
         <f>'for-README'!M24</f>
-        <v>Rolland, Nicolas</v>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
       <c r="C23" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L24, " Region")</f>
@@ -1831,11 +1840,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'for-README'!F25</f>
-        <v>Jolene Sutton</v>
+        <v>Nicolas Rolland</v>
       </c>
       <c r="B24" t="str">
         <f>'for-README'!M25</f>
-        <v xml:space="preserve">Sutton, Jolene </v>
+        <v>Rolland, Nicolas</v>
       </c>
       <c r="C24" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L25, " Region")</f>
@@ -1852,11 +1861,11 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'for-README'!F26</f>
-        <v>François-Étienne Sylvain</v>
+        <v>Jolene Sutton</v>
       </c>
       <c r="B25" t="str">
         <f>'for-README'!M26</f>
-        <v xml:space="preserve">Sylvain, François-Étienne </v>
+        <v xml:space="preserve">Sutton, Jolene </v>
       </c>
       <c r="C25" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L26, " Region")</f>
@@ -1870,11 +1879,11 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'for-README'!F27</f>
-        <v>Kari Underhill</v>
+        <v>François-Étienne Sylvain</v>
       </c>
       <c r="B26" t="str">
         <f>'for-README'!M27</f>
-        <v>Underhill, Kari</v>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
       <c r="C26" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L27, " Region")</f>
@@ -1896,793 +1905,793 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>'for-README'!F28</f>
+        <f>'for-README'!F29</f>
         <v>Mark Billard</v>
       </c>
       <c r="B27" t="str">
-        <f>'for-README'!M28</f>
+        <f>'for-README'!M29</f>
         <v>Billard, Mark</v>
       </c>
       <c r="C27" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L28, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L29, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D27" t="str">
-        <f>'for-README'!H28</f>
+        <f>'for-README'!H29</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>'for-README'!F29</f>
+        <f>'for-README'!F30</f>
         <v>Lynn Collier</v>
       </c>
       <c r="B28" t="str">
-        <f>'for-README'!M29</f>
+        <f>'for-README'!M30</f>
         <v>Collier, Lynn</v>
       </c>
       <c r="C28" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L29, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L30, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D28" t="str">
-        <f>'for-README'!H29</f>
+        <f>'for-README'!H30</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>'for-README'!F30</f>
+        <f>'for-README'!F31</f>
         <v>Peter Comeau</v>
       </c>
       <c r="B29" t="str">
-        <f>'for-README'!M30</f>
+        <f>'for-README'!M31</f>
         <v>Comeau, Peter</v>
       </c>
       <c r="C29" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L30, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L31, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D29" t="str">
-        <f>'for-README'!H30</f>
+        <f>'for-README'!H31</f>
         <v>In person</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>'for-README'!F31</f>
+        <f>'for-README'!F32</f>
         <v>Tania Davignon-Burton</v>
       </c>
       <c r="B30" t="str">
-        <f>'for-README'!M31</f>
+        <f>'for-README'!M32</f>
         <v>Davignon-Burton, Tania</v>
       </c>
       <c r="C30" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L31, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L32, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D30" t="str">
-        <f>'for-README'!H31</f>
+        <f>'for-README'!H32</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>'for-README'!F32</f>
+        <f>'for-README'!F33</f>
         <v>Nell den Heyer</v>
       </c>
       <c r="B31" t="str">
-        <f>'for-README'!M32</f>
+        <f>'for-README'!M33</f>
         <v>den Heyer, Nell</v>
       </c>
       <c r="C31" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L32, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L33, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D31" t="str">
-        <f>'for-README'!H32</f>
+        <f>'for-README'!H33</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>'for-README'!F33</f>
+        <f>'for-README'!F34</f>
         <v>Danni Harper</v>
       </c>
       <c r="B32" t="str">
-        <f>'for-README'!M33</f>
+        <f>'for-README'!M34</f>
         <v>Harper, Danni</v>
       </c>
       <c r="C32" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L33, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L34, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D32" t="str">
-        <f>'for-README'!H33</f>
+        <f>'for-README'!H34</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>'for-README'!F34</f>
+        <f>'for-README'!F35</f>
         <v>Kelly Kraska</v>
       </c>
       <c r="B33" t="str">
-        <f>'for-README'!M34</f>
+        <f>'for-README'!M35</f>
         <v>Kraska, Kelly</v>
       </c>
       <c r="C33" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L34, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D33" t="str">
-        <f>'for-README'!H34</f>
+        <f>'for-README'!H35</f>
         <v>In person</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>'for-README'!F35</f>
+        <f>'for-README'!F36</f>
         <v>Lingbo Lee</v>
       </c>
       <c r="B34" t="str">
-        <f>'for-README'!M35</f>
+        <f>'for-README'!M36</f>
         <v>Lee, Lingbo</v>
       </c>
       <c r="C34" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D34" t="str">
-        <f>'for-README'!H35</f>
+        <f>'for-README'!H36</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>'for-README'!F36</f>
+        <f>'for-README'!F37</f>
         <v>Ellen MacEachern</v>
       </c>
       <c r="B35" t="str">
-        <f>'for-README'!M36</f>
+        <f>'for-README'!M37</f>
         <v>MacEachern, Ellen</v>
       </c>
       <c r="C35" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D35" t="str">
-        <f>'for-README'!H36</f>
+        <f>'for-README'!H37</f>
         <v>In person</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>'for-README'!F37</f>
+        <f>'for-README'!F38</f>
         <v>Liz Miller</v>
       </c>
       <c r="B36" t="str">
-        <f>'for-README'!M37</f>
+        <f>'for-README'!M38</f>
         <v>Miller, Liz</v>
       </c>
       <c r="C36" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D36" t="str">
-        <f>'for-README'!H37</f>
+        <f>'for-README'!H38</f>
         <v>In person</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>'for-README'!F38</f>
+        <f>'for-README'!F39</f>
         <v>George Nau</v>
       </c>
       <c r="B37" t="str">
-        <f>'for-README'!M38</f>
+        <f>'for-README'!M39</f>
         <v>Nau, George</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D37" t="str">
-        <f>'for-README'!H38</f>
+        <f>'for-README'!H39</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>'for-README'!F39</f>
+        <f>'for-README'!F40</f>
         <v>Gregory Puncher</v>
       </c>
       <c r="B38" t="str">
-        <f>'for-README'!M39</f>
+        <f>'for-README'!M40</f>
         <v>Puncher, Gregory</v>
       </c>
       <c r="C38" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D38" t="str">
-        <f>'for-README'!H39</f>
+        <f>'for-README'!H40</f>
         <v>In person</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>'for-README'!F40</f>
+        <f>'for-README'!F41</f>
         <v>Catriona Regnier-McKellar</v>
       </c>
       <c r="B39" t="str">
-        <f>'for-README'!M40</f>
+        <f>'for-README'!M41</f>
         <v>Regnier-McKellar, Catriona</v>
       </c>
       <c r="C39" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
       <c r="D39" t="str">
-        <f>'for-README'!H40</f>
+        <f>'for-README'!H41</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>'for-README'!F42</f>
+        <f>'for-README'!F43</f>
         <v>Aaron Adamack</v>
       </c>
       <c r="B40" t="str">
-        <f>'for-README'!M42</f>
+        <f>'for-README'!M43</f>
         <v>Adamack, Aaron</v>
       </c>
       <c r="C40" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D40" t="str">
-        <f>'for-README'!H42</f>
+        <f>'for-README'!H43</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>'for-README'!F43</f>
+        <f>'for-README'!F44</f>
         <v>Kelly Antaya</v>
       </c>
       <c r="B41" t="str">
-        <f>'for-README'!M43</f>
+        <f>'for-README'!M44</f>
         <v>Antaya, Kelly</v>
       </c>
       <c r="C41" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D41" t="str">
-        <f>'for-README'!H43</f>
+        <f>'for-README'!H44</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>'for-README'!F44</f>
+        <f>'for-README'!F45</f>
         <v>Dwight Drover</v>
       </c>
       <c r="B42" t="str">
-        <f>'for-README'!M44</f>
+        <f>'for-README'!M45</f>
         <v>Drover, Dwight</v>
       </c>
       <c r="C42" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D42" t="str">
-        <f>'for-README'!H44</f>
+        <f>'for-README'!H45</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>'for-README'!F45</f>
+        <f>'for-README'!F46</f>
         <v>Gillian Forbes</v>
       </c>
       <c r="B43" t="str">
-        <f>'for-README'!M45</f>
+        <f>'for-README'!M46</f>
         <v>Forbes, Gillian</v>
       </c>
       <c r="C43" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D43" t="str">
-        <f>'for-README'!H45</f>
+        <f>'for-README'!H46</f>
         <v>In person</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>'for-README'!F46</f>
+        <f>'for-README'!F47</f>
         <v>Victoria Healey</v>
       </c>
       <c r="B44" t="str">
-        <f>'for-README'!M46</f>
+        <f>'for-README'!M47</f>
         <v>Healey, Victoria</v>
       </c>
       <c r="C44" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D44" t="str">
-        <f>'for-README'!H46</f>
+        <f>'for-README'!H47</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>'for-README'!F47</f>
+        <f>'for-README'!F48</f>
         <v>Marc Legresley</v>
       </c>
       <c r="B45" t="str">
-        <f>'for-README'!M47</f>
+        <f>'for-README'!M48</f>
         <v>Legresley, Marc</v>
       </c>
       <c r="C45" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D45" t="str">
-        <f>'for-README'!H47</f>
+        <f>'for-README'!H48</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>'for-README'!F48</f>
+        <f>'for-README'!F49</f>
         <v>Andrea Perreault</v>
       </c>
       <c r="B46" t="str">
-        <f>'for-README'!M48</f>
+        <f>'for-README'!M49</f>
         <v>Perreault, Andrea</v>
       </c>
       <c r="C46" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D46" t="str">
-        <f>'for-README'!H48</f>
+        <f>'for-README'!H49</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>'for-README'!F49</f>
+        <f>'for-README'!F50</f>
         <v>Hannah Polaczek</v>
       </c>
       <c r="B47" t="str">
-        <f>'for-README'!M49</f>
+        <f>'for-README'!M50</f>
         <v>Polaczek, Hannah</v>
       </c>
       <c r="C47" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D47" t="str">
-        <f>'for-README'!H49</f>
+        <f>'for-README'!H50</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>'for-README'!F50</f>
+        <f>'for-README'!F51</f>
         <v>Kierstyn Rideout</v>
       </c>
       <c r="B48" t="str">
-        <f>'for-README'!M50</f>
+        <f>'for-README'!M51</f>
         <v>Rideout, Kierstyn</v>
       </c>
       <c r="C48" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D48" t="str">
-        <f>'for-README'!H50</f>
+        <f>'for-README'!H51</f>
         <v>In person</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>'for-README'!F51</f>
+        <f>'for-README'!F52</f>
         <v>Meredith Schofield</v>
       </c>
       <c r="B49" t="str">
-        <f>'for-README'!M51</f>
+        <f>'for-README'!M52</f>
         <v>Schofield, Meredith</v>
       </c>
       <c r="C49" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D49" t="str">
-        <f>'for-README'!H51</f>
+        <f>'for-README'!H52</f>
         <v>In person</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>'for-README'!F52</f>
+        <f>'for-README'!F53</f>
         <v>Jaime Thomson</v>
       </c>
       <c r="B50" t="str">
-        <f>'for-README'!M52</f>
+        <f>'for-README'!M53</f>
         <v xml:space="preserve">Thomson, Jaime </v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
       <c r="D50" t="str">
-        <f>'for-README'!H52</f>
+        <f>'for-README'!H53</f>
         <v>In person</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>'for-README'!F53</f>
+        <f>'for-README'!F54</f>
         <v>Barbara Campbell</v>
       </c>
       <c r="B51" t="str">
-        <f>'for-README'!M53</f>
+        <f>'for-README'!M54</f>
         <v>Campbell, Barbara</v>
       </c>
       <c r="C51" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D51" t="str">
-        <f>'for-README'!H53</f>
+        <f>'for-README'!H54</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>'for-README'!F54</f>
+        <f>'for-README'!F55</f>
         <v>Karalea Cantera</v>
       </c>
       <c r="B52" t="str">
-        <f>'for-README'!M54</f>
+        <f>'for-README'!M55</f>
         <v>Cantera, Karalea</v>
       </c>
       <c r="C52" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D52" t="str">
-        <f>'for-README'!H54</f>
+        <f>'for-README'!H55</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>'for-README'!F55</f>
+        <f>'for-README'!F56</f>
         <v>Chelsea Cooke</v>
       </c>
       <c r="B53" t="str">
-        <f>'for-README'!M55</f>
+        <f>'for-README'!M56</f>
         <v>Cooke, Chelsea</v>
       </c>
       <c r="C53" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D53" t="str">
-        <f>'for-README'!H55</f>
+        <f>'for-README'!H56</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>'for-README'!F56</f>
+        <f>'for-README'!F57</f>
         <v>Robyn Forrest</v>
       </c>
       <c r="B54" t="str">
-        <f>'for-README'!M56</f>
+        <f>'for-README'!M57</f>
         <v xml:space="preserve">Forrest, Robyn </v>
       </c>
       <c r="C54" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D54" t="str">
-        <f>'for-README'!H56</f>
+        <f>'for-README'!H57</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>'for-README'!F57</f>
+        <f>'for-README'!F58</f>
         <v>Sarah Hawkshaw</v>
       </c>
       <c r="B55" t="str">
-        <f>'for-README'!M57</f>
+        <f>'for-README'!M58</f>
         <v>Hawkshaw, Sarah</v>
       </c>
       <c r="C55" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D55" t="str">
-        <f>'for-README'!H57</f>
+        <f>'for-README'!H58</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>'for-README'!F58</f>
+        <f>'for-README'!F59</f>
         <v>Erin Herder</v>
       </c>
       <c r="B56" t="str">
-        <f>'for-README'!M58</f>
+        <f>'for-README'!M59</f>
         <v>Herder, Erin</v>
       </c>
       <c r="C56" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D56" t="str">
-        <f>'for-README'!H58</f>
+        <f>'for-README'!H59</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>'for-README'!F59</f>
+        <f>'for-README'!F60</f>
         <v>Kendra Holt</v>
       </c>
       <c r="B57" t="str">
-        <f>'for-README'!M59</f>
+        <f>'for-README'!M60</f>
         <v>Holt, Kendra</v>
       </c>
       <c r="C57" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D57" t="str">
-        <f>'for-README'!H59</f>
+        <f>'for-README'!H60</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>'for-README'!F60</f>
+        <f>'for-README'!F61</f>
         <v>Yeongha Jung</v>
       </c>
       <c r="B58" t="str">
-        <f>'for-README'!M60</f>
+        <f>'for-README'!M61</f>
         <v>Jung, Yeongha</v>
       </c>
       <c r="C58" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D58" t="str">
-        <f>'for-README'!H60</f>
+        <f>'for-README'!H61</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>'for-README'!F61</f>
+        <f>'for-README'!F62</f>
         <v>Madeline Lavery</v>
       </c>
       <c r="B59" t="str">
-        <f>'for-README'!M61</f>
+        <f>'for-README'!M62</f>
         <v>Lavery, Madeline</v>
       </c>
       <c r="C59" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D59" t="str">
-        <f>'for-README'!H61</f>
+        <f>'for-README'!H62</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>'for-README'!F62</f>
+        <f>'for-README'!F63</f>
         <v>Kiana Matwichuk</v>
       </c>
       <c r="B60" t="str">
-        <f>'for-README'!M62</f>
+        <f>'for-README'!M63</f>
         <v>Matwichuk, Kiana</v>
       </c>
       <c r="C60" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D60" t="str">
-        <f>'for-README'!H62</f>
+        <f>'for-README'!H63</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>'for-README'!F63</f>
+        <f>'for-README'!F64</f>
         <v>Mackenzie Mazur</v>
       </c>
       <c r="B61" t="str">
-        <f>'for-README'!M63</f>
+        <f>'for-README'!M64</f>
         <v>Mazur, Mackenzie</v>
       </c>
       <c r="C61" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D61" t="str">
-        <f>'for-README'!H63</f>
+        <f>'for-README'!H64</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>'for-README'!F64</f>
+        <f>'for-README'!F65</f>
         <v>Judy McArthur</v>
       </c>
       <c r="B62" t="str">
-        <f>'for-README'!M64</f>
+        <f>'for-README'!M65</f>
         <v xml:space="preserve">McArthur, Judy </v>
       </c>
       <c r="C62" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D62" t="str">
-        <f>'for-README'!H64</f>
+        <f>'for-README'!H65</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>'for-README'!F65</f>
+        <f>'for-README'!F66</f>
         <v>Audrey Ty</v>
       </c>
       <c r="B63" t="str">
-        <f>'for-README'!M65</f>
+        <f>'for-README'!M66</f>
         <v>Ty, Audrey</v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D63" t="str">
-        <f>'for-README'!H65</f>
+        <f>'for-README'!H66</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>'for-README'!F66</f>
+        <f>'for-README'!F67</f>
         <v>Stephen Wischniowski</v>
       </c>
       <c r="B64" t="str">
-        <f>'for-README'!M66</f>
+        <f>'for-README'!M67</f>
         <v>Wischniowski, Stephen</v>
       </c>
       <c r="C64" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L67, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D64" t="str">
-        <f>'for-README'!H66</f>
+        <f>'for-README'!H67</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>'for-README'!F67</f>
+        <f>'for-README'!F68</f>
         <v>Emily Yungwirth</v>
       </c>
       <c r="B65" t="str">
-        <f>'for-README'!M67</f>
+        <f>'for-README'!M68</f>
         <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
       <c r="C65" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L67, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L68, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
       <c r="D65" t="str">
-        <f>'for-README'!H67</f>
+        <f>'for-README'!H68</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>'for-README'!F68</f>
+        <f>'for-README'!F69</f>
         <v>Mathieu Desgagnés</v>
       </c>
       <c r="B66" t="str">
-        <f>'for-README'!M68</f>
+        <f>'for-README'!M69</f>
         <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
       <c r="C66" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L68, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L69, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D66" t="str">
-        <f>'for-README'!H68</f>
+        <f>'for-README'!H69</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>'for-README'!F69</f>
+        <f>'for-README'!F70</f>
         <v>Hélène Dionne</v>
       </c>
       <c r="B67" t="str">
-        <f>'for-README'!M69</f>
+        <f>'for-README'!M70</f>
         <v>Dionne, Hélène</v>
       </c>
       <c r="C67" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L69, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L70, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D67" t="str">
-        <f>'for-README'!H69</f>
+        <f>'for-README'!H70</f>
         <v>In person</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>'for-README'!F70</f>
+        <f>'for-README'!F71</f>
         <v>Kim Emond</v>
       </c>
       <c r="B68" t="str">
-        <f>'for-README'!M70</f>
+        <f>'for-README'!M71</f>
         <v>Emond, Kim</v>
       </c>
       <c r="C68" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L70, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L71, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D68" t="str">
-        <f>'for-README'!H70</f>
+        <f>'for-README'!H71</f>
         <v>In person</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>'for-README'!F71</f>
+        <f>'for-README'!F72</f>
         <v>Nicolas Le Corre</v>
       </c>
       <c r="B69" t="str">
-        <f>'for-README'!M71</f>
+        <f>'for-README'!M72</f>
         <v>LeCorre, Nicolas</v>
       </c>
       <c r="C69" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L71, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L72, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D69" t="str">
-        <f>'for-README'!H71</f>
+        <f>'for-README'!H72</f>
         <v>Virtual</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>'for-README'!F72</f>
+        <f>'for-README'!F73</f>
         <v>Andrew Smith</v>
       </c>
       <c r="B70" t="str">
-        <f>'for-README'!M72</f>
+        <f>'for-README'!M73</f>
         <v>Smith, Andrew</v>
       </c>
       <c r="C70" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L72, " Region")</f>
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L73, " Region")</f>
         <v>DFO Science - Quebec Region</v>
       </c>
       <c r="D70" t="str">
-        <f>'for-README'!H72</f>
+        <f>'for-README'!H73</f>
         <v>Virtual</v>
       </c>
     </row>
@@ -2734,11 +2743,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I72"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2748,18 +2755,18 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 69 participants as of 2023-01-30 (27 in person and 42 virtual)</v>
+        <v>List of the 70 participants as of 2023-01-30 (28 in person and 42 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J72)</f>
+        <f>SUM(J4:J73)</f>
         <v>42</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
@@ -2795,8 +2802,8 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K72)</f>
-        <v>27</v>
+        <f>SUM(K4:K73)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2908,11 +2915,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J68" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J69" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K68" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K69" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -3279,7 +3286,7 @@
       </c>
       <c r="F13" t="str">
         <f>'outlook-responses'!I19</f>
-        <v>Abby Daigle</v>
+        <v>Jacob Burbank</v>
       </c>
       <c r="G13" t="s">
         <v>191</v>
@@ -3305,7 +3312,7 @@
       </c>
       <c r="M13" t="str">
         <f>'outlook-responses'!E19</f>
-        <v>Daigle, Abby</v>
+        <v>Burbank, Jacob</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3327,7 +3334,7 @@
       </c>
       <c r="F14" t="str">
         <f>'outlook-responses'!I20</f>
-        <v>Andrew Darcy</v>
+        <v>Abby Daigle</v>
       </c>
       <c r="G14" t="s">
         <v>191</v>
@@ -3353,7 +3360,7 @@
       </c>
       <c r="M14" t="str">
         <f>'outlook-responses'!E20</f>
-        <v>Darcy, Andrew</v>
+        <v>Daigle, Abby</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3375,7 +3382,7 @@
       </c>
       <c r="F15" t="str">
         <f>'outlook-responses'!I21</f>
-        <v>Isabelle Forest</v>
+        <v>Andrew Darcy</v>
       </c>
       <c r="G15" t="s">
         <v>191</v>
@@ -3401,7 +3408,7 @@
       </c>
       <c r="M15" t="str">
         <f>'outlook-responses'!E21</f>
-        <v xml:space="preserve">Forest, Isabelle </v>
+        <v>Darcy, Andrew</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3423,7 +3430,7 @@
       </c>
       <c r="F16" t="str">
         <f>'outlook-responses'!I22</f>
-        <v>Matthew Horsman</v>
+        <v>Isabelle Forest</v>
       </c>
       <c r="G16" t="s">
         <v>191</v>
@@ -3449,7 +3456,7 @@
       </c>
       <c r="M16" t="str">
         <f>'outlook-responses'!E22</f>
-        <v xml:space="preserve">Horsman, Matthew </v>
+        <v xml:space="preserve">Forest, Isabelle </v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3471,25 +3478,25 @@
       </c>
       <c r="F17" t="str">
         <f>'outlook-responses'!I23</f>
-        <v>Samantha Hudson</v>
+        <v>Matthew Horsman</v>
       </c>
       <c r="G17" t="s">
         <v>191</v>
       </c>
       <c r="H17" t="str">
         <f>'outlook-responses'!H23</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I17" t="s">
         <v>191</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="str">
         <f>'outlook-responses'!B23</f>
@@ -3497,7 +3504,7 @@
       </c>
       <c r="M17" t="str">
         <f>'outlook-responses'!E23</f>
-        <v>Hudson, Samantha</v>
+        <v xml:space="preserve">Horsman, Matthew </v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3519,25 +3526,25 @@
       </c>
       <c r="F18" t="str">
         <f>'outlook-responses'!I24</f>
-        <v>Colin MacFarlane</v>
+        <v>Samantha Hudson</v>
       </c>
       <c r="G18" t="s">
         <v>191</v>
       </c>
       <c r="H18" t="str">
         <f>'outlook-responses'!H24</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I18" t="s">
         <v>191</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="str">
         <f>'outlook-responses'!B24</f>
@@ -3545,7 +3552,7 @@
       </c>
       <c r="M18" t="str">
         <f>'outlook-responses'!E24</f>
-        <v>MacFarlane, Colin</v>
+        <v>Hudson, Samantha</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3567,7 +3574,7 @@
       </c>
       <c r="F19" t="str">
         <f>'outlook-responses'!I25</f>
-        <v>Kelsey McGee</v>
+        <v>Colin MacFarlane</v>
       </c>
       <c r="G19" t="s">
         <v>191</v>
@@ -3593,7 +3600,7 @@
       </c>
       <c r="M19" t="str">
         <f>'outlook-responses'!E25</f>
-        <v>McGee, Kelsey</v>
+        <v>MacFarlane, Colin</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3615,7 +3622,7 @@
       </c>
       <c r="F20" t="str">
         <f>'outlook-responses'!I26</f>
-        <v>Kirby Morrill</v>
+        <v>Kelsey McGee</v>
       </c>
       <c r="G20" t="s">
         <v>191</v>
@@ -3641,7 +3648,7 @@
       </c>
       <c r="M20" t="str">
         <f>'outlook-responses'!E26</f>
-        <v>Morrill, Kirby</v>
+        <v>McGee, Kelsey</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3663,7 +3670,7 @@
       </c>
       <c r="F21" t="str">
         <f>'outlook-responses'!I27</f>
-        <v>Daniel Ricard</v>
+        <v>Kirby Morrill</v>
       </c>
       <c r="G21" t="s">
         <v>191</v>
@@ -3689,7 +3696,7 @@
       </c>
       <c r="M21" t="str">
         <f>'outlook-responses'!E27</f>
-        <v>Ricard, Daniel</v>
+        <v>Morrill, Kirby</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3711,7 +3718,7 @@
       </c>
       <c r="F22" t="str">
         <f>'outlook-responses'!I28</f>
-        <v>Karen Robertson</v>
+        <v>Daniel Ricard</v>
       </c>
       <c r="G22" t="s">
         <v>191</v>
@@ -3737,7 +3744,7 @@
       </c>
       <c r="M22" t="str">
         <f>'outlook-responses'!E28</f>
-        <v>Robertson, Karen</v>
+        <v>Ricard, Daniel</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3759,7 +3766,7 @@
       </c>
       <c r="F23" t="str">
         <f>'outlook-responses'!I29</f>
-        <v>Sylvie Robichaud</v>
+        <v>Karen Robertson</v>
       </c>
       <c r="G23" t="s">
         <v>191</v>
@@ -3785,7 +3792,7 @@
       </c>
       <c r="M23" t="str">
         <f>'outlook-responses'!E29</f>
-        <v xml:space="preserve">Robichaud, Sylvie </v>
+        <v>Robertson, Karen</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3807,7 +3814,7 @@
       </c>
       <c r="F24" t="str">
         <f>'outlook-responses'!I30</f>
-        <v>Nicolas Rolland</v>
+        <v>Sylvie Robichaud</v>
       </c>
       <c r="G24" t="s">
         <v>191</v>
@@ -3833,7 +3840,7 @@
       </c>
       <c r="M24" t="str">
         <f>'outlook-responses'!E30</f>
-        <v>Rolland, Nicolas</v>
+        <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3855,7 +3862,7 @@
       </c>
       <c r="F25" t="str">
         <f>'outlook-responses'!I31</f>
-        <v>Jolene Sutton</v>
+        <v>Nicolas Rolland</v>
       </c>
       <c r="G25" t="s">
         <v>191</v>
@@ -3881,7 +3888,7 @@
       </c>
       <c r="M25" t="str">
         <f>'outlook-responses'!E31</f>
-        <v xml:space="preserve">Sutton, Jolene </v>
+        <v>Rolland, Nicolas</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3903,7 +3910,7 @@
       </c>
       <c r="F26" t="str">
         <f>'outlook-responses'!I32</f>
-        <v>François-Étienne Sylvain</v>
+        <v>Jolene Sutton</v>
       </c>
       <c r="G26" t="s">
         <v>191</v>
@@ -3929,7 +3936,7 @@
       </c>
       <c r="M26" t="str">
         <f>'outlook-responses'!E32</f>
-        <v xml:space="preserve">Sylvain, François-Étienne </v>
+        <v xml:space="preserve">Sutton, Jolene </v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3951,7 +3958,7 @@
       </c>
       <c r="F27" t="str">
         <f>'outlook-responses'!I33</f>
-        <v>Kari Underhill</v>
+        <v>François-Étienne Sylvain</v>
       </c>
       <c r="G27" t="s">
         <v>191</v>
@@ -3977,7 +3984,7 @@
       </c>
       <c r="M27" t="str">
         <f>'outlook-responses'!E33</f>
-        <v>Underhill, Kari</v>
+        <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3991,41 +3998,41 @@
         <v>191</v>
       </c>
       <c r="D28" t="str">
-        <f>'outlook-responses'!A35</f>
-        <v>MAR</v>
+        <f>'outlook-responses'!A34</f>
+        <v>GLF</v>
       </c>
       <c r="E28" t="s">
         <v>191</v>
       </c>
       <c r="F28" t="str">
-        <f>'outlook-responses'!I35</f>
-        <v>Mark Billard</v>
+        <f>'outlook-responses'!I34</f>
+        <v>Kari Underhill</v>
       </c>
       <c r="G28" t="s">
         <v>191</v>
       </c>
       <c r="H28" t="str">
-        <f>'outlook-responses'!H35</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H34</f>
+        <v>In person</v>
       </c>
       <c r="I28" t="s">
         <v>191</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="J28" si="3">IF(H28="Virtual",1,0)</f>
+        <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="K28" si="4">IF(H28="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="L28" t="str">
-        <f>'outlook-responses'!B35</f>
-        <v>Maritimes</v>
+        <f>'outlook-responses'!B34</f>
+        <v>Gulf</v>
       </c>
       <c r="M28" t="str">
-        <f>'outlook-responses'!E35</f>
-        <v>Billard, Mark</v>
+        <f>'outlook-responses'!E34</f>
+        <v>Underhill, Kari</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4047,7 +4054,7 @@
       </c>
       <c r="F29" t="str">
         <f>'outlook-responses'!I36</f>
-        <v>Lynn Collier</v>
+        <v>Mark Billard</v>
       </c>
       <c r="G29" t="s">
         <v>191</v>
@@ -4073,7 +4080,7 @@
       </c>
       <c r="M29" t="str">
         <f>'outlook-responses'!E36</f>
-        <v>Collier, Lynn</v>
+        <v>Billard, Mark</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4095,25 +4102,25 @@
       </c>
       <c r="F30" t="str">
         <f>'outlook-responses'!I37</f>
-        <v>Peter Comeau</v>
+        <v>Lynn Collier</v>
       </c>
       <c r="G30" t="s">
         <v>191</v>
       </c>
       <c r="H30" t="str">
         <f>'outlook-responses'!H37</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I30" t="s">
         <v>191</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="str">
         <f>'outlook-responses'!B37</f>
@@ -4121,7 +4128,7 @@
       </c>
       <c r="M30" t="str">
         <f>'outlook-responses'!E37</f>
-        <v>Comeau, Peter</v>
+        <v>Collier, Lynn</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4143,25 +4150,25 @@
       </c>
       <c r="F31" t="str">
         <f>'outlook-responses'!I38</f>
-        <v>Tania Davignon-Burton</v>
+        <v>Peter Comeau</v>
       </c>
       <c r="G31" t="s">
         <v>191</v>
       </c>
       <c r="H31" t="str">
         <f>'outlook-responses'!H38</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I31" t="s">
         <v>191</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="str">
         <f>'outlook-responses'!B38</f>
@@ -4169,7 +4176,7 @@
       </c>
       <c r="M31" t="str">
         <f>'outlook-responses'!E38</f>
-        <v>Davignon-Burton, Tania</v>
+        <v>Comeau, Peter</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4191,7 +4198,7 @@
       </c>
       <c r="F32" t="str">
         <f>'outlook-responses'!I39</f>
-        <v>Nell den Heyer</v>
+        <v>Tania Davignon-Burton</v>
       </c>
       <c r="G32" t="s">
         <v>191</v>
@@ -4217,7 +4224,7 @@
       </c>
       <c r="M32" t="str">
         <f>'outlook-responses'!E39</f>
-        <v>den Heyer, Nell</v>
+        <v>Davignon-Burton, Tania</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4239,7 +4246,7 @@
       </c>
       <c r="F33" t="str">
         <f>'outlook-responses'!I40</f>
-        <v>Danni Harper</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="G33" t="s">
         <v>191</v>
@@ -4265,7 +4272,7 @@
       </c>
       <c r="M33" t="str">
         <f>'outlook-responses'!E40</f>
-        <v>Harper, Danni</v>
+        <v>den Heyer, Nell</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4287,25 +4294,25 @@
       </c>
       <c r="F34" t="str">
         <f>'outlook-responses'!I41</f>
-        <v>Kelly Kraska</v>
+        <v>Danni Harper</v>
       </c>
       <c r="G34" t="s">
         <v>191</v>
       </c>
       <c r="H34" t="str">
         <f>'outlook-responses'!H41</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I34" t="s">
         <v>191</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="str">
         <f>'outlook-responses'!B41</f>
@@ -4313,7 +4320,7 @@
       </c>
       <c r="M34" t="str">
         <f>'outlook-responses'!E41</f>
-        <v>Kraska, Kelly</v>
+        <v>Harper, Danni</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4335,25 +4342,25 @@
       </c>
       <c r="F35" t="str">
         <f>'outlook-responses'!I42</f>
-        <v>Lingbo Lee</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
       </c>
       <c r="H35" t="str">
         <f>'outlook-responses'!H42</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I35" t="s">
         <v>191</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="str">
         <f>'outlook-responses'!B42</f>
@@ -4361,7 +4368,7 @@
       </c>
       <c r="M35" t="str">
         <f>'outlook-responses'!E42</f>
-        <v>Lee, Lingbo</v>
+        <v>Kraska, Kelly</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4383,25 +4390,25 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I43</f>
-        <v>Ellen MacEachern</v>
+        <v>Lingbo Lee</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="str">
         <f>'outlook-responses'!H43</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="str">
         <f>'outlook-responses'!B43</f>
@@ -4409,7 +4416,7 @@
       </c>
       <c r="M36" t="str">
         <f>'outlook-responses'!E43</f>
-        <v>MacEachern, Ellen</v>
+        <v>Lee, Lingbo</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4431,7 +4438,7 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I44</f>
-        <v>Liz Miller</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
@@ -4457,7 +4464,7 @@
       </c>
       <c r="M37" t="str">
         <f>'outlook-responses'!E44</f>
-        <v>Miller, Liz</v>
+        <v>MacEachern, Ellen</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4479,25 +4486,25 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>George Nau</v>
+        <v>Liz Miller</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
       </c>
       <c r="H38" t="str">
         <f>'outlook-responses'!H45</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I38" t="s">
         <v>191</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="str">
         <f>'outlook-responses'!B45</f>
@@ -4505,7 +4512,7 @@
       </c>
       <c r="M38" t="str">
         <f>'outlook-responses'!E45</f>
-        <v>Nau, George</v>
+        <v>Miller, Liz</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4527,25 +4534,25 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>Gregory Puncher</v>
+        <v>George Nau</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
       </c>
       <c r="H39" t="str">
         <f>'outlook-responses'!H46</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I39" t="s">
         <v>191</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="str">
         <f>'outlook-responses'!B46</f>
@@ -4553,7 +4560,7 @@
       </c>
       <c r="M39" t="str">
         <f>'outlook-responses'!E46</f>
-        <v>Puncher, Gregory</v>
+        <v>Nau, George</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4575,25 +4582,25 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I47</f>
-        <v>Catriona Regnier-McKellar</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
         <f>'outlook-responses'!H47</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I40" t="s">
         <v>191</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="str">
         <f>'outlook-responses'!B47</f>
@@ -4601,7 +4608,7 @@
       </c>
       <c r="M40" t="str">
         <f>'outlook-responses'!E47</f>
-        <v>Regnier-McKellar, Catriona</v>
+        <v>Puncher, Gregory</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4623,7 +4630,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Emily Way-Nee</v>
+        <v>Catriona Regnier-McKellar</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -4649,7 +4656,7 @@
       </c>
       <c r="M41" t="str">
         <f>'outlook-responses'!E48</f>
-        <v>Way-Nee, Emily</v>
+        <v>Regnier-McKellar, Catriona</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4663,21 +4670,21 @@
         <v>191</v>
       </c>
       <c r="D42" t="str">
-        <f>'outlook-responses'!A50</f>
-        <v>NL</v>
+        <f>'outlook-responses'!A49</f>
+        <v>MAR</v>
       </c>
       <c r="E42" t="s">
         <v>191</v>
       </c>
       <c r="F42" t="str">
-        <f>'outlook-responses'!I50</f>
-        <v>Aaron Adamack</v>
+        <f>'outlook-responses'!I49</f>
+        <v>Emily Way-Nee</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
       </c>
       <c r="H42" t="str">
-        <f>'outlook-responses'!H50</f>
+        <f>'outlook-responses'!H49</f>
         <v>Virtual</v>
       </c>
       <c r="I42" t="s">
@@ -4692,12 +4699,12 @@
         <v>0</v>
       </c>
       <c r="L42" t="str">
-        <f>'outlook-responses'!B50</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B49</f>
+        <v>Maritimes</v>
       </c>
       <c r="M42" t="str">
-        <f>'outlook-responses'!E50</f>
-        <v>Adamack, Aaron</v>
+        <f>'outlook-responses'!E49</f>
+        <v>Way-Nee, Emily</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4719,7 +4726,7 @@
       </c>
       <c r="F43" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Kelly Antaya</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G43" t="s">
         <v>191</v>
@@ -4745,7 +4752,7 @@
       </c>
       <c r="M43" t="str">
         <f>'outlook-responses'!E51</f>
-        <v>Antaya, Kelly</v>
+        <v>Adamack, Aaron</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4767,7 +4774,7 @@
       </c>
       <c r="F44" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Dwight Drover</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -4793,7 +4800,7 @@
       </c>
       <c r="M44" t="str">
         <f>'outlook-responses'!E52</f>
-        <v>Drover, Dwight</v>
+        <v>Antaya, Kelly</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4815,25 +4822,25 @@
       </c>
       <c r="F45" t="str">
         <f>'outlook-responses'!I53</f>
-        <v>Gillian Forbes</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G45" t="s">
         <v>191</v>
       </c>
       <c r="H45" t="str">
         <f>'outlook-responses'!H53</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I45" t="s">
         <v>191</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="str">
         <f>'outlook-responses'!B53</f>
@@ -4841,7 +4848,7 @@
       </c>
       <c r="M45" t="str">
         <f>'outlook-responses'!E53</f>
-        <v>Forbes, Gillian</v>
+        <v>Drover, Dwight</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4863,25 +4870,25 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Victoria Healey</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
       </c>
       <c r="H46" t="str">
         <f>'outlook-responses'!H54</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I46" t="s">
         <v>191</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="str">
         <f>'outlook-responses'!B54</f>
@@ -4889,7 +4896,7 @@
       </c>
       <c r="M46" t="str">
         <f>'outlook-responses'!E54</f>
-        <v>Healey, Victoria</v>
+        <v>Forbes, Gillian</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4911,7 +4918,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Marc Legresley</v>
+        <v>Victoria Healey</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -4937,7 +4944,7 @@
       </c>
       <c r="M47" t="str">
         <f>'outlook-responses'!E55</f>
-        <v>Legresley, Marc</v>
+        <v>Healey, Victoria</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4959,7 +4966,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Andrea Perreault</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -4985,7 +4992,7 @@
       </c>
       <c r="M48" t="str">
         <f>'outlook-responses'!E56</f>
-        <v>Perreault, Andrea</v>
+        <v>Legresley, Marc</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5007,7 +5014,7 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Hannah Polaczek</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
@@ -5033,7 +5040,7 @@
       </c>
       <c r="M49" t="str">
         <f>'outlook-responses'!E57</f>
-        <v>Polaczek, Hannah</v>
+        <v>Perreault, Andrea</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5055,25 +5062,25 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Kierstyn Rideout</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
       </c>
       <c r="H50" t="str">
         <f>'outlook-responses'!H58</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I50" t="s">
         <v>191</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="str">
         <f>'outlook-responses'!B58</f>
@@ -5081,7 +5088,7 @@
       </c>
       <c r="M50" t="str">
         <f>'outlook-responses'!E58</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Polaczek, Hannah</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5103,7 +5110,7 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Meredith Schofield</v>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
@@ -5129,7 +5136,7 @@
       </c>
       <c r="M51" t="str">
         <f>'outlook-responses'!E59</f>
-        <v>Schofield, Meredith</v>
+        <v>Rideout, Kierstyn</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5151,7 +5158,7 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Jaime Thomson</v>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
@@ -5177,7 +5184,7 @@
       </c>
       <c r="M52" t="str">
         <f>'outlook-responses'!E60</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Schofield, Meredith</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5191,41 +5198,41 @@
         <v>191</v>
       </c>
       <c r="D53" t="str">
-        <f>'outlook-responses'!A62</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A61</f>
+        <v>NL</v>
       </c>
       <c r="E53" t="s">
         <v>191</v>
       </c>
       <c r="F53" t="str">
-        <f>'outlook-responses'!I62</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I61</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
       </c>
       <c r="H53" t="str">
-        <f>'outlook-responses'!H62</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H61</f>
+        <v>In person</v>
       </c>
       <c r="I53" t="s">
         <v>191</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="str">
-        <f>'outlook-responses'!B62</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B61</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M53" t="str">
-        <f>'outlook-responses'!E62</f>
-        <v>Campbell, Barbara</v>
+        <f>'outlook-responses'!E61</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5247,7 +5254,7 @@
       </c>
       <c r="F54" t="str">
         <f>'outlook-responses'!I63</f>
-        <v>Karalea Cantera</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
@@ -5273,7 +5280,7 @@
       </c>
       <c r="M54" t="str">
         <f>'outlook-responses'!E63</f>
-        <v>Cantera, Karalea</v>
+        <v>Campbell, Barbara</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5295,7 +5302,7 @@
       </c>
       <c r="F55" t="str">
         <f>'outlook-responses'!I64</f>
-        <v>Chelsea Cooke</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
@@ -5321,7 +5328,7 @@
       </c>
       <c r="M55" t="str">
         <f>'outlook-responses'!E64</f>
-        <v>Cooke, Chelsea</v>
+        <v>Cantera, Karalea</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5343,7 +5350,7 @@
       </c>
       <c r="F56" t="str">
         <f>'outlook-responses'!I65</f>
-        <v>Robyn Forrest</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
@@ -5369,7 +5376,7 @@
       </c>
       <c r="M56" t="str">
         <f>'outlook-responses'!E65</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Cooke, Chelsea</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5391,7 +5398,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5417,7 +5424,7 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v>Hawkshaw, Sarah</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5439,7 +5446,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Erin Herder</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -5465,7 +5472,7 @@
       </c>
       <c r="M58" t="str">
         <f>'outlook-responses'!E67</f>
-        <v>Herder, Erin</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,7 +5494,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Kendra Holt</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -5513,7 +5520,7 @@
       </c>
       <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v>Holt, Kendra</v>
+        <v>Herder, Erin</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5535,7 +5542,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Yeongha Jung</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -5561,7 +5568,7 @@
       </c>
       <c r="M60" t="str">
         <f>'outlook-responses'!E69</f>
-        <v>Jung, Yeongha</v>
+        <v>Holt, Kendra</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5583,7 +5590,7 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Madeline Lavery</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -5609,7 +5616,7 @@
       </c>
       <c r="M61" t="str">
         <f>'outlook-responses'!E70</f>
-        <v>Lavery, Madeline</v>
+        <v>Jung, Yeongha</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5631,7 +5638,7 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Kiana Matwichuk</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
@@ -5657,7 +5664,7 @@
       </c>
       <c r="M62" t="str">
         <f>'outlook-responses'!E71</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Lavery, Madeline</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5679,7 +5686,7 @@
       </c>
       <c r="F63" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Mackenzie Mazur</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
@@ -5705,7 +5712,7 @@
       </c>
       <c r="M63" t="str">
         <f>'outlook-responses'!E72</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Matwichuk, Kiana</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5727,7 +5734,7 @@
       </c>
       <c r="F64" t="str">
         <f>'outlook-responses'!I73</f>
-        <v>Judy McArthur</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
@@ -5753,7 +5760,7 @@
       </c>
       <c r="M64" t="str">
         <f>'outlook-responses'!E73</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Mazur, Mackenzie</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -5775,7 +5782,7 @@
       </c>
       <c r="F65" t="str">
         <f>'outlook-responses'!I74</f>
-        <v>Audrey Ty</v>
+        <v>Judy McArthur</v>
       </c>
       <c r="G65" t="s">
         <v>191</v>
@@ -5801,7 +5808,7 @@
       </c>
       <c r="M65" t="str">
         <f>'outlook-responses'!E74</f>
-        <v>Ty, Audrey</v>
+        <v xml:space="preserve">McArthur, Judy </v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -5823,7 +5830,7 @@
       </c>
       <c r="F66" t="str">
         <f>'outlook-responses'!I75</f>
-        <v>Stephen Wischniowski</v>
+        <v>Audrey Ty</v>
       </c>
       <c r="G66" t="s">
         <v>191</v>
@@ -5849,7 +5856,7 @@
       </c>
       <c r="M66" t="str">
         <f>'outlook-responses'!E75</f>
-        <v>Wischniowski, Stephen</v>
+        <v>Ty, Audrey</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -5871,7 +5878,7 @@
       </c>
       <c r="F67" t="str">
         <f>'outlook-responses'!I76</f>
-        <v>Emily Yungwirth</v>
+        <v>Stephen Wischniowski</v>
       </c>
       <c r="G67" t="s">
         <v>191</v>
@@ -5897,7 +5904,7 @@
       </c>
       <c r="M67" t="str">
         <f>'outlook-responses'!E76</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Wischniowski, Stephen</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -5911,21 +5918,21 @@
         <v>191</v>
       </c>
       <c r="D68" t="str">
-        <f>'outlook-responses'!A78</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A77</f>
+        <v>PAC</v>
       </c>
       <c r="E68" t="s">
         <v>191</v>
       </c>
       <c r="F68" t="str">
-        <f>'outlook-responses'!I78</f>
-        <v>Mathieu Desgagnés</v>
+        <f>'outlook-responses'!I77</f>
+        <v>Emily Yungwirth</v>
       </c>
       <c r="G68" t="s">
         <v>191</v>
       </c>
       <c r="H68" t="str">
-        <f>'outlook-responses'!H78</f>
+        <f>'outlook-responses'!H77</f>
         <v>Virtual</v>
       </c>
       <c r="I68" t="s">
@@ -5940,12 +5947,12 @@
         <v>0</v>
       </c>
       <c r="L68" t="str">
-        <f>'outlook-responses'!B78</f>
-        <v>Quebec</v>
+        <f>'outlook-responses'!B77</f>
+        <v>Pacific</v>
       </c>
       <c r="M68" t="str">
-        <f>'outlook-responses'!E78</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
+        <f>'outlook-responses'!E77</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -5967,25 +5974,25 @@
       </c>
       <c r="F69" t="str">
         <f>'outlook-responses'!I79</f>
-        <v>Hélène Dionne</v>
+        <v>Mathieu Desgagnés</v>
       </c>
       <c r="G69" t="s">
         <v>191</v>
       </c>
       <c r="H69" t="str">
         <f>'outlook-responses'!H79</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I69" t="s">
         <v>191</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:J72" si="3">IF(H69="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" ref="K69:K72" si="4">IF(H69="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L69" t="str">
         <f>'outlook-responses'!B79</f>
@@ -5993,7 +6000,7 @@
       </c>
       <c r="M69" t="str">
         <f>'outlook-responses'!E79</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6015,7 +6022,7 @@
       </c>
       <c r="F70" t="str">
         <f>'outlook-responses'!I80</f>
-        <v>Kim Emond</v>
+        <v>Hélène Dionne</v>
       </c>
       <c r="G70" t="s">
         <v>191</v>
@@ -6028,11 +6035,11 @@
         <v>191</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J70:J73" si="5">IF(H70="Virtual",1,0)</f>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K70:K73" si="6">IF(H70="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="L70" t="str">
@@ -6041,7 +6048,7 @@
       </c>
       <c r="M70" t="str">
         <f>'outlook-responses'!E80</f>
-        <v>Emond, Kim</v>
+        <v>Dionne, Hélène</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6063,25 +6070,25 @@
       </c>
       <c r="F71" t="str">
         <f>'outlook-responses'!I81</f>
-        <v>Nicolas Le Corre</v>
+        <v>Kim Emond</v>
       </c>
       <c r="G71" t="s">
         <v>191</v>
       </c>
       <c r="H71" t="str">
         <f>'outlook-responses'!H81</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I71" t="s">
         <v>191</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L71" t="str">
         <f>'outlook-responses'!B81</f>
@@ -6089,7 +6096,7 @@
       </c>
       <c r="M71" t="str">
         <f>'outlook-responses'!E81</f>
-        <v>LeCorre, Nicolas</v>
+        <v>Emond, Kim</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6111,7 +6118,7 @@
       </c>
       <c r="F72" t="str">
         <f>'outlook-responses'!I82</f>
-        <v>Andrew Smith</v>
+        <v>Nicolas Le Corre</v>
       </c>
       <c r="G72" t="s">
         <v>191</v>
@@ -6124,11 +6131,11 @@
         <v>191</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L72" t="str">
@@ -6137,7 +6144,7 @@
       </c>
       <c r="M72" t="str">
         <f>'outlook-responses'!E82</f>
-        <v>Smith, Andrew</v>
+        <v>LeCorre, Nicolas</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6148,6 +6155,54 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" t="str">
+        <f>'outlook-responses'!A83</f>
+        <v>QUE</v>
+      </c>
+      <c r="E73" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" t="str">
+        <f>'outlook-responses'!I83</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G73" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73" t="str">
+        <f>'outlook-responses'!H83</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I73" t="s">
+        <v>191</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L73" t="str">
+        <f>'outlook-responses'!B83</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M73" t="str">
+        <f>'outlook-responses'!E83</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6158,11 +6213,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6176,8 +6229,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M82)</f>
-        <v>69</v>
+        <f>SUM(M8:M83)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6185,7 +6238,7 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O82)</f>
+        <f>SUM(O8:O83)</f>
         <v>42</v>
       </c>
     </row>
@@ -6194,8 +6247,8 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N82)</f>
-        <v>27</v>
+        <f>SUM(N8:N83)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -6220,8 +6273,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C62+C35+C50+C78+C9</f>
-        <v>69</v>
+        <f>C19+C63+C36+C51+C79+C9</f>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -6515,31 +6568,31 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f>SUM(M19:M33)</f>
-        <v>15</v>
+        <f>SUM(M19:M34)</f>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>303</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
         <v>122</v>
       </c>
-      <c r="I19" t="s">
-        <v>208</v>
+      <c r="I19" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N33" si="2">IF(H19="In person",1,0)</f>
+        <f>IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O33" si="3">IF(H19="Virtual",1,0)</f>
+        <f>IF(H19="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6551,27 +6604,27 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>281</v>
+      <c r="I20" t="s">
+        <v>208</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f>IF(H20="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
+        <f>IF(H20="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6583,27 +6636,27 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
         <v>122</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f>IF(H21="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f>IF(H21="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6615,27 +6668,27 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
         <v>122</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f>IF(H22="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f>IF(H22="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6646,29 +6699,29 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
-        <v>288</v>
+      <c r="E23" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" t="s">
-        <v>287</v>
+        <v>122</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(H23="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(H23="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -6678,29 +6731,29 @@
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>283</v>
+      <c r="E24" t="s">
+        <v>288</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>284</v>
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>287</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(H24="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(H24="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -6711,27 +6764,27 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
         <v>122</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f>IF(H25="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f>IF(H25="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6743,27 +6796,27 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>104</v>
+        <v>285</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
         <v>122</v>
       </c>
-      <c r="I26" t="s">
-        <v>211</v>
+      <c r="I26" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f>IF(H26="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f>IF(H26="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6775,27 +6828,27 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>115</v>
+        <v>289</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>212</v>
+      <c r="I27" t="s">
+        <v>211</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f>IF(H27="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f>IF(H27="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6807,27 +6860,27 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
         <v>122</v>
       </c>
-      <c r="I28" t="s">
-        <v>213</v>
+      <c r="I28" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f>IF(H28="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f>IF(H28="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6839,27 +6892,27 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>117</v>
+        <v>147</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>214</v>
+      <c r="I29" t="s">
+        <v>213</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f>IF(H29="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f>IF(H29="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6871,27 +6924,27 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
         <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f>IF(H30="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f>IF(H30="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6903,27 +6956,27 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
         <v>122</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f>IF(H31="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f>IF(H31="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6935,27 +6988,27 @@
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
         <v>122</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f>IF(H32="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f>IF(H32="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6967,63 +7020,60 @@
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
         <v>122</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f>IF(H33="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f>IF(H33="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <f>SUM(M35:M48)</f>
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" t="s">
-        <v>218</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ref="N35:N48" si="4">IF(H35="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ref="O35:O48" si="5">IF(H35="Virtual",1,0)</f>
-        <v>1</v>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f>IF(H34="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f>IF(H34="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -7033,27 +7083,31 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>170</v>
+      <c r="C36">
+        <f>SUM(M36:M49)</f>
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H36" t="s">
         <v>140</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N36:N49" si="2">IF(H36="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O36:O49" si="3">IF(H36="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7064,28 +7118,28 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>62</v>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>220</v>
+        <v>140</v>
+      </c>
+      <c r="I37" t="s">
+        <v>219</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -7096,27 +7150,27 @@
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I38" t="s">
-        <v>221</v>
+        <v>122</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -7127,26 +7181,26 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H39" t="s">
         <v>140</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>222</v>
+      <c r="I39" t="s">
+        <v>221</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7158,26 +7212,26 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>159</v>
+        <v>33</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H40" t="s">
         <v>140</v>
       </c>
-      <c r="I40" t="s">
-        <v>223</v>
+      <c r="I40" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7189,27 +7243,27 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>131</v>
+        <v>158</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -7220,27 +7274,27 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -7251,27 +7305,27 @@
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -7282,26 +7336,26 @@
         <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H44" t="s">
         <v>122</v>
       </c>
       <c r="I44" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7312,28 +7366,28 @@
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>69</v>
+      <c r="E45" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O45">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -7343,28 +7397,28 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>130</v>
+      <c r="E46" t="s">
+        <v>69</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -7375,27 +7429,27 @@
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I47" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O47">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -7406,61 +7460,57 @@
         <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="H48" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
+        <v>282</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50">
-        <f>SUM(M50:M60)</f>
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>166</v>
-      </c>
-      <c r="H50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" t="s">
-        <v>227</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <f t="shared" ref="N50:N57" si="6">IF(H50="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f t="shared" ref="O50:O57" si="7">IF(H50="Virtual",1,0)</f>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7471,27 +7521,31 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
+      <c r="C51">
+        <f>SUM(M51:M61)</f>
+        <v>11</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="F51" t="s">
+        <v>166</v>
       </c>
       <c r="H51" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>228</v>
+      <c r="I51" t="s">
+        <v>227</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N51:N58" si="4">IF(H51="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O51:O58" si="5">IF(H51="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7502,27 +7556,27 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" t="s">
-        <v>144</v>
+      <c r="E52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H52" t="s">
         <v>140</v>
       </c>
-      <c r="I52" t="s">
-        <v>229</v>
+      <c r="I52" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7533,28 +7587,28 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>137</v>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>144</v>
       </c>
       <c r="H53" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -7565,27 +7619,27 @@
         <v>8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>295</v>
+        <v>136</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H54" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I54" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -7595,27 +7649,27 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F55" t="s">
-        <v>150</v>
+      <c r="E55" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7626,27 +7680,27 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>56</v>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>232</v>
+      <c r="I56" t="s">
+        <v>231</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7657,27 +7711,27 @@
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" t="s">
-        <v>148</v>
+      <c r="E57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H57" t="s">
         <v>140</v>
       </c>
-      <c r="I57" t="s">
-        <v>233</v>
+      <c r="I57" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7688,26 +7742,28 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>260</v>
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
       </c>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -7718,26 +7774,24 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="H59" t="s">
         <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <f>IF(H59="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O59">
-        <f>IF(H59="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7749,16 +7803,16 @@
         <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="H60" t="s">
         <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -7772,39 +7826,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62">
-        <f>SUM(M62:M76)</f>
-        <v>15</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H62" t="s">
-        <v>140</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <f t="shared" ref="N62:N76" si="8">IF(H62="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <f t="shared" ref="O62:O76" si="9">IF(H62="Virtual",1,0)</f>
-        <v>1</v>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" t="s">
+        <v>264</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f>IF(H61="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f>IF(H61="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -7814,27 +7864,31 @@
       <c r="B63" t="s">
         <v>16</v>
       </c>
+      <c r="C63">
+        <f>SUM(M63:M77)</f>
+        <v>15</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H63" t="s">
         <v>140</v>
       </c>
-      <c r="I63" t="s">
-        <v>236</v>
+      <c r="I63" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N63:N77" si="6">IF(H63="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O63:O77" si="7">IF(H63="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7846,25 +7900,26 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
       </c>
       <c r="I64" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O64">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7876,26 +7931,25 @@
         <v>16</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>59</v>
+        <v>255</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>237</v>
+      <c r="I65" t="s">
+        <v>257</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7907,26 +7961,26 @@
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>17</v>
+        <v>185</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
-      <c r="I66" t="s">
-        <v>238</v>
+      <c r="I66" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7938,26 +7992,26 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7969,26 +8023,26 @@
         <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8000,26 +8054,26 @@
         <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s">
         <v>140</v>
       </c>
       <c r="I69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8031,26 +8085,26 @@
         <v>16</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H70" t="s">
         <v>140</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>242</v>
+      <c r="I70" t="s">
+        <v>241</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8062,26 +8116,26 @@
         <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H71" t="s">
         <v>140</v>
       </c>
-      <c r="I71" t="s">
-        <v>243</v>
+      <c r="I71" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8093,26 +8147,26 @@
         <v>16</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H72" t="s">
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8124,26 +8178,26 @@
         <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s">
         <v>140</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>245</v>
+      <c r="I73" t="s">
+        <v>244</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8155,26 +8209,26 @@
         <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H74" t="s">
         <v>140</v>
       </c>
-      <c r="I74" t="s">
-        <v>246</v>
+      <c r="I74" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8186,26 +8240,26 @@
         <v>16</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H75" t="s">
         <v>140</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>247</v>
+      <c r="I75" t="s">
+        <v>246</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8217,61 +8271,57 @@
         <v>16</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H76" t="s">
         <v>140</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78">
-        <f>SUM(M78:M82)</f>
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>174</v>
-      </c>
-      <c r="F78" t="s">
-        <v>112</v>
-      </c>
-      <c r="H78" t="s">
-        <v>140</v>
-      </c>
-      <c r="I78" t="s">
-        <v>249</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <f t="shared" ref="N78:N82" si="10">IF(H78="In person",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <f t="shared" ref="O78:O82" si="11">IF(H78="Virtual",1,0)</f>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8282,28 +8332,32 @@
       <c r="B79" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>119</v>
+      <c r="C79">
+        <f>SUM(M79:M83)</f>
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>174</v>
+      </c>
+      <c r="F79" t="s">
+        <v>112</v>
       </c>
       <c r="H79" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="N79:N83" si="8">IF(H79="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="O79:O83" si="9">IF(H79="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -8314,26 +8368,26 @@
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H80" t="s">
         <v>122</v>
       </c>
       <c r="I80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8345,27 +8399,27 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O81">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -8376,32 +8430,63 @@
         <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H82" t="s">
         <v>140</v>
       </c>
       <c r="I82" t="s">
+        <v>252</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H83" t="s">
+        <v>140</v>
+      </c>
+      <c r="I83" t="s">
         <v>253</v>
       </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="11"/>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E50:O60">
-    <sortCondition ref="E50:E60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E19:O34">
+    <sortCondition ref="E19:E34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408AC26-077E-471F-BD08-9319000FDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC550F-08DC-4BF9-A66E-D5016B3F7E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="5" r:id="rId1"/>
@@ -2745,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6215,7 +6215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6588,11 +6588,11 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF(H19="In person",1,0)</f>
+        <f t="shared" ref="N19:N34" si="2">IF(H19="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>IF(H19="Virtual",1,0)</f>
+        <f t="shared" ref="O19:O34" si="3">IF(H19="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6620,11 +6620,11 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF(H20="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IF(H20="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6652,11 +6652,11 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(H21="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IF(H21="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6684,11 +6684,11 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <f>IF(H22="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IF(H22="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6716,11 +6716,11 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF(H23="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>IF(H23="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6748,11 +6748,11 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>IF(H24="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>IF(H24="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6780,11 +6780,11 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IF(H25="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>IF(H25="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6812,11 +6812,11 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF(H26="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>IF(H26="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6844,11 +6844,11 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>IF(H27="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>IF(H27="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6876,11 +6876,11 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f>IF(H28="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>IF(H28="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6908,11 +6908,11 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f>IF(H29="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f>IF(H29="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6940,11 +6940,11 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f>IF(H30="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O30">
-        <f>IF(H30="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6972,11 +6972,11 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f>IF(H31="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O31">
-        <f>IF(H31="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7004,11 +7004,11 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f>IF(H32="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O32">
-        <f>IF(H32="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7036,11 +7036,11 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f>IF(H33="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O33">
-        <f>IF(H33="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7068,11 +7068,11 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <f>IF(H34="In person",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O34">
-        <f>IF(H34="Virtual",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7103,11 +7103,11 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:N49" si="2">IF(H36="In person",1,0)</f>
+        <f t="shared" ref="N36:N49" si="4">IF(H36="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O49" si="3">IF(H36="Virtual",1,0)</f>
+        <f t="shared" ref="O36:O49" si="5">IF(H36="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7134,11 +7134,11 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7165,11 +7165,11 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7196,11 +7196,11 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7227,11 +7227,11 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7258,11 +7258,11 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7289,11 +7289,11 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7320,11 +7320,11 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7351,11 +7351,11 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7382,11 +7382,11 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7413,11 +7413,11 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7444,11 +7444,11 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7475,11 +7475,11 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7506,11 +7506,11 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7541,11 +7541,11 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" ref="N51:N58" si="4">IF(H51="In person",1,0)</f>
+        <f t="shared" ref="N51:N58" si="6">IF(H51="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:O58" si="5">IF(H51="Virtual",1,0)</f>
+        <f t="shared" ref="O51:O58" si="7">IF(H51="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7572,11 +7572,11 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7603,11 +7603,11 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7634,11 +7634,11 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7665,11 +7665,11 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7696,11 +7696,11 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7727,11 +7727,11 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7758,11 +7758,11 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7884,11 +7884,11 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" ref="N63:N77" si="6">IF(H63="In person",1,0)</f>
+        <f t="shared" ref="N63:N77" si="8">IF(H63="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" ref="O63:O77" si="7">IF(H63="Virtual",1,0)</f>
+        <f t="shared" ref="O63:O77" si="9">IF(H63="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7915,11 +7915,11 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O65">
@@ -7976,11 +7976,11 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8007,11 +8007,11 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8038,11 +8038,11 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8069,11 +8069,11 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8100,11 +8100,11 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8131,11 +8131,11 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8162,11 +8162,11 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8193,11 +8193,11 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8224,11 +8224,11 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8255,11 +8255,11 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8286,11 +8286,11 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8317,11 +8317,11 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8352,11 +8352,11 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79:N83" si="8">IF(H79="In person",1,0)</f>
+        <f t="shared" ref="N79:N83" si="10">IF(H79="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" ref="O79:O83" si="9">IF(H79="Virtual",1,0)</f>
+        <f t="shared" ref="O79:O83" si="11">IF(H79="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8383,11 +8383,11 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8414,11 +8414,11 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8445,11 +8445,11 @@
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -8476,11 +8476,11 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC550F-08DC-4BF9-A66E-D5016B3F7E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD4AD7-66C1-4BCF-BDF2-14BFDED7BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -1321,14 +1321,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>'for-README'!F4</f>
         <v>Laura Alsip</v>
@@ -1369,7 +1369,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>'for-README'!F5</f>
         <v>Lauren Burke</v>
@@ -1387,7 +1387,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>'for-README'!F6</f>
         <v>Kevin J Hedges</v>
@@ -1405,7 +1405,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>'for-README'!F7</f>
         <v>Michael Legge</v>
@@ -1423,7 +1423,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>'for-README'!F8</f>
         <v>Tracey Loewen</v>
@@ -1441,7 +1441,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>'for-README'!F9</f>
         <v>Brendan K Malley</v>
@@ -1459,7 +1459,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>'for-README'!F10</f>
         <v>Lenore J Vandenbyllaardt</v>
@@ -1477,7 +1477,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>'for-README'!F11</f>
         <v>Rick J Wastle</v>
@@ -1495,7 +1495,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>'for-README'!F12</f>
         <v>Xinhua Zhu</v>
@@ -1513,7 +1513,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>'for-README'!F13</f>
         <v>Jacob Burbank</v>
@@ -1540,7 +1540,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>'for-README'!F14</f>
         <v>Abby Daigle</v>
@@ -1567,7 +1567,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>'for-README'!F15</f>
         <v>Andrew Darcy</v>
@@ -1594,7 +1594,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>'for-README'!F16</f>
         <v>Isabelle Forest</v>
@@ -1621,7 +1621,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>'for-README'!F17</f>
         <v>Matthew Horsman</v>
@@ -1648,7 +1648,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>'for-README'!F18</f>
         <v>Samantha Hudson</v>
@@ -1675,7 +1675,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>'for-README'!F19</f>
         <v>Colin MacFarlane</v>
@@ -1702,7 +1702,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>'for-README'!F20</f>
         <v>Kelsey McGee</v>
@@ -1729,7 +1729,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>'for-README'!F21</f>
         <v>Kirby Morrill</v>
@@ -1756,7 +1756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>'for-README'!F22</f>
         <v>Daniel Ricard</v>
@@ -1783,7 +1783,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>'for-README'!F23</f>
         <v>Karen Robertson</v>
@@ -1810,7 +1810,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>'for-README'!F24</f>
         <v>Sylvie Robichaud</v>
@@ -1837,7 +1837,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>'for-README'!F25</f>
         <v>Nicolas Rolland</v>
@@ -1858,7 +1858,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>'for-README'!F26</f>
         <v>Jolene Sutton</v>
@@ -1876,7 +1876,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>'for-README'!F27</f>
         <v>François-Étienne Sylvain</v>
@@ -1903,7 +1903,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>'for-README'!F29</f>
         <v>Mark Billard</v>
@@ -1921,7 +1921,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>'for-README'!F30</f>
         <v>Lynn Collier</v>
@@ -1939,7 +1939,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>'for-README'!F31</f>
         <v>Peter Comeau</v>
@@ -1957,7 +1957,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>'for-README'!F32</f>
         <v>Tania Davignon-Burton</v>
@@ -1975,7 +1975,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>'for-README'!F33</f>
         <v>Nell den Heyer</v>
@@ -1993,7 +1993,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>'for-README'!F34</f>
         <v>Danni Harper</v>
@@ -2011,7 +2011,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>'for-README'!F35</f>
         <v>Kelly Kraska</v>
@@ -2029,7 +2029,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>'for-README'!F36</f>
         <v>Lingbo Lee</v>
@@ -2047,7 +2047,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>'for-README'!F37</f>
         <v>Ellen MacEachern</v>
@@ -2065,7 +2065,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>'for-README'!F38</f>
         <v>Liz Miller</v>
@@ -2083,7 +2083,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>'for-README'!F39</f>
         <v>George Nau</v>
@@ -2101,7 +2101,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>'for-README'!F40</f>
         <v>Gregory Puncher</v>
@@ -2119,7 +2119,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>'for-README'!F41</f>
         <v>Catriona Regnier-McKellar</v>
@@ -2137,7 +2137,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>'for-README'!F43</f>
         <v>Aaron Adamack</v>
@@ -2155,7 +2155,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>'for-README'!F44</f>
         <v>Kelly Antaya</v>
@@ -2173,7 +2173,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>'for-README'!F45</f>
         <v>Dwight Drover</v>
@@ -2191,7 +2191,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>'for-README'!F46</f>
         <v>Gillian Forbes</v>
@@ -2209,7 +2209,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>'for-README'!F47</f>
         <v>Victoria Healey</v>
@@ -2227,7 +2227,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>'for-README'!F48</f>
         <v>Marc Legresley</v>
@@ -2245,7 +2245,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>'for-README'!F49</f>
         <v>Andrea Perreault</v>
@@ -2263,7 +2263,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>'for-README'!F50</f>
         <v>Hannah Polaczek</v>
@@ -2281,7 +2281,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>'for-README'!F51</f>
         <v>Kierstyn Rideout</v>
@@ -2299,7 +2299,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>'for-README'!F52</f>
         <v>Meredith Schofield</v>
@@ -2317,7 +2317,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>'for-README'!F53</f>
         <v>Jaime Thomson</v>
@@ -2335,7 +2335,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>'for-README'!F54</f>
         <v>Barbara Campbell</v>
@@ -2353,7 +2353,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>'for-README'!F55</f>
         <v>Karalea Cantera</v>
@@ -2371,7 +2371,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>'for-README'!F56</f>
         <v>Chelsea Cooke</v>
@@ -2389,7 +2389,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>'for-README'!F57</f>
         <v>Robyn Forrest</v>
@@ -2407,7 +2407,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>'for-README'!F58</f>
         <v>Sarah Hawkshaw</v>
@@ -2425,7 +2425,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>'for-README'!F59</f>
         <v>Erin Herder</v>
@@ -2443,7 +2443,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>'for-README'!F60</f>
         <v>Kendra Holt</v>
@@ -2461,7 +2461,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>'for-README'!F61</f>
         <v>Yeongha Jung</v>
@@ -2479,7 +2479,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>'for-README'!F62</f>
         <v>Madeline Lavery</v>
@@ -2497,7 +2497,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>'for-README'!F63</f>
         <v>Kiana Matwichuk</v>
@@ -2515,7 +2515,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>'for-README'!F64</f>
         <v>Mackenzie Mazur</v>
@@ -2533,7 +2533,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>'for-README'!F65</f>
         <v>Judy McArthur</v>
@@ -2551,7 +2551,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>'for-README'!F66</f>
         <v>Audrey Ty</v>
@@ -2569,7 +2569,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>'for-README'!F67</f>
         <v>Stephen Wischniowski</v>
@@ -2587,7 +2587,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>'for-README'!F68</f>
         <v>Emily Yungwirth</v>
@@ -2605,7 +2605,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>'for-README'!F69</f>
         <v>Mathieu Desgagnés</v>
@@ -2623,7 +2623,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>'for-README'!F70</f>
         <v>Hélène Dionne</v>
@@ -2641,7 +2641,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>'for-README'!F71</f>
         <v>Kim Emond</v>
@@ -2659,7 +2659,7 @@
         <v>In person</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>'for-README'!F72</f>
         <v>Nicolas Le Corre</v>
@@ -2677,7 +2677,7 @@
         <v>Virtual</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>'for-README'!F73</f>
         <v>Andrew Smith</v>
@@ -2743,16 +2743,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
         <v>List of the 70 participants as of 2023-01-30 (28 in person and 42 virtual)</v>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>Alsip, Laura</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>Burke, Lauren (Lauren.Burke@dfo-mpo.gc.ca)</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>Hedges, Kevin</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>Legge, Michael</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>Loewen, Tracey</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>Malley, Brendan K</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>Vandenbyllaardt, Lenore</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>Wastle, Rick</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>Zhu, Xinhua</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>Burbank, Jacob</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>Daigle, Abby</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>Darcy, Andrew</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v xml:space="preserve">Forest, Isabelle </v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v xml:space="preserve">Horsman, Matthew </v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>Hudson, Samantha</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>MacFarlane, Colin</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>McGee, Kelsey</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>Morrill, Kirby</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>191</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>Ricard, Daniel</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>191</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>Robertson, Karen</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v xml:space="preserve">Robichaud, Sylvie </v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>Rolland, Nicolas</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v xml:space="preserve">Sutton, Jolene </v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v xml:space="preserve">Sylvain, François-Étienne </v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>Underhill, Kari</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>Billard, Mark</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>Collier, Lynn</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>Comeau, Peter</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>Davignon-Burton, Tania</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>191</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>den Heyer, Nell</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>Harper, Danni</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>Kraska, Kelly</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>Lee, Lingbo</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>MacEachern, Ellen</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>Miller, Liz</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>191</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>Nau, George</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>191</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>Puncher, Gregory</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>Regnier-McKellar, Catriona</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>Way-Nee, Emily</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>Adamack, Aaron</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>Antaya, Kelly</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>Drover, Dwight</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>Forbes, Gillian</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>Healey, Victoria</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>Legresley, Marc</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>Perreault, Andrea</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>Polaczek, Hannah</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>Rideout, Kierstyn</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>Schofield, Meredith</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v xml:space="preserve">Thomson, Jaime </v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>Campbell, Barbara</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>Cantera, Karalea</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>Cooke, Chelsea</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>191</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v xml:space="preserve">Forrest, Robyn </v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>Hawkshaw, Sarah</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>Herder, Erin</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>Holt, Kendra</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>Jung, Yeongha</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>Lavery, Madeline</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>Matwichuk, Kiana</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>Mazur, Mackenzie</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v xml:space="preserve">McArthur, Judy </v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>Ty, Audrey</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>Wischniowski, Stephen</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v xml:space="preserve">Yungwirth, Emily </v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v xml:space="preserve">Desgagnés, Mathieu </v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>Dionne, Hélène</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>191</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>Emond, Kim</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>LeCorre, Nicolas</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>191</v>
       </c>
@@ -6193,17 +6193,6 @@
       <c r="M73" t="str">
         <f>'outlook-responses'!E83</f>
         <v>Smith, Andrew</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74">
-        <v>71</v>
-      </c>
-      <c r="C74" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6215,16 +6204,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
@@ -6233,7 +6222,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>140</v>
       </c>
@@ -6242,7 +6231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>173</v>
       </c>
@@ -6251,7 +6240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>187</v>
       </c>
@@ -6268,7 +6257,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>188</v>
       </c>
@@ -6277,7 +6266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -6312,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -6343,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -6374,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -6405,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -6436,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -6467,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -6498,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -6529,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -6560,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -6596,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -6628,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -6660,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -6692,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -6724,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -6756,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -6788,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -6820,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -6852,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -6884,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -6916,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -6948,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>192</v>
       </c>
@@ -6980,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -7012,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -7044,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>192</v>
       </c>
@@ -7076,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -7111,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -7142,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -7173,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -7204,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -7235,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -7266,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -7297,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -7328,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -7359,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>194</v>
       </c>
@@ -7390,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>194</v>
       </c>
@@ -7421,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -7452,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -7483,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -7514,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>195</v>
       </c>
@@ -7549,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -7580,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -7611,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>195</v>
       </c>
@@ -7642,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>195</v>
       </c>
@@ -7673,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -7704,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>195</v>
       </c>
@@ -7735,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>195</v>
       </c>
@@ -7766,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>195</v>
       </c>
@@ -7795,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -7826,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -7857,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -7892,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -7923,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -7953,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -7984,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -8015,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -8046,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -8077,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>193</v>
       </c>
@@ -8108,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -8139,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -8170,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -8201,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -8232,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -8263,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>193</v>
       </c>
@@ -8294,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -8325,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -8360,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -8391,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -8422,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>196</v>
       </c>
@@ -8453,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -8499,12 +8488,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -8512,7 +8501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>IF('list-pre-google-forms'!E10=1,'list-pre-google-forms'!C10,"")</f>
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
@@ -8522,7 +8511,7 @@
         <v>Nicolas.Rolland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>IF('list-pre-google-forms'!E11=1,'list-pre-google-forms'!C11,"")</f>
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
@@ -8532,7 +8521,7 @@
         <v>Francois-Etienne.Sylvain@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>IF('list-pre-google-forms'!E12=1,'list-pre-google-forms'!C12,"")</f>
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
@@ -8542,7 +8531,7 @@
         <v>Jolene.Sutton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>IF('list-pre-google-forms'!E13=1,'list-pre-google-forms'!C13,"")</f>
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
@@ -8552,7 +8541,7 @@
         <v>Suncica.Avlijas@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>IF('list-pre-google-forms'!E14=1,'list-pre-google-forms'!C14,"")</f>
         <v/>
@@ -8562,7 +8551,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>IF('list-pre-google-forms'!E15=1,'list-pre-google-forms'!C15,"")</f>
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
@@ -8572,7 +8561,7 @@
         <v>Karen.Robertson@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>IF('list-pre-google-forms'!E16=1,'list-pre-google-forms'!C16,"")</f>
         <v>Joeleen.Savoie@dfo-mpo.gc.ca</v>
@@ -8582,7 +8571,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>IF('list-pre-google-forms'!E17=1,'list-pre-google-forms'!C17,"")</f>
         <v>Marie-France.Robichaud@dfo-mpo.gc.ca</v>
@@ -8592,7 +8581,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>IF('list-pre-google-forms'!E18=1,'list-pre-google-forms'!C18,"")</f>
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
@@ -8602,7 +8591,7 @@
         <v>Sylvie.Robichaud@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>IF('list-pre-google-forms'!E19=1,'list-pre-google-forms'!C19,"")</f>
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
@@ -8612,7 +8601,7 @@
         <v>Andrew.Darcy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>IF('list-pre-google-forms'!E20=1,'list-pre-google-forms'!C20,"")</f>
         <v>abby.daigle@dfo-mpo.gc.ca</v>
@@ -8622,7 +8611,7 @@
         <v>abby.daigle@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>IF('list-pre-google-forms'!E21=1,'list-pre-google-forms'!C21,"")</f>
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
@@ -8632,7 +8621,7 @@
         <v>matthew.horsman@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>IF('list-pre-google-forms'!E22=1,'list-pre-google-forms'!C22,"")</f>
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
@@ -8642,7 +8631,7 @@
         <v>kirby.morrill@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>IF('list-pre-google-forms'!E23=1,'list-pre-google-forms'!C23,"")</f>
         <v/>
@@ -8652,7 +8641,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>IF('list-pre-google-forms'!E24=1,'list-pre-google-forms'!C24,"")</f>
         <v/>
@@ -8662,7 +8651,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>IF('list-pre-google-forms'!E25=1,'list-pre-google-forms'!C25,"")</f>
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
@@ -8672,7 +8661,7 @@
         <v>Peter.Comeau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>IF('list-pre-google-forms'!E26=1,'list-pre-google-forms'!C26,"")</f>
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
@@ -8682,7 +8671,7 @@
         <v>Nell.denHeyer@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>IF('list-pre-google-forms'!E27=1,'list-pre-google-forms'!C27,"")</f>
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
@@ -8692,7 +8681,7 @@
         <v>Quinn.McCurdy@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>IF('list-pre-google-forms'!E28=1,'list-pre-google-forms'!C28,"")</f>
         <v>Dheeraj.Busawon@dfo-mpo.gc.ca</v>
@@ -8702,7 +8691,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>IF('list-pre-google-forms'!E29=1,'list-pre-google-forms'!C29,"")</f>
         <v>George.Nau@dfo-mpo.gc.ca</v>
@@ -8712,7 +8701,7 @@
         <v>George.Nau@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>IF('list-pre-google-forms'!E30=1,'list-pre-google-forms'!C30,"")</f>
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
@@ -8722,7 +8711,7 @@
         <v>Mark.Billard@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>IF('list-pre-google-forms'!E31=1,'list-pre-google-forms'!C31,"")</f>
         <v>lynn.collier@dfo-mpo.gc.ca</v>
@@ -8732,7 +8721,7 @@
         <v>lynn.collier@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>IF('list-pre-google-forms'!E32=1,'list-pre-google-forms'!C32,"")</f>
         <v>Kelly.Kraska@dfo-mpo.gc.ca</v>
@@ -8742,7 +8731,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>IF('list-pre-google-forms'!E33=1,'list-pre-google-forms'!C33,"")</f>
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
@@ -8752,7 +8741,7 @@
         <v>Tania.Davignon-Burton@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>IF('list-pre-google-forms'!E34=1,'list-pre-google-forms'!C34,"")</f>
         <v>Gregory.Puncher@dfo-mpo.gc.ca</v>
@@ -8762,7 +8751,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>IF('list-pre-google-forms'!E35=1,'list-pre-google-forms'!C35,"")</f>
         <v>Catriona.Regnier-McKellar@dfo-mpo.gc.ca</v>
@@ -8772,7 +8761,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>IF('list-pre-google-forms'!E36=1,'list-pre-google-forms'!C36,"")</f>
         <v/>
@@ -8782,7 +8771,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>IF('list-pre-google-forms'!E37=1,'list-pre-google-forms'!C37,"")</f>
         <v/>
@@ -8792,7 +8781,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>IF('list-pre-google-forms'!E38=1,'list-pre-google-forms'!C38,"")</f>
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
@@ -8802,7 +8791,7 @@
         <v>Kim.Emond@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>IF('list-pre-google-forms'!E39=1,'list-pre-google-forms'!C39,"")</f>
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
@@ -8812,7 +8801,7 @@
         <v>Nicolas.LeCorre@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>IF('list-pre-google-forms'!E40=1,'list-pre-google-forms'!C40,"")</f>
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
@@ -8822,7 +8811,7 @@
         <v>andrew.smith4@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>IF('list-pre-google-forms'!E41=1,'list-pre-google-forms'!C41,"")</f>
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
@@ -8832,7 +8821,7 @@
         <v>Renald.Belley@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>IF('list-pre-google-forms'!E42=1,'list-pre-google-forms'!C42,"")</f>
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
@@ -8842,7 +8831,7 @@
         <v>Mathieu.Desgagnes@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>IF('list-pre-google-forms'!E43=1,'list-pre-google-forms'!C43,"")</f>
         <v>helene.dionne@dfo-mpo.gc.ca</v>
@@ -8852,7 +8841,7 @@
         <v>helene.dionne@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>IF('list-pre-google-forms'!E44=1,'list-pre-google-forms'!C44,"")</f>
         <v/>
@@ -8862,7 +8851,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>IF('list-pre-google-forms'!E45=1,'list-pre-google-forms'!C45,"")</f>
         <v/>
@@ -8872,7 +8861,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>IF('list-pre-google-forms'!E46=1,'list-pre-google-forms'!C46,"")</f>
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
@@ -8882,7 +8871,7 @@
         <v>Laura.Alsip@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>IF('list-pre-google-forms'!E47=1,'list-pre-google-forms'!C47,"")</f>
         <v>Wojciech.Walkusz@dfo-mpo.gc.ca</v>
@@ -8892,7 +8881,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>IF('list-pre-google-forms'!E48=1,'list-pre-google-forms'!C48,"")</f>
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
@@ -8902,7 +8891,7 @@
         <v>Lauren.Wiens@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>IF('list-pre-google-forms'!E49=1,'list-pre-google-forms'!C49,"")</f>
         <v/>
@@ -8912,7 +8901,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>IF('list-pre-google-forms'!E50=1,'list-pre-google-forms'!C50,"")</f>
         <v/>
@@ -8922,7 +8911,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>IF('list-pre-google-forms'!E51=1,'list-pre-google-forms'!C51,"")</f>
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
@@ -8932,7 +8921,7 @@
         <v>Tracey.Loewen@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>IF('list-pre-google-forms'!E52=1,'list-pre-google-forms'!C52,"")</f>
         <v>Brendan.Malley@dfo-mpo.gc.ca</v>
@@ -8942,7 +8931,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>IF('list-pre-google-forms'!E53=1,'list-pre-google-forms'!C53,"")</f>
         <v/>
@@ -8952,7 +8941,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>IF('list-pre-google-forms'!E54=1,'list-pre-google-forms'!C54,"")</f>
         <v/>
@@ -8962,7 +8951,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>IF('list-pre-google-forms'!E55=1,'list-pre-google-forms'!C55,"")</f>
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
@@ -8972,7 +8961,7 @@
         <v>Sarah.Hawkshaw@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>IF('list-pre-google-forms'!E56=1,'list-pre-google-forms'!C56,"")</f>
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
@@ -8982,7 +8971,7 @@
         <v>Madeline.Lavery@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>IF('list-pre-google-forms'!E57=1,'list-pre-google-forms'!C57,"")</f>
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
@@ -8992,7 +8981,7 @@
         <v>Emily.Yungwirth@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>IF('list-pre-google-forms'!E58=1,'list-pre-google-forms'!C58,"")</f>
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
@@ -9002,7 +8991,7 @@
         <v>dana.haggarty@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>IF('list-pre-google-forms'!E59=1,'list-pre-google-forms'!C59,"")</f>
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
@@ -9012,7 +9001,7 @@
         <v>Kendra.Holt@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>IF('list-pre-google-forms'!E60=1,'list-pre-google-forms'!C60,"")</f>
         <v>Matthew.Siegle@dfo-mpo.gc.ca</v>
@@ -9022,7 +9011,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>IF('list-pre-google-forms'!E61=1,'list-pre-google-forms'!C61,"")</f>
         <v>Mackenzie.Mazur@dfo-mpo.gc.ca</v>
@@ -9032,7 +9021,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>IF('list-pre-google-forms'!E62=1,'list-pre-google-forms'!C62,"")</f>
         <v>Karalea.Cantera@dfo-mpo.gc.ca</v>
@@ -9042,7 +9031,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>IF('list-pre-google-forms'!E63=1,'list-pre-google-forms'!C63,"")</f>
         <v>Kiana.Matwichuk@dfo-mpo.gc.ca</v>
@@ -9052,7 +9041,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>IF('list-pre-google-forms'!E64=1,'list-pre-google-forms'!C64,"")</f>
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
@@ -9062,7 +9051,7 @@
         <v>Erin.Herder@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>IF('list-pre-google-forms'!E65=1,'list-pre-google-forms'!C65,"")</f>
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
@@ -9072,7 +9061,7 @@
         <v>Robyn.Forrest@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>IF('list-pre-google-forms'!E66=1,'list-pre-google-forms'!C66,"")</f>
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
@@ -9082,7 +9071,7 @@
         <v>yeongha.jung@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>IF('list-pre-google-forms'!E67=1,'list-pre-google-forms'!C67,"")</f>
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
@@ -9092,7 +9081,7 @@
         <v>barbara.campbell@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>IF('list-pre-google-forms'!E68=1,'list-pre-google-forms'!C68,"")</f>
         <v>stephen.wischniowski@dfo-mpo.gc.ca</v>
@@ -9102,7 +9091,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>IF('list-pre-google-forms'!E69=1,'list-pre-google-forms'!C69,"")</f>
         <v/>
@@ -9112,7 +9101,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>IF('list-pre-google-forms'!E70=1,'list-pre-google-forms'!C70,"")</f>
         <v/>
@@ -9122,7 +9111,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>IF('list-pre-google-forms'!E71=1,'list-pre-google-forms'!C71,"")</f>
         <v>Gillian.Forbes@dfo-mpo.gc.ca</v>
@@ -9132,7 +9121,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>IF('list-pre-google-forms'!E72=1,'list-pre-google-forms'!C72,"")</f>
         <v>Divya.Varkey@dfo-mpo.gc.ca</v>
@@ -9142,7 +9131,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>IF('list-pre-google-forms'!E73=1,'list-pre-google-forms'!C73,"")</f>
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
@@ -9152,7 +9141,7 @@
         <v>Aaron.Adamack@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>IF('list-pre-google-forms'!E74=1,'list-pre-google-forms'!C74,"")</f>
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
@@ -9162,7 +9151,7 @@
         <v>Meredith.Schofield@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>IF('list-pre-google-forms'!E75=1,'list-pre-google-forms'!C75,"")</f>
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
@@ -9172,7 +9161,7 @@
         <v>Andrea.Perreault@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>IF('list-pre-google-forms'!E76=1,'list-pre-google-forms'!C76,"")</f>
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
@@ -9182,7 +9171,7 @@
         <v>Laura.Wheeland@dfo-mpo.gc.ca</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>IF('list-pre-google-forms'!E77=1,'list-pre-google-forms'!C77,"")</f>
         <v/>
@@ -9192,7 +9181,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>IF('list-pre-google-forms'!E78=1,'list-pre-google-forms'!C78,"")</f>
         <v/>
@@ -9202,7 +9191,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>IF('list-pre-google-forms'!E79=1,'list-pre-google-forms'!C79,"")</f>
         <v/>
@@ -9212,7 +9201,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>IF('list-pre-google-forms'!E80=1,'list-pre-google-forms'!C80,"")</f>
         <v/>
@@ -9222,7 +9211,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>IF('list-pre-google-forms'!E81=1,'list-pre-google-forms'!C81,"")</f>
         <v/>
@@ -9232,7 +9221,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>IF('list-pre-google-forms'!E82=1,'list-pre-google-forms'!C82,"")</f>
         <v/>
@@ -9242,7 +9231,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>IF('list-pre-google-forms'!E83=1,'list-pre-google-forms'!C83,"")</f>
         <v/>
@@ -9252,7 +9241,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
         <f>IF('list-pre-google-forms'!G88=1,'list-pre-google-forms'!C88,"")</f>
         <v/>
@@ -9271,26 +9260,26 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -9302,7 +9291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -9312,7 +9301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>125</v>
@@ -9322,11 +9311,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -9352,11 +9341,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -9377,7 +9366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>141</v>
@@ -9403,7 +9392,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>142</v>
@@ -9429,7 +9418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>143</v>
@@ -9455,7 +9444,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -9481,7 +9470,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -9492,7 +9481,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>147</v>
@@ -9518,7 +9507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>66</v>
@@ -9544,7 +9533,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>65</v>
@@ -9570,7 +9559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>116</v>
@@ -9590,7 +9579,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>64</v>
@@ -9616,7 +9605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -9642,7 +9631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -9668,7 +9657,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>105</v>
@@ -9691,7 +9680,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -9699,7 +9688,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -9712,7 +9701,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>126</v>
@@ -9731,7 +9720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -9754,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -9777,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>68</v>
@@ -9803,7 +9792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -9826,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>70</v>
@@ -9849,7 +9838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -9872,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>129</v>
@@ -9889,7 +9878,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -9912,7 +9901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>130</v>
@@ -9929,7 +9918,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>133</v>
@@ -9943,13 +9932,13 @@
       </c>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -9962,7 +9951,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>73</v>
@@ -9985,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>107</v>
@@ -10005,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
@@ -10022,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
@@ -10039,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>111</v>
@@ -10056,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>118</v>
@@ -10073,12 +10062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -10091,7 +10080,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>74</v>
@@ -10114,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
@@ -10131,7 +10120,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
@@ -10154,12 +10143,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -10172,7 +10161,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -10195,7 +10184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>77</v>
@@ -10212,7 +10201,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="E53" t="str">
         <f t="shared" si="4"/>
@@ -10223,7 +10212,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -10236,7 +10225,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>78</v>
@@ -10259,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -10282,7 +10271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>79</v>
@@ -10305,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -10328,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>80</v>
@@ -10351,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>81</v>
@@ -10368,7 +10357,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>82</v>
@@ -10385,7 +10374,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>83</v>
@@ -10402,7 +10391,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>84</v>
@@ -10419,7 +10408,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>85</v>
@@ -10442,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
         <v>58</v>
@@ -10465,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1" t="s">
         <v>92</v>
@@ -10488,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1" t="s">
         <v>93</v>
@@ -10511,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
@@ -10531,7 +10520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="C69" s="2"/>
       <c r="E69" t="str">
@@ -10543,7 +10532,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -10556,7 +10545,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1" t="s">
         <v>136</v>
@@ -10573,7 +10562,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1" t="s">
         <v>86</v>
@@ -10590,7 +10579,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1" t="s">
         <v>87</v>
@@ -10613,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1" t="s">
         <v>88</v>
@@ -10636,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1" t="s">
         <v>89</v>
@@ -10659,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1" t="s">
         <v>138</v>
@@ -10679,23 +10668,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
@@ -10705,7 +10694,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
@@ -10715,7 +10704,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>126</v>
       </c>
@@ -10728,7 +10717,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>114</v>
       </c>
@@ -10741,18 +10730,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F86"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F87"/>
     </row>
   </sheetData>

--- a/planning/workshop-participants.xlsx
+++ b/planning/workshop-participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicardD\Documents\GitHub\ageing-best-practices-2022\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD4AD7-66C1-4BCF-BDF2-14BFDED7BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947C054-5D2F-4EE2-BDA9-97D798B33F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -796,9 +796,6 @@
     <t>Kim Emond</t>
   </si>
   <si>
-    <t>Nicolas Le Corre</t>
-  </si>
-  <si>
     <t>Andrew Smith</t>
   </si>
   <si>
@@ -928,15 +925,9 @@
     <t>Victoria.Healey@dfo-mpo.gc.ca</t>
   </si>
   <si>
-    <t>Lee, Lingbo</t>
-  </si>
-  <si>
     <t>Lingbo.Li@dfo-mpo.gc.ca</t>
   </si>
   <si>
-    <t>Lingbo Lee</t>
-  </si>
-  <si>
     <t>Way-Nee, Emily</t>
   </si>
   <si>
@@ -953,6 +944,90 @@
   </si>
   <si>
     <t>Jacob Burbank</t>
+  </si>
+  <si>
+    <t>Jessie.Mcintyre@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Jessie Mcintyre</t>
+  </si>
+  <si>
+    <t>Mcintyre, Jessie</t>
+  </si>
+  <si>
+    <t>Li, Lingbo</t>
+  </si>
+  <si>
+    <t>Lingbo Li</t>
+  </si>
+  <si>
+    <t>Gabrielle.Wilson@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Wilson, Gabrielle</t>
+  </si>
+  <si>
+    <t>Gabrielle, Wilson</t>
+  </si>
+  <si>
+    <t>Debertin, Allan</t>
+  </si>
+  <si>
+    <t>Allan.Debertin@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Allan Debertin</t>
+  </si>
+  <si>
+    <t>Chelsea.Rothkop@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Chelsea Rothkop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothkop, Chelsea </t>
+  </si>
+  <si>
+    <t>Maya.Miller@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Maya Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miller, Maya </t>
+  </si>
+  <si>
+    <t>MaryJane.Hudson@dfo-mpo.gc.ca</t>
+  </si>
+  <si>
+    <t>Mary-Jane Hudson</t>
+  </si>
+  <si>
+    <t>Hudson, Mary-Jane</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>Dalhousie University</t>
+  </si>
+  <si>
+    <t>Weise, Ellie</t>
+  </si>
+  <si>
+    <t>el707596@dal.ca</t>
+  </si>
+  <si>
+    <t>Christopher.Corriveau@dal.ca</t>
+  </si>
+  <si>
+    <t>Corriveau, Christopher</t>
+  </si>
+  <si>
+    <t>Christopher Corriveau</t>
+  </si>
+  <si>
+    <t>Ellie Weise</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF12B36-A000-4AB0-AEB0-CA02D18FD795}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1325,7 +1400,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1333,22 +1408,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" t="s">
         <v>268</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" t="s">
         <v>269</v>
-      </c>
-      <c r="F2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1368,6 +1443,9 @@
         <f>'for-README'!H4</f>
         <v>Virtual</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
@@ -1386,6 +1464,9 @@
         <f>'for-README'!H5</f>
         <v>Virtual</v>
       </c>
+      <c r="E4" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
@@ -1404,6 +1485,9 @@
         <f>'for-README'!H6</f>
         <v>Virtual</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
@@ -1422,6 +1506,9 @@
         <f>'for-README'!H7</f>
         <v>In person</v>
       </c>
+      <c r="E6" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
@@ -1440,6 +1527,9 @@
         <f>'for-README'!H8</f>
         <v>In person</v>
       </c>
+      <c r="E7" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
@@ -1458,6 +1548,9 @@
         <f>'for-README'!H9</f>
         <v>Virtual</v>
       </c>
+      <c r="E8" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
@@ -1476,6 +1569,9 @@
         <f>'for-README'!H10</f>
         <v>Virtual</v>
       </c>
+      <c r="E9" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
@@ -1494,6 +1590,9 @@
         <f>'for-README'!H11</f>
         <v>Virtual</v>
       </c>
+      <c r="E10" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
@@ -1512,6 +1611,9 @@
         <f>'for-README'!H12</f>
         <v>Virtual</v>
       </c>
+      <c r="E11" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
@@ -1531,14 +1633,10 @@
         <v>In person</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
@@ -1558,14 +1656,10 @@
         <v>In person</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
@@ -1585,14 +1679,10 @@
         <v>In person</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
@@ -1612,14 +1702,10 @@
         <v>In person</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
@@ -1639,14 +1725,10 @@
         <v>In person</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
@@ -1666,14 +1748,10 @@
         <v>Virtual</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
@@ -1693,14 +1771,10 @@
         <v>In person</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
@@ -1720,14 +1794,10 @@
         <v>In person</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
@@ -1747,14 +1817,10 @@
         <v>In person</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
@@ -1774,14 +1840,10 @@
         <v>In person</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
@@ -1801,14 +1863,10 @@
         <v>In person</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
@@ -1828,14 +1886,10 @@
         <v>In person</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
@@ -1854,7 +1908,9 @@
         <f>'for-README'!H25</f>
         <v>In person</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
@@ -1875,6 +1931,9 @@
         <f>'for-README'!H26</f>
         <v>In person</v>
       </c>
+      <c r="E25" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
@@ -1894,856 +1953,1132 @@
         <v>In person</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
+        <f>'for-README'!F28</f>
+        <v>Kari Underhill</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'for-README'!M28</f>
+        <v>Underhill, Kari</v>
+      </c>
+      <c r="C27" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L28, " Region")</f>
+        <v>DFO Science - Gulf Region</v>
+      </c>
+      <c r="D27" t="str">
+        <f>'for-README'!H28</f>
+        <v>In person</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
         <f>'for-README'!F29</f>
         <v>Mark Billard</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <f>'for-README'!M29</f>
         <v>Billard, Mark</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L29, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <f>'for-README'!H29</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="str">
+      <c r="E28" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
         <f>'for-README'!F30</f>
         <v>Lynn Collier</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <f>'for-README'!M30</f>
         <v>Collier, Lynn</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C29" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L30, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <f>'for-README'!H30</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="str">
+      <c r="E29" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <f>'for-README'!F31</f>
         <v>Peter Comeau</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B30" t="str">
         <f>'for-README'!M31</f>
         <v>Comeau, Peter</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C30" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L31, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" t="str">
         <f>'for-README'!H31</f>
         <v>In person</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="str">
+      <c r="E30" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <f>'for-README'!F32</f>
         <v>Tania Davignon-Burton</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B31" t="str">
         <f>'for-README'!M32</f>
         <v>Davignon-Burton, Tania</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C31" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L32, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <f>'for-README'!H32</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="str">
+      <c r="E31" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <f>'for-README'!F33</f>
-        <v>Nell den Heyer</v>
-      </c>
-      <c r="B31" t="str">
+        <v>Allan Debertin</v>
+      </c>
+      <c r="B32" t="str">
         <f>'for-README'!M33</f>
-        <v>den Heyer, Nell</v>
-      </c>
-      <c r="C31" t="str">
+        <v>Debertin, Allan</v>
+      </c>
+      <c r="C32" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L33, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D32" t="str">
         <f>'for-README'!H33</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="str">
+      <c r="E32" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
         <f>'for-README'!F34</f>
-        <v>Danni Harper</v>
-      </c>
-      <c r="B32" t="str">
+        <v>Nell den Heyer</v>
+      </c>
+      <c r="B33" t="str">
         <f>'for-README'!M34</f>
-        <v>Harper, Danni</v>
-      </c>
-      <c r="C32" t="str">
+        <v>den Heyer, Nell</v>
+      </c>
+      <c r="C33" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L34, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D33" t="str">
         <f>'for-README'!H34</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="str">
+      <c r="E33" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
         <f>'for-README'!F35</f>
-        <v>Kelly Kraska</v>
-      </c>
-      <c r="B33" t="str">
+        <v>Danni Harper</v>
+      </c>
+      <c r="B34" t="str">
         <f>'for-README'!M35</f>
-        <v>Kraska, Kelly</v>
-      </c>
-      <c r="C33" t="str">
+        <v>Harper, Danni</v>
+      </c>
+      <c r="C34" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L35, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D34" t="str">
         <f>'for-README'!H35</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
         <f>'for-README'!F36</f>
-        <v>Lingbo Lee</v>
-      </c>
-      <c r="B34" t="str">
+        <v>Kelly Kraska</v>
+      </c>
+      <c r="B35" t="str">
         <f>'for-README'!M36</f>
-        <v>Lee, Lingbo</v>
-      </c>
-      <c r="C34" t="str">
+        <v>Kraska, Kelly</v>
+      </c>
+      <c r="C35" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L36, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D35" t="str">
         <f>'for-README'!H36</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="str">
+        <v>In person</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
         <f>'for-README'!F37</f>
-        <v>Ellen MacEachern</v>
-      </c>
-      <c r="B35" t="str">
+        <v>Lingbo Li</v>
+      </c>
+      <c r="B36" t="str">
         <f>'for-README'!M37</f>
-        <v>MacEachern, Ellen</v>
-      </c>
-      <c r="C35" t="str">
+        <v>Li, Lingbo</v>
+      </c>
+      <c r="C36" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L37, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D36" t="str">
         <f>'for-README'!H37</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
         <f>'for-README'!F38</f>
-        <v>Liz Miller</v>
-      </c>
-      <c r="B36" t="str">
+        <v>Ellen MacEachern</v>
+      </c>
+      <c r="B37" t="str">
         <f>'for-README'!M38</f>
-        <v>Miller, Liz</v>
-      </c>
-      <c r="C36" t="str">
+        <v>MacEachern, Ellen</v>
+      </c>
+      <c r="C37" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L38, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D37" t="str">
         <f>'for-README'!H38</f>
         <v>In person</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="str">
+      <c r="E37" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
         <f>'for-README'!F39</f>
-        <v>George Nau</v>
-      </c>
-      <c r="B37" t="str">
+        <v>Jessie Mcintyre</v>
+      </c>
+      <c r="B38" t="str">
         <f>'for-README'!M39</f>
-        <v>Nau, George</v>
-      </c>
-      <c r="C37" t="str">
+        <v>Mcintyre, Jessie</v>
+      </c>
+      <c r="C38" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L39, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D38" t="str">
         <f>'for-README'!H39</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="str">
+      <c r="E38" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
         <f>'for-README'!F40</f>
-        <v>Gregory Puncher</v>
-      </c>
-      <c r="B38" t="str">
+        <v>Liz Miller</v>
+      </c>
+      <c r="B39" t="str">
         <f>'for-README'!M40</f>
-        <v>Puncher, Gregory</v>
-      </c>
-      <c r="C38" t="str">
+        <v>Miller, Liz</v>
+      </c>
+      <c r="C39" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L40, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D39" t="str">
         <f>'for-README'!H40</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
         <f>'for-README'!F41</f>
-        <v>Catriona Regnier-McKellar</v>
-      </c>
-      <c r="B39" t="str">
+        <v>George Nau</v>
+      </c>
+      <c r="B40" t="str">
         <f>'for-README'!M41</f>
-        <v>Regnier-McKellar, Catriona</v>
-      </c>
-      <c r="C39" t="str">
+        <v>Nau, George</v>
+      </c>
+      <c r="C40" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L41, " Region")</f>
         <v>DFO Science - Maritimes Region</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D40" t="str">
         <f>'for-README'!H41</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="str">
+      <c r="E40" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>'for-README'!F42</f>
+        <v>Gregory Puncher</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'for-README'!M42</f>
+        <v>Puncher, Gregory</v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L42, " Region")</f>
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D41" t="str">
+        <f>'for-README'!H42</f>
+        <v>In person</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
         <f>'for-README'!F43</f>
-        <v>Aaron Adamack</v>
-      </c>
-      <c r="B40" t="str">
+        <v>Catriona Regnier-McKellar</v>
+      </c>
+      <c r="B42" t="str">
         <f>'for-README'!M43</f>
-        <v>Adamack, Aaron</v>
-      </c>
-      <c r="C40" t="str">
+        <v>Regnier-McKellar, Catriona</v>
+      </c>
+      <c r="C42" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L43, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
-      </c>
-      <c r="D40" t="str">
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D42" t="str">
         <f>'for-README'!H43</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="str">
+      <c r="E42" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
         <f>'for-README'!F44</f>
-        <v>Kelly Antaya</v>
-      </c>
-      <c r="B41" t="str">
+        <v>Emily Way-Nee</v>
+      </c>
+      <c r="B43" t="str">
         <f>'for-README'!M44</f>
-        <v>Antaya, Kelly</v>
-      </c>
-      <c r="C41" t="str">
+        <v>Way-Nee, Emily</v>
+      </c>
+      <c r="C43" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L44, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
-      </c>
-      <c r="D41" t="str">
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D43" t="str">
         <f>'for-README'!H44</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="str">
+      <c r="E43" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
         <f>'for-README'!F45</f>
-        <v>Dwight Drover</v>
-      </c>
-      <c r="B42" t="str">
+        <v>Gabrielle, Wilson</v>
+      </c>
+      <c r="B44" t="str">
         <f>'for-README'!M45</f>
-        <v>Drover, Dwight</v>
-      </c>
-      <c r="C42" t="str">
+        <v>Wilson, Gabrielle</v>
+      </c>
+      <c r="C44" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L45, " Region")</f>
-        <v>DFO Science - Newfoundland and Labrador Region</v>
-      </c>
-      <c r="D42" t="str">
+        <v>DFO Science - Maritimes Region</v>
+      </c>
+      <c r="D44" t="str">
         <f>'for-README'!H45</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="str">
+      <c r="E44" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
         <f>'for-README'!F46</f>
-        <v>Gillian Forbes</v>
-      </c>
-      <c r="B43" t="str">
+        <v>Aaron Adamack</v>
+      </c>
+      <c r="B45" t="str">
         <f>'for-README'!M46</f>
-        <v>Forbes, Gillian</v>
-      </c>
-      <c r="C43" t="str">
+        <v>Adamack, Aaron</v>
+      </c>
+      <c r="C45" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L46, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D45" t="str">
         <f>'for-README'!H46</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
         <f>'for-README'!F47</f>
-        <v>Victoria Healey</v>
-      </c>
-      <c r="B44" t="str">
+        <v>Kelly Antaya</v>
+      </c>
+      <c r="B46" t="str">
         <f>'for-README'!M47</f>
-        <v>Healey, Victoria</v>
-      </c>
-      <c r="C44" t="str">
+        <v>Antaya, Kelly</v>
+      </c>
+      <c r="C46" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L47, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D46" t="str">
         <f>'for-README'!H47</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="str">
+      <c r="E46" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
         <f>'for-README'!F48</f>
-        <v>Marc Legresley</v>
-      </c>
-      <c r="B45" t="str">
+        <v>Dwight Drover</v>
+      </c>
+      <c r="B47" t="str">
         <f>'for-README'!M48</f>
-        <v>Legresley, Marc</v>
-      </c>
-      <c r="C45" t="str">
+        <v>Drover, Dwight</v>
+      </c>
+      <c r="C47" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L48, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D47" t="str">
         <f>'for-README'!H48</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="str">
+      <c r="E47" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
         <f>'for-README'!F49</f>
-        <v>Andrea Perreault</v>
-      </c>
-      <c r="B46" t="str">
+        <v>Gillian Forbes</v>
+      </c>
+      <c r="B48" t="str">
         <f>'for-README'!M49</f>
-        <v>Perreault, Andrea</v>
-      </c>
-      <c r="C46" t="str">
+        <v>Forbes, Gillian</v>
+      </c>
+      <c r="C48" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L49, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D48" t="str">
         <f>'for-README'!H49</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="str">
+        <v>In person</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
         <f>'for-README'!F50</f>
-        <v>Hannah Polaczek</v>
-      </c>
-      <c r="B47" t="str">
+        <v>Victoria Healey</v>
+      </c>
+      <c r="B49" t="str">
         <f>'for-README'!M50</f>
-        <v>Polaczek, Hannah</v>
-      </c>
-      <c r="C47" t="str">
+        <v>Healey, Victoria</v>
+      </c>
+      <c r="C49" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L50, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D49" t="str">
         <f>'for-README'!H50</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="str">
+      <c r="E49" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
         <f>'for-README'!F51</f>
-        <v>Kierstyn Rideout</v>
-      </c>
-      <c r="B48" t="str">
+        <v>Marc Legresley</v>
+      </c>
+      <c r="B50" t="str">
         <f>'for-README'!M51</f>
-        <v>Rideout, Kierstyn</v>
-      </c>
-      <c r="C48" t="str">
+        <v>Legresley, Marc</v>
+      </c>
+      <c r="C50" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L51, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D50" t="str">
         <f>'for-README'!H51</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
         <f>'for-README'!F52</f>
-        <v>Meredith Schofield</v>
-      </c>
-      <c r="B49" t="str">
+        <v>Andrea Perreault</v>
+      </c>
+      <c r="B51" t="str">
         <f>'for-README'!M52</f>
-        <v>Schofield, Meredith</v>
-      </c>
-      <c r="C49" t="str">
+        <v>Perreault, Andrea</v>
+      </c>
+      <c r="C51" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L52, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D51" t="str">
         <f>'for-README'!H52</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
         <f>'for-README'!F53</f>
-        <v>Jaime Thomson</v>
-      </c>
-      <c r="B50" t="str">
+        <v>Hannah Polaczek</v>
+      </c>
+      <c r="B52" t="str">
         <f>'for-README'!M53</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
-      </c>
-      <c r="C50" t="str">
+        <v>Polaczek, Hannah</v>
+      </c>
+      <c r="C52" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L53, " Region")</f>
         <v>DFO Science - Newfoundland and Labrador Region</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D52" t="str">
         <f>'for-README'!H53</f>
+        <v>Virtual</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>'for-README'!F54</f>
+        <v>Kierstyn Rideout</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'for-README'!M54</f>
+        <v>Rideout, Kierstyn</v>
+      </c>
+      <c r="C53" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D53" t="str">
+        <f>'for-README'!H54</f>
         <v>In person</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="str">
-        <f>'for-README'!F54</f>
+      <c r="E53" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>'for-README'!F55</f>
+        <v>Meredith Schofield</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'for-README'!M55</f>
+        <v>Schofield, Meredith</v>
+      </c>
+      <c r="C54" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D54" t="str">
+        <f>'for-README'!H55</f>
+        <v>In person</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>'for-README'!F56</f>
+        <v>Jaime Thomson</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'for-README'!M56</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
+      </c>
+      <c r="C55" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
+        <v>DFO Science - Newfoundland and Labrador Region</v>
+      </c>
+      <c r="D55" t="str">
+        <f>'for-README'!H56</f>
+        <v>In person</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>'for-README'!F57</f>
         <v>Barbara Campbell</v>
       </c>
-      <c r="B51" t="str">
-        <f>'for-README'!M54</f>
+      <c r="B56" t="str">
+        <f>'for-README'!M57</f>
         <v>Campbell, Barbara</v>
       </c>
-      <c r="C51" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L54, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
-      </c>
-      <c r="D51" t="str">
-        <f>'for-README'!H54</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="str">
-        <f>'for-README'!F55</f>
-        <v>Karalea Cantera</v>
-      </c>
-      <c r="B52" t="str">
-        <f>'for-README'!M55</f>
-        <v>Cantera, Karalea</v>
-      </c>
-      <c r="C52" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L55, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
-      </c>
-      <c r="D52" t="str">
-        <f>'for-README'!H55</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="str">
-        <f>'for-README'!F56</f>
-        <v>Chelsea Cooke</v>
-      </c>
-      <c r="B53" t="str">
-        <f>'for-README'!M56</f>
-        <v>Cooke, Chelsea</v>
-      </c>
-      <c r="C53" t="str">
-        <f>CONCATENATE("DFO Science - ", 'for-README'!L56, " Region")</f>
-        <v>DFO Science - Pacific Region</v>
-      </c>
-      <c r="D53" t="str">
-        <f>'for-README'!H56</f>
-        <v>Virtual</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="str">
-        <f>'for-README'!F57</f>
-        <v>Robyn Forrest</v>
-      </c>
-      <c r="B54" t="str">
-        <f>'for-README'!M57</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
-      </c>
-      <c r="C54" t="str">
+      <c r="C56" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L57, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D56" t="str">
         <f>'for-README'!H57</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="str">
+      <c r="E56" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
         <f>'for-README'!F58</f>
-        <v>Sarah Hawkshaw</v>
-      </c>
-      <c r="B55" t="str">
+        <v>Karalea Cantera</v>
+      </c>
+      <c r="B57" t="str">
         <f>'for-README'!M58</f>
-        <v>Hawkshaw, Sarah</v>
-      </c>
-      <c r="C55" t="str">
+        <v>Cantera, Karalea</v>
+      </c>
+      <c r="C57" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L58, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D57" t="str">
         <f>'for-README'!H58</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="str">
+      <c r="E57" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
         <f>'for-README'!F59</f>
-        <v>Erin Herder</v>
-      </c>
-      <c r="B56" t="str">
+        <v>Chelsea Cooke</v>
+      </c>
+      <c r="B58" t="str">
         <f>'for-README'!M59</f>
-        <v>Herder, Erin</v>
-      </c>
-      <c r="C56" t="str">
+        <v>Cooke, Chelsea</v>
+      </c>
+      <c r="C58" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L59, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D58" t="str">
         <f>'for-README'!H59</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="str">
+      <c r="E58" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
         <f>'for-README'!F60</f>
-        <v>Kendra Holt</v>
-      </c>
-      <c r="B57" t="str">
+        <v>Robyn Forrest</v>
+      </c>
+      <c r="B59" t="str">
         <f>'for-README'!M60</f>
-        <v>Holt, Kendra</v>
-      </c>
-      <c r="C57" t="str">
+        <v xml:space="preserve">Forrest, Robyn </v>
+      </c>
+      <c r="C59" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L60, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D59" t="str">
         <f>'for-README'!H60</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="str">
+      <c r="E59" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
         <f>'for-README'!F61</f>
-        <v>Yeongha Jung</v>
-      </c>
-      <c r="B58" t="str">
+        <v>Sarah Hawkshaw</v>
+      </c>
+      <c r="B60" t="str">
         <f>'for-README'!M61</f>
-        <v>Jung, Yeongha</v>
-      </c>
-      <c r="C58" t="str">
+        <v>Hawkshaw, Sarah</v>
+      </c>
+      <c r="C60" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L61, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D60" t="str">
         <f>'for-README'!H61</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="str">
+      <c r="E60" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
         <f>'for-README'!F62</f>
-        <v>Madeline Lavery</v>
-      </c>
-      <c r="B59" t="str">
+        <v>Erin Herder</v>
+      </c>
+      <c r="B61" t="str">
         <f>'for-README'!M62</f>
-        <v>Lavery, Madeline</v>
-      </c>
-      <c r="C59" t="str">
+        <v>Herder, Erin</v>
+      </c>
+      <c r="C61" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L62, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D61" t="str">
         <f>'for-README'!H62</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="str">
+      <c r="E61" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
         <f>'for-README'!F63</f>
-        <v>Kiana Matwichuk</v>
-      </c>
-      <c r="B60" t="str">
+        <v>Kendra Holt</v>
+      </c>
+      <c r="B62" t="str">
         <f>'for-README'!M63</f>
-        <v>Matwichuk, Kiana</v>
-      </c>
-      <c r="C60" t="str">
+        <v>Holt, Kendra</v>
+      </c>
+      <c r="C62" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L63, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D62" t="str">
         <f>'for-README'!H63</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="str">
+      <c r="E62" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
         <f>'for-README'!F64</f>
-        <v>Mackenzie Mazur</v>
-      </c>
-      <c r="B61" t="str">
+        <v>Mary-Jane Hudson</v>
+      </c>
+      <c r="B63" t="str">
         <f>'for-README'!M64</f>
-        <v>Mazur, Mackenzie</v>
-      </c>
-      <c r="C61" t="str">
+        <v>Hudson, Mary-Jane</v>
+      </c>
+      <c r="C63" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L64, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D63" t="str">
         <f>'for-README'!H64</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="str">
+      <c r="E63" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
         <f>'for-README'!F65</f>
-        <v>Judy McArthur</v>
-      </c>
-      <c r="B62" t="str">
+        <v>Yeongha Jung</v>
+      </c>
+      <c r="B64" t="str">
         <f>'for-README'!M65</f>
-        <v xml:space="preserve">McArthur, Judy </v>
-      </c>
-      <c r="C62" t="str">
+        <v>Jung, Yeongha</v>
+      </c>
+      <c r="C64" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L65, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D64" t="str">
         <f>'for-README'!H65</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="str">
+      <c r="E64" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
         <f>'for-README'!F66</f>
-        <v>Audrey Ty</v>
-      </c>
-      <c r="B63" t="str">
+        <v>Madeline Lavery</v>
+      </c>
+      <c r="B65" t="str">
         <f>'for-README'!M66</f>
-        <v>Ty, Audrey</v>
-      </c>
-      <c r="C63" t="str">
+        <v>Lavery, Madeline</v>
+      </c>
+      <c r="C65" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L66, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D65" t="str">
         <f>'for-README'!H66</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="str">
+      <c r="E65" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
         <f>'for-README'!F67</f>
-        <v>Stephen Wischniowski</v>
-      </c>
-      <c r="B64" t="str">
+        <v>Kiana Matwichuk</v>
+      </c>
+      <c r="B66" t="str">
         <f>'for-README'!M67</f>
-        <v>Wischniowski, Stephen</v>
-      </c>
-      <c r="C64" t="str">
+        <v>Matwichuk, Kiana</v>
+      </c>
+      <c r="C66" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L67, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D66" t="str">
         <f>'for-README'!H67</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="str">
+      <c r="E66" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
         <f>'for-README'!F68</f>
-        <v>Emily Yungwirth</v>
-      </c>
-      <c r="B65" t="str">
+        <v>Mackenzie Mazur</v>
+      </c>
+      <c r="B67" t="str">
         <f>'for-README'!M68</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
-      </c>
-      <c r="C65" t="str">
+        <v>Mazur, Mackenzie</v>
+      </c>
+      <c r="C67" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L68, " Region")</f>
         <v>DFO Science - Pacific Region</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D67" t="str">
         <f>'for-README'!H68</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="str">
+      <c r="E67" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
         <f>'for-README'!F69</f>
-        <v>Mathieu Desgagnés</v>
-      </c>
-      <c r="B66" t="str">
+        <v>Judy McArthur</v>
+      </c>
+      <c r="B68" t="str">
         <f>'for-README'!M69</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-      <c r="C66" t="str">
+        <v xml:space="preserve">McArthur, Judy </v>
+      </c>
+      <c r="C68" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L69, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
-      </c>
-      <c r="D66" t="str">
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D68" t="str">
         <f>'for-README'!H69</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="str">
+      <c r="E68" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
         <f>'for-README'!F70</f>
-        <v>Hélène Dionne</v>
-      </c>
-      <c r="B67" t="str">
+        <v>Maya Miller</v>
+      </c>
+      <c r="B69" t="str">
         <f>'for-README'!M70</f>
-        <v>Dionne, Hélène</v>
-      </c>
-      <c r="C67" t="str">
+        <v xml:space="preserve">Miller, Maya </v>
+      </c>
+      <c r="C69" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L70, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
-      </c>
-      <c r="D67" t="str">
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D69" t="str">
         <f>'for-README'!H70</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
         <f>'for-README'!F71</f>
-        <v>Kim Emond</v>
-      </c>
-      <c r="B68" t="str">
+        <v>Chelsea Rothkop</v>
+      </c>
+      <c r="B70" t="str">
         <f>'for-README'!M71</f>
-        <v>Emond, Kim</v>
-      </c>
-      <c r="C68" t="str">
+        <v xml:space="preserve">Rothkop, Chelsea </v>
+      </c>
+      <c r="C70" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L71, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
-      </c>
-      <c r="D68" t="str">
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D70" t="str">
         <f>'for-README'!H71</f>
-        <v>In person</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="str">
+        <v>Virtual</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
         <f>'for-README'!F72</f>
-        <v>Nicolas Le Corre</v>
-      </c>
-      <c r="B69" t="str">
+        <v>Audrey Ty</v>
+      </c>
+      <c r="B71" t="str">
         <f>'for-README'!M72</f>
-        <v>LeCorre, Nicolas</v>
-      </c>
-      <c r="C69" t="str">
+        <v>Ty, Audrey</v>
+      </c>
+      <c r="C71" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L72, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
-      </c>
-      <c r="D69" t="str">
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D71" t="str">
         <f>'for-README'!H72</f>
         <v>Virtual</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="str">
+      <c r="E71" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
         <f>'for-README'!F73</f>
-        <v>Andrew Smith</v>
-      </c>
-      <c r="B70" t="str">
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="B72" t="str">
         <f>'for-README'!M73</f>
-        <v>Smith, Andrew</v>
-      </c>
-      <c r="C70" t="str">
+        <v>Wischniowski, Stephen</v>
+      </c>
+      <c r="C72" t="str">
         <f>CONCATENATE("DFO Science - ", 'for-README'!L73, " Region")</f>
-        <v>DFO Science - Quebec Region</v>
-      </c>
-      <c r="D70" t="str">
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D72" t="str">
         <f>'for-README'!H73</f>
         <v>Virtual</v>
       </c>
+      <c r="E72" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f>'for-README'!F74</f>
+        <v>Emily Yungwirth</v>
+      </c>
+      <c r="B73" t="str">
+        <f>'for-README'!M74</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
+      </c>
+      <c r="C73" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L74, " Region")</f>
+        <v>DFO Science - Pacific Region</v>
+      </c>
+      <c r="D73" t="str">
+        <f>'for-README'!H74</f>
+        <v>Virtual</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f>'for-README'!F75</f>
+        <v>Mathieu Desgagnés</v>
+      </c>
+      <c r="B74" t="str">
+        <f>'for-README'!M75</f>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
+      </c>
+      <c r="C74" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L75, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D74" t="str">
+        <f>'for-README'!H75</f>
+        <v>Virtual</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f>'for-README'!F76</f>
+        <v>Hélène Dionne</v>
+      </c>
+      <c r="B75" t="str">
+        <f>'for-README'!M76</f>
+        <v>Dionne, Hélène</v>
+      </c>
+      <c r="C75" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L76, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D75" t="str">
+        <f>'for-README'!H76</f>
+        <v>In person</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f>'for-README'!F77</f>
+        <v>Kim Emond</v>
+      </c>
+      <c r="B76" t="str">
+        <f>'for-README'!M77</f>
+        <v>Emond, Kim</v>
+      </c>
+      <c r="C76" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L77, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D76" t="str">
+        <f>'for-README'!H77</f>
+        <v>In person</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f>'for-README'!F78</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="B77" t="str">
+        <f>'for-README'!M78</f>
+        <v>Smith, Andrew</v>
+      </c>
+      <c r="C77" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L78, " Region")</f>
+        <v>DFO Science - Quebec Region</v>
+      </c>
+      <c r="D77" t="str">
+        <f>'for-README'!H78</f>
+        <v>Virtual</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f>'for-README'!F79</f>
+        <v>Christopher Corriveau</v>
+      </c>
+      <c r="B78" t="str">
+        <f>'for-README'!M79</f>
+        <v>Corriveau, Christopher</v>
+      </c>
+      <c r="C78" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L79, " Region")</f>
+        <v>DFO Science - Dalhousie University Region</v>
+      </c>
+      <c r="D78" t="str">
+        <f>'for-README'!H79</f>
+        <v>In person</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f>'for-README'!F80</f>
+        <v>Ellie Weise</v>
+      </c>
+      <c r="B79" t="str">
+        <f>'for-README'!M80</f>
+        <v>Weise, Ellie</v>
+      </c>
+      <c r="C79" t="str">
+        <f>CONCATENATE("DFO Science - ", 'for-README'!L80, " Region")</f>
+        <v>DFO Science - Dalhousie University Region</v>
+      </c>
+      <c r="D79" t="str">
+        <f>'for-README'!H80</f>
+        <v>In person</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" display="\\\checkmark" xr:uid="{EC64A9D3-5193-457B-91A2-0754BE470E62}"/>
-    <hyperlink ref="F17" r:id="rId2" display="\\\checkmark" xr:uid="{9CDEC8B5-719C-4C68-A595-C1D9AB06D3FA}"/>
-    <hyperlink ref="G17" r:id="rId3" display="\\\checkmark" xr:uid="{D2C8200E-001F-4B19-BDBE-BF95FF8B2BBA}"/>
-    <hyperlink ref="E26" r:id="rId4" display="\\\checkmark" xr:uid="{C1F59D27-700E-442B-BE1B-32FE10FB3D13}"/>
-    <hyperlink ref="F26" r:id="rId5" display="\\\checkmark" xr:uid="{10C4FF78-1042-44E5-A0C8-1E8CA4069328}"/>
-    <hyperlink ref="G26" r:id="rId6" display="\\\checkmark" xr:uid="{AE5EF954-4BD5-4121-8179-F33F3F3DB0AE}"/>
-    <hyperlink ref="E18" r:id="rId7" display="\\\checkmark" xr:uid="{AAD1DE9B-C560-4164-AAAE-312BB3585829}"/>
-    <hyperlink ref="F18" r:id="rId8" display="\\\checkmark" xr:uid="{B345DA9E-4A49-4DFB-93C3-ACACF088FCD3}"/>
-    <hyperlink ref="G18" r:id="rId9" display="\\\checkmark" xr:uid="{6A853DE8-D3F7-444F-9EE4-DBAC102FF1C5}"/>
-    <hyperlink ref="E19" r:id="rId10" display="\\\checkmark" xr:uid="{C4476BFC-64F8-4979-9B7B-10112B4935F1}"/>
-    <hyperlink ref="F19" r:id="rId11" display="\\\checkmark" xr:uid="{E5C1F3EA-C15E-4576-99D9-77311597EC38}"/>
-    <hyperlink ref="G19" r:id="rId12" display="\\\checkmark" xr:uid="{617CCE50-47ED-44FA-A238-7E1C877567C7}"/>
-    <hyperlink ref="E20" r:id="rId13" display="\\\checkmark" xr:uid="{766868A5-C38B-4A82-9716-B4A5FEA2C42B}"/>
-    <hyperlink ref="F20" r:id="rId14" display="\\\checkmark" xr:uid="{499FF205-5503-4752-8B30-15FA623A7B9F}"/>
-    <hyperlink ref="G20" r:id="rId15" display="\\\checkmark" xr:uid="{7C4F24B6-E6C9-4037-8FD5-9BCCEFCB6F03}"/>
-    <hyperlink ref="E21" r:id="rId16" display="\\\checkmark" xr:uid="{D6CABCF0-F5DF-4FC8-929F-3D15E6FC6A84}"/>
-    <hyperlink ref="F21" r:id="rId17" display="\\\checkmark" xr:uid="{817AB7AA-8FC5-4FE2-998D-B2B03C672BCF}"/>
-    <hyperlink ref="G21" r:id="rId18" display="\\\checkmark" xr:uid="{2BB7A1A2-86BA-4045-B3A6-3E693B57FE09}"/>
-    <hyperlink ref="E22" r:id="rId19" display="\\\checkmark" xr:uid="{8EE58748-9A28-44DD-B6A3-A8EDD9C1857F}"/>
-    <hyperlink ref="F22" r:id="rId20" display="\\\checkmark" xr:uid="{46ADD108-8C3D-4AB7-9CAD-7D3847F38450}"/>
-    <hyperlink ref="G22" r:id="rId21" display="\\\checkmark" xr:uid="{8D5D509B-92C1-4D05-9605-C2B1ADC53903}"/>
-    <hyperlink ref="E23" r:id="rId22" display="\\\checkmark" xr:uid="{AF2EF1E5-4AEF-4604-9B0B-992E0C001A77}"/>
-    <hyperlink ref="F23" r:id="rId23" display="\\\checkmark" xr:uid="{060587FC-B51A-4A6E-AA06-3420648D9AF0}"/>
-    <hyperlink ref="G23" r:id="rId24" display="\\\checkmark" xr:uid="{AC6B1E71-3308-46F5-BE5A-B75C7EF82DC1}"/>
-    <hyperlink ref="E16" r:id="rId25" display="\\\checkmark" xr:uid="{50059F2D-D53B-43A7-BCB2-0D9C38E96615}"/>
-    <hyperlink ref="F16" r:id="rId26" display="\\\checkmark" xr:uid="{C527042D-FD1A-4554-B654-3281F3B62880}"/>
-    <hyperlink ref="G16" r:id="rId27" display="\\\checkmark" xr:uid="{A9612D1C-B9B0-44FD-AC99-4C53973BFCFD}"/>
-    <hyperlink ref="G15" r:id="rId28" display="\\\checkmark" xr:uid="{31D0C505-A782-43C6-8932-2E31DA51C1B1}"/>
-    <hyperlink ref="F15" r:id="rId29" display="\\\checkmark" xr:uid="{A1810319-DBB1-4F42-82B9-51E20103CC95}"/>
-    <hyperlink ref="E15" r:id="rId30" display="\\\checkmark" xr:uid="{618B4339-336D-4E85-83EE-3FCCB63C7845}"/>
-    <hyperlink ref="E14" r:id="rId31" display="\\\checkmark" xr:uid="{CEB12D8A-E301-49AA-B717-367403A75495}"/>
-    <hyperlink ref="F14" r:id="rId32" display="\\\checkmark" xr:uid="{C4A8BCFE-1FE6-45B6-85A6-9C231E617438}"/>
-    <hyperlink ref="G14" r:id="rId33" display="\\\checkmark" xr:uid="{4946C0F7-573E-4580-B42C-A227D1BAC9FD}"/>
-    <hyperlink ref="G13" r:id="rId34" display="\\\checkmark" xr:uid="{5AB2E3E4-F17F-4B1D-A22F-5D98DF0A655C}"/>
-    <hyperlink ref="F13" r:id="rId35" display="\\\checkmark" xr:uid="{E8223621-481B-4C69-8448-D8739C812E81}"/>
-    <hyperlink ref="E13" r:id="rId36" display="\\\checkmark" xr:uid="{7135914F-D60B-428A-8F04-9E058B2FC36B}"/>
-    <hyperlink ref="E12" r:id="rId37" display="\\\checkmark" xr:uid="{0231FF37-4D75-4C78-BA19-BF1957CB315A}"/>
-    <hyperlink ref="F12" r:id="rId38" display="\\\checkmark" xr:uid="{D34FFB3D-7B37-431D-BAF5-11163AF8E6B4}"/>
-    <hyperlink ref="G12" r:id="rId39" display="\\\checkmark" xr:uid="{F4E2B004-C911-4BD0-9C18-F64F822EABAD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87253-3AFE-489E-871D-A05432044822}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2755,18 +3090,18 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">CONCATENATE("List of the ", N1, " participants as of ", TEXT(TODAY(),"yyyy-mm-dd"), " (",L2, " in person and ", L1, " virtual)")</f>
-        <v>List of the 70 participants as of 2023-01-30 (28 in person and 42 virtual)</v>
+        <v>List of the 77 participants as of 2023-01-31 (29 in person and 48 virtual)</v>
       </c>
       <c r="K1" t="s">
         <v>140</v>
       </c>
       <c r="L1">
-        <f>SUM(J4:J73)</f>
-        <v>42</v>
+        <f>SUM(J4:J80)</f>
+        <v>48</v>
       </c>
       <c r="N1">
         <f>L1+L2</f>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="10"/>
     </row>
@@ -2802,8 +3137,8 @@
         <v>122</v>
       </c>
       <c r="L2">
-        <f>SUM(K4:K73)</f>
-        <v>28</v>
+        <f>SUM(K4:K80)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -2811,25 +3146,25 @@
         <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
         <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
         <v>191</v>
@@ -2915,11 +3250,11 @@
         <v>191</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J69" si="0">IF(H5="Virtual",1,0)</f>
+        <f t="shared" ref="J5:J64" si="0">IF(H5="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K69" si="1">IF(H5="In person",1,0)</f>
+        <f t="shared" ref="K5:K64" si="1">IF(H5="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -3831,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K27" si="2">IF(H24="In person",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L24" t="str">
@@ -3879,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L25" t="str">
@@ -3927,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L26" t="str">
@@ -3975,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L27" t="str">
@@ -4019,11 +4354,11 @@
         <v>191</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28" si="3">IF(H28="Virtual",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28" si="4">IF(H28="In person",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L28" t="str">
@@ -4246,7 +4581,7 @@
       </c>
       <c r="F33" t="str">
         <f>'outlook-responses'!I40</f>
-        <v>Nell den Heyer</v>
+        <v>Allan Debertin</v>
       </c>
       <c r="G33" t="s">
         <v>191</v>
@@ -4272,7 +4607,7 @@
       </c>
       <c r="M33" t="str">
         <f>'outlook-responses'!E40</f>
-        <v>den Heyer, Nell</v>
+        <v>Debertin, Allan</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -4294,7 +4629,7 @@
       </c>
       <c r="F34" t="str">
         <f>'outlook-responses'!I41</f>
-        <v>Danni Harper</v>
+        <v>Nell den Heyer</v>
       </c>
       <c r="G34" t="s">
         <v>191</v>
@@ -4320,7 +4655,7 @@
       </c>
       <c r="M34" t="str">
         <f>'outlook-responses'!E41</f>
-        <v>Harper, Danni</v>
+        <v>den Heyer, Nell</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -4342,25 +4677,25 @@
       </c>
       <c r="F35" t="str">
         <f>'outlook-responses'!I42</f>
-        <v>Kelly Kraska</v>
+        <v>Danni Harper</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
       </c>
       <c r="H35" t="str">
         <f>'outlook-responses'!H42</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I35" t="s">
         <v>191</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="str">
         <f>'outlook-responses'!B42</f>
@@ -4368,7 +4703,7 @@
       </c>
       <c r="M35" t="str">
         <f>'outlook-responses'!E42</f>
-        <v>Kraska, Kelly</v>
+        <v>Harper, Danni</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -4390,25 +4725,25 @@
       </c>
       <c r="F36" t="str">
         <f>'outlook-responses'!I43</f>
-        <v>Lingbo Lee</v>
+        <v>Kelly Kraska</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="str">
         <f>'outlook-responses'!H43</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I36" t="s">
         <v>191</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="str">
         <f>'outlook-responses'!B43</f>
@@ -4416,7 +4751,7 @@
       </c>
       <c r="M36" t="str">
         <f>'outlook-responses'!E43</f>
-        <v>Lee, Lingbo</v>
+        <v>Kraska, Kelly</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -4438,25 +4773,25 @@
       </c>
       <c r="F37" t="str">
         <f>'outlook-responses'!I44</f>
-        <v>Ellen MacEachern</v>
+        <v>Lingbo Li</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
       </c>
       <c r="H37" t="str">
         <f>'outlook-responses'!H44</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I37" t="s">
         <v>191</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="str">
         <f>'outlook-responses'!B44</f>
@@ -4464,7 +4799,7 @@
       </c>
       <c r="M37" t="str">
         <f>'outlook-responses'!E44</f>
-        <v>MacEachern, Ellen</v>
+        <v>Li, Lingbo</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -4486,7 +4821,7 @@
       </c>
       <c r="F38" t="str">
         <f>'outlook-responses'!I45</f>
-        <v>Liz Miller</v>
+        <v>Ellen MacEachern</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
@@ -4512,7 +4847,7 @@
       </c>
       <c r="M38" t="str">
         <f>'outlook-responses'!E45</f>
-        <v>Miller, Liz</v>
+        <v>MacEachern, Ellen</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -4534,7 +4869,7 @@
       </c>
       <c r="F39" t="str">
         <f>'outlook-responses'!I46</f>
-        <v>George Nau</v>
+        <v>Jessie Mcintyre</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
@@ -4560,7 +4895,7 @@
       </c>
       <c r="M39" t="str">
         <f>'outlook-responses'!E46</f>
-        <v>Nau, George</v>
+        <v>Mcintyre, Jessie</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -4582,25 +4917,25 @@
       </c>
       <c r="F40" t="str">
         <f>'outlook-responses'!I47</f>
-        <v>Gregory Puncher</v>
+        <v>Liz Miller</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="str">
         <f>'outlook-responses'!H47</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I40" t="s">
         <v>191</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="str">
         <f>'outlook-responses'!B47</f>
@@ -4608,7 +4943,7 @@
       </c>
       <c r="M40" t="str">
         <f>'outlook-responses'!E47</f>
-        <v>Puncher, Gregory</v>
+        <v>Miller, Liz</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -4630,7 +4965,7 @@
       </c>
       <c r="F41" t="str">
         <f>'outlook-responses'!I48</f>
-        <v>Catriona Regnier-McKellar</v>
+        <v>George Nau</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
@@ -4656,7 +4991,7 @@
       </c>
       <c r="M41" t="str">
         <f>'outlook-responses'!E48</f>
-        <v>Regnier-McKellar, Catriona</v>
+        <v>Nau, George</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -4678,25 +5013,25 @@
       </c>
       <c r="F42" t="str">
         <f>'outlook-responses'!I49</f>
-        <v>Emily Way-Nee</v>
+        <v>Gregory Puncher</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
       </c>
       <c r="H42" t="str">
         <f>'outlook-responses'!H49</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I42" t="s">
         <v>191</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="str">
         <f>'outlook-responses'!B49</f>
@@ -4704,7 +5039,7 @@
       </c>
       <c r="M42" t="str">
         <f>'outlook-responses'!E49</f>
-        <v>Way-Nee, Emily</v>
+        <v>Puncher, Gregory</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -4718,119 +5053,119 @@
         <v>191</v>
       </c>
       <c r="D43" t="str">
+        <f>'outlook-responses'!A50</f>
+        <v>MAR</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" t="str">
+        <f>'outlook-responses'!I50</f>
+        <v>Catriona Regnier-McKellar</v>
+      </c>
+      <c r="G43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" t="str">
+        <f>'outlook-responses'!H50</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
+        <f>'outlook-responses'!B50</f>
+        <v>Maritimes</v>
+      </c>
+      <c r="M43" t="str">
+        <f>'outlook-responses'!E50</f>
+        <v>Regnier-McKellar, Catriona</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="str">
         <f>'outlook-responses'!A51</f>
-        <v>NL</v>
-      </c>
-      <c r="E43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" t="str">
+        <v>MAR</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" t="str">
         <f>'outlook-responses'!I51</f>
-        <v>Aaron Adamack</v>
-      </c>
-      <c r="G43" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" t="str">
+        <v>Emily Way-Nee</v>
+      </c>
+      <c r="G44" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" t="str">
         <f>'outlook-responses'!H51</f>
         <v>Virtual</v>
       </c>
-      <c r="I43" t="s">
-        <v>191</v>
-      </c>
-      <c r="J43">
+      <c r="I44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L43" t="str">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" t="str">
         <f>'outlook-responses'!B51</f>
-        <v>Newfoundland and Labrador</v>
-      </c>
-      <c r="M43" t="str">
+        <v>Maritimes</v>
+      </c>
+      <c r="M44" t="str">
         <f>'outlook-responses'!E51</f>
-        <v>Adamack, Aaron</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" t="str">
+        <v>Way-Nee, Emily</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="str">
         <f>'outlook-responses'!A52</f>
-        <v>NL</v>
-      </c>
-      <c r="E44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" t="str">
+        <v>MAR</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" t="str">
         <f>'outlook-responses'!I52</f>
-        <v>Kelly Antaya</v>
-      </c>
-      <c r="G44" t="s">
-        <v>191</v>
-      </c>
-      <c r="H44" t="str">
+        <v>Gabrielle, Wilson</v>
+      </c>
+      <c r="G45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" t="str">
         <f>'outlook-responses'!H52</f>
         <v>Virtual</v>
       </c>
-      <c r="I44" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L44" t="str">
-        <f>'outlook-responses'!B52</f>
-        <v>Newfoundland and Labrador</v>
-      </c>
-      <c r="M44" t="str">
-        <f>'outlook-responses'!E52</f>
-        <v>Antaya, Kelly</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" t="str">
-        <f>'outlook-responses'!A53</f>
-        <v>NL</v>
-      </c>
-      <c r="E45" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" t="str">
-        <f>'outlook-responses'!I53</f>
-        <v>Dwight Drover</v>
-      </c>
-      <c r="G45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H45" t="str">
-        <f>'outlook-responses'!H53</f>
-        <v>Virtual</v>
-      </c>
       <c r="I45" t="s">
         <v>191</v>
       </c>
@@ -4843,12 +5178,12 @@
         <v>0</v>
       </c>
       <c r="L45" t="str">
-        <f>'outlook-responses'!B53</f>
-        <v>Newfoundland and Labrador</v>
+        <f>'outlook-responses'!B52</f>
+        <v>Maritimes</v>
       </c>
       <c r="M45" t="str">
-        <f>'outlook-responses'!E53</f>
-        <v>Drover, Dwight</v>
+        <f>'outlook-responses'!E52</f>
+        <v>Wilson, Gabrielle</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -4870,25 +5205,25 @@
       </c>
       <c r="F46" t="str">
         <f>'outlook-responses'!I54</f>
-        <v>Gillian Forbes</v>
+        <v>Aaron Adamack</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
       </c>
       <c r="H46" t="str">
         <f>'outlook-responses'!H54</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I46" t="s">
         <v>191</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="str">
         <f>'outlook-responses'!B54</f>
@@ -4896,7 +5231,7 @@
       </c>
       <c r="M46" t="str">
         <f>'outlook-responses'!E54</f>
-        <v>Forbes, Gillian</v>
+        <v>Adamack, Aaron</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -4918,7 +5253,7 @@
       </c>
       <c r="F47" t="str">
         <f>'outlook-responses'!I55</f>
-        <v>Victoria Healey</v>
+        <v>Kelly Antaya</v>
       </c>
       <c r="G47" t="s">
         <v>191</v>
@@ -4944,7 +5279,7 @@
       </c>
       <c r="M47" t="str">
         <f>'outlook-responses'!E55</f>
-        <v>Healey, Victoria</v>
+        <v>Antaya, Kelly</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -4966,7 +5301,7 @@
       </c>
       <c r="F48" t="str">
         <f>'outlook-responses'!I56</f>
-        <v>Marc Legresley</v>
+        <v>Dwight Drover</v>
       </c>
       <c r="G48" t="s">
         <v>191</v>
@@ -4992,7 +5327,7 @@
       </c>
       <c r="M48" t="str">
         <f>'outlook-responses'!E56</f>
-        <v>Legresley, Marc</v>
+        <v>Drover, Dwight</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -5014,25 +5349,25 @@
       </c>
       <c r="F49" t="str">
         <f>'outlook-responses'!I57</f>
-        <v>Andrea Perreault</v>
+        <v>Gillian Forbes</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
       </c>
       <c r="H49" t="str">
         <f>'outlook-responses'!H57</f>
-        <v>Virtual</v>
+        <v>In person</v>
       </c>
       <c r="I49" t="s">
         <v>191</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="str">
         <f>'outlook-responses'!B57</f>
@@ -5040,7 +5375,7 @@
       </c>
       <c r="M49" t="str">
         <f>'outlook-responses'!E57</f>
-        <v>Perreault, Andrea</v>
+        <v>Forbes, Gillian</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -5062,7 +5397,7 @@
       </c>
       <c r="F50" t="str">
         <f>'outlook-responses'!I58</f>
-        <v>Hannah Polaczek</v>
+        <v>Victoria Healey</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
@@ -5088,7 +5423,7 @@
       </c>
       <c r="M50" t="str">
         <f>'outlook-responses'!E58</f>
-        <v>Polaczek, Hannah</v>
+        <v>Healey, Victoria</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -5110,25 +5445,25 @@
       </c>
       <c r="F51" t="str">
         <f>'outlook-responses'!I59</f>
-        <v>Kierstyn Rideout</v>
+        <v>Marc Legresley</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
       </c>
       <c r="H51" t="str">
         <f>'outlook-responses'!H59</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I51" t="s">
         <v>191</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="str">
         <f>'outlook-responses'!B59</f>
@@ -5136,7 +5471,7 @@
       </c>
       <c r="M51" t="str">
         <f>'outlook-responses'!E59</f>
-        <v>Rideout, Kierstyn</v>
+        <v>Legresley, Marc</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -5158,25 +5493,25 @@
       </c>
       <c r="F52" t="str">
         <f>'outlook-responses'!I60</f>
-        <v>Meredith Schofield</v>
+        <v>Andrea Perreault</v>
       </c>
       <c r="G52" t="s">
         <v>191</v>
       </c>
       <c r="H52" t="str">
         <f>'outlook-responses'!H60</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I52" t="s">
         <v>191</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="str">
         <f>'outlook-responses'!B60</f>
@@ -5184,7 +5519,7 @@
       </c>
       <c r="M52" t="str">
         <f>'outlook-responses'!E60</f>
-        <v>Schofield, Meredith</v>
+        <v>Perreault, Andrea</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -5206,25 +5541,25 @@
       </c>
       <c r="F53" t="str">
         <f>'outlook-responses'!I61</f>
-        <v>Jaime Thomson</v>
+        <v>Hannah Polaczek</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
       </c>
       <c r="H53" t="str">
         <f>'outlook-responses'!H61</f>
-        <v>In person</v>
+        <v>Virtual</v>
       </c>
       <c r="I53" t="s">
         <v>191</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="str">
         <f>'outlook-responses'!B61</f>
@@ -5232,7 +5567,7 @@
       </c>
       <c r="M53" t="str">
         <f>'outlook-responses'!E61</f>
-        <v xml:space="preserve">Thomson, Jaime </v>
+        <v>Polaczek, Hannah</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -5246,41 +5581,41 @@
         <v>191</v>
       </c>
       <c r="D54" t="str">
-        <f>'outlook-responses'!A63</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A62</f>
+        <v>NL</v>
       </c>
       <c r="E54" t="s">
         <v>191</v>
       </c>
       <c r="F54" t="str">
-        <f>'outlook-responses'!I63</f>
-        <v>Barbara Campbell</v>
+        <f>'outlook-responses'!I62</f>
+        <v>Kierstyn Rideout</v>
       </c>
       <c r="G54" t="s">
         <v>191</v>
       </c>
       <c r="H54" t="str">
-        <f>'outlook-responses'!H63</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H62</f>
+        <v>In person</v>
       </c>
       <c r="I54" t="s">
         <v>191</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="str">
-        <f>'outlook-responses'!B63</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B62</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M54" t="str">
-        <f>'outlook-responses'!E63</f>
-        <v>Campbell, Barbara</v>
+        <f>'outlook-responses'!E62</f>
+        <v>Rideout, Kierstyn</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -5294,41 +5629,41 @@
         <v>191</v>
       </c>
       <c r="D55" t="str">
-        <f>'outlook-responses'!A64</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A63</f>
+        <v>NL</v>
       </c>
       <c r="E55" t="s">
         <v>191</v>
       </c>
       <c r="F55" t="str">
-        <f>'outlook-responses'!I64</f>
-        <v>Karalea Cantera</v>
+        <f>'outlook-responses'!I63</f>
+        <v>Meredith Schofield</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
       </c>
       <c r="H55" t="str">
-        <f>'outlook-responses'!H64</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H63</f>
+        <v>In person</v>
       </c>
       <c r="I55" t="s">
         <v>191</v>
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="str">
-        <f>'outlook-responses'!B64</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B63</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M55" t="str">
-        <f>'outlook-responses'!E64</f>
-        <v>Cantera, Karalea</v>
+        <f>'outlook-responses'!E63</f>
+        <v>Schofield, Meredith</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -5342,41 +5677,41 @@
         <v>191</v>
       </c>
       <c r="D56" t="str">
-        <f>'outlook-responses'!A65</f>
-        <v>PAC</v>
+        <f>'outlook-responses'!A64</f>
+        <v>NL</v>
       </c>
       <c r="E56" t="s">
         <v>191</v>
       </c>
       <c r="F56" t="str">
-        <f>'outlook-responses'!I65</f>
-        <v>Chelsea Cooke</v>
+        <f>'outlook-responses'!I64</f>
+        <v>Jaime Thomson</v>
       </c>
       <c r="G56" t="s">
         <v>191</v>
       </c>
       <c r="H56" t="str">
-        <f>'outlook-responses'!H65</f>
-        <v>Virtual</v>
+        <f>'outlook-responses'!H64</f>
+        <v>In person</v>
       </c>
       <c r="I56" t="s">
         <v>191</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="str">
-        <f>'outlook-responses'!B65</f>
-        <v>Pacific</v>
+        <f>'outlook-responses'!B64</f>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="M56" t="str">
-        <f>'outlook-responses'!E65</f>
-        <v>Cooke, Chelsea</v>
+        <f>'outlook-responses'!E64</f>
+        <v xml:space="preserve">Thomson, Jaime </v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -5398,7 +5733,7 @@
       </c>
       <c r="F57" t="str">
         <f>'outlook-responses'!I66</f>
-        <v>Robyn Forrest</v>
+        <v>Barbara Campbell</v>
       </c>
       <c r="G57" t="s">
         <v>191</v>
@@ -5424,7 +5759,7 @@
       </c>
       <c r="M57" t="str">
         <f>'outlook-responses'!E66</f>
-        <v xml:space="preserve">Forrest, Robyn </v>
+        <v>Campbell, Barbara</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -5446,7 +5781,7 @@
       </c>
       <c r="F58" t="str">
         <f>'outlook-responses'!I67</f>
-        <v>Sarah Hawkshaw</v>
+        <v>Karalea Cantera</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -5472,7 +5807,7 @@
       </c>
       <c r="M58" t="str">
         <f>'outlook-responses'!E67</f>
-        <v>Hawkshaw, Sarah</v>
+        <v>Cantera, Karalea</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -5494,7 +5829,7 @@
       </c>
       <c r="F59" t="str">
         <f>'outlook-responses'!I68</f>
-        <v>Erin Herder</v>
+        <v>Chelsea Cooke</v>
       </c>
       <c r="G59" t="s">
         <v>191</v>
@@ -5520,7 +5855,7 @@
       </c>
       <c r="M59" t="str">
         <f>'outlook-responses'!E68</f>
-        <v>Herder, Erin</v>
+        <v>Cooke, Chelsea</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -5542,7 +5877,7 @@
       </c>
       <c r="F60" t="str">
         <f>'outlook-responses'!I69</f>
-        <v>Kendra Holt</v>
+        <v>Robyn Forrest</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
@@ -5568,7 +5903,7 @@
       </c>
       <c r="M60" t="str">
         <f>'outlook-responses'!E69</f>
-        <v>Holt, Kendra</v>
+        <v xml:space="preserve">Forrest, Robyn </v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -5590,7 +5925,7 @@
       </c>
       <c r="F61" t="str">
         <f>'outlook-responses'!I70</f>
-        <v>Yeongha Jung</v>
+        <v>Sarah Hawkshaw</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
@@ -5616,7 +5951,7 @@
       </c>
       <c r="M61" t="str">
         <f>'outlook-responses'!E70</f>
-        <v>Jung, Yeongha</v>
+        <v>Hawkshaw, Sarah</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -5638,7 +5973,7 @@
       </c>
       <c r="F62" t="str">
         <f>'outlook-responses'!I71</f>
-        <v>Madeline Lavery</v>
+        <v>Erin Herder</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
@@ -5664,7 +5999,7 @@
       </c>
       <c r="M62" t="str">
         <f>'outlook-responses'!E71</f>
-        <v>Lavery, Madeline</v>
+        <v>Herder, Erin</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -5686,7 +6021,7 @@
       </c>
       <c r="F63" t="str">
         <f>'outlook-responses'!I72</f>
-        <v>Kiana Matwichuk</v>
+        <v>Kendra Holt</v>
       </c>
       <c r="G63" t="s">
         <v>191</v>
@@ -5712,7 +6047,7 @@
       </c>
       <c r="M63" t="str">
         <f>'outlook-responses'!E72</f>
-        <v>Matwichuk, Kiana</v>
+        <v>Holt, Kendra</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -5734,7 +6069,7 @@
       </c>
       <c r="F64" t="str">
         <f>'outlook-responses'!I73</f>
-        <v>Mackenzie Mazur</v>
+        <v>Mary-Jane Hudson</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
@@ -5760,7 +6095,7 @@
       </c>
       <c r="M64" t="str">
         <f>'outlook-responses'!E73</f>
-        <v>Mazur, Mackenzie</v>
+        <v>Hudson, Mary-Jane</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -5782,7 +6117,7 @@
       </c>
       <c r="F65" t="str">
         <f>'outlook-responses'!I74</f>
-        <v>Judy McArthur</v>
+        <v>Yeongha Jung</v>
       </c>
       <c r="G65" t="s">
         <v>191</v>
@@ -5795,11 +6130,11 @@
         <v>191</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J65:J78" si="2">IF(H65="Virtual",1,0)</f>
         <v>1</v>
       </c>
       <c r="K65">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K65:K78" si="3">IF(H65="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="L65" t="str">
@@ -5808,7 +6143,7 @@
       </c>
       <c r="M65" t="str">
         <f>'outlook-responses'!E74</f>
-        <v xml:space="preserve">McArthur, Judy </v>
+        <v>Jung, Yeongha</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -5830,7 +6165,7 @@
       </c>
       <c r="F66" t="str">
         <f>'outlook-responses'!I75</f>
-        <v>Audrey Ty</v>
+        <v>Madeline Lavery</v>
       </c>
       <c r="G66" t="s">
         <v>191</v>
@@ -5843,11 +6178,11 @@
         <v>191</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L66" t="str">
@@ -5856,7 +6191,7 @@
       </c>
       <c r="M66" t="str">
         <f>'outlook-responses'!E75</f>
-        <v>Ty, Audrey</v>
+        <v>Lavery, Madeline</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -5878,7 +6213,7 @@
       </c>
       <c r="F67" t="str">
         <f>'outlook-responses'!I76</f>
-        <v>Stephen Wischniowski</v>
+        <v>Kiana Matwichuk</v>
       </c>
       <c r="G67" t="s">
         <v>191</v>
@@ -5891,11 +6226,11 @@
         <v>191</v>
       </c>
       <c r="J67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L67" t="str">
@@ -5904,7 +6239,7 @@
       </c>
       <c r="M67" t="str">
         <f>'outlook-responses'!E76</f>
-        <v>Wischniowski, Stephen</v>
+        <v>Matwichuk, Kiana</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -5926,7 +6261,7 @@
       </c>
       <c r="F68" t="str">
         <f>'outlook-responses'!I77</f>
-        <v>Emily Yungwirth</v>
+        <v>Mackenzie Mazur</v>
       </c>
       <c r="G68" t="s">
         <v>191</v>
@@ -5939,11 +6274,11 @@
         <v>191</v>
       </c>
       <c r="J68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L68" t="str">
@@ -5952,7 +6287,7 @@
       </c>
       <c r="M68" t="str">
         <f>'outlook-responses'!E77</f>
-        <v xml:space="preserve">Yungwirth, Emily </v>
+        <v>Mazur, Mackenzie</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -5966,89 +6301,89 @@
         <v>191</v>
       </c>
       <c r="D69" t="str">
+        <f>'outlook-responses'!A78</f>
+        <v>PAC</v>
+      </c>
+      <c r="E69" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" t="str">
+        <f>'outlook-responses'!I78</f>
+        <v>Judy McArthur</v>
+      </c>
+      <c r="G69" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69" t="str">
+        <f>'outlook-responses'!H78</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I69" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L69" t="str">
+        <f>'outlook-responses'!B78</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M69" t="str">
+        <f>'outlook-responses'!E78</f>
+        <v xml:space="preserve">McArthur, Judy </v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="str">
         <f>'outlook-responses'!A79</f>
-        <v>QUE</v>
-      </c>
-      <c r="E69" t="s">
-        <v>191</v>
-      </c>
-      <c r="F69" t="str">
+        <v>PAC</v>
+      </c>
+      <c r="E70" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" t="str">
         <f>'outlook-responses'!I79</f>
-        <v>Mathieu Desgagnés</v>
-      </c>
-      <c r="G69" t="s">
-        <v>191</v>
-      </c>
-      <c r="H69" t="str">
+        <v>Maya Miller</v>
+      </c>
+      <c r="G70" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" t="str">
         <f>'outlook-responses'!H79</f>
         <v>Virtual</v>
       </c>
-      <c r="I69" t="s">
-        <v>191</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L69" t="str">
+      <c r="I70" t="s">
+        <v>191</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L70" t="str">
         <f>'outlook-responses'!B79</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M69" t="str">
+        <v>Pacific</v>
+      </c>
+      <c r="M70" t="str">
         <f>'outlook-responses'!E79</f>
-        <v xml:space="preserve">Desgagnés, Mathieu </v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" t="str">
-        <f>'outlook-responses'!A80</f>
-        <v>QUE</v>
-      </c>
-      <c r="E70" t="s">
-        <v>191</v>
-      </c>
-      <c r="F70" t="str">
-        <f>'outlook-responses'!I80</f>
-        <v>Hélène Dionne</v>
-      </c>
-      <c r="G70" t="s">
-        <v>191</v>
-      </c>
-      <c r="H70" t="str">
-        <f>'outlook-responses'!H80</f>
-        <v>In person</v>
-      </c>
-      <c r="I70" t="s">
-        <v>191</v>
-      </c>
-      <c r="J70">
-        <f t="shared" ref="J70:J73" si="5">IF(H70="Virtual",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <f t="shared" ref="K70:K73" si="6">IF(H70="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L70" t="str">
-        <f>'outlook-responses'!B80</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M70" t="str">
-        <f>'outlook-responses'!E80</f>
-        <v>Dionne, Hélène</v>
+        <v xml:space="preserve">Miller, Maya </v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -6062,41 +6397,41 @@
         <v>191</v>
       </c>
       <c r="D71" t="str">
-        <f>'outlook-responses'!A81</f>
-        <v>QUE</v>
+        <f>'outlook-responses'!A80</f>
+        <v>PAC</v>
       </c>
       <c r="E71" t="s">
         <v>191</v>
       </c>
       <c r="F71" t="str">
-        <f>'outlook-responses'!I81</f>
-        <v>Kim Emond</v>
+        <f>'outlook-responses'!I80</f>
+        <v>Chelsea Rothkop</v>
       </c>
       <c r="G71" t="s">
         <v>191</v>
       </c>
       <c r="H71" t="str">
-        <f>'outlook-responses'!H81</f>
-        <v>In person</v>
+        <f>'outlook-responses'!H80</f>
+        <v>Virtual</v>
       </c>
       <c r="I71" t="s">
         <v>191</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L71" t="str">
-        <f>'outlook-responses'!B81</f>
-        <v>Quebec</v>
+        <f>'outlook-responses'!B80</f>
+        <v>Pacific</v>
       </c>
       <c r="M71" t="str">
-        <f>'outlook-responses'!E81</f>
-        <v>Emond, Kim</v>
+        <f>'outlook-responses'!E80</f>
+        <v xml:space="preserve">Rothkop, Chelsea </v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -6110,89 +6445,425 @@
         <v>191</v>
       </c>
       <c r="D72" t="str">
+        <f>'outlook-responses'!A81</f>
+        <v>PAC</v>
+      </c>
+      <c r="E72" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72" t="str">
+        <f>'outlook-responses'!I81</f>
+        <v>Audrey Ty</v>
+      </c>
+      <c r="G72" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72" t="str">
+        <f>'outlook-responses'!H81</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I72" t="s">
+        <v>191</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L72" t="str">
+        <f>'outlook-responses'!B81</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M72" t="str">
+        <f>'outlook-responses'!E81</f>
+        <v>Ty, Audrey</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" t="str">
         <f>'outlook-responses'!A82</f>
-        <v>QUE</v>
-      </c>
-      <c r="E72" t="s">
-        <v>191</v>
-      </c>
-      <c r="F72" t="str">
+        <v>PAC</v>
+      </c>
+      <c r="E73" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" t="str">
         <f>'outlook-responses'!I82</f>
-        <v>Nicolas Le Corre</v>
-      </c>
-      <c r="G72" t="s">
-        <v>191</v>
-      </c>
-      <c r="H72" t="str">
+        <v>Stephen Wischniowski</v>
+      </c>
+      <c r="G73" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73" t="str">
         <f>'outlook-responses'!H82</f>
         <v>Virtual</v>
       </c>
-      <c r="I72" t="s">
-        <v>191</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L72" t="str">
+      <c r="I73" t="s">
+        <v>191</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L73" t="str">
         <f>'outlook-responses'!B82</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M72" t="str">
+        <v>Pacific</v>
+      </c>
+      <c r="M73" t="str">
         <f>'outlook-responses'!E82</f>
-        <v>LeCorre, Nicolas</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73">
-        <v>70</v>
-      </c>
-      <c r="C73" t="s">
-        <v>191</v>
-      </c>
-      <c r="D73" t="str">
+        <v>Wischniowski, Stephen</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="str">
         <f>'outlook-responses'!A83</f>
-        <v>QUE</v>
-      </c>
-      <c r="E73" t="s">
-        <v>191</v>
-      </c>
-      <c r="F73" t="str">
+        <v>PAC</v>
+      </c>
+      <c r="E74" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" t="str">
         <f>'outlook-responses'!I83</f>
-        <v>Andrew Smith</v>
-      </c>
-      <c r="G73" t="s">
-        <v>191</v>
-      </c>
-      <c r="H73" t="str">
+        <v>Emily Yungwirth</v>
+      </c>
+      <c r="G74" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" t="str">
         <f>'outlook-responses'!H83</f>
         <v>Virtual</v>
       </c>
-      <c r="I73" t="s">
-        <v>191</v>
-      </c>
-      <c r="J73">
+      <c r="I74" t="s">
+        <v>191</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L74" t="str">
+        <f>'outlook-responses'!B83</f>
+        <v>Pacific</v>
+      </c>
+      <c r="M74" t="str">
+        <f>'outlook-responses'!E83</f>
+        <v xml:space="preserve">Yungwirth, Emily </v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" t="str">
+        <f>'outlook-responses'!A85</f>
+        <v>QUE</v>
+      </c>
+      <c r="E75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" t="str">
+        <f>'outlook-responses'!I85</f>
+        <v>Mathieu Desgagnés</v>
+      </c>
+      <c r="G75" t="s">
+        <v>191</v>
+      </c>
+      <c r="H75" t="str">
+        <f>'outlook-responses'!H85</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I75" t="s">
+        <v>191</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L75" t="str">
+        <f>'outlook-responses'!B85</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M75" t="str">
+        <f>'outlook-responses'!E85</f>
+        <v xml:space="preserve">Desgagnés, Mathieu </v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" t="str">
+        <f>'outlook-responses'!A86</f>
+        <v>QUE</v>
+      </c>
+      <c r="E76" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" t="str">
+        <f>'outlook-responses'!I86</f>
+        <v>Hélène Dionne</v>
+      </c>
+      <c r="G76" t="s">
+        <v>191</v>
+      </c>
+      <c r="H76" t="str">
+        <f>'outlook-responses'!H86</f>
+        <v>In person</v>
+      </c>
+      <c r="I76" t="s">
+        <v>191</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L76" t="str">
+        <f>'outlook-responses'!B86</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M76" t="str">
+        <f>'outlook-responses'!E86</f>
+        <v>Dionne, Hélène</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="str">
+        <f>'outlook-responses'!A87</f>
+        <v>QUE</v>
+      </c>
+      <c r="E77" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" t="str">
+        <f>'outlook-responses'!I87</f>
+        <v>Kim Emond</v>
+      </c>
+      <c r="G77" t="s">
+        <v>191</v>
+      </c>
+      <c r="H77" t="str">
+        <f>'outlook-responses'!H87</f>
+        <v>In person</v>
+      </c>
+      <c r="I77" t="s">
+        <v>191</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L77" t="str">
+        <f>'outlook-responses'!B87</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M77" t="str">
+        <f>'outlook-responses'!E87</f>
+        <v>Emond, Kim</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" t="str">
+        <f>'outlook-responses'!A88</f>
+        <v>QUE</v>
+      </c>
+      <c r="E78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" t="str">
+        <f>'outlook-responses'!I88</f>
+        <v>Andrew Smith</v>
+      </c>
+      <c r="G78" t="s">
+        <v>191</v>
+      </c>
+      <c r="H78" t="str">
+        <f>'outlook-responses'!H88</f>
+        <v>Virtual</v>
+      </c>
+      <c r="I78" t="s">
+        <v>191</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L78" t="str">
+        <f>'outlook-responses'!B88</f>
+        <v>Quebec</v>
+      </c>
+      <c r="M78" t="str">
+        <f>'outlook-responses'!E88</f>
+        <v>Smith, Andrew</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" t="str">
+        <f>'outlook-responses'!A90</f>
+        <v>DAL</v>
+      </c>
+      <c r="E79" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" t="str">
+        <f>'outlook-responses'!I90</f>
+        <v>Christopher Corriveau</v>
+      </c>
+      <c r="G79" t="s">
+        <v>191</v>
+      </c>
+      <c r="H79" t="str">
+        <f>'outlook-responses'!H90</f>
+        <v>In person</v>
+      </c>
+      <c r="I79" t="s">
+        <v>191</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79:J80" si="4">IF(H79="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79:K80" si="5">IF(H79="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L79" t="str">
+        <f>'outlook-responses'!B90</f>
+        <v>Dalhousie University</v>
+      </c>
+      <c r="M79" t="str">
+        <f>'outlook-responses'!E90</f>
+        <v>Corriveau, Christopher</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="str">
+        <f>'outlook-responses'!A91</f>
+        <v>DAL</v>
+      </c>
+      <c r="E80" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" t="str">
+        <f>'outlook-responses'!I91</f>
+        <v>Ellie Weise</v>
+      </c>
+      <c r="G80" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" t="str">
+        <f>'outlook-responses'!H91</f>
+        <v>In person</v>
+      </c>
+      <c r="I80" t="s">
+        <v>191</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K73">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L73" t="str">
-        <f>'outlook-responses'!B83</f>
-        <v>Quebec</v>
-      </c>
-      <c r="M73" t="str">
-        <f>'outlook-responses'!E83</f>
-        <v>Smith, Andrew</v>
+      <c r="L80" t="str">
+        <f>'outlook-responses'!B91</f>
+        <v>Dalhousie University</v>
+      </c>
+      <c r="M80" t="str">
+        <f>'outlook-responses'!E91</f>
+        <v>Weise, Ellie</v>
       </c>
     </row>
   </sheetData>
@@ -6202,9 +6873,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648514F-C50B-429E-8CE0-7F6A61E6FA38}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:B91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6218,8 +6891,8 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>SUM(M8:M83)</f>
-        <v>70</v>
+        <f>SUM(M8:M91)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -6227,8 +6900,8 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <f>SUM(O8:O83)</f>
-        <v>42</v>
+        <f>SUM(O8:O91)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -6236,8 +6909,8 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <f>SUM(N8:N83)</f>
-        <v>28</v>
+        <f>SUM(N8:N91)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -6262,8 +6935,8 @@
         <v>188</v>
       </c>
       <c r="C7">
-        <f>C19+C63+C36+C51+C79+C9</f>
-        <v>70</v>
+        <f>C19+C66+C36+C54+C85+C9</f>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -6561,17 +7234,17 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
         <v>122</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -6635,7 +7308,7 @@
         <v>122</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -6721,17 +7394,17 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
         <v>140</v>
       </c>
       <c r="I24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -6753,17 +7426,17 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
         <v>122</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -6785,17 +7458,17 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
         <v>122</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -6817,7 +7490,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>104</v>
@@ -7041,17 +7714,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
         <v>122</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -7073,8 +7746,8 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <f>SUM(M36:M49)</f>
-        <v>14</v>
+        <f>SUM(M36:M52)</f>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -7092,11 +7765,11 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:N49" si="4">IF(H36="In person",1,0)</f>
+        <f>IF(H36="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O49" si="5">IF(H36="Virtual",1,0)</f>
+        <f>IF(H36="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7123,11 +7796,11 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f>IF(H37="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="5"/>
+        <f>IF(H37="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7154,11 +7827,11 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
+        <f>IF(H38="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" si="5"/>
+        <f>IF(H38="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7185,11 +7858,11 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f>IF(H39="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="5"/>
+        <f>IF(H39="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7200,27 +7873,27 @@
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>32</v>
+      <c r="E40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
       </c>
       <c r="H40" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>222</v>
+      <c r="I40" t="s">
+        <v>312</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f>IF(H40="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="5"/>
+        <f>IF(H40="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7232,26 +7905,26 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>159</v>
+        <v>33</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H41" t="s">
         <v>140</v>
       </c>
-      <c r="I41" t="s">
-        <v>223</v>
+      <c r="I41" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
+        <f>IF(H41="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="5"/>
+        <f>IF(H41="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7263,27 +7936,27 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>131</v>
+        <v>158</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(H42="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(H42="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -7294,27 +7967,27 @@
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(H43="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O43">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(H43="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -7325,27 +7998,27 @@
         <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(H44="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(H44="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -7356,26 +8029,26 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H45" t="s">
         <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f>IF(H45="In person",1,0)</f>
         <v>1</v>
       </c>
       <c r="O45">
-        <f t="shared" si="5"/>
+        <f>IF(H45="Virtual",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7386,27 +8059,27 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>69</v>
+      <c r="E46" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="H46" t="s">
         <v>140</v>
       </c>
-      <c r="I46" t="s">
-        <v>225</v>
+      <c r="I46" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
+        <f>IF(H46="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="5"/>
+        <f>IF(H46="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7418,27 +8091,27 @@
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I47" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(H47="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(H47="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -7448,27 +8121,27 @@
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>133</v>
+      <c r="E48" t="s">
+        <v>69</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
         <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
+        <f>IF(H48="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="5"/>
+        <f>IF(H48="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7480,123 +8153,119 @@
         <v>6</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" t="s">
+        <v>226</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f>IF(H49="In person",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f>IF(H49="Virtual",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="5"/>
+      <c r="I50" t="s">
+        <v>281</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f>IF(H50="In person",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>IF(H50="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51">
-        <f>SUM(M51:M61)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" t="s">
-        <v>166</v>
+        <v>296</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="H51" t="s">
         <v>140</v>
       </c>
-      <c r="I51" t="s">
-        <v>227</v>
+      <c r="I51" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" ref="N51:N58" si="6">IF(H51="In person",1,0)</f>
+        <f>IF(H51="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:O58" si="7">IF(H51="Virtual",1,0)</f>
+        <f>IF(H51="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="H52" t="s">
         <v>140</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="6"/>
+        <f>IF(H52="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I53" t="s">
-        <v>229</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="7"/>
+        <f>IF(H52="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7607,28 +8276,32 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
+      <c r="C54">
+        <f>SUM(M54:M64)</f>
+        <v>11</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="N54:N61" si="4">IF(H54="In person",1,0)</f>
+        <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="O54:O61" si="5">IF(H54="Virtual",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -7639,26 +8312,26 @@
         <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>295</v>
+        <v>175</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="H55" t="s">
         <v>140</v>
       </c>
-      <c r="I55" t="s">
-        <v>294</v>
+      <c r="I55" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7670,26 +8343,26 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H56" t="s">
         <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7701,27 +8374,27 @@
         <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>232</v>
+        <v>122</v>
+      </c>
+      <c r="I57" t="s">
+        <v>230</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -7731,27 +8404,27 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" t="s">
-        <v>148</v>
+      <c r="E58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="H58" t="s">
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7762,26 +8435,28 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>260</v>
+      <c r="E59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I59" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -7792,27 +8467,27 @@
         <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
-      </c>
-      <c r="I60" t="s">
-        <v>234</v>
+        <v>140</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f>IF(H60="In person",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O60">
-        <f>IF(H60="Virtual",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -7822,124 +8497,119 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>266</v>
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" t="s">
+        <v>148</v>
       </c>
       <c r="H61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" t="s">
+        <v>233</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H62" t="s">
         <v>122</v>
       </c>
-      <c r="I61" t="s">
-        <v>264</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <f>IF(H61="In person",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <f>IF(H61="Virtual",1,0)</f>
+      <c r="I62" t="s">
+        <v>257</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63">
-        <f>SUM(M63:M77)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>184</v>
+        <v>88</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>235</v>
+        <v>122</v>
+      </c>
+      <c r="I63" t="s">
+        <v>234</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" ref="N63:N77" si="8">IF(H63="In person",1,0)</f>
-        <v>0</v>
+        <f>IF(H63="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O63">
-        <f t="shared" ref="O63:O77" si="9">IF(H63="Virtual",1,0)</f>
-        <v>1</v>
+        <f>IF(H63="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="H64" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I64" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(H64="In person",1,0)</f>
+        <v>1</v>
       </c>
       <c r="O64">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H65" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" t="s">
-        <v>257</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
+        <f>IF(H64="Virtual",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -7949,27 +8619,31 @@
       <c r="B66" t="s">
         <v>16</v>
       </c>
+      <c r="C66">
+        <f>SUM(M66:M82)</f>
+        <v>17</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="H66" t="s">
         <v>140</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="8"/>
+        <f>IF(H66="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="9"/>
+        <f>IF(H66="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7981,26 +8655,26 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>17</v>
+        <v>83</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H67" t="s">
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="8"/>
+        <f>IF(H67="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="9"/>
+        <f>IF(H67="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8012,26 +8686,25 @@
         <v>16</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="H68" t="s">
         <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="8"/>
+        <f>IF(H68="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8043,26 +8716,26 @@
         <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>48</v>
+        <v>185</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H69" t="s">
         <v>140</v>
       </c>
-      <c r="I69" t="s">
-        <v>240</v>
+      <c r="I69" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="8"/>
+        <f>IF(H69="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="9"/>
+        <f>IF(H69="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8074,26 +8747,26 @@
         <v>16</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H70" t="s">
         <v>140</v>
       </c>
       <c r="I70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="8"/>
+        <f>IF(H70="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
+        <f>IF(H70="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8105,26 +8778,26 @@
         <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>24</v>
+        <v>85</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H71" t="s">
         <v>140</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>242</v>
+      <c r="I71" t="s">
+        <v>239</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="8"/>
+        <f>IF(H71="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
+        <f>IF(H71="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8136,26 +8809,26 @@
         <v>16</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H72" t="s">
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="8"/>
+        <f>IF(H72="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
+        <f>IF(H72="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8167,26 +8840,26 @@
         <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="H73" t="s">
         <v>140</v>
       </c>
-      <c r="I73" t="s">
-        <v>244</v>
+      <c r="I73" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="8"/>
+        <f>IF(H73="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="9"/>
+        <f>IF(H73="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8198,26 +8871,26 @@
         <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>190</v>
+        <v>92</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H74" t="s">
         <v>140</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>245</v>
+      <c r="I74" t="s">
+        <v>241</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="8"/>
+        <f>IF(H74="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="9"/>
+        <f>IF(H74="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8229,26 +8902,26 @@
         <v>16</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>146</v>
+        <v>25</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="H75" t="s">
         <v>140</v>
       </c>
-      <c r="I75" t="s">
-        <v>246</v>
+      <c r="I75" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="8"/>
+        <f>IF(H75="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="9"/>
+        <f>IF(H75="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8260,26 +8933,26 @@
         <v>16</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H76" t="s">
         <v>140</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>247</v>
+      <c r="I76" t="s">
+        <v>243</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="8"/>
+        <f>IF(H76="In person",1,0)</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="9"/>
+        <f>IF(H76="Virtual",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8291,191 +8964,408 @@
         <v>16</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s">
         <v>140</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>248</v>
+      <c r="I77" t="s">
+        <v>244</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="8"/>
+        <f>IF(H77="In person",1,0)</f>
         <v